--- a/configs/test_datasets.xlsx
+++ b/configs/test_datasets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
           <t>edge_histogram_mean</t>
         </is>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -545,6 +548,304 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>[2354 1004  362    1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
         </is>
       </c>
     </row>

--- a/configs/test_datasets.xlsx
+++ b/configs/test_datasets.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,10 +523,10 @@
       <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
@@ -849,6 +849,5352 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/configs/test_datasets.xlsx
+++ b/configs/test_datasets.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N268"/>
+  <dimension ref="A1:N338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6195,6 +6195,1488 @@
         </is>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>15.6925</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
+        <v>16.195</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>{0: 0.2, 1: 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">['[1.0, -1.0, 0.5, -2.3499999046325684]', '[1.0, -1.0, 1.5, -2.1500000953674316]', '[1.0, -1.0, 2.865999937057495, 0.5]', '[1.0, -1.0, 2.889400005340576, 1.0297000408172607]', '[1.0, -1.0, 3.232100009918213, 1.4329999685287476]', '[1.0, -1.0, 3.2600998878479004, -0.6739000082015991]', '[1.0, -1.0, 3.694200038909912, 0.27709999680519104]', '[1.0, -1.0, 3.7320001125335693, 1.5]', '[1.0, -1.0, 3.732100009918213, -1.4329999685287476]', '[1.0, -1.0, 4.0, 1.0]', '[1.0, -1.0, 4.232100009918213, 1.4329999685287476]', '[1.0, -1.0, 4.2600998878479, -0.6739000082015991]', '[1.0, -1.0, 4.5690999031066895, 0.27709999680519104]', '[1.0, -1.0, 4.598100185394287, -0.25]', '[1.0, -1.0, 5.464099884033203, -0.5]', '[1.0, -1.0, 5.464099884033203, -0.7842000126838684]', '[1.0, -1.0, 5.464099884033203, -1.0]', '[1.0, -1.0, 6.1905999183654785, 1.7073999643325806]', '[1.0, -1.0, 6.556700229644775, 0.34139999747276306]', '[1.0, 0.0, 0.375, 0.0]', '[1.0, 0.0, 0.5, -2.3499999046325684]', '[1.0, 0.0, 0.5, -4.349999904632568]', '[1.0, 0.0, 0.5, -6.349999904632568]', '[1.0, 0.0, 0.5, -8.350000381469727]', '[1.0, 0.0, 0.6428999900817871, -16.350000381469727]', '[1.0, 0.0, 0.666700005531311, -2.3499999046325684]', '[1.0, 0.0, 0.666700005531311, -6.349999904632568]', '[1.0, 0.0, 0.75, -20.350000381469727]', '[1.0, 0.0, 0.75, -8.350000381469727]', '[1.0, 0.0, 0.75, 0.0]', '[1.0, 0.0, 0.8999999761581421, -30.350000381469727]', '[1.0, 0.0, 1.0, -6.349999904632568]', '[1.0, 0.0, 1.25, -4.349999904632568]', '[1.0, 0.0, 1.5, -10.149999618530273]', '[1.0, 0.0, 1.5, -10.350000381469727]', '[1.0, 0.0, 1.5, -12.350000381469727]', '[1.0, 0.0, 1.5, -2.3499999046325684]', '[1.0, 0.0, 1.5, -4.150000095367432]', '[1.0, 0.0, 1.5, -4.349999904632568]', '[1.0, 0.0, 1.5, -6.150000095367432]', '[1.0, 0.0, 1.5, -8.149999618530273]', '[1.0, 0.0, 1.5, -8.350000381469727]', '[1.0, 0.0, 1.6875, -24.149999618530273]', '[1.0, 0.0, 1.6875, -26.149999618530273]', '[1.0, 0.0, 10.000699996948242, 6.783299922943115]', '[1.0, 0.0, 10.00160026550293, 8.176199913024902]', '[1.0, 0.0, 10.002900123596191, -0.43299999833106995]', '[1.0, 0.0, 10.016900062561035, 0.5907999873161316]', '[1.0, 0.0, 10.016900062561035, 1.5908000469207764]', '[1.0, 0.0, 10.0516996383667, 3.3773000240325928]', '[1.0, 0.0, 10.052800178527832, -7.656899929046631]', '[1.0, 0.0, 10.05780029296875, 6.271399974822998]', '[1.0, 0.0, 10.062199592590332, -0.16060000658035278]', '[1.0, 0.0, 10.062199592590332, -1.0]', '[1.0, 0.0, 10.062199592590332, -1.160599946975708]', '[1.0, 0.0, 10.062199592590332, -1.6739000082015991]', '[1.0, 0.0, 10.062199592590332, -1.75]', '[1.0, 0.0, 10.062199592590332, -1.910599946975708]', '[1.0, 0.0, 10.062199592590332, -2.5]', '[1.0, 0.0, 10.062199592590332, -2.75]', '[1.0, 0.0, 10.062199592590332, -3.5]', '[1.0, 0.0, 10.062199592590332, -3.6738998889923096]', '[1.0, 0.0, 10.062199592590332, 0.0]', '[1.0, 0.0, 10.062199592590332, 1.089400053024292]', '[1.0, 0.0, 10.062199592590332, 1.25]', '[1.0, 0.0, 10.062199592590332, 3.25]', '[1.0, 0.0, 10.092599868774414, 1.608199954032898]', '[1.0, 0.0, 10.100500106811523, 6.870699882507324]', '[1.0, 0.0, 10.135100364685059, -4.391600131988525]', '[1.0, 0.0, 10.136899948120117, -0.014000000432133675]', '[1.0, 0.0, 10.140000343322754, -7.939700126647949]', '[1.0, 0.0, 10.140000343322754, -8.93970012664795]', '[1.0, 0.0, 10.144399642944336, -10.459600448608398]', '[1.0, 0.0, 10.144399642944336, -11.459600448608398]', '[1.0, 0.0, 10.144399642944336, -8.089799880981445]', '[1.0, 0.0, 10.144399642944336, -9.089799880981445]', '[1.0, 0.0, 10.14490032196045, 6.62060022354126]', '[1.0, 0.0, 10.154600143432617, 4.2307000160217285]', '[1.0, 0.0, 10.160300254821777, -4.673900127410889]', '[1.0, 0.0, 10.160300254821777, 1.4514000415802002]', '[1.0, 0.0, 10.166600227355957, -0.38449999690055847]', '[1.0, 0.0, 10.1697998046875, 8.392399787902832]', '[1.0, 0.0, 10.17080020904541, 6.566999912261963]', '[1.0, 0.0, 10.185099601745605, -2.4937000274658203]', '[1.0, 0.0, 10.191800117492676, 6.886499881744385]', '[1.0, 0.0, 10.199199676513672, -1.6735999584197998]', '[1.0, 0.0, 10.215299606323242, -0.24549999833106995]', '[1.0, 0.0, 10.215299606323242, -1.2454999685287476]', '[1.0, 0.0, 10.219599723815918, 7.595300197601318]', '[1.0, 0.0, 10.226400375366211, -0.15189999341964722]', '[1.0, 0.0, 10.236100196838379, -1.3710999488830566]', '[1.0, 0.0, 10.265899658203125, -0.020899999886751175]', '[1.0, 0.0, 10.270899772644043, -0.5]', '[1.0, 0.0, 10.270899772644043, 3.6923999786376953]', '[1.0, 0.0, 10.270899772644043, 4.5584001541137695]', '[1.0, 0.0, 10.278800010681152, 2.4182000160217285]', '[1.0, 0.0, 10.28339958190918, -2.2397000789642334]', '[1.0, 0.0, 10.28339958190918, -3.2397000789642334]', '[1.0, 0.0, 10.299699783325195, 6.1006999015808105]', '[1.0, 0.0, 10.309300422668457, -5.523099899291992]', '[1.0, 0.0, 10.317500114440918, -0.4099999964237213]', '[1.0, 0.0, 10.317500114440918, -1.409999966621399]', '[1.0, 0.0, 10.317500114440918, 1.590000033378601]', '[1.0, 0.0, 10.318300247192383, 2.3649001121520996]', '[1.0, 0.0, 10.318300247192383, 2.821700096130371]', '[1.0, 0.0, 10.323699951171875, 0.7990999817848206]', '[1.0, 0.0, 10.323699951171875, 0.9036999940872192]', '[1.0, 0.0, 10.32409954071045, 8.589900016784668]', '[1.0, 0.0, 10.331100463867188, -1.2702000141143799]', '[1.0, 0.0, 10.347200393676758, 3.1205999851226807]', '[1.0, 0.0, 10.366299629211426, -2.43530011177063]', '[1.0, 0.0, 10.366299629211426, -3.43530011177063]', '[1.0, 0.0, 10.371999740600586, -0.6202999949455261]', '[1.0, 0.0, 10.371999740600586, -1.0247999429702759]', '[1.0, 0.0, 10.371999740600586, -1.620300054550171]', '[1.0, 0.0, 10.371999740600586, -2.0248000621795654]', '[1.0, 0.0, 10.371999740600586, 0.9751999974250793]', '[1.0, 0.0, 10.371999740600586, 1.379699945449829]', '[1.0, 0.0, 10.393099784851074, -4.367000102996826]', '[1.0, 0.0, 10.405400276184082, -2.2370998859405518]', '[1.0, 0.0, 10.405400276184082, 2.3268001079559326]', '[1.0, 0.0, 10.42389965057373, -5.724899768829346]', '[1.0, 0.0, 10.42389965057373, -6.724899768829346]', '[1.0, 0.0, 10.44279956817627, -2.9772000312805176]', '[1.0, 0.0, 10.444999694824219, -3.25219988822937]', '[1.0, 0.0, 10.44540023803711, -5.365600109100342]', '[1.0, 0.0, 10.446200370788574, 5.204899787902832]', '[1.0, 0.0, 10.470999717712402, -1.36489999294281]', '[1.0, 0.0, 10.470999717712402, -1.7316999435424805]', '[1.0, 0.0, 10.470999717712402, 3.9361000061035156]', '[1.0, 0.0, 10.472299575805664, -1.3495999574661255]', '[1.0, 0.0, 10.4822998046875, 2.7565999031066895]', '[1.0, 0.0, 10.485799789428711, 1.9979000091552734]', '[1.0, 0.0, 10.499300003051758, 0.7990999817848206]', '[1.0, 0.0, 10.499300003051758, 1.0082000494003296]', '[1.0, 0.0, 10.499300003051758, 1.1513999700546265]', '[1.0, 0.0, 10.499300003051758, 1.3082000017166138]', '[1.0, 0.0, 10.499300003051758, 1.6604000329971313]', '[1.0, 0.0, 10.499300003051758, 1.7127000093460083]', '[1.0, 0.0, 10.510899543762207, -1.163599967956543]', '[1.0, 0.0, 10.510899543762207, 2.5817999839782715]', '[1.0, 0.0, 10.510899543762207, 3.5817999839782715]', '[1.0, 0.0, 10.512499809265137, 0.8306000232696533]', '[1.0, 0.0, 10.532600402832031, 0.9815000295639038]', '[1.0, 0.0, 10.553299903869629, -4.129799842834473]', '[1.0, 0.0, 10.555100440979004, -3.5367000102996826]', '[1.0, 0.0, 10.561200141906738, -3.7397000789642334]', '[1.0, 0.0, 10.562199592590332, 2.134000062942505]', '[1.0, 0.0, 10.575499534606934, -4.243599891662598]', '[1.0, 0.0, 10.576499938964844, 9.305999755859375]', '[1.0, 0.0, 10.588000297546387, -7.283199787139893]', '[1.0, 0.0, 10.60319995880127, 3.4238998889923096]', '[1.0, 0.0, 10.60319995880127, 4.423900127410889]', '[1.0, 0.0, 10.60319995880127, 7.423900127410889]', '[1.0, 0.0, 10.631400108337402, 7.765399932861328]', '[1.0, 0.0, 10.632800102233887, -0.04740000143647194]', '[1.0, 0.0, 10.632800102233887, -0.15189999341964722]', '[1.0, 0.0, 10.63599967956543, -2.087399959564209]', '[1.0, 0.0, 10.636899948120117, -0.8799999952316284]', '[1.0, 0.0, 10.6427001953125, -0.04899999871850014]', '[1.0, 0.0, 10.6427001953125, -1.7319999933242798]', '[1.0, 0.0, 10.6427001953125, -2.0490000247955322]', '[1.0, 0.0, 10.6427001953125, -2.7320001125335693]', '[1.0, 0.0, 10.6427001953125, -3.0490000247955322]', '[1.0, 0.0, 10.6427001953125, 0.2680000066757202]', '[1.0, 0.0, 10.643099784851074, -0.1607999950647354]', '[1.0, 0.0, 10.649399757385254, -2.3338000774383545]', '[1.0, 0.0, 10.653599739074707, 0.9096999764442444]', '[1.0, 0.0, 10.654899597167969, 0.19179999828338623]', '[1.0, 0.0, 10.660200119018555, -0.25]', '[1.0, 0.0, 10.660200119018555, -0.3889999985694885]', '[1.0, 0.0, 10.660200119018555, -0.4106000065803528]', '[1.0, 0.0, 10.660200119018555, -0.5]', '[1.0, 0.0, 10.660200119018555, -0.6606000065803528]', '[1.0, 0.0, 10.660200119018555, -0.75]', '[1.0, 0.0, 10.660200119018555, -0.7979000210762024]', '[1.0, 0.0, 10.660200119018555, -1.0]', '[1.0, 0.0, 10.660200119018555, -1.25]', '[1.0, 0.0, 10.660200119018555, -1.3170000314712524]', '[1.0, 0.0, 10.660200119018555, -1.5]', '[1.0, 0.0, 10.660200119018555, -1.75]', '[1.0, 0.0, 10.660200119018555, -1.8170000314712524]', '[1.0, 0.0, 10.660200119018555, -2.0]', '[1.0, 0.0, 10.660200119018555, -2.316999912261963]', '[1.0, 0.0, 10.660200119018555, -2.3889999389648438]', '[1.0, 0.0, 10.660200119018555, -2.5]', '[1.0, 0.0, 10.660200119018555, -2.75]', '[1.0, 0.0, 10.660200119018555, -2.7978999614715576]', '[1.0, 0.0, 10.660200119018555, -3.0875000953674316]', '[1.0, 0.0, 10.660200119018555, -3.0]', '[1.0, 0.0, 10.660200119018555, -3.25]', '[1.0, 0.0, 10.660200119018555, -3.5]', '[1.0, 0.0, 10.660200119018555, -4.0]', '[1.0, 0.0, 10.660200119018555, 0.0]', '[1.0, 0.0, 10.660200119018555, 0.25]', '[1.0, 0.0, 10.660200119018555, 0.3393999934196472]', '[1.0, 0.0, 10.660200119018555, 0.5]', '[1.0, 0.0, 10.660200119018555, 0.6830000281333923]', '[1.0, 0.0, 10.660200119018555, 1.0]', '[1.0, 0.0, 10.660200119018555, 1.5670000314712524]', '[1.0, 0.0, 10.660200119018555, 2.0]', '[1.0, 0.0, 10.660200119018555, 3.566999912261963]', '[1.0, 0.0, 10.660200119018555, 4.482900142669678]', '[1.0, 0.0, 10.660300254821777, -0.06700000166893005]', '[1.0, 0.0, 10.660300254821777, -0.08749999850988388]', '[1.0, 0.0, 10.660300254821777, -0.25]', '[1.0, 0.0, 10.660300254821777, -0.5170999765396118]', '[1.0, 0.0, 10.660300254821777, -0.5]', '[1.0, 0.0, 10.660300254821777, -0.75]', '[1.0, 0.0, 10.660300254821777, -1.0670000314712524]', '[1.0, 0.0, 10.660300254821777, -1.0]', '[1.0, 0.0, 10.660300254821777, -1.5170999765396118]', '[1.0, 0.0, 10.660300254821777, -1.5670000314712524]', '[1.0, 0.0, 10.660300254821777, -1.5]', '[1.0, 0.0, 10.660300254821777, -1.660599946975708]', '[1.0, 0.0, 10.660300254821777, -1.75]', '[1.0, 0.0, 10.660300254821777, -2.0]', '[1.0, 0.0, 10.660300254821777, -2.25]', '[1.0, 0.0, 10.660300254821777, -2.410599946975708]', '[1.0, 0.0, 10.660300254821777, -2.5171000957489014]', '[1.0, 0.0, 10.660300254821777, -2.5]', '[1.0, 0.0, 10.660300254821777, -3.566999912261963]', '[1.0, 0.0, 10.660300254821777, -3.5]', '[1.0, 0.0, 10.660300254821777, -4.566999912261963]', '[1.0, 0.0, 10.660300254821777, 0.0]', '[1.0, 0.0, 10.660300254821777, 0.25]', '[1.0, 0.0, 10.660300254821777, 0.4828999936580658]', '[1.0, 0.0, 10.660300254821777, 0.5669999718666077]', '[1.0, 0.0, 10.660300254821777, 0.5]', '[1.0, 0.0, 10.660300254821777, 0.6830000281333923]', '[1.0, 0.0, 10.660300254821777, 0.75]', '[1.0, 0.0, 10.660300254821777, 0.9330000281333923]', '[1.0, 0.0, 10.660300254821777, 1.0]', '[1.0, 0.0, 10.660300254821777, 1.25]', '[1.0, 0.0, 10.660300254821777, 1.5670000314712524]', '[1.0, 0.0, 10.660300254821777, 1.5]', '[1.0, 0.0, 10.660300254821777, 1.9329999685287476]', '[1.0, 0.0, 10.660300254821777, 2.0]', '[1.0, 0.0, 10.660300254821777, 2.25]', '[1.0, 0.0, 10.660300254821777, 2.5]', '[1.0, 0.0, 10.660300254821777, 2.75]', '[1.0, 0.0, 10.660300254821777, 2.933000087738037]', '[1.0, 0.0, 10.660300254821777, 3.0]', '[1.0, 0.0, 10.660300254821777, 3.25]', '[1.0, 0.0, 10.660300254821777, 3.316999912261963]', '[1.0, 0.0, 10.660300254821777, 3.5]', '[1.0, 0.0, 10.660300254821777, 4.0]', '[1.0, 0.0, 10.660300254821777, 4.25]', '[1.0, 0.0, 10.660300254821777, 4.5]', '[1.0, 0.0, 10.660300254821777, 5.25]', '[1.0, 0.0, 10.660300254821777, 5.75]', '[1.0, 0.0, 10.660300254821777, 6.0]', '[1.0, 0.0, 10.660300254821777, 7.566999912261963]', '[1.0, 0.0, 10.660300254821777, 7.75]', '[1.0, 0.0, 10.6697998046875, 7.526400089263916]', '[1.0, 0.0, 10.670599937438965, -1.0717999935150146]', '[1.0, 0.0, 10.67080020904541, 7.433000087738037]', '[1.0, 0.0, 10.678799629211426, 1.5261000394821167]', '[1.0, 0.0, 10.680299758911133, 0.7990999817848206]', '[1.0, 0.0, 10.685099601745605, -0.954800009727478]', '[1.0, 0.0, 10.68970012664795, -3.135200023651123]', '[1.0, 0.0, 10.68970012664795, -3.2397000789642334]', '[1.0, 0.0, 10.689800262451172, -2.135200023651123]', '[1.0, 0.0, 10.689800262451172, -2.2397000789642334]', '[1.0, 0.0, 10.69950008392334, -5.967800140380859]', '[1.0, 0.0, 10.707799911499023, -0.801800012588501]', '[1.0, 0.0, 10.707799911499023, -0.887499988079071]', '[1.0, 0.0, 10.707799911499023, 9.08650016784668]', '[1.0, 0.0, 10.720999717712402, -2.8396999835968018]', '[1.0, 0.0, 10.721500396728516, 0.7148000001907349]', '[1.0, 0.0, 10.742400169372559, 5.039700031280518]', '[1.0, 0.0, 10.748100280761719, -5.482900142669678]', '[1.0, 0.0, 10.748900413513184, 1.8930000066757202]', '[1.0, 0.0, 10.748900413513184, 2.8929998874664307]', '[1.0, 0.0, 10.768799781799316, 0.06620000302791595]', '[1.0, 0.0, 10.770899772644043, 2.8264000415802]', '[1.0, 0.0, 10.770899772644043, 3.6923999786376953]', '[1.0, 0.0, 10.770899772644043, 4.5584001541137695]', '[1.0, 0.0, 10.770899772644043, 5.4243998527526855]', '[1.0, 0.0, 10.781200408935547, -5.253900051116943]', '[1.0, 0.0, 10.79419994354248, -0.25]', '[1.0, 0.0, 10.79419994354248, -1.25]', '[1.0, 0.0, 10.79419994354248, -3.25]', '[1.0, 0.0, 10.838800430297852, 3.3415000438690186]', '[1.0, 0.0, 10.864800453186035, 1.1887999773025513]', '[1.0, 0.0, 10.865599632263184, 0.6111999750137329]', '[1.0, 0.0, 10.866299629211426, -0.8964999914169312]', '[1.0, 0.0, 10.876899719238281, -0.10360000282526016]', '[1.0, 0.0, 10.876899719238281, -2.4110000133514404]', '[1.0, 0.0, 10.876899719238281, -2.4967000484466553]', '[1.0, 0.0, 10.876899719238281, 7.477399826049805]', '[1.0, 0.0, 10.88290023803711, 0.09080000221729279]', '[1.0, 0.0, 10.906000137329102, -1.6196000576019287]', '[1.0, 0.0, 10.906000137329102, 1.7648999691009521]', '[1.0, 0.0, 10.906000137329102, 2.012700080871582]', '[1.0, 0.0, 10.906000137329102, 2.1171998977661133]', '[1.0, 0.0, 10.906000137329102, 3.9307000637054443]', '[1.0, 0.0, 10.90839958190918, 7.652599811553955]', '[1.0, 0.0, 10.913100242614746, 8.724900245666504]', '[1.0, 0.0, 10.91569995880127, 2.4837000370025635]', '[1.0, 0.0, 10.917699813842773, 3.8773000240325928]', '[1.0, 0.0, 10.923999786376953, 1.457200050354004]', '[1.0, 0.0, 10.928199768066406, -1.5]', '[1.0, 0.0, 10.928199768066406, -1.660599946975708]', '[1.0, 0.0, 10.928199768066406, -2.0]', '[1.0, 0.0, 10.928199768066406, -2.410599946975708]', '[1.0, 0.0, 10.928199768066406, -4.0]', '[1.0, 0.0, 10.928199768066406, 0.3393999934196472]', '[1.0, 0.0, 10.928199768066406, 0.5]', '[1.0, 0.0, 10.928199768066406, 1.75]', '[1.0, 0.0, 10.928199768066406, 2.75]', '[1.0, 0.0, 10.93690013885498, 0.5066999793052673]', '[1.0, 0.0, 10.963600158691406, 3.642899990081787]', '[1.0, 0.0, 10.963899612426758, 3.2730000019073486]', '[1.0, 0.0, 10.968199729919434, 5.068699836730957]', '[1.0, 0.0, 10.969300270080566, -4.086100101470947]', '[1.0, 0.0, 10.975700378417969, -2.0806000232696533]', '[1.0, 0.0, 10.978899955749512, 0.39579999446868896]', '[1.0, 0.0, 10.978899955749512, 1.395799994468689]', '[1.0, 0.0, 11.002900123596191, -0.43299999833106995]', '[1.0, 0.0, 11.005999565124512, -10.43970012664795]', '[1.0, 0.0, 11.005999565124512, -9.43970012664795]', '[1.0, 0.0, 11.01039981842041, -10.589900016784668]', '[1.0, 0.0, 11.01039981842041, -11.959600448608398]', '[1.0, 0.0, 11.01039981842041, -12.959600448608398]', '[1.0, 0.0, 11.01039981842041, -9.589900016784668]', '[1.0, 0.0, 11.02340030670166, -0.33500000834465027]', '[1.0, 0.0, 11.02340030670166, 0.424699991941452]', '[1.0, 0.0, 11.03969955444336, 6.082200050354004]', '[1.0, 0.0, 11.077699661254883, 0.45260000228881836]', '[1.0, 0.0, 11.077699661254883, 2.1847000122070312]', '[1.0, 0.0, 11.081399917602539, -1.7454999685287476]', '[1.0, 0.0, 11.081399917602539, 0.25450000166893005]', '[1.0, 0.0, 11.0871000289917, 0.19920000433921814]', '[1.0, 0.0, 11.0871000289917, 0.9036999940872192]', '[1.0, 0.0, 11.087400436401367, -3.236599922180176]', '[1.0, 0.0, 11.097700119018555, 6.795899868011475]', '[1.0, 0.0, 11.1318998336792, 0.47909998893737793]', '[1.0, 0.0, 11.144800186157227, -0.4713999927043915]', '[1.0, 0.0, 11.149399757385254, -3.7397000789642334]', '[1.0, 0.0, 11.160300254821777, 1.4514000415802002]', '[1.0, 0.0, 11.163900375366211, -4.330100059509277]', '[1.0, 0.0, 11.170000076293945, 7.094399929046631]', '[1.0, 0.0, 11.179400444030762, -2.823699951171875]', '[1.0, 0.0, 11.183500289916992, 0.09000000357627869]', '[1.0, 0.0, 11.183500289916992, 1.090000033378601]', '[1.0, 0.0, 11.183600425720215, -3.058799982070923]', '[1.0, 0.0, 11.185099601745605, -2.4937000274658203]', '[1.0, 0.0, 11.190199851989746, 10.089799880981445]', '[1.0, 0.0, 11.190400123596191, -3.00570011138916]', '[1.0, 0.0, 11.19950008392334, 1.030500054359436]', '[1.0, 0.0, 11.206299781799316, 0.06700000166893005]', '[1.0, 0.0, 11.206299781799316, 1.0670000314712524]', '[1.0, 0.0, 11.214200019836426, -0.6956999897956848]', '[1.0, 0.0, 11.214200019836426, -1.062600016593933]', '[1.0, 0.0, 11.217499732971191, 6.701499938964844]', '[1.0, 0.0, 11.231800079345703, -3.8222999572753906]', '[1.0, 0.0, 11.236100196838379, -0.704200029373169]', '[1.0, 0.0, 11.23799991607666, -0.12030000239610672]', '[1.0, 0.0, 11.23799991607666, -0.5248000025749207]', '[1.0, 0.0, 11.23799991607666, -2.120300054550171]', '[1.0, 0.0, 11.23799991607666, -2.5248000621795654]', '[1.0, 0.0, 11.284099578857422, 3.151400089263916]', '[1.0, 0.0, 11.289899826049805, -5.224899768829346]', '[1.0, 0.0, 11.289899826049805, -7.224899768829346]', '[1.0, 0.0, 11.289899826049805, -8.224900245666504]', '[1.0, 0.0, 11.305899620056152, 1.4393999576568604]', '[1.0, 0.0, 11.312800407409668, 2.469399929046631]', '[1.0, 0.0, 11.31309986114502, 2.861799955368042]', '[1.0, 0.0, 11.321499824523926, 7.0416998863220215]', '[1.0, 0.0, 11.336400032043457, -5.8196001052856445]', '[1.0, 0.0, 11.361100196838379, -2.2493999004364014]', '[1.0, 0.0, 11.376899719238281, -1.5448999404907227]', '[1.0, 0.0, 11.376899719238281, -1.6306999921798706]', '[1.0, 0.0, 11.376899719238281, 8.343400001525879]', '[1.0, 0.0, 11.383500099182129, -2.0292000770568848]', '[1.0, 0.0, 11.383500099182129, 2.1189000606536865]', '[1.0, 0.0, 11.412199974060059, 4.946000099182129]', '[1.0, 0.0, 11.421099662780762, -3.0367000102996826]', '[1.0, 0.0, 11.422100067138672, 3.6270999908447266]', '[1.0, 0.0, 11.43690013885498, 2.3069000244140625]', '[1.0, 0.0, 11.452899932861328, 4.251100063323975]', '[1.0, 0.0, 11.453399658203125, -0.19779999554157257]', '[1.0, 0.0, 11.462300300598145, -1.5240999460220337]', '[1.0, 0.0, 11.462599754333496, 1.497499942779541]', '[1.0, 0.0, 11.464699745178223, 0.04569999873638153]', '[1.0, 0.0, 11.477800369262695, 11.190099716186523]', '[1.0, 0.0, 11.479000091552734, 8.04539966583252]', '[1.0, 0.0, 11.490599632263184, -5.356100082397461]', '[1.0, 0.0, 11.493800163269043, -2.4286000728607178]', '[1.0, 0.0, 11.493800163269043, 0.9036999940872192]', '[1.0, 0.0, 11.493800163269043, 1.2559000253677368]', '[1.0, 0.0, 11.493800163269043, 1.3082000017166138]', '[1.0, 0.0, 11.493800163269043, 1.4127000570297241]', '[1.0, 0.0, 11.493800163269043, 1.7648999691009521]', '[1.0, 0.0, 11.493800163269043, 3.1217000484466553]', '[1.0, 0.0, 11.502900123596191, 0.43299999833106995]', '[1.0, 0.0, 11.50879955291748, -0.23199999332427979]', '[1.0, 0.0, 11.50879955291748, -0.5490000247955322]', '[1.0, 0.0, 11.50879955291748, -1.2319999933242798]', '[1.0, 0.0, 11.50879955291748, -1.5490000247955322]', '[1.0, 0.0, 11.50879955291748, -3.5490000247955322]', '[1.0, 0.0, 11.50879955291748, -4.23199987411499]', '[1.0, 0.0, 11.526200294494629, -0.8889999985694885]', '[1.0, 0.0, 11.526200294494629, -2.25]', '[1.0, 0.0, 11.526200294494629, -3.25]', '[1.0, 0.0, 11.526200294494629, -4.25]', '[1.0, 0.0, 11.526200294494629, -4.75]', '[1.0, 0.0, 11.526200294494629, -5.75]', '[1.0, 0.0, 11.526300430297852, -0.06700000166893005]', '[1.0, 0.0, 11.526300430297852, -0.16060000658035278]', '[1.0, 0.0, 11.526300430297852, -0.25]', '[1.0, 0.0, 11.526300430297852, -0.31700000166893005]', '[1.0, 0.0, 11.526300430297852, -0.5669999718666077]', '[1.0, 0.0, 11.526300430297852, -0.5]', '[1.0, 0.0, 11.526300430297852, -0.75]', '[1.0, 0.0, 11.526300430297852, -0.8169999718666077]', '[1.0, 0.0, 11.526300430297852, -0.9106000065803528]', '[1.0, 0.0, 11.526300430297852, -1.0]', '[1.0, 0.0, 11.526300430297852, -1.25]', '[1.0, 0.0, 11.526300430297852, -1.2978999614715576]', '[1.0, 0.0, 11.526300430297852, -1.587499976158142]', '[1.0, 0.0, 11.526300430297852, -1.5]', '[1.0, 0.0, 11.526300430297852, -1.75]', '[1.0, 0.0, 11.526300430297852, -1.910599946975708]', '[1.0, 0.0, 11.526300430297852, -2.066999912261963]', '[1.0, 0.0, 11.526300430297852, -2.0]', '[1.0, 0.0, 11.526300430297852, -2.160599946975708]', '[1.0, 0.0, 11.526300430297852, -2.2978999614715576]', '[1.0, 0.0, 11.526300430297852, -2.5]', '[1.0, 0.0, 11.526300430297852, -3.066999912261963]', '[1.0, 0.0, 11.526300430297852, -3.0]', '[1.0, 0.0, 11.526300430297852, -3.25]', '[1.0, 0.0, 11.526300430297852, -4.0]', '[1.0, 0.0, 11.526300430297852, 0.08940000087022781]', '[1.0, 0.0, 11.526300430297852, 0.0]', '[1.0, 0.0, 11.526300430297852, 0.18299999833106995]', '[1.0, 0.0, 11.526300430297852, 0.25]', '[1.0, 0.0, 11.526300430297852, 0.43299999833106995]', '[1.0, 0.0, 11.526300430297852, 0.5]', '[1.0, 0.0, 11.526300430297852, 0.6830000281333923]', '[1.0, 0.0, 11.526300430297852, 0.75]', '[1.0, 0.0, 11.526300430297852, 0.8393999934196472]', '[1.0, 0.0, 11.526300430297852, 0.9330000281333923]', '[1.0, 0.0, 11.526300430297852, 1.0670000314712524]', '[1.0, 0.0, 11.526300430297852, 1.0]', '[1.0, 0.0, 11.526300430297852, 1.1829999685287476]', '[1.0, 0.0, 11.526300430297852, 1.25]', '[1.0, 0.0, 11.526300430297852, 1.4329999685287476]', '[1.0, 0.0, 11.526300430297852, 1.5670000314712524]', '[1.0, 0.0, 11.526300430297852, 1.5]', '[1.0, 0.0, 11.526300430297852, 1.75]', '[1.0, 0.0, 11.526300430297852, 2.066999912261963]', '[1.0, 0.0, 11.526300430297852, 2.0]', '[1.0, 0.0, 11.526300430297852, 2.183000087738037]', '[1.0, 0.0, 11.526300430297852, 2.25]', '[1.0, 0.0, 11.526300430297852, 2.5]', '[1.0, 0.0, 11.526300430297852, 2.75]', '[1.0, 0.0, 11.526300430297852, 2.9828999042510986]', '[1.0, 0.0, 11.526300430297852, 3.066999912261963]', '[1.0, 0.0, 11.526300430297852, 3.0]', '[1.0, 0.0, 11.526300430297852, 3.433000087738037]', '[1.0, 0.0, 11.526300430297852, 3.5]', '[1.0, 0.0, 11.526300430297852, 3.75]', '[1.0, 0.0, 11.526300430297852, 3.9828999042510986]', '[1.0, 0.0, 11.526300430297852, 4.066999912261963]', '[1.0, 0.0, 11.526300430297852, 4.5]', '[1.0, 0.0, 11.526300430297852, 5.066999912261963]', '[1.0, 0.0, 11.526300430297852, 5.5]', '[1.0, 0.0, 11.526300430297852, 5.75]', '[1.0, 0.0, 11.526300430297852, 6.066999912261963]', '[1.0, 0.0, 11.526300430297852, 6.0]', '[1.0, 0.0, 11.526300430297852, 6.25]', '[1.0, 0.0, 11.526300430297852, 7.066999912261963]', '[1.0, 0.0, 11.526300430297852, 7.0]', '[1.0, 0.0, 11.526300430297852, 7.25]', '[1.0, 0.0, 11.526300430297852, 8.75]', '[1.0, 0.0, 11.526399612426758, 9.75]', '[1.0, 0.0, 11.555800437927246, -3.635200023651123]', '[1.0, 0.0, 11.555800437927246, -3.7397000789642334]', '[1.0, 0.0, 11.566900253295898, -0.5435000061988831]', '[1.0, 0.0, 11.571900367736816, 1.895900011062622]', '[1.0, 0.0, 11.5871000289917, -1.3396999835968018]', '[1.0, 0.0, 11.5871000289917, -4.339700222015381]', '[1.0, 0.0, 11.590299606323242, -2.672600030899048]', '[1.0, 0.0, 11.591099739074707, -2.5302999019622803]', '[1.0, 0.0, 11.592300415039062, 1.1194000244140625]', '[1.0, 0.0, 11.611200332641602, 2.706399917602539]', '[1.0, 0.0, 11.611300468444824, -0.20800000429153442]', '[1.0, 0.0, 11.611300468444824, -1.8260999917984009]', '[1.0, 0.0, 11.636899948120117, -0.8799999952316284]', '[1.0, 0.0, 11.644200325012207, 4.845600128173828]', '[1.0, 0.0, 11.644800186157227, -1.337499976158142]', '[1.0, 0.0, 11.64490032196045, -5.97629976272583]', '[1.0, 0.0, 11.660200119018555, -1.75]', '[1.0, 0.0, 11.660300254821777, 0.25]', '[1.0, 0.0, 11.660300254821777, 0.5]', '[1.0, 0.0, 11.660300254821777, 1.5]', '[1.0, 0.0, 11.66100025177002, 7.622200012207031]', '[1.0, 0.0, 11.670999526977539, 0.6341000199317932]', '[1.0, 0.0, 11.670999526977539, 2.5659000873565674]', '[1.0, 0.0, 11.670999526977539, 3.98009991645813]', '[1.0, 0.0, 11.67490005493164, 0.9036999940872192]', '[1.0, 0.0, 11.692500114440918, 1.1678999662399292]', '[1.0, 0.0, 11.69260025024414, -1.0781999826431274]', '[1.0, 0.0, 11.717499732971191, 8.240400314331055]', '[1.0, 0.0, 11.717499732971191, 9.240400314331055]', '[1.0, 0.0, 11.743599891662598, 3.8131000995635986]', '[1.0, 0.0, 11.74370002746582, -3.723400115966797]', '[1.0, 0.0, 11.748100280761719, 2.2604000568389893]', '[1.0, 0.0, 11.770899772644043, 2.8264000415802]', '[1.0, 0.0, 11.770899772644043, 3.6923999786376953]', '[1.0, 0.0, 11.770899772644043, 4.5584001541137695]', '[1.0, 0.0, 11.770899772644043, 5.4243998527526855]', '[1.0, 0.0, 11.772899627685547, -3.3027000427246094]', '[1.0, 0.0, 11.783699989318848, 5.377299785614014]', '[1.0, 0.0, 11.79419994354248, -0.16060000658035278]', '[1.0, 0.0, 11.79419994354248, -0.9106000065803528]', '[1.0, 0.0, 11.79419994354248, -1.0]', '[1.0, 0.0, 11.79419994354248, -1.160599946975708]', '[1.0, 0.0, 11.79419994354248, -1.910599946975708]', '[1.0, 0.0, 11.79419994354248, -2.5]', '[1.0, 0.0, 11.79419994354248, -3.5]', '[1.0, 0.0, 11.79419994354248, 0.0]', '[1.0, 0.0, 11.79419994354248, 0.8393999934196472]', '[1.0, 0.0, 11.79419994354248, 2.0]', '[1.0, 0.0, 11.79419994354248, 3.0]', '[1.0, 0.0, 11.844900131225586, -0.10419999808073044]', '[1.0, 0.0, 11.844900131225586, 1.895799994468689]', '[1.0, 0.0, 11.876500129699707, -13.459600448608398]', '[1.0, 0.0, 11.876500129699707, -14.459600448608398]', '[1.0, 0.0, 11.888199806213379, 6.3719000816345215]', '[1.0, 0.0, 11.90060043334961, 1.6604000329971313]', '[1.0, 0.0, 11.90060043334961, 2.1171998977661133]', '[1.0, 0.0, 11.920299530029297, -2.777100086212158]', '[1.0, 0.0, 11.920299530029297, -4.395199775695801]', '[1.0, 0.0, 11.929800033569336, 1.600000023841858]', '[1.0, 0.0, 11.939000129699707, 12.911399841308594]', '[1.0, 0.0, 11.947400093078613, -0.24549999833106995]', '[1.0, 0.0, 11.947400093078613, -1.2454999685287476]', '[1.0, 0.0, 11.947400093078613, 0.7544999718666077]', '[1.0, 0.0, 11.953200340270996, 3.8945999145507812]', '[1.0, 0.0, 11.953399658203125, -1.7366000413894653]', '[1.0, 0.0, 11.953399658203125, -4.736599922180176]', '[1.0, 0.0, 11.954000473022461, -5.025199890136719]', '[1.0, 0.0, 11.977800369262695, 10.32409954071045]', '[1.0, 0.0, 12.010899543762207, 0.028599999845027924]', '[1.0, 0.0, 12.031700134277344, 6.1006999015808105]', '[1.0, 0.0, 12.05270004272461, -2.77239990234375]', '[1.0, 0.0, 12.05270004272461, 2.8620998859405518]', '[1.0, 0.0, 12.05620002746582, 8.589799880981445]', '[1.0, 0.0, 12.07229995727539, -0.43299999833106995]', '[1.0, 0.0, 12.07229995727539, 1.5670000314712524]', '[1.0, 0.0, 12.077699661254883, 0.45260000228881836]', '[1.0, 0.0, 12.081600189208984, 0.44690001010894775]', '[1.0, 0.0, 12.081600189208984, 0.9559000134468079]', '[1.0, 0.0, 12.081600189208984, 1.0082000494003296]', '[1.0, 0.0, 12.0871000289917, 0.19920000433921814]', '[1.0, 0.0, 12.104100227355957, -0.6202999949455261]', '[1.0, 0.0, 12.104100227355957, -1.0247999429702759]', '[1.0, 0.0, 12.104100227355957, -1.620300054550171]', '[1.0, 0.0, 12.104100227355957, -2.0248000621795654]', '[1.0, 0.0, 12.12279987335205, -4.276299953460693]', '[1.0, 0.0, 12.12279987335205, 1.523800015449524]', '[1.0, 0.0, 12.126399993896484, -2.1565001010894775]', '[1.0, 0.0, 12.136300086975098, 5.106100082397461]', '[1.0, 0.0, 12.136899948120117, -1.7460999488830566]', '[1.0, 0.0, 12.155900001525879, -8.724900245666504]', '[1.0, 0.0, 12.159700393676758, -4.6128997802734375]', '[1.0, 0.0, 12.165200233459473, -1.004699945449829]', '[1.0, 0.0, 12.165200233459473, -1.3716000318527222]', '[1.0, 0.0, 12.165200233459473, 4.296199798583984]', '[1.0, 0.0, 12.175100326538086, -5.275000095367432]', '[1.0, 0.0, 12.177000045776367, -1.0428999662399292]', '[1.0, 0.0, 12.180000305175781, 1.6376999616622925]', '[1.0, 0.0, 12.19909954071045, -1.0169999599456787]', '[1.0, 0.0, 12.2298002243042, 1.0566999912261963]', '[1.0, 0.0, 12.253100395202637, 6.728499889373779]', '[1.0, 0.0, 12.258299827575684, -3.25]', '[1.0, 0.0, 12.26259994506836, 0.09459999948740005]', '[1.0, 0.0, 12.270899772644043, 3.6923999786376953]', '[1.0, 0.0, 12.270899772644043, 4.5584001541137695]', '[1.0, 0.0, 12.278200149536133, -1.1217000484466553]', '[1.0, 0.0, 12.288700103759766, -1.277400016784668]', '[1.0, 0.0, 12.330699920654297, 0.5457000136375427]', '[1.0, 0.0, 12.354100227355957, -2.027100086212158]', '[1.0, 0.0, 12.35569953918457, -2.14490008354187]', '[1.0, 0.0, 12.360300064086914, 0.06530000269412994]', '[1.0, 0.0, 12.363200187683105, -1.957900047302246]', '[1.0, 0.0, 12.374799728393555, -0.04899999871850014]', '[1.0, 0.0, 12.374799728393555, -1.7319999933242798]', '[1.0, 0.0, 12.374799728393555, -2.0490000247955322]', '[1.0, 0.0, 12.374799728393555, -3.0490000247955322]', '[1.0, 0.0, 12.378100395202637, 3.2730000019073486]', '[1.0, 0.0, 12.392200469970703, -4.75]', '[1.0, 0.0, 12.392200469970703, -5.75]', '[1.0, 0.0, 12.39229965209961, -0.25]', '[1.0, 0.0, 12.39229965209961, -0.4106000065803528]', '[1.0, 0.0, 12.39229965209961, -0.5669999718666077]', '[1.0, 0.0, 12.39229965209961, -0.5]', '[1.0, 0.0, 12.39229965209961, -0.6606000065803528]', '[1.0, 0.0, 12.39229965209961, -0.75]', '[1.0, 0.0, 12.39229965209961, -0.8169999718666077]', '[1.0, 0.0, 12.39229965209961, -1.0]', '[1.0, 0.0, 12.39229965209961, -1.25]', '[1.0, 0.0, 12.39229965209961, -1.5]', '[1.0, 0.0, 12.39229965209961, -1.660599946975708]', '[1.0, 0.0, 12.39229965209961, -1.75]', '[1.0, 0.0, 12.39229965209961, -2.0]', '[1.0, 0.0, 12.39229965209961, -2.3889999389648438]', '[1.0, 0.0, 12.39229965209961, -2.410599946975708]', '[1.0, 0.0, 12.39229965209961, -2.5]', '[1.0, 0.0, 12.39229965209961, -2.75]', '[1.0, 0.0, 12.39229965209961, -4.25]', '[1.0, 0.0, 12.39229965209961, -5.25]', '[1.0, 0.0, 12.39229965209961, -6.25]', '[1.0, 0.0, 12.39229965209961, 0.0]', '[1.0, 0.0, 12.39229965209961, 0.25]', '[1.0, 0.0, 12.39229965209961, 0.5893999934196472]', '[1.0, 0.0, 12.39229965209961, 0.5]', '[1.0, 0.0, 12.39229965209961, 0.6830000281333923]', '[1.0, 0.0, 12.39229965209961, 0.75]', '[1.0, 0.0, 12.39229965209961, 1.0]', '[1.0, 0.0, 12.39229965209961, 1.1829999685287476]', '[1.0, 0.0, 12.39229965209961, 1.25]', '[1.0, 0.0, 12.39229965209961, 1.339400053024292]', '[1.0, 0.0, 12.39229965209961, 1.4329999685287476]', '[1.0, 0.0, 12.39229965209961, 1.5670000314712524]', '[1.0, 0.0, 12.39229965209961, 1.5]', '[1.0, 0.0, 12.39229965209961, 1.75]', '[1.0, 0.0, 12.39229965209961, 1.9329999685287476]', '[1.0, 0.0, 12.39229965209961, 2.0]', '[1.0, 0.0, 12.39229965209961, 2.25]', '[1.0, 0.0, 12.39229965209961, 2.316999912261963]', '[1.0, 0.0, 12.39229965209961, 2.4830000400543213]', '[1.0, 0.0, 12.39229965209961, 2.566999912261963]', '[1.0, 0.0, 12.39229965209961, 2.5]', '[1.0, 0.0, 12.39229965209961, 2.683000087738037]', '[1.0, 0.0, 12.39229965209961, 2.75]', '[1.0, 0.0, 12.39229965209961, 2.933000087738037]', '[1.0, 0.0, 12.39229965209961, 3.0]', '[1.0, 0.0, 12.39229965209961, 3.316999912261963]', '[1.0, 0.0, 12.39229965209961, 3.5]', '[1.0, 0.0, 12.39229965209961, 4.25]', '[1.0, 0.0, 12.392399787902832, 10.25]', '[1.0, 0.0, 12.392399787902832, 4.25]', '[1.0, 0.0, 12.392399787902832, 5.25]', '[1.0, 0.0, 12.392399787902832, 8.25]', '[1.0, 0.0, 12.396100044250488, -0.7519000172615051]', '[1.0, 0.0, 12.401599884033203, -3.389899969100952]', '[1.0, 0.0, 12.412799835205078, -4.466599941253662]', '[1.0, 0.0, 12.412799835205078, 4.556300163269043]', '[1.0, 0.0, 12.426300048828125, 6.599299907684326]', '[1.0, 0.0, 12.445199966430664, -1.2336000204086304]', '[1.0, 0.0, 12.453100204467773, -2.8396999835968018]', '[1.0, 0.0, 12.453100204467773, -3.8396999835968018]', '[1.0, 0.0, </t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>['0', '1', '2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>[23835  8375   180]</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>{0: 0.8333333333333334, 1: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>['[-149.0, 6.973113, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.9733, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973461, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011633, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011736, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.012369, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-5.0, 11.366548, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.423346, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.429201, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.477434, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[1.0, 0.0, 0.0, -0.8, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0]', '[1.0, 0.0, 1.6, -0.97, 0.062, 9.2, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0]', '[1.0, 0.0, 3.95, -1.1, 0.18, 10.5, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0]', '[1.0, 0.0, 4.0, 1.81, 0.186, 5.2, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0]', '[10.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 0.0, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 0.0, 23.84, 0.53, 1.089, 78.8, 6.0, 2.0, 2.0, 1.0, 5.0, 4.0, 4.0, 5.0, 1.0, 6.0, 2.0, 2.0]', '[10.0, 0.0, 25.5, 3.68, 1.166, 73.0, 4.0, 6.0, 0.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 3.0, 7.0, 0.0]', '[10.0, 0.0, 29.13, -0.5, 1.313, 85.2, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 0.0, 29.3, -1.99, 1.314, 83.4, 6.0, 2.0, 2.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 6.0, 2.0, 2.0]', '[10.0, 0.0, 29.52, 0.61, 1.322, 87.1, 5.0, 3.0, 2.0, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 0.0, 29.53, 1.43, 1.344, 81.3, 5.0, 4.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 5.0, 1.0]', '[10.0, 0.0, 30.88, -0.53, 1.367, 87.5, 4.0, 5.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 5.0, 1.0]', '[10.0, 0.0, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 31.2, 7.29, 1.464, 66.8, 2.0, 6.0, 2.0, 1.0, 2.0, 7.0, 7.0, 2.0, 1.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 31.23, -2.02, 1.403, 94.7, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 32.71, 2.58, 1.518, 75.4, 4.0, 4.0, 2.0, 1.0, 5.0, 4.0, 5.0, 3.0, 2.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 33.19, 4.2, 1.559, 70.7, 4.0, 3.0, 3.0, 0.0, 5.0, 5.0, 6.0, 3.0, 1.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 33.29, 3.11, 1.541, 78.1, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 33.61, -0.17, 1.535, 83.2, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 33.97, -1.74, 1.525, 87.4, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 0.0, 34.72, 2.93, 1.601, 75.9, 4.0, 5.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 0.0, 35.54, 0.13, 1.618, 86.5, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 36.07, -0.53, 1.652, 87.3, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 4.0, 2.0, 4.0]', '[10.0, 0.0, 36.19, -2.3, 1.609, 94.7, 2.0, 6.0, 2.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 36.7, -2.99, 1.67, 94.0, 3.0, 6.0, 1.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 2.0, 7.0, 1.0]', '[10.0, 0.0, 36.73, 0.24, 1.643, 86.7, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 36.74, -1.34, 1.687, 92.4, 4.0, 2.0, 4.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0]', '[10.0, 0.0, 37.12, 2.48, 1.694, 87.5, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 37.53, 1.45, 1.765, 78.7, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 37.77, 0.58, 1.714, 87.6, 2.0, 6.0, 2.0, 5.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 38.67, -2.74, 1.719, 93.8, 3.0, 4.0, 3.0, 5.0, 4.0, 1.0, 2.0, 3.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 39.22, 5.58, 1.789, 73.2, 1.0, 7.0, 2.0, 3.0, 0.0, 7.0, 7.0, 0.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 0.0, 39.35, 4.07, 1.812, 74.5, 1.0, 7.0, 2.0, 3.0, 1.0, 6.0, 6.0, 1.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 0.0, 39.91, -1.04, 1.788, 87.7, 2.0, 6.0, 2.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 41.3, 1.02, 1.938, 81.9, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 4.0, 4.0]', '[10.0, 0.0, 43.36, 4.45, 2.042, 77.7, 1.0, 5.0, 4.0, 3.0, 2.0, 5.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 0.0, 44.68, -0.39, 2.062, 90.5, 2.0, 3.0, 5.0, 4.0, 4.0, 2.0, 3.0, 2.0, 5.0, 2.0, 3.0, 5.0]', '[10.0, 0.0, 45.79, -1.29, 2.115, 94.1, 1.0, 3.0, 6.0, 6.0, 2.0, 2.0, 3.0, 1.0, 6.0, 1.0, 3.0, 6.0]', '[10.0, 0.0, 47.26, 5.56, 2.292, 76.7, 1.0, 3.0, 6.0, 2.0, 3.0, 5.0, 5.0, 1.0, 4.0, 1.0, 3.0, 6.0]', '[10.0, 0.0, 53.73, 7.47, 2.59, 73.9, 0.0, 3.0, 7.0, 2.0, 3.0, 5.0, 6.0, 0.0, 4.0, 0.0, 3.0, 7.0]', '[10.0, 0.0, 55.62, 7.01, 2.694, 73.9, 0.0, 2.0, 8.0, 2.0, 3.0, 5.0, 6.0, 0.0, 4.0, 0.0, 2.0, 8.0]', '[10.0, 12.231122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 12.602876, 32.51, -1.03, 1.49, 85.4, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 12.636695, 32.51, -1.03, 1.49, 85.4, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 12.825064, 32.09, -2.33, 1.434, 86.8, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 12.831107, 21.16, -0.3, 0.922, 84.9, 6.0, 4.0, 0.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 12.833985, 21.16, -0.3, 0.922, 84.9, 6.0, 4.0, 0.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 12.862465, 25.38, -2.42, 1.079, 84.3, 8.0, 2.0, 0.0, 1.0, 7.0, 2.0, 2.0, 7.0, 1.0, 8.0, 2.0, 0.0]', '[10.0, 12.866284, 41.67, -1.3, 1.889, 93.7, 1.0, 5.0, 4.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 1.0, 5.0, 4.0]', '[10.0, 12.875708, 33.53, 4.6, 1.539, 75.9, 4.0, 4.0, 2.0, 1.0, 4.0, 5.0, 5.0, 3.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 12.894289, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.002887, 35.55, -0.88, 1.588, 84.9, 3.0, 6.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.003345, 35.55, -0.88, 1.588, 84.9, 3.0, 6.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.011763, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.076318, 25.61, -2.15, 1.16, 86.8, 6.0, 3.0, 1.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 3.0, 1.0]', '[10.0, 13.165224, 32.09, -2.33, 1.434, 86.8, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 13.2302, 41.41, 4.77, 1.924, 67.3, 3.0, 4.0, 3.0, 1.0, 4.0, 5.0, 6.0, 3.0, 1.0, 2.0, 5.0, 3.0]', '[10.0, 13.2564, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.256543, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.300899, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301272, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301789, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301918, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.30215, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.422756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.427407, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.432258, 39.3, 1.68, 1.794, 87.0, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.48406, 39.3, 1.68, 1.794, 87.0, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.509898, 45.5, -2.5, 2.061, 100.7, 2.0, 2.0, 6.0, 7.0, 2.0, 1.0, 2.0, 1.0, 7.0, 2.0, 2.0, 6.0]', '[10.0, 13.523679, 28.45, -3.28, 1.28, 90.4, 7.0, 2.0, 1.0, 3.0, 6.0, 1.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0]', '[10.0, 13.536176, 40.66, 0.61, 1.843, 89.0, 1.0, 5.0, 4.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 13.544919, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.554057, 35.82, -4.45, 1.568, 99.4, 4.0, 4.0, 2.0, 5.0, 3.0, 2.0, 2.0, 2.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.573598, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.625075, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.635057, 34.84, -1.07, 1.602, 88.6, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 13.635601, 33.39, -5.98, 1.453, 101.9, 4.0, 4.0, 2.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.636476, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.641503, 33.12, -0.96, 1.517, 88.7, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 13.656127, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.656542, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.667926, 39.33, -4.2, 1.754, 98.2, 2.0, 5.0, 3.0, 6.0, 3.0, 1.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 13.674337, 33.59, 1.6, 1.535, 85.8, 3.0, 5.0, 2.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.679361, 40.32, -3.73, 1.842, 98.6, 4.0, 1.0, 5.0, 6.0, 4.0, 0.0, 1.0, 3.0, 6.0, 3.0, 2.0, 5.0]', '[10.0, 13.691627, 34.25, 1.48, 1.52, 82.6, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 13.696875, 35.26, -3.31, 1.58, 96.1, 4.0, 4.0, 2.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.705323, 34.84, -1.07, 1.602, 88.6, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 13.709828, 21.11, -1.54, 0.965, 85.9, 5.0, 5.0, 0.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 6.0, 0.0]', '[10.0, 13.711534, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.718501, 44.37, 1.27, 2.036, 84.9, 2.0, 3.0, 5.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.721821, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.728899, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.729721, 34.13, 2.27, 1.546, 78.6, 3.0, 6.0, 1.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 7.0, 1.0]', '[10.0, 13.74546, 33.39, -5.98, 1.453, 101.9, 4.0, 4.0, 2.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.747208, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 13.764486, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.783585, 34.13, 2.27, 1.546, 78.6, 3.0, 6.0, 1.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 7.0, 1.0]', '[10.0, 13.79329, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.796657, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 13.809725, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.835076, 38.19, 4.14, 1.803, 79.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 3.0, 3.0, 4.0]', '[10.0, 13.840067, 39.61, 0.22, 1.803, 88.4, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.848726, 23.99, -0.22, 1.087, 87.3, 5.0, 4.0, 1.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 4.0, 1.0]', '[10.0, 13.849965, 38.19, 4.14, 1.803, 79.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 3.0, 3.0, 4.0]', '[10.0, 13.85373, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 13.864258, 21.11, -1.54, 0.965, 85.9, 5.0, 5.0, 0.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 6.0, 0.0]', '[10.0, 13.865242, 39.62, -3.15, 1.812, 94.1, 3.0, 4.0, 3.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 13.866588, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.868733, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.870766, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.871456, 33.91, 0.1, 1.511, 85.7, 4.0, 5.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.87348, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.878806, 38.65, 4.6, 1.869, 72.7, 3.0, 3.0, 4.0, 3.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 6.0, 4.0]', '[10.0, 13.898501, 32.2, 0.64, 1.482, 81.3, 5.0, 3.0, 2.0, 2.0, 4.0, 4.0, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 13.899586, 32.95, -2.66, 1.476, 90.9, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 13.903127, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.913788, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.923096, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 13.923403, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.928315, 37.18, 1.61, 1.733, 79.1, 2.0, 3.0, 4.0, 4.0, 2.0, 3.0, 3.0, 1.0, 5.0, 2.0, 3.0, 4.0]', '[10.0, 13.944123, 33.87, 3.87, 1.587, 78.6, 2.0, 5.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0]', '[10.0, 13.944978, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 13.946486, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.949725, 34.25, 1.48, 1.52, 82.6, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 13.952652, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 13.952741, 39.61, 0.22, 1.803, 88.4, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.959268, 28.5, -5.52, 1.22, 97.1, 6.0, 2.0, 2.0, 4.0, 5.0, 1.0, 1.0, 5.0, 4.0, 6.0, 2.0, 2.0]', '[10.0, 13.965471, 41.12, 0.63, 1.828, 94.7, 1.0, 5.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 1.0, 5.0, 4.0]', '[10.0, 13.966332, 45.61, 1.22, 2.12, 86.1, 2.0, 3.0, 5.0, 4.0, 4.0, 2.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.968701, 18.28, -1.94, 0.803, 88.0, 7.0, 3.0, 0.0, 2.0, 7.0, 1.0, 1.0, 7.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 13.968908, 36.63, 3.8, 1.736, 74.7, 3.0, 4.0, 3.0, 2.0, 4.0, 4.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.969321, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.971485, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.973165, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.97335, 35.03, 1.28, 1.57, 85.4, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.98024, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.981382, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.991016, 40.65, 4.39, 1.918, 77.8, 2.0, 4.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 4.0, 4.0]', '[10.0, 13.993335, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.996099, 25.91, 1.81, 1.184, 79.2, 5.0, 4.0, 1.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.998617, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 13.99883, 32.81, 0.28, 1.497, 86.7, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.000609, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 14.000667, 36.47, 1.28, 1.637, 84.8, 2.0, 6.0, 2.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 6.0, 2.0]', '[10.0, 14.001177, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.003231, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.004918, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.006487, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.009073, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.009584, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.010435, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.019653, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.020818, 27.42, -1.31, 1.213, 89.7, 6.0, 2.0, 2.0, 3.0, 5.0, 2.0, 2.0, 5.0, 3.0, 6.0, 2.0, 2.0]', '[10.0, 14.024644, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.025478, 34.0, 2.5, 1.552, 81.4, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 14.028098, 23.4, 0.91, 1.06, 78.2, 4.0, 5.0, 0.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 3.0, 6.0, 0.0]', '[10.0, 14.030268, 32.81, 0.28, 1.497, 86.7, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.030828, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.031948, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.032445, 30.63, 3.1, 1.411, 75.6, 3.0, 6.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 14.037899, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.038204, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.0384, 23.4, 0.91, 1.06, 78.2, 4.0, 5.0, 0.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 3.0, 6.0, 0.0]', '[10.0, 14.038975, 34.79, 0.74, 1.638, 87.9, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 6.0, 3.0]', '[10.0, 14.041416, 44.9, 3.87, 2.079, 80.0, 1.0, 6.0, 3.0, 4.0, 1.0, 5.0, 6.0, 0.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.042293, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.043569, 35.3, 4.32, 1.704, 74.8, 4.0, 3.0, 3.0, 1.0, 5.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.046, 39.62, -3.15, 1.812, 94.1, 3.0, 4.0, 3.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 14.049706, 38.59, 1.46, 1.761, 82.4, 1.0, 7.0, 2.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 7.0, 2.0]', '[10.0, 14.049902, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.055429, 36.58, -2.36, 1.676, 94.8, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0]', '[10.0, 14.057396, 32.98, -2.03, 1.493, 87.4, 4.0, 5.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.059718, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.068825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.069587, 34.71, 1.25, 1.579, 87.4, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.069694, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.069977, 42.87, -2.32, 2.014, 95.3, 1.0, 4.0, 5.0, 6.0, 2.0, 2.0, 2.0, 1.0, 7.0, 1.0, 4.0, 5.0]', '[10.0, 14.071734, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.073797, 38.29, 3.96, 1.739, 79.0, 2.0, 6.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 14.074481, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 14.079386, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.082984, 38.59, 1.46, 1.761, 82.4, 1.0, 7.0, 2.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 7.0, 2.0]', '[10.0, 14.093163, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.093235, 33.09, 1.89, 1.541, 77.8, 4.0, 3.0, 3.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.095173, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.099388, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.103475, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.105171, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.106567, 35.03, 1.28, 1.57, 85.4, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 14.107534, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.1079, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.108442, 46.62, -0.26, 2.135, 88.6, 0.0, 6.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 0.0, 6.0, 4.0]', '[10.0, 14.109158, 40.77, 1.29, 1.85, 85.5, 0.0, 8.0, 2.0, 5.0, 1.0, 4.0, 5.0, 0.0, 5.0, 0.0, 8.0, 2.0]', '[10.0, 14.109771, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.110333, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 14.113433, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.114399, 32.78, -1.19, 1.501, 85.2, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.114652, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 14.119208, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.121864, 40.32, -3.73, 1.842, 98.6, 4.0, 1.0, 5.0, 6.0, 4.0, 0.0, 1.0, 3.0, 6.0, 3.0, 2.0, 5.0]', '[10.0, 14.129521, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 14.133211, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.136464, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.136483, 34.27, -1.09, 1.564, 90.6, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.137226, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.137248, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.139355, 13.76, -2.79, 0.566, 49.0, 3.0, 2.0, 0.0, 2.0, 2.0, 1.0, 1.0, 2.0, 2.0, 3.0, 2.0, 0.0]', '[10.0, 14.139792, 32.78, -1.19, 1.501, 85.2, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.140756, 42.87, -2.32, 2.014, 95.3, 1.0, 4.0, 5.0, 6.0, 2.0, 2.0, 2.0, 1.0, 7.0, 1.0, 4.0, 5.0]', '[10.0, 14.143339, 31.67, -3.01, 1.423, 89.1, 4.0, 5.0, 1.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.145168, 33.06, 0.57, 1.512, 84.8, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 14.1461, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.146968, 32.92, 2.55, 1.504, 74.7, 3.0, 6.0, 1.0, 2.0, 4.0, 4.0, 5.0, 3.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 14.148196, 42.15, -1.86, 1.903, 88.6, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.148559, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.150026, 37.01, -0.09, 1.66, 88.2, 3.0, 5.0, 2.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 3.0, 5.0, 2.0]', '[10.0, 14.152457, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.152708, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.152807, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.15318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.157504, 38.98, 2.84, 1.793, 83.1, 3.0, 5.0, 2.0, 4.0, 1.0, 5.0, 5.0, 1.0, 4.0, 2.0, 6.0, 2.0]', '[10.0, 14.159579, 36.58, -2.36, 1.676, 94.8, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0]', '[10.0, 14.159942, 32.58, -4.17, 1.49, 89.6, 5.0, 1.0, 3.0, 4.0, 4.0, 1.0, 1.0, 3.0, 5.0, 5.0, 1.0, 3.0]', '[10.0, 14.163594, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 14.165008, 30.36, -1.56, 1.368, 88.7, 4.0, 5.0, 1.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.168352, 31.41, 1.75, 1.422, 81.8, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 14.170017, 36.93, 3.16, 1.68, 78.5, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 14.171338, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.171887, 36.67, 1.21, 1.688, 86.7, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.176259, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 14.179652, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.179842, 43.6, 0.63, 1.987, 88.6, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 4.0, 1.0, 5.0, 1.0, 4.0, 5.0]', '[10.0, 14.180959, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.182482, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 14.184709, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.186073, 34.71, 1.25, 1.579, 87.4, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.187119, 36.53, -0.63, 1.641, 90.3, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.18831, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.19365, 32.56, -1.43, 1.448, 90.1, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 2.0, 7.0, 1.0]', '[10.0, 14.194487, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.196987, 43.55, 2.8, 1.986, 77.4, 3.0, 4.0, 3.0, 2.0, 5.0, 3.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.201266, 25.59, 0.76, 1.162, 78.6, 6.0, 3.0, 1.0, 1.0, 5.0, 4.0, 4.0, 5.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 14.201822, 13.76, -2.79, 0.566, 49.0, 3.0, 2.0, 0.0, 2.0, 2.0, 1.0, 1.0, 2.0, 2.0, 3.0, 2.0, 0.0]', '[10.0, 14.203003, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.203758, 38.65, 4.6, 1.869, 72.7, 3.0, 3.0, 4.0, 3.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 6.0, 4.0]', '[10.0, 14.205182, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.205329, 32.54, 0.73, 1.511, 75.0, 3.0, 4.0, 2.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 4.0, 2.0]', '[10.0, 14.205691, 38.44, -1.2, 1.647, 95.3, 4.0, 4.0, 2.0, 5.0, 3.0, 2.0, 4.0, 1.0, 5.0, 4.0, 4.0, 2.0]', '[10.0, 14.205761, 32.65, -3.89, 1.463, 91.9, 3.0, 6.0, 1.0, 5.0, 4.0, 1.0, 2.0, 3.0, 5.0, 3.0, 6.0, 1.0]', '[10.0, 14.206644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.20914, 29.6, -1.33, 1.371, 90.0, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.21102, 31.71, 1.02, 1.471, 78.5, 4.0, 3.0, 3.0, 1.0, 6.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0]', '[10.0, 14.211214, 40.65, 4.39, 1.918, 77.8, 2.0, 4.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 4.0, 4.0]', '[10.0, 14.21542, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.216608, 32.47, -0.0, 1.458, 84.4, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 14.216707, 35.93, -1.62, 1.628, 92.1, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0]', '[10.0, 14.220979, 36.53, -0.63, 1.641, 90.3, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.223986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.226548, 33.09, 1.89, 1.541, 77.8, 4.0, 3.0, 3.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.232534, 46.62, -0.26, 2.135, 88.6, 0.0, 6.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 0.0, 6.0, 4.0]', '[10.0, 14.233028, 21.36, -1.59, 0.96, 87.1, 8.0, 1.0, 1.0, 1.0, 8.0, 1.0, 1.0, 7.0, 2.0, 7.0, 2.0, 1.0]', '[10.0, 14.233681, 37.71, -1.24, 1.706, 96.9, 4.0, 4.0, 2.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 3.0, 5.0, 2.0]', '[10.0, 14.233716, 33.07, 1.42, 1.552, 74.8, 5.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0, 3.0, 4.0, 3.0]', '[10.0, 14.233938, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.23473, 43.85, -2.39, 2.021, 91.3, 2.0, 4.0, 4.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 4.0, 4.0]', '[10.0, 14.235544, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.237524, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.24404, 38.29, 3.96, 1.739, 79.0, 2.0, 6.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 14.244555, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.244813, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.245194, 38.51, 2.37, 1.815, 80.5, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 1.0, 4.0, 5.0]', '[10.0, 14.245522, 39.54, 2.97, 1.84, 86.8, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 14.245532, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.246739, 39.54, 2.97, 1.84, 86.8, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 14.248511, 30.77, 2.54, 1.389, 79.0, 6.0, 3.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.253366, 40.11, -0.56, 1.888, 87.8, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 4.0, 1.0, 5.0, 1.0, 4.0, 5.0]', '[10.0, 14.253503, 37.27, 0.59, 1.7, 88.0, 3.0, 4.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 14.25433, 44.9, 3.87, 2.079, 80.0, 1.0, 6.0, 3.0, 4.0, 1.0, 5.0, 6.0, 0.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.254751, 35.71, 0.98, 1.599, 86.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 4.0, 4.0, 2.0]', '[10.0, 14.25688, 31.41, 1.75, 1.422, 81.8, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 14.257303, 29.6, -1.33, 1.371, 90.0, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.259783, 27.32, 1.1, 1.241, 83.3, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.26067, 39.73, 4.97, 1.891, 74.8, 3.0, 3.0, 4.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 2.0, 4.0, 4.0]', '[10.0, 14.260986, 33.73, -1.1, 1.563, 78.0, 4.0, 2.0, 3.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 4.0, 2.0, 3.0]', '[10.0, 14.264573, 36.66, 1.45, 1.733, 82.9, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.265572, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.266937, 43.6, 1.93, 1.971, 86.9, 3.0, 3.0, 4.0, 5.0, 1.0, 4.0, 5.0, 0.0, 5.0, 3.0, 3.0, 4.0]', '[10.0, 14.270904, 49.33, 2.01, 2.267, 88.3, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 5.0, 0.0, 5.0, 2.0, 3.0, 5.0]', '[10.0, 14.27145, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.271929, 38.66, 0.58, 1.782, 87.4, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.274005, 38.66, 0.58, 1.782, 87.4, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.275044, 40.97, -0.12, 1.877, 89.7, 1.0, 6.0, 3.0, 6.0, 0.0, 4.0, 4.0, 0.0, 6.0, 0.0, 7.0, 3.0]', '[10.0, 14.276442, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.2767, 27.28, 0.02, 1.25, 72.8, 4.0, 3.0, 2.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 4.0, 3.0, 2.0]', '[10.0, 14.28106, 33.38, 1.22, 1.564, 75.9, 5.0, 1.0, 4.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0, 4.0, 2.0, 4.0]', '[10.0, 14.281342, 38.66, 0.58, 1.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr"/>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr"/>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr"/>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr"/>
+      <c r="N329" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr"/>
+      <c r="N333" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr"/>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>{0: 0.8333333333333334, 1: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
+      <c r="M335" t="inlineStr"/>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>['[-149.0, 6.973113, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.9733, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973461, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011633, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011736, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.012369, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-5.0, 11.366548, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.423346, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.429201, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.477434, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[1.0, 0.0, 0.0, -0.8, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0]', '[1.0, 0.0, 1.6, -0.97, 0.062, 9.2, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0]', '[1.0, 0.0, 3.95, -1.1, 0.18, 10.5, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0]', '[1.0, 0.0, 4.0, 1.81, 0.186, 5.2, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0]', '[10.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 0.0, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 0.0, 23.84, 0.53, 1.089, 78.8, 6.0, 2.0, 2.0, 1.0, 5.0, 4.0, 4.0, 5.0, 1.0, 6.0, 2.0, 2.0]', '[10.0, 0.0, 25.5, 3.68, 1.166, 73.0, 4.0, 6.0, 0.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 3.0, 7.0, 0.0]', '[10.0, 0.0, 29.13, -0.5, 1.313, 85.2, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 0.0, 29.3, -1.99, 1.314, 83.4, 6.0, 2.0, 2.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 6.0, 2.0, 2.0]', '[10.0, 0.0, 29.52, 0.61, 1.322, 87.1, 5.0, 3.0, 2.0, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 0.0, 29.53, 1.43, 1.344, 81.3, 5.0, 4.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 5.0, 1.0]', '[10.0, 0.0, 30.88, -0.53, 1.367, 87.5, 4.0, 5.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 5.0, 1.0]', '[10.0, 0.0, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 31.2, 7.29, 1.464, 66.8, 2.0, 6.0, 2.0, 1.0, 2.0, 7.0, 7.0, 2.0, 1.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 31.23, -2.02, 1.403, 94.7, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 32.71, 2.58, 1.518, 75.4, 4.0, 4.0, 2.0, 1.0, 5.0, 4.0, 5.0, 3.0, 2.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 33.19, 4.2, 1.559, 70.7, 4.0, 3.0, 3.0, 0.0, 5.0, 5.0, 6.0, 3.0, 1.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 33.29, 3.11, 1.541, 78.1, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 33.61, -0.17, 1.535, 83.2, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 33.97, -1.74, 1.525, 87.4, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 0.0, 34.72, 2.93, 1.601, 75.9, 4.0, 5.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 0.0, 35.54, 0.13, 1.618, 86.5, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 36.07, -0.53, 1.652, 87.3, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 4.0, 2.0, 4.0]', '[10.0, 0.0, 36.19, -2.3, 1.609, 94.7, 2.0, 6.0, 2.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 36.7, -2.99, 1.67, 94.0, 3.0, 6.0, 1.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 2.0, 7.0, 1.0]', '[10.0, 0.0, 36.73, 0.24, 1.643, 86.7, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 36.74, -1.34, 1.687, 92.4, 4.0, 2.0, 4.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0]', '[10.0, 0.0, 37.12, 2.48, 1.694, 87.5, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 37.53, 1.45, 1.765, 78.7, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 37.77, 0.58, 1.714, 87.6, 2.0, 6.0, 2.0, 5.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 38.67, -2.74, 1.719, 93.8, 3.0, 4.0, 3.0, 5.0, 4.0, 1.0, 2.0, 3.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 39.22, 5.58, 1.789, 73.2, 1.0, 7.0, 2.0, 3.0, 0.0, 7.0, 7.0, 0.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 0.0, 39.35, 4.07, 1.812, 74.5, 1.0, 7.0, 2.0, 3.0, 1.0, 6.0, 6.0, 1.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 0.0, 39.91, -1.04, 1.788, 87.7, 2.0, 6.0, 2.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 41.3, 1.02, 1.938, 81.9, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 4.0, 4.0]', '[10.0, 0.0, 43.36, 4.45, 2.042, 77.7, 1.0, 5.0, 4.0, 3.0, 2.0, 5.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 0.0, 44.68, -0.39, 2.062, 90.5, 2.0, 3.0, 5.0, 4.0, 4.0, 2.0, 3.0, 2.0, 5.0, 2.0, 3.0, 5.0]', '[10.0, 0.0, 45.79, -1.29, 2.115, 94.1, 1.0, 3.0, 6.0, 6.0, 2.0, 2.0, 3.0, 1.0, 6.0, 1.0, 3.0, 6.0]', '[10.0, 0.0, 47.26, 5.56, 2.292, 76.7, 1.0, 3.0, 6.0, 2.0, 3.0, 5.0, 5.0, 1.0, 4.0, 1.0, 3.0, 6.0]', '[10.0, 0.0, 53.73, 7.47, 2.59, 73.9, 0.0, 3.0, 7.0, 2.0, 3.0, 5.0, 6.0, 0.0, 4.0, 0.0, 3.0, 7.0]', '[10.0, 0.0, 55.62, 7.01, 2.694, 73.9, 0.0, 2.0, 8.0, 2.0, 3.0, 5.0, 6.0, 0.0, 4.0, 0.0, 2.0, 8.0]', '[10.0, 12.231122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 12.602876, 32.51, -1.03, 1.49, 85.4, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 12.636695, 32.51, -1.03, 1.49, 85.4, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 12.825064, 32.09, -2.33, 1.434, 86.8, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 12.831107, 21.16, -0.3, 0.922, 84.9, 6.0, 4.0, 0.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 12.833985, 21.16, -0.3, 0.922, 84.9, 6.0, 4.0, 0.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 12.862465, 25.38, -2.42, 1.079, 84.3, 8.0, 2.0, 0.0, 1.0, 7.0, 2.0, 2.0, 7.0, 1.0, 8.0, 2.0, 0.0]', '[10.0, 12.866284, 41.67, -1.3, 1.889, 93.7, 1.0, 5.0, 4.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 1.0, 5.0, 4.0]', '[10.0, 12.875708, 33.53, 4.6, 1.539, 75.9, 4.0, 4.0, 2.0, 1.0, 4.0, 5.0, 5.0, 3.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 12.894289, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.002887, 35.55, -0.88, 1.588, 84.9, 3.0, 6.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.003345, 35.55, -0.88, 1.588, 84.9, 3.0, 6.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.011763, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.076318, 25.61, -2.15, 1.16, 86.8, 6.0, 3.0, 1.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 3.0, 1.0]', '[10.0, 13.165224, 32.09, -2.33, 1.434, 86.8, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 13.2302, 41.41, 4.77, 1.924, 67.3, 3.0, 4.0, 3.0, 1.0, 4.0, 5.0, 6.0, 3.0, 1.0, 2.0, 5.0, 3.0]', '[10.0, 13.2564, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.256543, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.300899, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301272, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301789, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301918, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.30215, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.422756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.427407, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.432258, 39.3, 1.68, 1.794, 87.0, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.48406, 39.3, 1.68, 1.794, 87.0, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.509898, 45.5, -2.5, 2.061, 100.7, 2.0, 2.0, 6.0, 7.0, 2.0, 1.0, 2.0, 1.0, 7.0, 2.0, 2.0, 6.0]', '[10.0, 13.523679, 28.45, -3.28, 1.28, 90.4, 7.0, 2.0, 1.0, 3.0, 6.0, 1.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0]', '[10.0, 13.536176, 40.66, 0.61, 1.843, 89.0, 1.0, 5.0, 4.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 13.544919, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.554057, 35.82, -4.45, 1.568, 99.4, 4.0, 4.0, 2.0, 5.0, 3.0, 2.0, 2.0, 2.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.573598, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.625075, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.635057, 34.84, -1.07, 1.602, 88.6, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 13.635601, 33.39, -5.98, 1.453, 101.9, 4.0, 4.0, 2.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.636476, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.641503, 33.12, -0.96, 1.517, 88.7, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 13.656127, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.656542, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.667926, 39.33, -4.2, 1.754, 98.2, 2.0, 5.0, 3.0, 6.0, 3.0, 1.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 13.674337, 33.59, 1.6, 1.535, 85.8, 3.0, 5.0, 2.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.679361, 40.32, -3.73, 1.842, 98.6, 4.0, 1.0, 5.0, 6.0, 4.0, 0.0, 1.0, 3.0, 6.0, 3.0, 2.0, 5.0]', '[10.0, 13.691627, 34.25, 1.48, 1.52, 82.6, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 13.696875, 35.26, -3.31, 1.58, 96.1, 4.0, 4.0, 2.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.705323, 34.84, -1.07, 1.602, 88.6, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 13.709828, 21.11, -1.54, 0.965, 85.9, 5.0, 5.0, 0.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 6.0, 0.0]', '[10.0, 13.711534, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.718501, 44.37, 1.27, 2.036, 84.9, 2.0, 3.0, 5.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.721821, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.728899, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.729721, 34.13, 2.27, 1.546, 78.6, 3.0, 6.0, 1.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 7.0, 1.0]', '[10.0, 13.74546, 33.39, -5.98, 1.453, 101.9, 4.0, 4.0, 2.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.747208, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 13.764486, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.783585, 34.13, 2.27, 1.546, 78.6, 3.0, 6.0, 1.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 7.0, 1.0]', '[10.0, 13.79329, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.796657, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 13.809725, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.835076, 38.19, 4.14, 1.803, 79.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 3.0, 3.0, 4.0]', '[10.0, 13.840067, 39.61, 0.22, 1.803, 88.4, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.848726, 23.99, -0.22, 1.087, 87.3, 5.0, 4.0, 1.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 4.0, 1.0]', '[10.0, 13.849965, 38.19, 4.14, 1.803, 79.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 3.0, 3.0, 4.0]', '[10.0, 13.85373, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 13.864258, 21.11, -1.54, 0.965, 85.9, 5.0, 5.0, 0.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 6.0, 0.0]', '[10.0, 13.865242, 39.62, -3.15, 1.812, 94.1, 3.0, 4.0, 3.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 13.866588, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.868733, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.870766, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.871456, 33.91, 0.1, 1.511, 85.7, 4.0, 5.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.87348, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.878806, 38.65, 4.6, 1.869, 72.7, 3.0, 3.0, 4.0, 3.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 6.0, 4.0]', '[10.0, 13.898501, 32.2, 0.64, 1.482, 81.3, 5.0, 3.0, 2.0, 2.0, 4.0, 4.0, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 13.899586, 32.95, -2.66, 1.476, 90.9, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 13.903127, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.913788, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.923096, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 13.923403, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.928315, 37.18, 1.61, 1.733, 79.1, 2.0, 3.0, 4.0, 4.0, 2.0, 3.0, 3.0, 1.0, 5.0, 2.0, 3.0, 4.0]', '[10.0, 13.944123, 33.87, 3.87, 1.587, 78.6, 2.0, 5.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0]', '[10.0, 13.944978, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 13.946486, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.949725, 34.25, 1.48, 1.52, 82.6, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 13.952652, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 13.952741, 39.61, 0.22, 1.803, 88.4, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.959268, 28.5, -5.52, 1.22, 97.1, 6.0, 2.0, 2.0, 4.0, 5.0, 1.0, 1.0, 5.0, 4.0, 6.0, 2.0, 2.0]', '[10.0, 13.965471, 41.12, 0.63, 1.828, 94.7, 1.0, 5.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 1.0, 5.0, 4.0]', '[10.0, 13.966332, 45.61, 1.22, 2.12, 86.1, 2.0, 3.0, 5.0, 4.0, 4.0, 2.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.968701, 18.28, -1.94, 0.803, 88.0, 7.0, 3.0, 0.0, 2.0, 7.0, 1.0, 1.0, 7.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 13.968908, 36.63, 3.8, 1.736, 74.7, 3.0, 4.0, 3.0, 2.0, 4.0, 4.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.969321, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.971485, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.973165, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.97335, 35.03, 1.28, 1.57, 85.4, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.98024, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.981382, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.991016, 40.65, 4.39, 1.918, 77.8, 2.0, 4.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 4.0, 4.0]', '[10.0, 13.993335, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.996099, 25.91, 1.81, 1.184, 79.2, 5.0, 4.0, 1.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.998617, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 13.99883, 32.81, 0.28, 1.497, 86.7, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.000609, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 14.000667, 36.47, 1.28, 1.637, 84.8, 2.0, 6.0, 2.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 6.0, 2.0]', '[10.0, 14.001177, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.003231, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.004918, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.006487, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.009073, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.009584, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.010435, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.019653, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.020818, 27.42, -1.31, 1.213, 89.7, 6.0, 2.0, 2.0, 3.0, 5.0, 2.0, 2.0, 5.0, 3.0, 6.0, 2.0, 2.0]', '[10.0, 14.024644, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.025478, 34.0, 2.5, 1.552, 81.4, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 14.028098, 23.4, 0.91, 1.06, 78.2, 4.0, 5.0, 0.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 3.0, 6.0, 0.0]', '[10.0, 14.030268, 32.81, 0.28, 1.497, 86.7, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.030828, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.031948, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.032445, 30.63, 3.1, 1.411, 75.6, 3.0, 6.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 14.037899, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.038204, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.0384, 23.4, 0.91, 1.06, 78.2, 4.0, 5.0, 0.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 3.0, 6.0, 0.0]', '[10.0, 14.038975, 34.79, 0.74, 1.638, 87.9, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 6.0, 3.0]', '[10.0, 14.041416, 44.9, 3.87, 2.079, 80.0, 1.0, 6.0, 3.0, 4.0, 1.0, 5.0, 6.0, 0.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.042293, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.043569, 35.3, 4.32, 1.704, 74.8, 4.0, 3.0, 3.0, 1.0, 5.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.046, 39.62, -3.15, 1.812, 94.1, 3.0, 4.0, 3.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 14.049706, 38.59, 1.46, 1.761, 82.4, 1.0, 7.0, 2.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 7.0, 2.0]', '[10.0, 14.049902, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.055429, 36.58, -2.36, 1.676, 94.8, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0]', '[10.0, 14.057396, 32.98, -2.03, 1.493, 87.4, 4.0, 5.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.059718, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.068825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.069587, 34.71, 1.25, 1.579, 87.4, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.069694, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.069977, 42.87, -2.32, 2.014, 95.3, 1.0, 4.0, 5.0, 6.0, 2.0, 2.0, 2.0, 1.0, 7.0, 1.0, 4.0, 5.0]', '[10.0, 14.071734, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.073797, 38.29, 3.96, 1.739, 79.0, 2.0, 6.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 14.074481, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 14.079386, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.082984, 38.59, 1.46, 1.761, 82.4, 1.0, 7.0, 2.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 7.0, 2.0]', '[10.0, 14.093163, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.093235, 33.09, 1.89, 1.541, 77.8, 4.0, 3.0, 3.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.095173, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.099388, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.103475, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.105171, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.106567, 35.03, 1.28, 1.57, 85.4, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 14.107534, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.1079, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.108442, 46.62, -0.26, 2.135, 88.6, 0.0, 6.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 0.0, 6.0, 4.0]', '[10.0, 14.109158, 40.77, 1.29, 1.85, 85.5, 0.0, 8.0, 2.0, 5.0, 1.0, 4.0, 5.0, 0.0, 5.0, 0.0, 8.0, 2.0]', '[10.0, 14.109771, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.110333, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 14.113433, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.114399, 32.78, -1.19, 1.501, 85.2, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.114652, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 14.119208, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.121864, 40.32, -3.73, 1.842, 98.6, 4.0, 1.0, 5.0, 6.0, 4.0, 0.0, 1.0, 3.0, 6.0, 3.0, 2.0, 5.0]', '[10.0, 14.129521, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 14.133211, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.136464, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.136483, 34.27, -1.09, 1.564, 90.6, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.137226, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.137248, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.139355, 13.76, -2.79, 0.566, 49.0, 3.0, 2.0, 0.0, 2.0, 2.0, 1.0, 1.0, 2.0, 2.0, 3.0, 2.0, 0.0]', '[10.0, 14.139792, 32.78, -1.19, 1.501, 85.2, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.140756, 42.87, -2.32, 2.014, 95.3, 1.0, 4.0, 5.0, 6.0, 2.0, 2.0, 2.0, 1.0, 7.0, 1.0, 4.0, 5.0]', '[10.0, 14.143339, 31.67, -3.01, 1.423, 89.1, 4.0, 5.0, 1.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.145168, 33.06, 0.57, 1.512, 84.8, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 14.1461, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.146968, 32.92, 2.55, 1.504, 74.7, 3.0, 6.0, 1.0, 2.0, 4.0, 4.0, 5.0, 3.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 14.148196, 42.15, -1.86, 1.903, 88.6, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.148559, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.150026, 37.01, -0.09, 1.66, 88.2, 3.0, 5.0, 2.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 3.0, 5.0, 2.0]', '[10.0, 14.152457, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.152708, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.152807, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.15318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.157504, 38.98, 2.84, 1.793, 83.1, 3.0, 5.0, 2.0, 4.0, 1.0, 5.0, 5.0, 1.0, 4.0, 2.0, 6.0, 2.0]', '[10.0, 14.159579, 36.58, -2.36, 1.676, 94.8, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0]', '[10.0, 14.159942, 32.58, -4.17, 1.49, 89.6, 5.0, 1.0, 3.0, 4.0, 4.0, 1.0, 1.0, 3.0, 5.0, 5.0, 1.0, 3.0]', '[10.0, 14.163594, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 14.165008, 30.36, -1.56, 1.368, 88.7, 4.0, 5.0, 1.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.168352, 31.41, 1.75, 1.422, 81.8, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 14.170017, 36.93, 3.16, 1.68, 78.5, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 14.171338, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.171887, 36.67, 1.21, 1.688, 86.7, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.176259, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 14.179652, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.179842, 43.6, 0.63, 1.987, 88.6, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 4.0, 1.0, 5.0, 1.0, 4.0, 5.0]', '[10.0, 14.180959, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.182482, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 14.184709, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.186073, 34.71, 1.25, 1.579, 87.4, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.187119, 36.53, -0.63, 1.641, 90.3, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.18831, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.19365, 32.56, -1.43, 1.448, 90.1, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 2.0, 7.0, 1.0]', '[10.0, 14.194487, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.196987, 43.55, 2.8, 1.986, 77.4, 3.0, 4.0, 3.0, 2.0, 5.0, 3.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.201266, 25.59, 0.76, 1.162, 78.6, 6.0, 3.0, 1.0, 1.0, 5.0, 4.0, 4.0, 5.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 14.201822, 13.76, -2.79, 0.566, 49.0, 3.0, 2.0, 0.0, 2.0, 2.0, 1.0, 1.0, 2.0, 2.0, 3.0, 2.0, 0.0]', '[10.0, 14.203003, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.203758, 38.65, 4.6, 1.869, 72.7, 3.0, 3.0, 4.0, 3.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 6.0, 4.0]', '[10.0, 14.205182, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.205329, 32.54, 0.73, 1.511, 75.0, 3.0, 4.0, 2.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 4.0, 2.0]', '[10.0, 14.205691, 38.44, -1.2, 1.647, 95.3, 4.0, 4.0, 2.0, 5.0, 3.0, 2.0, 4.0, 1.0, 5.0, 4.0, 4.0, 2.0]', '[10.0, 14.205761, 32.65, -3.89, 1.463, 91.9, 3.0, 6.0, 1.0, 5.0, 4.0, 1.0, 2.0, 3.0, 5.0, 3.0, 6.0, 1.0]', '[10.0, 14.206644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.20914, 29.6, -1.33, 1.371, 90.0, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.21102, 31.71, 1.02, 1.471, 78.5, 4.0, 3.0, 3.0, 1.0, 6.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0]', '[10.0, 14.211214, 40.65, 4.39, 1.918, 77.8, 2.0, 4.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 4.0, 4.0]', '[10.0, 14.21542, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.216608, 32.47, -0.0, 1.458, 84.4, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 14.216707, 35.93, -1.62, 1.628, 92.1, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0]', '[10.0, 14.220979, 36.53, -0.63, 1.641, 90.3, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.223986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.226548, 33.09, 1.89, 1.541, 77.8, 4.0, 3.0, 3.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.232534, 46.62, -0.26, 2.135, 88.6, 0.0, 6.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 0.0, 6.0, 4.0]', '[10.0, 14.233028, 21.36, -1.59, 0.96, 87.1, 8.0, 1.0, 1.0, 1.0, 8.0, 1.0, 1.0, 7.0, 2.0, 7.0, 2.0, 1.0]', '[10.0, 14.233681, 37.71, -1.24, 1.706, 96.9, 4.0, 4.0, 2.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 3.0, 5.0, 2.0]', '[10.0, 14.233716, 33.07, 1.42, 1.552, 74.8, 5.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0, 3.0, 4.0, 3.0]', '[10.0, 14.233938, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.23473, 43.85, -2.39, 2.021, 91.3, 2.0, 4.0, 4.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 4.0, 4.0]', '[10.0, 14.235544, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.237524, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.24404, 38.29, 3.96, 1.739, 79.0, 2.0, 6.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 14.244555, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.244813, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.245194, 38.51, 2.37, 1.815, 80.5, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 1.0, 4.0, 5.0]', '[10.0, 14.245522, 39.54, 2.97, 1.84, 86.8, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 14.245532, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.246739, 39.54, 2.97, 1.84, 86.8, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 14.248511, 30.77, 2.54, 1.389, 79.0, 6.0, 3.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.253366, 40.11, -0.56, 1.888, 87.8, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 4.0, 1.0, 5.0, 1.0, 4.0, 5.0]', '[10.0, 14.253503, 37.27, 0.59, 1.7, 88.0, 3.0, 4.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 14.25433, 44.9, 3.87, 2.079, 80.0, 1.0, 6.0, 3.0, 4.0, 1.0, 5.0, 6.0, 0.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.254751, 35.71, 0.98, 1.599, 86.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 4.0, 4.0, 2.0]', '[10.0, 14.25688, 31.41, 1.75, 1.422, 81.8, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 14.257303, 29.6, -1.33, 1.371, 90.0, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.259783, 27.32, 1.1, 1.241, 83.3, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.26067, 39.73, 4.97, 1.891, 74.8, 3.0, 3.0, 4.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 2.0, 4.0, 4.0]', '[10.0, 14.260986, 33.73, -1.1, 1.563, 78.0, 4.0, 2.0, 3.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 4.0, 2.0, 3.0]', '[10.0, 14.264573, 36.66, 1.45, 1.733, 82.9, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.265572, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.266937, 43.6, 1.93, 1.971, 86.9, 3.0, 3.0, 4.0, 5.0, 1.0, 4.0, 5.0, 0.0, 5.0, 3.0, 3.0, 4.0]', '[10.0, 14.270904, 49.33, 2.01, 2.267, 88.3, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 5.0, 0.0, 5.0, 2.0, 3.0, 5.0]', '[10.0, 14.27145, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.271929, 38.66, 0.58, 1.782, 87.4, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.274005, 38.66, 0.58, 1.782, 87.4, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.275044, 40.97, -0.12, 1.877, 89.7, 1.0, 6.0, 3.0, 6.0, 0.0, 4.0, 4.0, 0.0, 6.0, 0.0, 7.0, 3.0]', '[10.0, 14.276442, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.2767, 27.28, 0.02, 1.25, 72.8, 4.0, 3.0, 2.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 4.0, 3.0, 2.0]', '[10.0, 14.28106, 33.38, 1.22, 1.564, 75.9, 5.0, 1.0, 4.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0, 4.0, 2.0, 4.0]', '[10.0, 14.281342, 38.66, 0.58, 1.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
+      <c r="M336" t="inlineStr"/>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
+      <c r="M337" t="inlineStr"/>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/configs/test_datasets.xlsx
+++ b/configs/test_datasets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N338"/>
+  <dimension ref="A1:N422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7677,6 +7677,1783 @@
         </is>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
+      <c r="M346" t="inlineStr"/>
+      <c r="N346" t="n">
+        <v>15.6925</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="n">
+        <v>16.195</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
+      <c r="M348" t="inlineStr"/>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>{0: 0.2, 1: 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
+      <c r="M349" t="inlineStr"/>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">['[1.0, -1.0, 0.5, -2.3499999046325684]', '[1.0, -1.0, 1.5, -2.1500000953674316]', '[1.0, -1.0, 2.865999937057495, 0.5]', '[1.0, -1.0, 2.889400005340576, 1.0297000408172607]', '[1.0, -1.0, 3.232100009918213, 1.4329999685287476]', '[1.0, -1.0, 3.2600998878479004, -0.6739000082015991]', '[1.0, -1.0, 3.694200038909912, 0.27709999680519104]', '[1.0, -1.0, 3.7320001125335693, 1.5]', '[1.0, -1.0, 3.732100009918213, -1.4329999685287476]', '[1.0, -1.0, 4.0, 1.0]', '[1.0, -1.0, 4.232100009918213, 1.4329999685287476]', '[1.0, -1.0, 4.2600998878479, -0.6739000082015991]', '[1.0, -1.0, 4.5690999031066895, 0.27709999680519104]', '[1.0, -1.0, 4.598100185394287, -0.25]', '[1.0, -1.0, 5.464099884033203, -0.5]', '[1.0, -1.0, 5.464099884033203, -0.7842000126838684]', '[1.0, -1.0, 5.464099884033203, -1.0]', '[1.0, -1.0, 6.1905999183654785, 1.7073999643325806]', '[1.0, -1.0, 6.556700229644775, 0.34139999747276306]', '[1.0, 0.0, 0.375, 0.0]', '[1.0, 0.0, 0.5, -2.3499999046325684]', '[1.0, 0.0, 0.5, -4.349999904632568]', '[1.0, 0.0, 0.5, -6.349999904632568]', '[1.0, 0.0, 0.5, -8.350000381469727]', '[1.0, 0.0, 0.6428999900817871, -16.350000381469727]', '[1.0, 0.0, 0.666700005531311, -2.3499999046325684]', '[1.0, 0.0, 0.666700005531311, -6.349999904632568]', '[1.0, 0.0, 0.75, -20.350000381469727]', '[1.0, 0.0, 0.75, -8.350000381469727]', '[1.0, 0.0, 0.75, 0.0]', '[1.0, 0.0, 0.8999999761581421, -30.350000381469727]', '[1.0, 0.0, 1.0, -6.349999904632568]', '[1.0, 0.0, 1.25, -4.349999904632568]', '[1.0, 0.0, 1.5, -10.149999618530273]', '[1.0, 0.0, 1.5, -10.350000381469727]', '[1.0, 0.0, 1.5, -12.350000381469727]', '[1.0, 0.0, 1.5, -2.3499999046325684]', '[1.0, 0.0, 1.5, -4.150000095367432]', '[1.0, 0.0, 1.5, -4.349999904632568]', '[1.0, 0.0, 1.5, -6.150000095367432]', '[1.0, 0.0, 1.5, -8.149999618530273]', '[1.0, 0.0, 1.5, -8.350000381469727]', '[1.0, 0.0, 1.6875, -24.149999618530273]', '[1.0, 0.0, 1.6875, -26.149999618530273]', '[1.0, 0.0, 10.000699996948242, 6.783299922943115]', '[1.0, 0.0, 10.00160026550293, 8.176199913024902]', '[1.0, 0.0, 10.002900123596191, -0.43299999833106995]', '[1.0, 0.0, 10.016900062561035, 0.5907999873161316]', '[1.0, 0.0, 10.016900062561035, 1.5908000469207764]', '[1.0, 0.0, 10.0516996383667, 3.3773000240325928]', '[1.0, 0.0, 10.052800178527832, -7.656899929046631]', '[1.0, 0.0, 10.05780029296875, 6.271399974822998]', '[1.0, 0.0, 10.062199592590332, -0.16060000658035278]', '[1.0, 0.0, 10.062199592590332, -1.0]', '[1.0, 0.0, 10.062199592590332, -1.160599946975708]', '[1.0, 0.0, 10.062199592590332, -1.6739000082015991]', '[1.0, 0.0, 10.062199592590332, -1.75]', '[1.0, 0.0, 10.062199592590332, -1.910599946975708]', '[1.0, 0.0, 10.062199592590332, -2.5]', '[1.0, 0.0, 10.062199592590332, -2.75]', '[1.0, 0.0, 10.062199592590332, -3.5]', '[1.0, 0.0, 10.062199592590332, -3.6738998889923096]', '[1.0, 0.0, 10.062199592590332, 0.0]', '[1.0, 0.0, 10.062199592590332, 1.089400053024292]', '[1.0, 0.0, 10.062199592590332, 1.25]', '[1.0, 0.0, 10.062199592590332, 3.25]', '[1.0, 0.0, 10.092599868774414, 1.608199954032898]', '[1.0, 0.0, 10.100500106811523, 6.870699882507324]', '[1.0, 0.0, 10.135100364685059, -4.391600131988525]', '[1.0, 0.0, 10.136899948120117, -0.014000000432133675]', '[1.0, 0.0, 10.140000343322754, -7.939700126647949]', '[1.0, 0.0, 10.140000343322754, -8.93970012664795]', '[1.0, 0.0, 10.144399642944336, -10.459600448608398]', '[1.0, 0.0, 10.144399642944336, -11.459600448608398]', '[1.0, 0.0, 10.144399642944336, -8.089799880981445]', '[1.0, 0.0, 10.144399642944336, -9.089799880981445]', '[1.0, 0.0, 10.14490032196045, 6.62060022354126]', '[1.0, 0.0, 10.154600143432617, 4.2307000160217285]', '[1.0, 0.0, 10.160300254821777, -4.673900127410889]', '[1.0, 0.0, 10.160300254821777, 1.4514000415802002]', '[1.0, 0.0, 10.166600227355957, -0.38449999690055847]', '[1.0, 0.0, 10.1697998046875, 8.392399787902832]', '[1.0, 0.0, 10.17080020904541, 6.566999912261963]', '[1.0, 0.0, 10.185099601745605, -2.4937000274658203]', '[1.0, 0.0, 10.191800117492676, 6.886499881744385]', '[1.0, 0.0, 10.199199676513672, -1.6735999584197998]', '[1.0, 0.0, 10.215299606323242, -0.24549999833106995]', '[1.0, 0.0, 10.215299606323242, -1.2454999685287476]', '[1.0, 0.0, 10.219599723815918, 7.595300197601318]', '[1.0, 0.0, 10.226400375366211, -0.15189999341964722]', '[1.0, 0.0, 10.236100196838379, -1.3710999488830566]', '[1.0, 0.0, 10.265899658203125, -0.020899999886751175]', '[1.0, 0.0, 10.270899772644043, -0.5]', '[1.0, 0.0, 10.270899772644043, 3.6923999786376953]', '[1.0, 0.0, 10.270899772644043, 4.5584001541137695]', '[1.0, 0.0, 10.278800010681152, 2.4182000160217285]', '[1.0, 0.0, 10.28339958190918, -2.2397000789642334]', '[1.0, 0.0, 10.28339958190918, -3.2397000789642334]', '[1.0, 0.0, 10.299699783325195, 6.1006999015808105]', '[1.0, 0.0, 10.309300422668457, -5.523099899291992]', '[1.0, 0.0, 10.317500114440918, -0.4099999964237213]', '[1.0, 0.0, 10.317500114440918, -1.409999966621399]', '[1.0, 0.0, 10.317500114440918, 1.590000033378601]', '[1.0, 0.0, 10.318300247192383, 2.3649001121520996]', '[1.0, 0.0, 10.318300247192383, 2.821700096130371]', '[1.0, 0.0, 10.323699951171875, 0.7990999817848206]', '[1.0, 0.0, 10.323699951171875, 0.9036999940872192]', '[1.0, 0.0, 10.32409954071045, 8.589900016784668]', '[1.0, 0.0, 10.331100463867188, -1.2702000141143799]', '[1.0, 0.0, 10.347200393676758, 3.1205999851226807]', '[1.0, 0.0, 10.366299629211426, -2.43530011177063]', '[1.0, 0.0, 10.366299629211426, -3.43530011177063]', '[1.0, 0.0, 10.371999740600586, -0.6202999949455261]', '[1.0, 0.0, 10.371999740600586, -1.0247999429702759]', '[1.0, 0.0, 10.371999740600586, -1.620300054550171]', '[1.0, 0.0, 10.371999740600586, -2.0248000621795654]', '[1.0, 0.0, 10.371999740600586, 0.9751999974250793]', '[1.0, 0.0, 10.371999740600586, 1.379699945449829]', '[1.0, 0.0, 10.393099784851074, -4.367000102996826]', '[1.0, 0.0, 10.405400276184082, -2.2370998859405518]', '[1.0, 0.0, 10.405400276184082, 2.3268001079559326]', '[1.0, 0.0, 10.42389965057373, -5.724899768829346]', '[1.0, 0.0, 10.42389965057373, -6.724899768829346]', '[1.0, 0.0, 10.44279956817627, -2.9772000312805176]', '[1.0, 0.0, 10.444999694824219, -3.25219988822937]', '[1.0, 0.0, 10.44540023803711, -5.365600109100342]', '[1.0, 0.0, 10.446200370788574, 5.204899787902832]', '[1.0, 0.0, 10.470999717712402, -1.36489999294281]', '[1.0, 0.0, 10.470999717712402, -1.7316999435424805]', '[1.0, 0.0, 10.470999717712402, 3.9361000061035156]', '[1.0, 0.0, 10.472299575805664, -1.3495999574661255]', '[1.0, 0.0, 10.4822998046875, 2.7565999031066895]', '[1.0, 0.0, 10.485799789428711, 1.9979000091552734]', '[1.0, 0.0, 10.499300003051758, 0.7990999817848206]', '[1.0, 0.0, 10.499300003051758, 1.0082000494003296]', '[1.0, 0.0, 10.499300003051758, 1.1513999700546265]', '[1.0, 0.0, 10.499300003051758, 1.3082000017166138]', '[1.0, 0.0, 10.499300003051758, 1.6604000329971313]', '[1.0, 0.0, 10.499300003051758, 1.7127000093460083]', '[1.0, 0.0, 10.510899543762207, -1.163599967956543]', '[1.0, 0.0, 10.510899543762207, 2.5817999839782715]', '[1.0, 0.0, 10.510899543762207, 3.5817999839782715]', '[1.0, 0.0, 10.512499809265137, 0.8306000232696533]', '[1.0, 0.0, 10.532600402832031, 0.9815000295639038]', '[1.0, 0.0, 10.553299903869629, -4.129799842834473]', '[1.0, 0.0, 10.555100440979004, -3.5367000102996826]', '[1.0, 0.0, 10.561200141906738, -3.7397000789642334]', '[1.0, 0.0, 10.562199592590332, 2.134000062942505]', '[1.0, 0.0, 10.575499534606934, -4.243599891662598]', '[1.0, 0.0, 10.576499938964844, 9.305999755859375]', '[1.0, 0.0, 10.588000297546387, -7.283199787139893]', '[1.0, 0.0, 10.60319995880127, 3.4238998889923096]', '[1.0, 0.0, 10.60319995880127, 4.423900127410889]', '[1.0, 0.0, 10.60319995880127, 7.423900127410889]', '[1.0, 0.0, 10.631400108337402, 7.765399932861328]', '[1.0, 0.0, 10.632800102233887, -0.04740000143647194]', '[1.0, 0.0, 10.632800102233887, -0.15189999341964722]', '[1.0, 0.0, 10.63599967956543, -2.087399959564209]', '[1.0, 0.0, 10.636899948120117, -0.8799999952316284]', '[1.0, 0.0, 10.6427001953125, -0.04899999871850014]', '[1.0, 0.0, 10.6427001953125, -1.7319999933242798]', '[1.0, 0.0, 10.6427001953125, -2.0490000247955322]', '[1.0, 0.0, 10.6427001953125, -2.7320001125335693]', '[1.0, 0.0, 10.6427001953125, -3.0490000247955322]', '[1.0, 0.0, 10.6427001953125, 0.2680000066757202]', '[1.0, 0.0, 10.643099784851074, -0.1607999950647354]', '[1.0, 0.0, 10.649399757385254, -2.3338000774383545]', '[1.0, 0.0, 10.653599739074707, 0.9096999764442444]', '[1.0, 0.0, 10.654899597167969, 0.19179999828338623]', '[1.0, 0.0, 10.660200119018555, -0.25]', '[1.0, 0.0, 10.660200119018555, -0.3889999985694885]', '[1.0, 0.0, 10.660200119018555, -0.4106000065803528]', '[1.0, 0.0, 10.660200119018555, -0.5]', '[1.0, 0.0, 10.660200119018555, -0.6606000065803528]', '[1.0, 0.0, 10.660200119018555, -0.75]', '[1.0, 0.0, 10.660200119018555, -0.7979000210762024]', '[1.0, 0.0, 10.660200119018555, -1.0]', '[1.0, 0.0, 10.660200119018555, -1.25]', '[1.0, 0.0, 10.660200119018555, -1.3170000314712524]', '[1.0, 0.0, 10.660200119018555, -1.5]', '[1.0, 0.0, 10.660200119018555, -1.75]', '[1.0, 0.0, 10.660200119018555, -1.8170000314712524]', '[1.0, 0.0, 10.660200119018555, -2.0]', '[1.0, 0.0, 10.660200119018555, -2.316999912261963]', '[1.0, 0.0, 10.660200119018555, -2.3889999389648438]', '[1.0, 0.0, 10.660200119018555, -2.5]', '[1.0, 0.0, 10.660200119018555, -2.75]', '[1.0, 0.0, 10.660200119018555, -2.7978999614715576]', '[1.0, 0.0, 10.660200119018555, -3.0875000953674316]', '[1.0, 0.0, 10.660200119018555, -3.0]', '[1.0, 0.0, 10.660200119018555, -3.25]', '[1.0, 0.0, 10.660200119018555, -3.5]', '[1.0, 0.0, 10.660200119018555, -4.0]', '[1.0, 0.0, 10.660200119018555, 0.0]', '[1.0, 0.0, 10.660200119018555, 0.25]', '[1.0, 0.0, 10.660200119018555, 0.3393999934196472]', '[1.0, 0.0, 10.660200119018555, 0.5]', '[1.0, 0.0, 10.660200119018555, 0.6830000281333923]', '[1.0, 0.0, 10.660200119018555, 1.0]', '[1.0, 0.0, 10.660200119018555, 1.5670000314712524]', '[1.0, 0.0, 10.660200119018555, 2.0]', '[1.0, 0.0, 10.660200119018555, 3.566999912261963]', '[1.0, 0.0, 10.660200119018555, 4.482900142669678]', '[1.0, 0.0, 10.660300254821777, -0.06700000166893005]', '[1.0, 0.0, 10.660300254821777, -0.08749999850988388]', '[1.0, 0.0, 10.660300254821777, -0.25]', '[1.0, 0.0, 10.660300254821777, -0.5170999765396118]', '[1.0, 0.0, 10.660300254821777, -0.5]', '[1.0, 0.0, 10.660300254821777, -0.75]', '[1.0, 0.0, 10.660300254821777, -1.0670000314712524]', '[1.0, 0.0, 10.660300254821777, -1.0]', '[1.0, 0.0, 10.660300254821777, -1.5170999765396118]', '[1.0, 0.0, 10.660300254821777, -1.5670000314712524]', '[1.0, 0.0, 10.660300254821777, -1.5]', '[1.0, 0.0, 10.660300254821777, -1.660599946975708]', '[1.0, 0.0, 10.660300254821777, -1.75]', '[1.0, 0.0, 10.660300254821777, -2.0]', '[1.0, 0.0, 10.660300254821777, -2.25]', '[1.0, 0.0, 10.660300254821777, -2.410599946975708]', '[1.0, 0.0, 10.660300254821777, -2.5171000957489014]', '[1.0, 0.0, 10.660300254821777, -2.5]', '[1.0, 0.0, 10.660300254821777, -3.566999912261963]', '[1.0, 0.0, 10.660300254821777, -3.5]', '[1.0, 0.0, 10.660300254821777, -4.566999912261963]', '[1.0, 0.0, 10.660300254821777, 0.0]', '[1.0, 0.0, 10.660300254821777, 0.25]', '[1.0, 0.0, 10.660300254821777, 0.4828999936580658]', '[1.0, 0.0, 10.660300254821777, 0.5669999718666077]', '[1.0, 0.0, 10.660300254821777, 0.5]', '[1.0, 0.0, 10.660300254821777, 0.6830000281333923]', '[1.0, 0.0, 10.660300254821777, 0.75]', '[1.0, 0.0, 10.660300254821777, 0.9330000281333923]', '[1.0, 0.0, 10.660300254821777, 1.0]', '[1.0, 0.0, 10.660300254821777, 1.25]', '[1.0, 0.0, 10.660300254821777, 1.5670000314712524]', '[1.0, 0.0, 10.660300254821777, 1.5]', '[1.0, 0.0, 10.660300254821777, 1.9329999685287476]', '[1.0, 0.0, 10.660300254821777, 2.0]', '[1.0, 0.0, 10.660300254821777, 2.25]', '[1.0, 0.0, 10.660300254821777, 2.5]', '[1.0, 0.0, 10.660300254821777, 2.75]', '[1.0, 0.0, 10.660300254821777, 2.933000087738037]', '[1.0, 0.0, 10.660300254821777, 3.0]', '[1.0, 0.0, 10.660300254821777, 3.25]', '[1.0, 0.0, 10.660300254821777, 3.316999912261963]', '[1.0, 0.0, 10.660300254821777, 3.5]', '[1.0, 0.0, 10.660300254821777, 4.0]', '[1.0, 0.0, 10.660300254821777, 4.25]', '[1.0, 0.0, 10.660300254821777, 4.5]', '[1.0, 0.0, 10.660300254821777, 5.25]', '[1.0, 0.0, 10.660300254821777, 5.75]', '[1.0, 0.0, 10.660300254821777, 6.0]', '[1.0, 0.0, 10.660300254821777, 7.566999912261963]', '[1.0, 0.0, 10.660300254821777, 7.75]', '[1.0, 0.0, 10.6697998046875, 7.526400089263916]', '[1.0, 0.0, 10.670599937438965, -1.0717999935150146]', '[1.0, 0.0, 10.67080020904541, 7.433000087738037]', '[1.0, 0.0, 10.678799629211426, 1.5261000394821167]', '[1.0, 0.0, 10.680299758911133, 0.7990999817848206]', '[1.0, 0.0, 10.685099601745605, -0.954800009727478]', '[1.0, 0.0, 10.68970012664795, -3.135200023651123]', '[1.0, 0.0, 10.68970012664795, -3.2397000789642334]', '[1.0, 0.0, 10.689800262451172, -2.135200023651123]', '[1.0, 0.0, 10.689800262451172, -2.2397000789642334]', '[1.0, 0.0, 10.69950008392334, -5.967800140380859]', '[1.0, 0.0, 10.707799911499023, -0.801800012588501]', '[1.0, 0.0, 10.707799911499023, -0.887499988079071]', '[1.0, 0.0, 10.707799911499023, 9.08650016784668]', '[1.0, 0.0, 10.720999717712402, -2.8396999835968018]', '[1.0, 0.0, 10.721500396728516, 0.7148000001907349]', '[1.0, 0.0, 10.742400169372559, 5.039700031280518]', '[1.0, 0.0, 10.748100280761719, -5.482900142669678]', '[1.0, 0.0, 10.748900413513184, 1.8930000066757202]', '[1.0, 0.0, 10.748900413513184, 2.8929998874664307]', '[1.0, 0.0, 10.768799781799316, 0.06620000302791595]', '[1.0, 0.0, 10.770899772644043, 2.8264000415802]', '[1.0, 0.0, 10.770899772644043, 3.6923999786376953]', '[1.0, 0.0, 10.770899772644043, 4.5584001541137695]', '[1.0, 0.0, 10.770899772644043, 5.4243998527526855]', '[1.0, 0.0, 10.781200408935547, -5.253900051116943]', '[1.0, 0.0, 10.79419994354248, -0.25]', '[1.0, 0.0, 10.79419994354248, -1.25]', '[1.0, 0.0, 10.79419994354248, -3.25]', '[1.0, 0.0, 10.838800430297852, 3.3415000438690186]', '[1.0, 0.0, 10.864800453186035, 1.1887999773025513]', '[1.0, 0.0, 10.865599632263184, 0.6111999750137329]', '[1.0, 0.0, 10.866299629211426, -0.8964999914169312]', '[1.0, 0.0, 10.876899719238281, -0.10360000282526016]', '[1.0, 0.0, 10.876899719238281, -2.4110000133514404]', '[1.0, 0.0, 10.876899719238281, -2.4967000484466553]', '[1.0, 0.0, 10.876899719238281, 7.477399826049805]', '[1.0, 0.0, 10.88290023803711, 0.09080000221729279]', '[1.0, 0.0, 10.906000137329102, -1.6196000576019287]', '[1.0, 0.0, 10.906000137329102, 1.7648999691009521]', '[1.0, 0.0, 10.906000137329102, 2.012700080871582]', '[1.0, 0.0, 10.906000137329102, 2.1171998977661133]', '[1.0, 0.0, 10.906000137329102, 3.9307000637054443]', '[1.0, 0.0, 10.90839958190918, 7.652599811553955]', '[1.0, 0.0, 10.913100242614746, 8.724900245666504]', '[1.0, 0.0, 10.91569995880127, 2.4837000370025635]', '[1.0, 0.0, 10.917699813842773, 3.8773000240325928]', '[1.0, 0.0, 10.923999786376953, 1.457200050354004]', '[1.0, 0.0, 10.928199768066406, -1.5]', '[1.0, 0.0, 10.928199768066406, -1.660599946975708]', '[1.0, 0.0, 10.928199768066406, -2.0]', '[1.0, 0.0, 10.928199768066406, -2.410599946975708]', '[1.0, 0.0, 10.928199768066406, -4.0]', '[1.0, 0.0, 10.928199768066406, 0.3393999934196472]', '[1.0, 0.0, 10.928199768066406, 0.5]', '[1.0, 0.0, 10.928199768066406, 1.75]', '[1.0, 0.0, 10.928199768066406, 2.75]', '[1.0, 0.0, 10.93690013885498, 0.5066999793052673]', '[1.0, 0.0, 10.963600158691406, 3.642899990081787]', '[1.0, 0.0, 10.963899612426758, 3.2730000019073486]', '[1.0, 0.0, 10.968199729919434, 5.068699836730957]', '[1.0, 0.0, 10.969300270080566, -4.086100101470947]', '[1.0, 0.0, 10.975700378417969, -2.0806000232696533]', '[1.0, 0.0, 10.978899955749512, 0.39579999446868896]', '[1.0, 0.0, 10.978899955749512, 1.395799994468689]', '[1.0, 0.0, 11.002900123596191, -0.43299999833106995]', '[1.0, 0.0, 11.005999565124512, -10.43970012664795]', '[1.0, 0.0, 11.005999565124512, -9.43970012664795]', '[1.0, 0.0, 11.01039981842041, -10.589900016784668]', '[1.0, 0.0, 11.01039981842041, -11.959600448608398]', '[1.0, 0.0, 11.01039981842041, -12.959600448608398]', '[1.0, 0.0, 11.01039981842041, -9.589900016784668]', '[1.0, 0.0, 11.02340030670166, -0.33500000834465027]', '[1.0, 0.0, 11.02340030670166, 0.424699991941452]', '[1.0, 0.0, 11.03969955444336, 6.082200050354004]', '[1.0, 0.0, 11.077699661254883, 0.45260000228881836]', '[1.0, 0.0, 11.077699661254883, 2.1847000122070312]', '[1.0, 0.0, 11.081399917602539, -1.7454999685287476]', '[1.0, 0.0, 11.081399917602539, 0.25450000166893005]', '[1.0, 0.0, 11.0871000289917, 0.19920000433921814]', '[1.0, 0.0, 11.0871000289917, 0.9036999940872192]', '[1.0, 0.0, 11.087400436401367, -3.236599922180176]', '[1.0, 0.0, 11.097700119018555, 6.795899868011475]', '[1.0, 0.0, 11.1318998336792, 0.47909998893737793]', '[1.0, 0.0, 11.144800186157227, -0.4713999927043915]', '[1.0, 0.0, 11.149399757385254, -3.7397000789642334]', '[1.0, 0.0, 11.160300254821777, 1.4514000415802002]', '[1.0, 0.0, 11.163900375366211, -4.330100059509277]', '[1.0, 0.0, 11.170000076293945, 7.094399929046631]', '[1.0, 0.0, 11.179400444030762, -2.823699951171875]', '[1.0, 0.0, 11.183500289916992, 0.09000000357627869]', '[1.0, 0.0, 11.183500289916992, 1.090000033378601]', '[1.0, 0.0, 11.183600425720215, -3.058799982070923]', '[1.0, 0.0, 11.185099601745605, -2.4937000274658203]', '[1.0, 0.0, 11.190199851989746, 10.089799880981445]', '[1.0, 0.0, 11.190400123596191, -3.00570011138916]', '[1.0, 0.0, 11.19950008392334, 1.030500054359436]', '[1.0, 0.0, 11.206299781799316, 0.06700000166893005]', '[1.0, 0.0, 11.206299781799316, 1.0670000314712524]', '[1.0, 0.0, 11.214200019836426, -0.6956999897956848]', '[1.0, 0.0, 11.214200019836426, -1.062600016593933]', '[1.0, 0.0, 11.217499732971191, 6.701499938964844]', '[1.0, 0.0, 11.231800079345703, -3.8222999572753906]', '[1.0, 0.0, 11.236100196838379, -0.704200029373169]', '[1.0, 0.0, 11.23799991607666, -0.12030000239610672]', '[1.0, 0.0, 11.23799991607666, -0.5248000025749207]', '[1.0, 0.0, 11.23799991607666, -2.120300054550171]', '[1.0, 0.0, 11.23799991607666, -2.5248000621795654]', '[1.0, 0.0, 11.284099578857422, 3.151400089263916]', '[1.0, 0.0, 11.289899826049805, -5.224899768829346]', '[1.0, 0.0, 11.289899826049805, -7.224899768829346]', '[1.0, 0.0, 11.289899826049805, -8.224900245666504]', '[1.0, 0.0, 11.305899620056152, 1.4393999576568604]', '[1.0, 0.0, 11.312800407409668, 2.469399929046631]', '[1.0, 0.0, 11.31309986114502, 2.861799955368042]', '[1.0, 0.0, 11.321499824523926, 7.0416998863220215]', '[1.0, 0.0, 11.336400032043457, -5.8196001052856445]', '[1.0, 0.0, 11.361100196838379, -2.2493999004364014]', '[1.0, 0.0, 11.376899719238281, -1.5448999404907227]', '[1.0, 0.0, 11.376899719238281, -1.6306999921798706]', '[1.0, 0.0, 11.376899719238281, 8.343400001525879]', '[1.0, 0.0, 11.383500099182129, -2.0292000770568848]', '[1.0, 0.0, 11.383500099182129, 2.1189000606536865]', '[1.0, 0.0, 11.412199974060059, 4.946000099182129]', '[1.0, 0.0, 11.421099662780762, -3.0367000102996826]', '[1.0, 0.0, 11.422100067138672, 3.6270999908447266]', '[1.0, 0.0, 11.43690013885498, 2.3069000244140625]', '[1.0, 0.0, 11.452899932861328, 4.251100063323975]', '[1.0, 0.0, 11.453399658203125, -0.19779999554157257]', '[1.0, 0.0, 11.462300300598145, -1.5240999460220337]', '[1.0, 0.0, 11.462599754333496, 1.497499942779541]', '[1.0, 0.0, 11.464699745178223, 0.04569999873638153]', '[1.0, 0.0, 11.477800369262695, 11.190099716186523]', '[1.0, 0.0, 11.479000091552734, 8.04539966583252]', '[1.0, 0.0, 11.490599632263184, -5.356100082397461]', '[1.0, 0.0, 11.493800163269043, -2.4286000728607178]', '[1.0, 0.0, 11.493800163269043, 0.9036999940872192]', '[1.0, 0.0, 11.493800163269043, 1.2559000253677368]', '[1.0, 0.0, 11.493800163269043, 1.3082000017166138]', '[1.0, 0.0, 11.493800163269043, 1.4127000570297241]', '[1.0, 0.0, 11.493800163269043, 1.7648999691009521]', '[1.0, 0.0, 11.493800163269043, 3.1217000484466553]', '[1.0, 0.0, 11.502900123596191, 0.43299999833106995]', '[1.0, 0.0, 11.50879955291748, -0.23199999332427979]', '[1.0, 0.0, 11.50879955291748, -0.5490000247955322]', '[1.0, 0.0, 11.50879955291748, -1.2319999933242798]', '[1.0, 0.0, 11.50879955291748, -1.5490000247955322]', '[1.0, 0.0, 11.50879955291748, -3.5490000247955322]', '[1.0, 0.0, 11.50879955291748, -4.23199987411499]', '[1.0, 0.0, 11.526200294494629, -0.8889999985694885]', '[1.0, 0.0, 11.526200294494629, -2.25]', '[1.0, 0.0, 11.526200294494629, -3.25]', '[1.0, 0.0, 11.526200294494629, -4.25]', '[1.0, 0.0, 11.526200294494629, -4.75]', '[1.0, 0.0, 11.526200294494629, -5.75]', '[1.0, 0.0, 11.526300430297852, -0.06700000166893005]', '[1.0, 0.0, 11.526300430297852, -0.16060000658035278]', '[1.0, 0.0, 11.526300430297852, -0.25]', '[1.0, 0.0, 11.526300430297852, -0.31700000166893005]', '[1.0, 0.0, 11.526300430297852, -0.5669999718666077]', '[1.0, 0.0, 11.526300430297852, -0.5]', '[1.0, 0.0, 11.526300430297852, -0.75]', '[1.0, 0.0, 11.526300430297852, -0.8169999718666077]', '[1.0, 0.0, 11.526300430297852, -0.9106000065803528]', '[1.0, 0.0, 11.526300430297852, -1.0]', '[1.0, 0.0, 11.526300430297852, -1.25]', '[1.0, 0.0, 11.526300430297852, -1.2978999614715576]', '[1.0, 0.0, 11.526300430297852, -1.587499976158142]', '[1.0, 0.0, 11.526300430297852, -1.5]', '[1.0, 0.0, 11.526300430297852, -1.75]', '[1.0, 0.0, 11.526300430297852, -1.910599946975708]', '[1.0, 0.0, 11.526300430297852, -2.066999912261963]', '[1.0, 0.0, 11.526300430297852, -2.0]', '[1.0, 0.0, 11.526300430297852, -2.160599946975708]', '[1.0, 0.0, 11.526300430297852, -2.2978999614715576]', '[1.0, 0.0, 11.526300430297852, -2.5]', '[1.0, 0.0, 11.526300430297852, -3.066999912261963]', '[1.0, 0.0, 11.526300430297852, -3.0]', '[1.0, 0.0, 11.526300430297852, -3.25]', '[1.0, 0.0, 11.526300430297852, -4.0]', '[1.0, 0.0, 11.526300430297852, 0.08940000087022781]', '[1.0, 0.0, 11.526300430297852, 0.0]', '[1.0, 0.0, 11.526300430297852, 0.18299999833106995]', '[1.0, 0.0, 11.526300430297852, 0.25]', '[1.0, 0.0, 11.526300430297852, 0.43299999833106995]', '[1.0, 0.0, 11.526300430297852, 0.5]', '[1.0, 0.0, 11.526300430297852, 0.6830000281333923]', '[1.0, 0.0, 11.526300430297852, 0.75]', '[1.0, 0.0, 11.526300430297852, 0.8393999934196472]', '[1.0, 0.0, 11.526300430297852, 0.9330000281333923]', '[1.0, 0.0, 11.526300430297852, 1.0670000314712524]', '[1.0, 0.0, 11.526300430297852, 1.0]', '[1.0, 0.0, 11.526300430297852, 1.1829999685287476]', '[1.0, 0.0, 11.526300430297852, 1.25]', '[1.0, 0.0, 11.526300430297852, 1.4329999685287476]', '[1.0, 0.0, 11.526300430297852, 1.5670000314712524]', '[1.0, 0.0, 11.526300430297852, 1.5]', '[1.0, 0.0, 11.526300430297852, 1.75]', '[1.0, 0.0, 11.526300430297852, 2.066999912261963]', '[1.0, 0.0, 11.526300430297852, 2.0]', '[1.0, 0.0, 11.526300430297852, 2.183000087738037]', '[1.0, 0.0, 11.526300430297852, 2.25]', '[1.0, 0.0, 11.526300430297852, 2.5]', '[1.0, 0.0, 11.526300430297852, 2.75]', '[1.0, 0.0, 11.526300430297852, 2.9828999042510986]', '[1.0, 0.0, 11.526300430297852, 3.066999912261963]', '[1.0, 0.0, 11.526300430297852, 3.0]', '[1.0, 0.0, 11.526300430297852, 3.433000087738037]', '[1.0, 0.0, 11.526300430297852, 3.5]', '[1.0, 0.0, 11.526300430297852, 3.75]', '[1.0, 0.0, 11.526300430297852, 3.9828999042510986]', '[1.0, 0.0, 11.526300430297852, 4.066999912261963]', '[1.0, 0.0, 11.526300430297852, 4.5]', '[1.0, 0.0, 11.526300430297852, 5.066999912261963]', '[1.0, 0.0, 11.526300430297852, 5.5]', '[1.0, 0.0, 11.526300430297852, 5.75]', '[1.0, 0.0, 11.526300430297852, 6.066999912261963]', '[1.0, 0.0, 11.526300430297852, 6.0]', '[1.0, 0.0, 11.526300430297852, 6.25]', '[1.0, 0.0, 11.526300430297852, 7.066999912261963]', '[1.0, 0.0, 11.526300430297852, 7.0]', '[1.0, 0.0, 11.526300430297852, 7.25]', '[1.0, 0.0, 11.526300430297852, 8.75]', '[1.0, 0.0, 11.526399612426758, 9.75]', '[1.0, 0.0, 11.555800437927246, -3.635200023651123]', '[1.0, 0.0, 11.555800437927246, -3.7397000789642334]', '[1.0, 0.0, 11.566900253295898, -0.5435000061988831]', '[1.0, 0.0, 11.571900367736816, 1.895900011062622]', '[1.0, 0.0, 11.5871000289917, -1.3396999835968018]', '[1.0, 0.0, 11.5871000289917, -4.339700222015381]', '[1.0, 0.0, 11.590299606323242, -2.672600030899048]', '[1.0, 0.0, 11.591099739074707, -2.5302999019622803]', '[1.0, 0.0, 11.592300415039062, 1.1194000244140625]', '[1.0, 0.0, 11.611200332641602, 2.706399917602539]', '[1.0, 0.0, 11.611300468444824, -0.20800000429153442]', '[1.0, 0.0, 11.611300468444824, -1.8260999917984009]', '[1.0, 0.0, 11.636899948120117, -0.8799999952316284]', '[1.0, 0.0, 11.644200325012207, 4.845600128173828]', '[1.0, 0.0, 11.644800186157227, -1.337499976158142]', '[1.0, 0.0, 11.64490032196045, -5.97629976272583]', '[1.0, 0.0, 11.660200119018555, -1.75]', '[1.0, 0.0, 11.660300254821777, 0.25]', '[1.0, 0.0, 11.660300254821777, 0.5]', '[1.0, 0.0, 11.660300254821777, 1.5]', '[1.0, 0.0, 11.66100025177002, 7.622200012207031]', '[1.0, 0.0, 11.670999526977539, 0.6341000199317932]', '[1.0, 0.0, 11.670999526977539, 2.5659000873565674]', '[1.0, 0.0, 11.670999526977539, 3.98009991645813]', '[1.0, 0.0, 11.67490005493164, 0.9036999940872192]', '[1.0, 0.0, 11.692500114440918, 1.1678999662399292]', '[1.0, 0.0, 11.69260025024414, -1.0781999826431274]', '[1.0, 0.0, 11.717499732971191, 8.240400314331055]', '[1.0, 0.0, 11.717499732971191, 9.240400314331055]', '[1.0, 0.0, 11.743599891662598, 3.8131000995635986]', '[1.0, 0.0, 11.74370002746582, -3.723400115966797]', '[1.0, 0.0, 11.748100280761719, 2.2604000568389893]', '[1.0, 0.0, 11.770899772644043, 2.8264000415802]', '[1.0, 0.0, 11.770899772644043, 3.6923999786376953]', '[1.0, 0.0, 11.770899772644043, 4.5584001541137695]', '[1.0, 0.0, 11.770899772644043, 5.4243998527526855]', '[1.0, 0.0, 11.772899627685547, -3.3027000427246094]', '[1.0, 0.0, 11.783699989318848, 5.377299785614014]', '[1.0, 0.0, 11.79419994354248, -0.16060000658035278]', '[1.0, 0.0, 11.79419994354248, -0.9106000065803528]', '[1.0, 0.0, 11.79419994354248, -1.0]', '[1.0, 0.0, 11.79419994354248, -1.160599946975708]', '[1.0, 0.0, 11.79419994354248, -1.910599946975708]', '[1.0, 0.0, 11.79419994354248, -2.5]', '[1.0, 0.0, 11.79419994354248, -3.5]', '[1.0, 0.0, 11.79419994354248, 0.0]', '[1.0, 0.0, 11.79419994354248, 0.8393999934196472]', '[1.0, 0.0, 11.79419994354248, 2.0]', '[1.0, 0.0, 11.79419994354248, 3.0]', '[1.0, 0.0, 11.844900131225586, -0.10419999808073044]', '[1.0, 0.0, 11.844900131225586, 1.895799994468689]', '[1.0, 0.0, 11.876500129699707, -13.459600448608398]', '[1.0, 0.0, 11.876500129699707, -14.459600448608398]', '[1.0, 0.0, 11.888199806213379, 6.3719000816345215]', '[1.0, 0.0, 11.90060043334961, 1.6604000329971313]', '[1.0, 0.0, 11.90060043334961, 2.1171998977661133]', '[1.0, 0.0, 11.920299530029297, -2.777100086212158]', '[1.0, 0.0, 11.920299530029297, -4.395199775695801]', '[1.0, 0.0, 11.929800033569336, 1.600000023841858]', '[1.0, 0.0, 11.939000129699707, 12.911399841308594]', '[1.0, 0.0, 11.947400093078613, -0.24549999833106995]', '[1.0, 0.0, 11.947400093078613, -1.2454999685287476]', '[1.0, 0.0, 11.947400093078613, 0.7544999718666077]', '[1.0, 0.0, 11.953200340270996, 3.8945999145507812]', '[1.0, 0.0, 11.953399658203125, -1.7366000413894653]', '[1.0, 0.0, 11.953399658203125, -4.736599922180176]', '[1.0, 0.0, 11.954000473022461, -5.025199890136719]', '[1.0, 0.0, 11.977800369262695, 10.32409954071045]', '[1.0, 0.0, 12.010899543762207, 0.028599999845027924]', '[1.0, 0.0, 12.031700134277344, 6.1006999015808105]', '[1.0, 0.0, 12.05270004272461, -2.77239990234375]', '[1.0, 0.0, 12.05270004272461, 2.8620998859405518]', '[1.0, 0.0, 12.05620002746582, 8.589799880981445]', '[1.0, 0.0, 12.07229995727539, -0.43299999833106995]', '[1.0, 0.0, 12.07229995727539, 1.5670000314712524]', '[1.0, 0.0, 12.077699661254883, 0.45260000228881836]', '[1.0, 0.0, 12.081600189208984, 0.44690001010894775]', '[1.0, 0.0, 12.081600189208984, 0.9559000134468079]', '[1.0, 0.0, 12.081600189208984, 1.0082000494003296]', '[1.0, 0.0, 12.0871000289917, 0.19920000433921814]', '[1.0, 0.0, 12.104100227355957, -0.6202999949455261]', '[1.0, 0.0, 12.104100227355957, -1.0247999429702759]', '[1.0, 0.0, 12.104100227355957, -1.620300054550171]', '[1.0, 0.0, 12.104100227355957, -2.0248000621795654]', '[1.0, 0.0, 12.12279987335205, -4.276299953460693]', '[1.0, 0.0, 12.12279987335205, 1.523800015449524]', '[1.0, 0.0, 12.126399993896484, -2.1565001010894775]', '[1.0, 0.0, 12.136300086975098, 5.106100082397461]', '[1.0, 0.0, 12.136899948120117, -1.7460999488830566]', '[1.0, 0.0, 12.155900001525879, -8.724900245666504]', '[1.0, 0.0, 12.159700393676758, -4.6128997802734375]', '[1.0, 0.0, 12.165200233459473, -1.004699945449829]', '[1.0, 0.0, 12.165200233459473, -1.3716000318527222]', '[1.0, 0.0, 12.165200233459473, 4.296199798583984]', '[1.0, 0.0, 12.175100326538086, -5.275000095367432]', '[1.0, 0.0, 12.177000045776367, -1.0428999662399292]', '[1.0, 0.0, 12.180000305175781, 1.6376999616622925]', '[1.0, 0.0, 12.19909954071045, -1.0169999599456787]', '[1.0, 0.0, 12.2298002243042, 1.0566999912261963]', '[1.0, 0.0, 12.253100395202637, 6.728499889373779]', '[1.0, 0.0, 12.258299827575684, -3.25]', '[1.0, 0.0, 12.26259994506836, 0.09459999948740005]', '[1.0, 0.0, 12.270899772644043, 3.6923999786376953]', '[1.0, 0.0, 12.270899772644043, 4.5584001541137695]', '[1.0, 0.0, 12.278200149536133, -1.1217000484466553]', '[1.0, 0.0, 12.288700103759766, -1.277400016784668]', '[1.0, 0.0, 12.330699920654297, 0.5457000136375427]', '[1.0, 0.0, 12.354100227355957, -2.027100086212158]', '[1.0, 0.0, 12.35569953918457, -2.14490008354187]', '[1.0, 0.0, 12.360300064086914, 0.06530000269412994]', '[1.0, 0.0, 12.363200187683105, -1.957900047302246]', '[1.0, 0.0, 12.374799728393555, -0.04899999871850014]', '[1.0, 0.0, 12.374799728393555, -1.7319999933242798]', '[1.0, 0.0, 12.374799728393555, -2.0490000247955322]', '[1.0, 0.0, 12.374799728393555, -3.0490000247955322]', '[1.0, 0.0, 12.378100395202637, 3.2730000019073486]', '[1.0, 0.0, 12.392200469970703, -4.75]', '[1.0, 0.0, 12.392200469970703, -5.75]', '[1.0, 0.0, 12.39229965209961, -0.25]', '[1.0, 0.0, 12.39229965209961, -0.4106000065803528]', '[1.0, 0.0, 12.39229965209961, -0.5669999718666077]', '[1.0, 0.0, 12.39229965209961, -0.5]', '[1.0, 0.0, 12.39229965209961, -0.6606000065803528]', '[1.0, 0.0, 12.39229965209961, -0.75]', '[1.0, 0.0, 12.39229965209961, -0.8169999718666077]', '[1.0, 0.0, 12.39229965209961, -1.0]', '[1.0, 0.0, 12.39229965209961, -1.25]', '[1.0, 0.0, 12.39229965209961, -1.5]', '[1.0, 0.0, 12.39229965209961, -1.660599946975708]', '[1.0, 0.0, 12.39229965209961, -1.75]', '[1.0, 0.0, 12.39229965209961, -2.0]', '[1.0, 0.0, 12.39229965209961, -2.3889999389648438]', '[1.0, 0.0, 12.39229965209961, -2.410599946975708]', '[1.0, 0.0, 12.39229965209961, -2.5]', '[1.0, 0.0, 12.39229965209961, -2.75]', '[1.0, 0.0, 12.39229965209961, -4.25]', '[1.0, 0.0, 12.39229965209961, -5.25]', '[1.0, 0.0, 12.39229965209961, -6.25]', '[1.0, 0.0, 12.39229965209961, 0.0]', '[1.0, 0.0, 12.39229965209961, 0.25]', '[1.0, 0.0, 12.39229965209961, 0.5893999934196472]', '[1.0, 0.0, 12.39229965209961, 0.5]', '[1.0, 0.0, 12.39229965209961, 0.6830000281333923]', '[1.0, 0.0, 12.39229965209961, 0.75]', '[1.0, 0.0, 12.39229965209961, 1.0]', '[1.0, 0.0, 12.39229965209961, 1.1829999685287476]', '[1.0, 0.0, 12.39229965209961, 1.25]', '[1.0, 0.0, 12.39229965209961, 1.339400053024292]', '[1.0, 0.0, 12.39229965209961, 1.4329999685287476]', '[1.0, 0.0, 12.39229965209961, 1.5670000314712524]', '[1.0, 0.0, 12.39229965209961, 1.5]', '[1.0, 0.0, 12.39229965209961, 1.75]', '[1.0, 0.0, 12.39229965209961, 1.9329999685287476]', '[1.0, 0.0, 12.39229965209961, 2.0]', '[1.0, 0.0, 12.39229965209961, 2.25]', '[1.0, 0.0, 12.39229965209961, 2.316999912261963]', '[1.0, 0.0, 12.39229965209961, 2.4830000400543213]', '[1.0, 0.0, 12.39229965209961, 2.566999912261963]', '[1.0, 0.0, 12.39229965209961, 2.5]', '[1.0, 0.0, 12.39229965209961, 2.683000087738037]', '[1.0, 0.0, 12.39229965209961, 2.75]', '[1.0, 0.0, 12.39229965209961, 2.933000087738037]', '[1.0, 0.0, 12.39229965209961, 3.0]', '[1.0, 0.0, 12.39229965209961, 3.316999912261963]', '[1.0, 0.0, 12.39229965209961, 3.5]', '[1.0, 0.0, 12.39229965209961, 4.25]', '[1.0, 0.0, 12.392399787902832, 10.25]', '[1.0, 0.0, 12.392399787902832, 4.25]', '[1.0, 0.0, 12.392399787902832, 5.25]', '[1.0, 0.0, 12.392399787902832, 8.25]', '[1.0, 0.0, 12.396100044250488, -0.7519000172615051]', '[1.0, 0.0, 12.401599884033203, -3.389899969100952]', '[1.0, 0.0, 12.412799835205078, -4.466599941253662]', '[1.0, 0.0, 12.412799835205078, 4.556300163269043]', '[1.0, 0.0, 12.426300048828125, 6.599299907684326]', '[1.0, 0.0, 12.445199966430664, -1.2336000204086304]', '[1.0, 0.0, 12.453100204467773, -2.8396999835968018]', '[1.0, 0.0, 12.453100204467773, -3.8396999835968018]', '[1.0, 0.0, </t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
+      <c r="M350" t="inlineStr"/>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>['0', '1', '2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
+      <c r="M351" t="inlineStr"/>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
+      <c r="M352" t="inlineStr"/>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>[23835  8375   180]</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
+      <c r="M353" t="inlineStr"/>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
+      <c r="M354" t="inlineStr"/>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
+      <c r="M355" t="inlineStr"/>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
+      <c r="M356" t="inlineStr"/>
+      <c r="N356" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
+      <c r="M358" t="inlineStr"/>
+      <c r="N358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
+      <c r="M359" t="inlineStr"/>
+      <c r="N359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
+      <c r="M360" t="inlineStr"/>
+      <c r="N360" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
+      <c r="M361" t="inlineStr"/>
+      <c r="N361" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
+      <c r="M362" t="inlineStr"/>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>{0: 0.6552706552706553, 1: 0.34472934472934474}</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
+      <c r="M363" t="inlineStr"/>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr"/>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
+      <c r="M364" t="inlineStr"/>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
+      <c r="M365" t="inlineStr"/>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
+      <c r="M366" t="inlineStr"/>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr"/>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
+      <c r="M367" t="inlineStr"/>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr"/>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
+      <c r="M368" t="inlineStr"/>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
+      <c r="M369" t="inlineStr"/>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr"/>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
+      <c r="M370" t="inlineStr"/>
+      <c r="N370" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr"/>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
+      <c r="M371" t="inlineStr"/>
+      <c r="N371" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr"/>
+      <c r="C372" t="inlineStr"/>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
+      <c r="M372" t="inlineStr"/>
+      <c r="N372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
+      <c r="M373" t="inlineStr"/>
+      <c r="N373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr"/>
+      <c r="N374" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr"/>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
+      <c r="M375" t="inlineStr"/>
+      <c r="N375" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
+      <c r="M376" t="inlineStr"/>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>{0: 0.9333333333333333, 1: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
+      <c r="M377" t="inlineStr"/>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
+      <c r="M378" t="inlineStr"/>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
+      <c r="M379" t="inlineStr"/>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr"/>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
+      <c r="M380" t="inlineStr"/>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
+      <c r="M381" t="inlineStr"/>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr"/>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" t="inlineStr"/>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr"/>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
+      <c r="M384" t="inlineStr"/>
+      <c r="N384" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr"/>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
+      <c r="M385" t="inlineStr"/>
+      <c r="N385" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
+      <c r="M386" t="inlineStr"/>
+      <c r="N386" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
+      <c r="M387" t="inlineStr"/>
+      <c r="N387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr"/>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
+      <c r="M388" t="inlineStr"/>
+      <c r="N388" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr"/>
+      <c r="C389" t="inlineStr"/>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
+      <c r="M389" t="inlineStr"/>
+      <c r="N389" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr"/>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
+      <c r="M390" t="inlineStr"/>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="inlineStr"/>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr"/>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
+      <c r="M392" t="inlineStr"/>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
+      <c r="M393" t="inlineStr"/>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr"/>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr"/>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr"/>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
+      <c r="M396" t="inlineStr"/>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr"/>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
+      <c r="M398" t="inlineStr"/>
+      <c r="N398" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
+      <c r="M399" t="inlineStr"/>
+      <c r="N399" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
+      <c r="M400" t="inlineStr"/>
+      <c r="N400" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
+      <c r="M401" t="inlineStr"/>
+      <c r="N401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr"/>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="inlineStr"/>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
+      <c r="M403" t="inlineStr"/>
+      <c r="N403" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="inlineStr"/>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
+      <c r="M404" t="inlineStr"/>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
+      <c r="M405" t="inlineStr"/>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
+      <c r="M406" t="inlineStr"/>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
+      <c r="M407" t="inlineStr"/>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
+      <c r="M408" t="inlineStr"/>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr"/>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
+      <c r="M411" t="inlineStr"/>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/configs/test_datasets.xlsx
+++ b/configs/test_datasets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N422"/>
+  <dimension ref="A1:N534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9454,6 +9454,2542 @@
         </is>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
+      <c r="M430" t="inlineStr"/>
+      <c r="N430" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
+      <c r="M431" t="inlineStr"/>
+      <c r="N431" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
+      <c r="M432" t="inlineStr"/>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr"/>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
+      <c r="M435" t="inlineStr"/>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr"/>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr"/>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
+      <c r="M438" t="inlineStr"/>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr"/>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
+      <c r="N440" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="inlineStr"/>
+      <c r="N441" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
+      <c r="N442" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
+      <c r="N443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
+      <c r="N444" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr"/>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr"/>
+      <c r="N445" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr"/>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr"/>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr"/>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
+      <c r="D451" t="inlineStr"/>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
+      <c r="M451" t="inlineStr"/>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
+      <c r="M452" t="inlineStr"/>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
+      <c r="M453" t="inlineStr"/>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr"/>
+      <c r="N454" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
+      <c r="M455" t="inlineStr"/>
+      <c r="N455" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
+      <c r="M456" t="inlineStr"/>
+      <c r="N456" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
+      <c r="M457" t="inlineStr"/>
+      <c r="N457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
+      <c r="M458" t="inlineStr"/>
+      <c r="N458" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr"/>
+      <c r="N459" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
+      <c r="M460" t="inlineStr"/>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="inlineStr"/>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr"/>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr"/>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+      <c r="M464" t="inlineStr"/>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
+      <c r="M465" t="inlineStr"/>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr"/>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
+      <c r="M466" t="inlineStr"/>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr"/>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
+      <c r="N468" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
+      <c r="M469" t="inlineStr"/>
+      <c r="N469" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
+      <c r="M470" t="inlineStr"/>
+      <c r="N470" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr"/>
+      <c r="N471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
+      <c r="M472" t="inlineStr"/>
+      <c r="N472" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr"/>
+      <c r="N473" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr"/>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
+      <c r="M475" t="inlineStr"/>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+      <c r="M476" t="inlineStr"/>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
+      <c r="M477" t="inlineStr"/>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr"/>
+      <c r="D478" t="inlineStr"/>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr"/>
+      <c r="G478" t="inlineStr"/>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
+      <c r="M478" t="inlineStr"/>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr"/>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr"/>
+      <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
+      <c r="N482" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+      <c r="N483" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+      <c r="M484" t="inlineStr"/>
+      <c r="N484" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr"/>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
+      <c r="M485" t="inlineStr"/>
+      <c r="N485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
+      <c r="M486" t="inlineStr"/>
+      <c r="N486" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
+      <c r="M487" t="inlineStr"/>
+      <c r="N487" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr"/>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
+      <c r="M489" t="inlineStr"/>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr"/>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr"/>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr"/>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr"/>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr"/>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr"/>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr"/>
+      <c r="N496" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr"/>
+      <c r="N497" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="inlineStr"/>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr"/>
+      <c r="N498" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr"/>
+      <c r="N499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr"/>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr"/>
+      <c r="N500" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+      <c r="D502" t="inlineStr"/>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr"/>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr"/>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
+      <c r="M503" t="inlineStr"/>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="inlineStr"/>
+      <c r="H504" t="inlineStr"/>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr"/>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr"/>
+      <c r="H505" t="inlineStr"/>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
+      <c r="M505" t="inlineStr"/>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
+      <c r="M506" t="inlineStr"/>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr"/>
+      <c r="C507" t="inlineStr"/>
+      <c r="D507" t="inlineStr"/>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr"/>
+      <c r="H507" t="inlineStr"/>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
+      <c r="M507" t="inlineStr"/>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr"/>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
+      <c r="M508" t="inlineStr"/>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr"/>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr"/>
+      <c r="G509" t="inlineStr"/>
+      <c r="H509" t="inlineStr"/>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
+      <c r="M509" t="inlineStr"/>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
+      <c r="M510" t="inlineStr"/>
+      <c r="N510" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
+      <c r="H511" t="inlineStr"/>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
+      <c r="N511" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+      <c r="D512" t="inlineStr"/>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
+      <c r="M512" t="inlineStr"/>
+      <c r="N512" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr"/>
+      <c r="G513" t="inlineStr"/>
+      <c r="H513" t="inlineStr"/>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
+      <c r="M513" t="inlineStr"/>
+      <c r="N513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="inlineStr"/>
+      <c r="H514" t="inlineStr"/>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
+      <c r="M514" t="inlineStr"/>
+      <c r="N514" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
+      <c r="H515" t="inlineStr"/>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr"/>
+      <c r="N515" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
+      <c r="M516" t="inlineStr"/>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
+      <c r="E517" t="inlineStr"/>
+      <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
+      <c r="M517" t="inlineStr"/>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
+      <c r="M518" t="inlineStr"/>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
+      <c r="M519" t="inlineStr"/>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr"/>
+      <c r="H520" t="inlineStr"/>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
+      <c r="M520" t="inlineStr"/>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr"/>
+      <c r="E521" t="inlineStr"/>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="inlineStr"/>
+      <c r="H521" t="inlineStr"/>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
+      <c r="M521" t="inlineStr"/>
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
+      <c r="M522" t="inlineStr"/>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+      <c r="M523" t="inlineStr"/>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
+      <c r="H524" t="inlineStr"/>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
+      <c r="M524" t="inlineStr"/>
+      <c r="N524" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
+      <c r="M525" t="inlineStr"/>
+      <c r="N525" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
+      <c r="M526" t="inlineStr"/>
+      <c r="N526" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr"/>
+      <c r="N527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="inlineStr"/>
+      <c r="E528" t="inlineStr"/>
+      <c r="F528" t="inlineStr"/>
+      <c r="G528" t="inlineStr"/>
+      <c r="H528" t="inlineStr"/>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr"/>
+      <c r="N528" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
+      <c r="N529" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr"/>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="inlineStr"/>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
+      <c r="M530" t="inlineStr"/>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
+      <c r="M531" t="inlineStr"/>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr"/>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
+      <c r="M532" t="inlineStr"/>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
+      <c r="M533" t="inlineStr"/>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
+      <c r="H534" t="inlineStr"/>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr"/>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/configs/test_datasets.xlsx
+++ b/configs/test_datasets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N534"/>
+  <dimension ref="A1:N828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11990,6 +11990,6812 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" t="inlineStr"/>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="inlineStr"/>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
+      <c r="M535" t="inlineStr"/>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
+      <c r="H536" t="inlineStr"/>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr"/>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr"/>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
+      <c r="M537" t="inlineStr"/>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr"/>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr"/>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr"/>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr"/>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr"/>
+      <c r="N538" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="inlineStr"/>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
+      <c r="M539" t="inlineStr"/>
+      <c r="N539" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
+      <c r="H540" t="inlineStr"/>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
+      <c r="M540" t="inlineStr"/>
+      <c r="N540" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr"/>
+      <c r="H541" t="inlineStr"/>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr"/>
+      <c r="N541" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr"/>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
+      <c r="M542" t="inlineStr"/>
+      <c r="N542" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="inlineStr"/>
+      <c r="E543" t="inlineStr"/>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr"/>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr"/>
+      <c r="N543" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr"/>
+      <c r="E544" t="inlineStr"/>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr"/>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr"/>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr"/>
+      <c r="H545" t="inlineStr"/>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
+      <c r="M545" t="inlineStr"/>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr"/>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr"/>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr"/>
+      <c r="H547" t="inlineStr"/>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
+      <c r="M547" t="inlineStr"/>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
+      <c r="M548" t="inlineStr"/>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr"/>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr"/>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr"/>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr"/>
+      <c r="H552" t="inlineStr"/>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
+      <c r="M552" t="inlineStr"/>
+      <c r="N552" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr"/>
+      <c r="E553" t="inlineStr"/>
+      <c r="F553" t="inlineStr"/>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="inlineStr"/>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
+      <c r="N553" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr"/>
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" t="inlineStr"/>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr"/>
+      <c r="N554" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr"/>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr"/>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr"/>
+      <c r="H555" t="inlineStr"/>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr"/>
+      <c r="N555" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr"/>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr"/>
+      <c r="H556" t="inlineStr"/>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
+      <c r="N556" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr"/>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr"/>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
+      <c r="G557" t="inlineStr"/>
+      <c r="H557" t="inlineStr"/>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr"/>
+      <c r="N557" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr"/>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr"/>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr"/>
+      <c r="N558" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr"/>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="inlineStr"/>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr"/>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr"/>
+      <c r="H560" t="inlineStr"/>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+      <c r="M560" t="inlineStr"/>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr"/>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr"/>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
+      <c r="M561" t="inlineStr"/>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr"/>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" t="inlineStr"/>
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="inlineStr"/>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
+      <c r="M562" t="inlineStr"/>
+      <c r="N562" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr"/>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
+      <c r="H563" t="inlineStr"/>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
+      <c r="M563" t="inlineStr"/>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
+      <c r="H564" t="inlineStr"/>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
+      <c r="M564" t="inlineStr"/>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr"/>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr"/>
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr"/>
+      <c r="H566" t="inlineStr"/>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
+      <c r="M566" t="inlineStr"/>
+      <c r="N566" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr"/>
+      <c r="H567" t="inlineStr"/>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
+      <c r="M567" t="inlineStr"/>
+      <c r="N567" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr"/>
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
+      <c r="H568" t="inlineStr"/>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
+      <c r="M568" t="inlineStr"/>
+      <c r="N568" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr"/>
+      <c r="E569" t="inlineStr"/>
+      <c r="F569" t="inlineStr"/>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="inlineStr"/>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
+      <c r="M569" t="inlineStr"/>
+      <c r="N569" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr"/>
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="inlineStr"/>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
+      <c r="M570" t="inlineStr"/>
+      <c r="N570" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr"/>
+      <c r="E571" t="inlineStr"/>
+      <c r="F571" t="inlineStr"/>
+      <c r="G571" t="inlineStr"/>
+      <c r="H571" t="inlineStr"/>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
+      <c r="M571" t="inlineStr"/>
+      <c r="N571" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr"/>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr"/>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
+      <c r="M572" t="inlineStr"/>
+      <c r="N572" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="inlineStr"/>
+      <c r="F573" t="inlineStr"/>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="inlineStr"/>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
+      <c r="M573" t="inlineStr"/>
+      <c r="N573" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="inlineStr"/>
+      <c r="E574" t="inlineStr"/>
+      <c r="F574" t="inlineStr"/>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="inlineStr"/>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
+      <c r="M574" t="inlineStr"/>
+      <c r="N574" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="inlineStr"/>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
+      <c r="M575" t="inlineStr"/>
+      <c r="N575" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="inlineStr"/>
+      <c r="G576" t="inlineStr"/>
+      <c r="H576" t="inlineStr"/>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
+      <c r="M576" t="inlineStr"/>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="inlineStr"/>
+      <c r="H577" t="inlineStr"/>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
+      <c r="M577" t="inlineStr"/>
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr"/>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr"/>
+      <c r="E578" t="inlineStr"/>
+      <c r="F578" t="inlineStr"/>
+      <c r="G578" t="inlineStr"/>
+      <c r="H578" t="inlineStr"/>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
+      <c r="M578" t="inlineStr"/>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr"/>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr"/>
+      <c r="G579" t="inlineStr"/>
+      <c r="H579" t="inlineStr"/>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
+      <c r="M579" t="inlineStr"/>
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr"/>
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr"/>
+      <c r="E580" t="inlineStr"/>
+      <c r="F580" t="inlineStr"/>
+      <c r="G580" t="inlineStr"/>
+      <c r="H580" t="inlineStr"/>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
+      <c r="M580" t="inlineStr"/>
+      <c r="N580" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="inlineStr"/>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr"/>
+      <c r="H581" t="inlineStr"/>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
+      <c r="M581" t="inlineStr"/>
+      <c r="N581" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr"/>
+      <c r="E582" t="inlineStr"/>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr"/>
+      <c r="H582" t="inlineStr"/>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
+      <c r="M582" t="inlineStr"/>
+      <c r="N582" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr"/>
+      <c r="E583" t="inlineStr"/>
+      <c r="F583" t="inlineStr"/>
+      <c r="G583" t="inlineStr"/>
+      <c r="H583" t="inlineStr"/>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
+      <c r="M583" t="inlineStr"/>
+      <c r="N583" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr"/>
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="inlineStr"/>
+      <c r="E584" t="inlineStr"/>
+      <c r="F584" t="inlineStr"/>
+      <c r="G584" t="inlineStr"/>
+      <c r="H584" t="inlineStr"/>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
+      <c r="M584" t="inlineStr"/>
+      <c r="N584" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr"/>
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr"/>
+      <c r="E585" t="inlineStr"/>
+      <c r="F585" t="inlineStr"/>
+      <c r="G585" t="inlineStr"/>
+      <c r="H585" t="inlineStr"/>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="inlineStr"/>
+      <c r="M585" t="inlineStr"/>
+      <c r="N585" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr"/>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr"/>
+      <c r="H586" t="inlineStr"/>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="inlineStr"/>
+      <c r="M586" t="inlineStr"/>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr"/>
+      <c r="E587" t="inlineStr"/>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr"/>
+      <c r="H587" t="inlineStr"/>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
+      <c r="M587" t="inlineStr"/>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr"/>
+      <c r="E588" t="inlineStr"/>
+      <c r="F588" t="inlineStr"/>
+      <c r="G588" t="inlineStr"/>
+      <c r="H588" t="inlineStr"/>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr"/>
+      <c r="M588" t="inlineStr"/>
+      <c r="N588" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr"/>
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr"/>
+      <c r="E589" t="inlineStr"/>
+      <c r="F589" t="inlineStr"/>
+      <c r="G589" t="inlineStr"/>
+      <c r="H589" t="inlineStr"/>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="inlineStr"/>
+      <c r="M589" t="inlineStr"/>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr"/>
+      <c r="E590" t="inlineStr"/>
+      <c r="F590" t="inlineStr"/>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="inlineStr"/>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="inlineStr"/>
+      <c r="M590" t="inlineStr"/>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr"/>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr"/>
+      <c r="E591" t="inlineStr"/>
+      <c r="F591" t="inlineStr"/>
+      <c r="G591" t="inlineStr"/>
+      <c r="H591" t="inlineStr"/>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
+      <c r="M591" t="inlineStr"/>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr"/>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr"/>
+      <c r="E592" t="inlineStr"/>
+      <c r="F592" t="inlineStr"/>
+      <c r="G592" t="inlineStr"/>
+      <c r="H592" t="inlineStr"/>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
+      <c r="M592" t="inlineStr"/>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr"/>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr"/>
+      <c r="E593" t="inlineStr"/>
+      <c r="F593" t="inlineStr"/>
+      <c r="G593" t="inlineStr"/>
+      <c r="H593" t="inlineStr"/>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
+      <c r="M593" t="inlineStr"/>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr"/>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr"/>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" t="inlineStr"/>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr"/>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="inlineStr"/>
+      <c r="M594" t="inlineStr"/>
+      <c r="N594" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr"/>
+      <c r="C595" t="inlineStr"/>
+      <c r="D595" t="inlineStr"/>
+      <c r="E595" t="inlineStr"/>
+      <c r="F595" t="inlineStr"/>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="inlineStr"/>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
+      <c r="M595" t="inlineStr"/>
+      <c r="N595" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr"/>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr"/>
+      <c r="E596" t="inlineStr"/>
+      <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr"/>
+      <c r="H596" t="inlineStr"/>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
+      <c r="M596" t="inlineStr"/>
+      <c r="N596" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr"/>
+      <c r="E597" t="inlineStr"/>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
+      <c r="H597" t="inlineStr"/>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
+      <c r="M597" t="inlineStr"/>
+      <c r="N597" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr"/>
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr"/>
+      <c r="E598" t="inlineStr"/>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr"/>
+      <c r="H598" t="inlineStr"/>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
+      <c r="N598" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr"/>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr"/>
+      <c r="E599" t="inlineStr"/>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr"/>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr"/>
+      <c r="N599" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr"/>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr"/>
+      <c r="E600" t="inlineStr"/>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr"/>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
+      <c r="M600" t="inlineStr"/>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr"/>
+      <c r="E601" t="inlineStr"/>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr"/>
+      <c r="H601" t="inlineStr"/>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="inlineStr"/>
+      <c r="M601" t="inlineStr"/>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="inlineStr"/>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr"/>
+      <c r="H602" t="inlineStr"/>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr"/>
+      <c r="M602" t="inlineStr"/>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr"/>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr"/>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr"/>
+      <c r="C605" t="inlineStr"/>
+      <c r="D605" t="inlineStr"/>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr"/>
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="inlineStr"/>
+      <c r="M605" t="inlineStr"/>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr"/>
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr"/>
+      <c r="E606" t="inlineStr"/>
+      <c r="F606" t="inlineStr"/>
+      <c r="G606" t="inlineStr"/>
+      <c r="H606" t="inlineStr"/>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="inlineStr"/>
+      <c r="M606" t="inlineStr"/>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
+      <c r="H607" t="inlineStr"/>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
+      <c r="M607" t="inlineStr"/>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr"/>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr"/>
+      <c r="N608" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="inlineStr"/>
+      <c r="G609" t="inlineStr"/>
+      <c r="H609" t="inlineStr"/>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="inlineStr"/>
+      <c r="M609" t="inlineStr"/>
+      <c r="N609" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr"/>
+      <c r="E610" t="inlineStr"/>
+      <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr"/>
+      <c r="H610" t="inlineStr"/>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="inlineStr"/>
+      <c r="M610" t="inlineStr"/>
+      <c r="N610" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr"/>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr"/>
+      <c r="E611" t="inlineStr"/>
+      <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="inlineStr"/>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="inlineStr"/>
+      <c r="M611" t="inlineStr"/>
+      <c r="N611" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr"/>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="inlineStr"/>
+      <c r="M612" t="inlineStr"/>
+      <c r="N612" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr"/>
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr"/>
+      <c r="E613" t="inlineStr"/>
+      <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr"/>
+      <c r="H613" t="inlineStr"/>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="inlineStr"/>
+      <c r="M613" t="inlineStr"/>
+      <c r="N613" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr"/>
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="inlineStr"/>
+      <c r="E614" t="inlineStr"/>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr"/>
+      <c r="H614" t="inlineStr"/>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="inlineStr"/>
+      <c r="M614" t="inlineStr"/>
+      <c r="N614" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr"/>
+      <c r="E615" t="inlineStr"/>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr"/>
+      <c r="H615" t="inlineStr"/>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="inlineStr"/>
+      <c r="M615" t="inlineStr"/>
+      <c r="N615" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr"/>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr"/>
+      <c r="G616" t="inlineStr"/>
+      <c r="H616" t="inlineStr"/>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="inlineStr"/>
+      <c r="M616" t="inlineStr"/>
+      <c r="N616" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr"/>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr"/>
+      <c r="E617" t="inlineStr"/>
+      <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr"/>
+      <c r="H617" t="inlineStr"/>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="inlineStr"/>
+      <c r="M617" t="inlineStr"/>
+      <c r="N617" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr"/>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="inlineStr"/>
+      <c r="H618" t="inlineStr"/>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr"/>
+      <c r="N618" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr"/>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr"/>
+      <c r="H619" t="inlineStr"/>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="inlineStr"/>
+      <c r="M619" t="inlineStr"/>
+      <c r="N619" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr"/>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="inlineStr"/>
+      <c r="M620" t="inlineStr"/>
+      <c r="N620" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr"/>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr"/>
+      <c r="H621" t="inlineStr"/>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="inlineStr"/>
+      <c r="M621" t="inlineStr"/>
+      <c r="N621" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr"/>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr"/>
+      <c r="N622" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr"/>
+      <c r="E623" t="inlineStr"/>
+      <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr"/>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
+      <c r="M623" t="inlineStr"/>
+      <c r="N623" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr"/>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
+      <c r="M624" t="inlineStr"/>
+      <c r="N624" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr"/>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr"/>
+      <c r="H625" t="inlineStr"/>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
+      <c r="M625" t="inlineStr"/>
+      <c r="N625" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr"/>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
+      <c r="M626" t="inlineStr"/>
+      <c r="N626" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr"/>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="inlineStr"/>
+      <c r="M627" t="inlineStr"/>
+      <c r="N627" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr"/>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
+      <c r="M628" t="inlineStr"/>
+      <c r="N628" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr"/>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
+      <c r="H629" t="inlineStr"/>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
+      <c r="M629" t="inlineStr"/>
+      <c r="N629" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
+      <c r="H630" t="inlineStr"/>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
+      <c r="M630" t="inlineStr"/>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr"/>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="inlineStr"/>
+      <c r="M631" t="inlineStr"/>
+      <c r="N631" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr"/>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
+      <c r="M632" t="inlineStr"/>
+      <c r="N632" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr"/>
+      <c r="E633" t="inlineStr"/>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr"/>
+      <c r="H633" t="inlineStr"/>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr"/>
+      <c r="M633" t="inlineStr"/>
+      <c r="N633" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr"/>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr"/>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr"/>
+      <c r="H634" t="inlineStr"/>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="inlineStr"/>
+      <c r="M634" t="inlineStr"/>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr"/>
+      <c r="E635" t="inlineStr"/>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr"/>
+      <c r="H635" t="inlineStr"/>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="inlineStr"/>
+      <c r="M635" t="inlineStr"/>
+      <c r="N635" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr"/>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr"/>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr"/>
+      <c r="M636" t="inlineStr"/>
+      <c r="N636" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr"/>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr"/>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
+      <c r="G637" t="inlineStr"/>
+      <c r="H637" t="inlineStr"/>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="inlineStr"/>
+      <c r="M637" t="inlineStr"/>
+      <c r="N637" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr"/>
+      <c r="H638" t="inlineStr"/>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr"/>
+      <c r="N638" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr"/>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr"/>
+      <c r="H639" t="inlineStr"/>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
+      <c r="M639" t="inlineStr"/>
+      <c r="N639" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr"/>
+      <c r="H640" t="inlineStr"/>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr"/>
+      <c r="M640" t="inlineStr"/>
+      <c r="N640" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr"/>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr"/>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
+      <c r="G641" t="inlineStr"/>
+      <c r="H641" t="inlineStr"/>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
+      <c r="M641" t="inlineStr"/>
+      <c r="N641" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr"/>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
+      <c r="G642" t="inlineStr"/>
+      <c r="H642" t="inlineStr"/>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="inlineStr"/>
+      <c r="M642" t="inlineStr"/>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr"/>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="inlineStr"/>
+      <c r="M643" t="inlineStr"/>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr"/>
+      <c r="G644" t="inlineStr"/>
+      <c r="H644" t="inlineStr"/>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="inlineStr"/>
+      <c r="M644" t="inlineStr"/>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr"/>
+      <c r="H645" t="inlineStr"/>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr"/>
+      <c r="N645" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr"/>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr"/>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr"/>
+      <c r="H647" t="inlineStr"/>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="inlineStr"/>
+      <c r="M647" t="inlineStr"/>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr"/>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr"/>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr"/>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr"/>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr"/>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr"/>
+      <c r="M649" t="inlineStr"/>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr"/>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr"/>
+      <c r="M650" t="inlineStr"/>
+      <c r="N650" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr"/>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr"/>
+      <c r="H651" t="inlineStr"/>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="inlineStr"/>
+      <c r="M651" t="inlineStr"/>
+      <c r="N651" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr"/>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr"/>
+      <c r="M652" t="inlineStr"/>
+      <c r="N652" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr"/>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr"/>
+      <c r="M653" t="inlineStr"/>
+      <c r="N653" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr"/>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr"/>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
+      <c r="H654" t="inlineStr"/>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr"/>
+      <c r="M654" t="inlineStr"/>
+      <c r="N654" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr"/>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr"/>
+      <c r="H655" t="inlineStr"/>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr"/>
+      <c r="N655" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr"/>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
+      <c r="M656" t="inlineStr"/>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
+      <c r="H657" t="inlineStr"/>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="inlineStr"/>
+      <c r="M657" t="inlineStr"/>
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr"/>
+      <c r="H658" t="inlineStr"/>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="inlineStr"/>
+      <c r="M658" t="inlineStr"/>
+      <c r="N658" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr"/>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr"/>
+      <c r="M659" t="inlineStr"/>
+      <c r="N659" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr"/>
+      <c r="H660" t="inlineStr"/>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr"/>
+      <c r="M660" t="inlineStr"/>
+      <c r="N660" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr"/>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr"/>
+      <c r="M661" t="inlineStr"/>
+      <c r="N661" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
+      <c r="H662" t="inlineStr"/>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr"/>
+      <c r="M662" t="inlineStr"/>
+      <c r="N662" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr"/>
+      <c r="H663" t="inlineStr"/>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="inlineStr"/>
+      <c r="M663" t="inlineStr"/>
+      <c r="N663" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr"/>
+      <c r="H664" t="inlineStr"/>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="inlineStr"/>
+      <c r="M664" t="inlineStr"/>
+      <c r="N664" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr"/>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="inlineStr"/>
+      <c r="M665" t="inlineStr"/>
+      <c r="N665" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr"/>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
+      <c r="H666" t="inlineStr"/>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="inlineStr"/>
+      <c r="M666" t="inlineStr"/>
+      <c r="N666" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr"/>
+      <c r="H667" t="inlineStr"/>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="inlineStr"/>
+      <c r="M667" t="inlineStr"/>
+      <c r="N667" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr"/>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr"/>
+      <c r="N668" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr"/>
+      <c r="N669" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr"/>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr"/>
+      <c r="H670" t="inlineStr"/>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="inlineStr"/>
+      <c r="M670" t="inlineStr"/>
+      <c r="N670" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr"/>
+      <c r="H671" t="inlineStr"/>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="inlineStr"/>
+      <c r="M671" t="inlineStr"/>
+      <c r="N671" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr"/>
+      <c r="H672" t="inlineStr"/>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="inlineStr"/>
+      <c r="M672" t="inlineStr"/>
+      <c r="N672" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr"/>
+      <c r="H673" t="inlineStr"/>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="inlineStr"/>
+      <c r="M673" t="inlineStr"/>
+      <c r="N673" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr"/>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr"/>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
+      <c r="M674" t="inlineStr"/>
+      <c r="N674" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr"/>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr"/>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="inlineStr"/>
+      <c r="M675" t="inlineStr"/>
+      <c r="N675" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr"/>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr"/>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr"/>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="inlineStr"/>
+      <c r="M676" t="inlineStr"/>
+      <c r="N676" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr"/>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
+      <c r="H677" t="inlineStr"/>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="inlineStr"/>
+      <c r="M677" t="inlineStr"/>
+      <c r="N677" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr"/>
+      <c r="H678" t="inlineStr"/>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="inlineStr"/>
+      <c r="M678" t="inlineStr"/>
+      <c r="N678" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr"/>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
+      <c r="H679" t="inlineStr"/>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="inlineStr"/>
+      <c r="M679" t="inlineStr"/>
+      <c r="N679" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr"/>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr"/>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr"/>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="inlineStr"/>
+      <c r="M680" t="inlineStr"/>
+      <c r="N680" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr"/>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr"/>
+      <c r="H681" t="inlineStr"/>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="inlineStr"/>
+      <c r="M681" t="inlineStr"/>
+      <c r="N681" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr"/>
+      <c r="H682" t="inlineStr"/>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="inlineStr"/>
+      <c r="M682" t="inlineStr"/>
+      <c r="N682" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr"/>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr"/>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr"/>
+      <c r="H683" t="inlineStr"/>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="inlineStr"/>
+      <c r="M683" t="inlineStr"/>
+      <c r="N683" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr"/>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr"/>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr"/>
+      <c r="H684" t="inlineStr"/>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="inlineStr"/>
+      <c r="M684" t="inlineStr"/>
+      <c r="N684" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr"/>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr"/>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr"/>
+      <c r="H685" t="inlineStr"/>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="inlineStr"/>
+      <c r="M685" t="inlineStr"/>
+      <c r="N685" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr"/>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr"/>
+      <c r="H686" t="inlineStr"/>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="inlineStr"/>
+      <c r="M686" t="inlineStr"/>
+      <c r="N686" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr"/>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr"/>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr"/>
+      <c r="H687" t="inlineStr"/>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="inlineStr"/>
+      <c r="M687" t="inlineStr"/>
+      <c r="N687" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr"/>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr"/>
+      <c r="E688" t="inlineStr"/>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr"/>
+      <c r="H688" t="inlineStr"/>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="inlineStr"/>
+      <c r="M688" t="inlineStr"/>
+      <c r="N688" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr"/>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr"/>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="inlineStr"/>
+      <c r="M689" t="inlineStr"/>
+      <c r="N689" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr"/>
+      <c r="H690" t="inlineStr"/>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="inlineStr"/>
+      <c r="M690" t="inlineStr"/>
+      <c r="N690" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr"/>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr"/>
+      <c r="H691" t="inlineStr"/>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="inlineStr"/>
+      <c r="M691" t="inlineStr"/>
+      <c r="N691" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr"/>
+      <c r="H692" t="inlineStr"/>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="inlineStr"/>
+      <c r="M692" t="inlineStr"/>
+      <c r="N692" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr"/>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr"/>
+      <c r="H693" t="inlineStr"/>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="inlineStr"/>
+      <c r="M693" t="inlineStr"/>
+      <c r="N693" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr"/>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr"/>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="inlineStr"/>
+      <c r="M694" t="inlineStr"/>
+      <c r="N694" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr"/>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
+      <c r="M695" t="inlineStr"/>
+      <c r="N695" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr"/>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="inlineStr"/>
+      <c r="M696" t="inlineStr"/>
+      <c r="N696" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr"/>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="inlineStr"/>
+      <c r="M697" t="inlineStr"/>
+      <c r="N697" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr"/>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="inlineStr"/>
+      <c r="M698" t="inlineStr"/>
+      <c r="N698" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr"/>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="inlineStr"/>
+      <c r="M699" t="inlineStr"/>
+      <c r="N699" t="inlineStr">
+        <is>
+          <t>['[-0.0009776350343599916, 2.520699977874756]', '[-0.0012633800506591797, 2.0419600009918213]', '[-0.0025883899070322514, 2.808150053024292]', '[-0.0045527801848948, 0.45742499828338623]', '[-0.006321670021861792, 1.3289899826049805]', '[-0.007083420176059008, 2.0637400150299072]', '[-0.007362130098044872, 2.7051899433135986]', '[-0.00818943977355957, 0.4245370030403137]', '[-0.012052999809384346, 0.9471909999847412]', '[-0.013943299651145935, 0.20943599939346313]', '[-0.014347399584949017, 3.025860071182251]', '[-0.015203399583697319, 2.5843300819396973]', '[-0.017614800482988358, 3.3935599327087402]', '[-0.02017419971525669, 0.9521859884262085]', '[-0.021791499108076096, 2.712239980697632]', '[-0.022242499515414238, 0.2983810007572174]', '[-0.026512300595641136, 1.5236599445343018]', '[-0.02670760080218315, 3.432760000228882]', '[-0.02803869917988777, 3.0]', '[-0.029058199375867844, 2.347369909286499]', '[-0.029064200818538666, 2.100529909133911]', '[-0.029380399733781815, 0.3312169909477234]', '[-0.033528298139572144, 0.47436100244522095]', '[-0.036360401660203934, 1.3271299600601196]', '[-0.03657050058245659, 3.2184898853302]', '[-0.03897939994931221, 1.7664899826049805]', '[-0.03923200070858002, 3.3294899463653564]', '[-0.03964250162243843, 1.6664400100708008]', '[-0.041360799223184586, 3.544480085372925]', '[-0.04163390025496483, 0.7761669754981995]', '[-0.04344389960169792, 1.8447799682617188]', '[-0.04487530142068863, 2.6537399291992188]', '[-0.044893600046634674, 2.882240056991577]', '[-0.04597700014710426, 2.597830057144165]', '[-0.0491551011800766, 0.8076500296592712]', '[-0.05169830098748207, 0.3074930012226105]', '[-0.05233730003237724, 2.6529600620269775]', '[-0.053155601024627686, 0.9211879968643188]', '[-0.05385600030422211, 2.7053699493408203]', '[-0.05563569813966751, 2.8615100383758545]', '[-0.05675220116972923, 1.0783900022506714]', '[-0.05872099846601486, 0.3208889961242676]', '[-0.06141730025410652, 0.221110999584198]', '[-0.061974700540304184, 2.4560599327087402]', '[-0.06349419802427292, 1.3456900119781494]', '[-0.06351300328969955, 0.08961399644613266]', '[-0.06355930119752884, 2.69638991355896]', '[-0.066982202231884, 2.743769884109497]', '[-0.06877110153436661, 0.6093249917030334]', '[-0.06988160312175751, 0.11686400324106216]', '[-0.07278440147638321, 3.1892199516296387]', '[-0.07363729923963547, 2.7940099239349365]', '[-0.07796479761600494, 2.681649923324585]', '[-0.0786907970905304, 1.2066899538040161]', '[-0.07917500287294388, 2.6620500087738037]', '[-0.08223550021648407, 1.7528599500656128]', '[-0.08419360220432281, 1.9230999946594238]', '[-0.08734049648046494, 2.6550700664520264]', '[-0.0888959988951683, 2.6646900177001953]', '[-0.09145980328321457, 0.8206549882888794]', '[-0.09306669980287552, 2.8389599323272705]', '[-0.09315220266580582, 3.287329912185669]', '[-0.10025300085544586, 1.4390900135040283]', '[-0.10026799887418747, 0.7405380010604858]', '[-0.10134399682283401, 3.524060010910034]', '[-0.10218799859285355, 0.5567119717597961]', '[-0.10523100197315216, 3.3036398887634277]', '[-0.10663600265979767, 3.2089600563049316]', '[-0.10946699976921082, 0.5695199966430664]', '[-0.11165600270032883, 3.0868799686431885]', '[-0.11243999749422073, 1.9580600261688232]', '[-0.11321400105953217, 3.230710029602051]', '[-0.11342199891805649, 0.3952710032463074]', '[-0.11577799916267395, 2.7018399238586426]', '[-0.12934699654579163, 0.5144919753074646]', '[-0.1295669972896576, 3.0848801136016846]', '[-0.12978899478912354, 3.073580026626587]', '[-0.13062399625778198, 2.8397998809814453]', '[-0.14531099796295166, 0.29065099358558655]', '[-0.14608199894428253, 3.1735100746154785]', '[-0.14622700214385986, 2.7958600521087646]', '[-0.16269700229167938, 2.3758299350738525]', '[-0.16563299298286438, 2.5047199726104736]', '[-0.17705200612545013, 0.3678649961948395]', '[-0.18442000448703766, 2.9986000061035156]', '[-0.1894419938325882, 1.6455700397491455]', '[-0.1970289945602417, 0.5033289790153503]', '[-0.19869300723075867, 3.3459999561309814]', '[-0.23119400441646576, 2.583750009536743]', '[-0.2345300018787384, 0.8940349817276001]', '[-0.2496740072965622, 0.5864930152893066]', '[-0.2528719902038574, 2.626310110092163]', '[-0.2915840148925781, 0.17844200134277344]', '[-0.3021169900894165, 1.8686100244522095]', '[-0.359811007976532, 2.9359099864959717]', '[0.0008771420107223094, 1.4219499826431274]', '[0.0020502801053225994, 2.8222100734710693]', '[0.0021669899579137564, 1.643779993057251]', '[0.0029406200628727674, 0.7672119736671448]', '[0.0030243999790400267, 1.716770052909851]', '[0.00563073018565774, 3.237989902496338]', '[0.006859899964183569, 2.1709399223327637]', '[0.006951000075787306, 0.05224649980664253]', '[0.007422389928251505, 3.059760093688965]', '[0.007739370223134756, 0.2300969958305359]', '[0.007815360091626644, 2.980340003967285]', '[0.008600950241088867, 3.439970016479492]', '[0.009095069952309132, 2.603879928588867]', '[0.01153970044106245, 1.8023300170898438]', '[0.012676199898123741, 1.242650032043457]', '[0.012943900190293789, 1.7260700464248657]', '[0.013201399706304073, 0.7930960059165955]', '[0.013485699892044067, 3.528059959411621]', '[0.014512299560010433, 2.9839000701904297]', '[0.015212999656796455, 1.1079399585723877]', '[0.01580129936337471, 1.3472299575805664]', '[0.016393499448895454, 3.4384500980377197]', '[0.016449199989438057, 2.8159101009368896]', '[0.018940599635243416, 2.863379955291748]', '[0.01925629936158657, 0.4666140079498291]', '[0.02088649943470955, -0.10123699903488159]', '[0.021726500242948532, 2.3071401119232178]', '[0.022097699344158173, 0.4407849907875061]', '[0.02229510061442852, 1.0489000082015991]', '[0.022367099300026894, 1.8845200538635254]', '[0.023792199790477753, 2.9987199306488037]', '[0.024684300646185875, 2.765660047531128]', '[0.025316700339317322, 3.1442298889160156]', '[0.02671780064702034, 2.8396100997924805]', '[0.02687850035727024, 0.0024925998877733946]', '[0.02694310061633587, 0.7786989808082581]', '[0.0274656992405653, 1.9266200065612793]', '[0.029196299612522125, 0.5538110136985779]', '[0.030670199543237686, 0.7858089804649353]', '[0.0314394012093544, 3.1038599014282227]', '[0.03263520076870918, 1.2319200038909912]', '[0.0330796018242836, 2.5304999351501465]', '[0.034361500293016434, 2.8786299228668213]', '[0.035384099930524826, 2.779409885406494]', '[0.035733699798583984, 3.215939998626709]', '[0.03653259947896004, 2.988100051879883]', '[0.03682209923863411, 3.6463301181793213]', '[0.03776809945702553, 2.919189929962158]', '[0.03795519843697548, 2.9462199211120605]', '[0.038596898317337036, 0.5440559983253479]', '[0.03904670104384422, 2.9110400676727295]', '[0.04022129997611046, 3.093590021133423]', '[0.04040930047631264, 0.8390309810638428]', '[0.04290499910712242, 2.7498199939727783]', '[0.043901801109313965, 2.0228800773620605]', '[0.04404409974813461, 2.0069100856781006]', '[0.04720370098948479, 0.7449989914894104]', '[0.04805989935994148, 0.1718049943447113]', '[0.048487599939107895, 0.3873260021209717]', '[0.048890601843595505, 2.781450033187866]', '[0.05207369849085808, -0.2416979968547821]', '[0.052163999527692795, 2.1010000705718994]', '[0.053748201578855515, 0.6357510089874268]', '[0.053881898522377014, 0.38201001286506653]', '[0.054447900503873825, 1.7524399757385254]', '[0.05471380054950714, 2.673569917678833]', '[0.05564559996128082, 0.8794419765472412]', '[0.05591059848666191, 2.9075000286102295]', '[0.05837329849600792, 1.0551999807357788]', '[0.05886689946055412, 0.7529879808425903]', '[0.058977801352739334, 3.511579990386963]', '[0.060908399522304535, 1.5287699699401855]', '[0.06214990094304085, 2.733880043029785]', '[0.06345699727535248, 1.235990047454834]', '[0.06364669650793076, 3.0224499702453613]', '[0.06689529865980148, 0.8248739838600159]', '[0.06810220330953598, 1.1833699941635132]', '[0.06854840368032455, 1.2028000354766846]', '[0.07020069658756256, 0.823108971118927]', '[0.07054729759693146, 0.30217400193214417]', '[0.07155189663171768, 0.9149540066719055]', '[0.0732956975698471, 2.8837199211120605]', '[0.07383269816637039, 2.950239896774292]', '[0.07385729998350143, 1.7306499481201172]', '[0.0755767971277237, 1.7403000593185425]', '[0.07581479847431183, 2.805340051651001]', '[0.07590849697589874, 2.9230799674987793]', '[0.07659299671649933, 3.281369924545288]', '[0.07716730237007141, 3.4435200691223145]', '[0.07804369926452637, 0.4326860010623932]', '[0.07850690186023712, 0.7311019897460938]', '[0.07896210253238678, 1.3075499534606934]', '[0.08006910234689713, 1.3375400304794312]', '[0.08072470128536224, 2.876230001449585]', '[0.08105859905481339, 2.8584399223327637]', '[0.08161280304193497, 2.9649300575256348]', '[0.0831070989370346, 2.5530500411987305]', '[0.08330260217189789, 2.4401800632476807]', '[0.08387040346860886, 1.3134900331497192]', '[0.08485320210456848, 2.6361100673675537]', '[0.08610700070858002, 2.791110038757324]', '[0.08873060345649719, 0.46615201234817505]', '[0.08889850229024887, 2.3440001010894775]', '[0.08999810367822647, 0.5516219735145569]', '[0.0906601995229721, 2.3483099937438965]', '[0.09393390268087387, 1.1810200214385986]', '[0.09399110078811646, 0.8634939789772034]', '[0.09404739737510681, 0.0822812020778656]', '[0.0941300019621849, -0.18387700617313385]', '[0.0944266989827156, 0.6545370221138]', '[0.09517130255699158, 3.0890800952911377]', '[0.09695280343294144, 3.1605799198150635]', '[0.09704519808292389, 0.21639899909496307]', '[0.09727679938077927, 3.07069993019104]', '[0.09764649718999863, 2.5141100883483887]', '[0.09878040105104446, 1.2646199464797974]', '[0.09887400269508362, 0.5979070067405701]', '[0.09965880215167999, 0.569661021232605]', '[0.10077299922704697, 3.006999969482422]', '[0.10134299844503403, 3.238229990005493]', '[0.10233200341463089, 0.37714800238609314]', '[0.10244099795818329, 3.382110118865967]', '[0.10373400151729584, 0.5543460249900818]', '[0.10482600331306458, 1.5056099891662598]', '[0.10528799891471863, 1.5161800384521484]', '[0.10590100288391113, 1.746559977531433]', '[0.10678300261497498, 2.955319881439209]', '[0.10704199969768524, 2.4604198932647705]', '[0.10774999856948853, 1.730720043182373]', '[0.10878100246191025, 2.3489298820495605]', '[0.10881400108337402, 2.3312599658966064]', '[0.1091570034623146, 2.8630099296569824]', '[0.11053799837827682, 3.195499897003174]', '[0.11083400249481201, 0.49000000953674316]', '[0.11124099791049957, 0.44751501083374023]', '[0.11274600028991699, 2.9396400451660156]', '[0.11332300305366516, 2.244110107421875]', '[0.11336900293827057, 0.4550360143184662]', '[0.11363500356674194, 3.2443199157714844]', '[0.11545299738645554, 2.636899948120117]', '[0.11560799926519394, 0.4825649857521057]', '[0.11803899705410004, 1.1008000373840332]', '[0.11834000051021576, 2.5886600017547607]', '[0.11865200102329254, 3.1060099601745605]', '[0.11929299682378769, 3.3195900917053223]', '[0.1203640028834343, 1.2825000286102295]', '[0.1204650029540062, 2.3504300117492676]', '[0.12298599630594254, 1.0341500043869019]', '[0.12306500226259232, 2.5200700759887695]', '[0.12309399992227554, 2.911530017852783]', '[0.12345100194215775, 3.0537800788879395]', '[0.12372200191020966, 3.396359920501709]', '[0.12381300330162048, 0.14071400463581085]', '[0.12409999966621399, 3.335930109024048]', '[0.12578999996185303, 2.079770088195801]', '[0.1259630024433136, 3.324399948120117]', '[0.12747499346733093, 2.6949501037597656]', '[0.12799899280071259, 2.721060037612915]', '[0.12928199768066406, 2.3022100925445557]', '[0.1295669972896576, 0.8986309766769409]', '[0.13060100376605988, 2.8552699089050293]', '[0.13105499744415283, 2.024600028991699]', '[0.1310579925775528, 0.3499720096588135]', '[0.13120600581169128, 1.0012999773025513]', '[0.1326490044593811, 2.97625994682312]', '[0.13441599905490875, 3.574310064315796]', '[0.1349180042743683, 1.0995099544525146]', '[0.13503800332546234, 2.9830400943756104]', '[0.1350499987602234, -0.06172189861536026]', '[0.13536499440670013, 2.809109926223755]', '[0.135452002286911, 2.689379930496216]', '[0.1364080011844635, 0.4970569908618927]', '[0.13698799908161163, 2.866179943084717]', '[0.14031000435352325, 3.4372200965881348]', '[0.14032700657844543, 2.755500078201294]', '[0.14067499339580536, 1.0010099411010742]', '[0.1407250016927719, 1.4371399879455566]', '[0.14124399423599243, 0.8826850056648254]', '[0.14256399869918823, 2.647249937057495]', '[0.14260299503803253, 0.1435140073299408]', '[0.14385199546813965, 2.946510076522827]', '[0.14421799778938293, -0.02722020074725151]', '[0.14462600648403168, 2.6231400966644287]', '[0.14495499432086945, 2.4281399250030518]', '[0.14523200690746307, 2.535799980163574]', '[0.1454869955778122, 2.63385009765625]', '[0.14582400023937225, 2.0397799015045166]', '[0.14631199836730957, 3.0251801013946533]', '[0.1463869959115982, 0.19641800224781036]', '[0.14680500328540802, 2.604290008544922]', '[0.14704200625419617, 2.358059883117676]', '[0.1471879929304123, 0.6644629836082458]', '[0.14734899997711182, 2.082089900970459]', '[0.14906099438667297, 2.8975400924682617]', '[0.1499200016260147, 3.5100998878479004]', '[0.15183000266551971, 3.0257999897003174]', '[0.15220899879932404, 2.0034101009368896]', '[0.15363000333309174, 0.19139400124549866]', '[0.15459799766540527, 1.0424799919128418]', '[0.15569999814033508, 0.6208119988441467]', '[0.15726099908351898, 0.5595880150794983]', '[0.15794700384140015, 0.6395480036735535]', '[0.15838399529457092, 1.7662800550460815]', '[0.1586180031299591, 2.348560094833374]', '[0.1590069979429245, 0.7552610039710999]', '[0.1596740037202835, 1.0744199752807617]', '[0.15987500548362732, 0.4047369956970215]', '[0.1609880030155182, 1.8621799945831299]', '[0.1622450053691864, 2.8833398818969727]', '[0.16264399886131287, 2.295599937438965]', '[0.1629440039396286, 2.725559949874878]', '[0.16306500136852264, 2.248339891433716]', '[0.1638460010290146, 3.2626900672912598]', '[0.16401000320911407, 1.3493000268936157]', '[0.1641779989004135, 2.979449987411499]', '[0.16423800587654114, 0.41895899176597595]', '[0.16458000242710114, 1.8814799785614014]', '[0.1653210073709488, 1.8069599866867065]', '[0.1668429970741272, 1.839020013809204]', '[0.16714799404144287, 2.6528100967407227]', '[0.16745999455451965, 0.4250420033931732]', '[0.16748900711536407, 3.490609884262085]', '[0.1689240038394928, 1.0509899854660034]', '[0.16970199346542358, 3.03971004486084]', '[0.1715490072965622, 3.063159942626953]', '[0.17180900275707245, 3.1900599002838135]', '[0.17183800041675568, 3.128999948501587]', '[0.17231500148773193, 1.5455900430679321]', '[0.17302100360393524, 1.9638899564743042]', '[0.17339099943637848, 2.714329957962036]', '[0.17346200346946716, 0.8287960290908813]', '[0.17439599335193634, 3.4499199390411377]', '[0.17471100389957428, 0.9002150297164917]', '[0.17476099729537964, -0.11082500219345093]', '[0.17502599954605103, 1.9865599870681763]', '[0.17621800303459167, 2.700969934463501]', '[0.17657600343227386, 2.487370014190674]', '[0.17691299319267273, 1.4029200077056885]', '[0.17692600190639496, 1.7047200202941895]', '[0.17693400382995605, 2.805840015411377]', '[0.1770700067281723, 0.949741005897522]', '[0.17757900059223175, 0.5590459704399109]', '[0.17774300277233124, 1.3673800230026245]', '[0.17782999575138092, 2.6366701126098633]', '[0.17788000404834747, 2.8457000255584717]', '[0.17843300104141235, 3.044100046157837]', '[0.1787630021572113, 2.6336700916290283]', '[0.1803860068321228, 3.279409885406494]', '[0.18062500655651093, 0.707843005657196]', '[0.18107299506664276, 3.256890058517456]', '[0.18110999464988708, 2.675220012664795]', '[0.18210400640964508, 1.3541500568389893]', '[0.18315500020980835, 0.2841559946537018]', '[0.18372799456119537, 1.3496700525283813]', '[0.1838580071926117, 0.5196449756622314]', '[0.1838890016078949, 2.794919967651367]', '[0.18461699783802032, 2.8184499740600586]', '[0.18539200723171234, 2.9773800373077393]', '[0.18595099449157715, 3.189300060272217]', '[0.18628400564193726, 3.0501999855041504]', '[0.18643300235271454, 0.5928900241851807]', '[0.18665499985218048, 2.624300003051758]', '[0.1868620067834854, 0.714136004447937]', '[0.18807299435138702, 0.6904540061950684]', '[0.18951000273227692, 3.5419199466705322]', '[0.18997199833393097, 1.2466000318527222]', '[0.19155199825763702, 0.19674600660800934]', '[0.19188599288463593, 0.2958660125732422]', '[0.19225700199604034, -0.010019400157034397]', '[0.19248299300670624, 0.009403419680893421]', '[0.1934249997138977, 1.9586399793624878]', '[0.19497300684452057, 3.2199299335479736]', '[0.19531500339508057, 1.1087299585342407]', '[0.19566500186920166, 2.809999942779541]', '[0.19637000560760498, 3.3097100257873535]', '[0.19736500084400177, 2.7823901176452637]', '[0.19776800274848938, 3.127609968185425]', '[0.19921499490737915, 2.437079906463623]', '[0.1999559998512268, 1.204800009727478]', '[0.20002000033855438, 3.5099799633026123]', '[0.20093199610710144, 1.5241600275039673]', '[0.20123399794101715, 2.7985599040985107]', '[0.2016180008649826, 1.9982800483703613]', '[0.20204399526119232, 0.43121999502182007]', '[0.20214299857616425, 3.0831799507141113]', '[0.20229999721050262, 1.9631400108337402]', '[0.20380699634552002, 3.6203200817108154]', '[0.2038470059633255, 1.9026399850845337]', '[0.20479999482631683, 0.25631898641586304]', '[0.20490899682044983, 2.8747498989105225]', '[0.20523199439048767, 3.0625998973846436]', '[0.20545800030231476, 2.8246800899505615]', '[0.20554499328136444, 0.06843289732933044]', '[0.2074429988861084, 1.9522000551223755]', '[0.20745299756526947, 0.6567450165748596]', '[0.20779000222682953, 1.1416000127792358]', '[0.20822599530220032, 0.7018809914588928]', '[0.2091660052537918, 2.57354998588562]', '[0.21010999381542206, 2.511549949645996]', '[0.21054799854755402, 3.6802399158477783]', '[0.21091000735759735, 2.3427999019622803]', '[0.2110999971628189, 1.59443998336792]', '[0.21249599754810333, 1.497480034828186]', '[0.21300099790096283, 3.008970022201538]', '[0.21411900222301483, 3.0528600215911865]', '[0.21463200449943542, 0.8582689762115479]', '[0.21483099460601807, 2.9154300689697266]', '[0.21504899859428406, -0.02509159967303276]', '[0.21511100232601166, 3.03016996383667]', '[0.21549099683761597, 0.3889389932155609]', '[0.21589800715446472, 3.0746800899505615]', '[0.21626299619674683, 0.48556798696517944]', '[0.21640199422836304, 2.5914900302886963]', '[0.2167699933052063, 0.05565379932522774]', '[0.21818199753761292, 3.5103399753570557]', '[0.2183919996023178, 0.20677199959754944]', '[0.21865199506282806, 1.548699975013733]', '[0.21884000301361084, 0.1050650030374527]', '[0.21908099949359894, 2.8890199661254883]', '[0.22118200361728668, 2.551029920578003]', '[0.22325399518013, 3.0034101009368896]', '[0.22442500293254852, 3.2186501026153564]', '[0.22443999350070953, 0.45013201236724854]', '[0.22444899380207062, 2.3142099380493164]', '[0.22459900379180908, 2.86365008354187]', '[0.22570399940013885, 2.3974599838256836]', '[0.22663000226020813, 2.887809991836548]', '[0.22725899517536163, 2.969320058822632]', '[0.2273789942264557, 0.659546971321106]', '[0.22750000655651093, 3.066879987716675]', '[0.228192999958992, 2.4873900413513184]', '[0.22868099808692932, 2.476069927215576]', '[0.22918400168418884, 1.4368400573730469]', '[0.22940699756145477, 3.200089931488037]', '[0.22961199283599854, 2.5480198860168457]', '[0.23017899692058563, -0.33574700355529785]', '[0.23035700619220734, 0.9133989810943604]', '[0.2311750054359436, 0.5577329993247986]', '[0.23219899833202362, 0.27812498807907104]', '[0.2326579988002777, 0.6998519897460938]', '[0.2328689992427826, 0.5858569741249084]', '[0.23319299519062042, 2.996579885482788]', '[0.23356400430202484, 1.8668400049209595]', '[0.23399899899959564, 2.3853800296783447]', '[0.2347320020198822, 0.17305000126361847]', '[0.23505499958992004, 0.6054080128669739]', '[0.23601000010967255, 0.5075179934501648]', '[0.23616500198841095, 2.7983100414276123]', '[0.23668600618839264, 3.487760066986084]', '[0.2372799962759018, 1.8819400072097778]', '[0.23771199584007263, 2.9063000679016113]', '[0.237869992852211, 1.4166699647903442]', '[0.23795300722122192, 1.4661400318145752]', '[0.2395939975976944, 2.9266700744628906]', '[0.24096600711345673, 3.3544299602508545]', '[0.24130800366401672, 2.9606199264526367]', '[0.2420399934053421, 0.5383070111274719]', '[0.24254600703716278, 0.22945299744606018]', '[0.2429489940404892, 1.10903000831604]', '[0.2434699982404709, 0.1772249937057495]', '[0.24364100396633148, 1.5371500253677368]', '[0.24397000670433044, 2.8018300533294678]', '[0.24438199400901794, -0.07144410163164139]', '[0.2451310008764267, 3.156980037689209]', '[0.2454030066728592, 0.660260021686554]', '[0.24686500430107117, 2.3216099739074707]', '[0.24707500636577606, 2.329129934310913]', '[0.24764800071716309, 1.6945699453353882]', '[0.24773800373077393, 1.7778700590133667]', '[0.24804000556468964, 2.9836199283599854]', '[0.2483299970626831, 0.5574929714202881]', '[0.24845099449157715, 0.9890599846839905]', '[0.2500239908695221, 1.707900047302246]', '[0.25013500452041626, 0.5484610199928284]', '[0.2511169910430908, 0.6882169842720032]', '[0.252469003200531, 2.0244100093841553]', '[0.25298699736595154, 2.51528000831604]', '[0.2536900043487549, 1.8496400117874146]', '[0.25369900465011597, 1.6773799657821655]', '[0.25416699051856995, 0.4991320073604584]', '[0.2541869878768921, 2.654939889907837]', '[0.25429001450538635, 3.136080026626587]', '[0.25465598702430725, 0.7099599838256836]', '[0.255048006772995, 0.5872039794921875]', '[0.2553589940071106, 0.28968098759651184]', '[0.2553830146789551, 0.5452359914779663]', '[0.2563050091266632, 0.42432400584220886]', '[0.2567110061645508, 0.03551020100712776]', '[0.25709500908851624, 1.2028199434280396]', '[0.25764501094818115, 0.3803209960460663]', '[0.2578360140323639, 2.623889923095703]', '[0.26025301218032837, 2.932339906692505]', '[0.2605839967727661, 1.088420033454895]', '[0.26109299063682556, 0.8027139902114868]', '[0.26114600896835327, 2.153140068054199]', '[0.2611899971961975, 3.2690999507904053]', '[0.2616159915924072, 2.8697800636291504]', '[0.26173099875450134, 0.7009389996528625]', '[0.262239009141922, 0.25043800473213196]', '[0.2633489966392517, 1.1896899938583374]', '[0.26364201307296753, 3.2513999938964844]', '[0.263949990272522, 1.294100046157837]', '[0.26553699374198914, 1.52128005027771]', '[0.26557400822639465, 2.16825008392334]', '[0.26568499207496643, 1.6870499849319458]', '[0.2664420008659363, 2.161439895629883]', '[0.2664479911327362, 2.9882400035858154]', '[0.26670199632644653, 1.590019941329956]', '[0.2679019868373871, 0.5252320170402527]', '[0.2681809961795807, 2.8981199264526367]', '[0.26899799704551697, 0.42432901263237]', '[0.2705239951610565, 2.751189947128296]', '[0.2713710069656372, 1.0763800144195557]', '[0.2714940011501312, 0.7220289707183838]', '[0.27176201343536377, 2.799639940261841]', '[0.2719759941101074, 2.7191898822784424]', '[0.27205801010131836, 2.4032399654388428]', '[0.27228400111198425, 1.4890199899673462]', '[0.27232399582862854, 2.7179300785064697]', '[0.2724500000476837, 0.718375027179718]', '[0.2757120132446289, 0.7354580163955688]', '[0.27596500515937805, 3.2197399139404297]', '[0.27653101086616516, 2.901900053024292]', '[0.276964008808136, 0.8955900073051453]', '[0.2770960032939911, 0.25123199820518494]', '[0.27712398767471313, 1.5911999940872192]', '[0.2772960066795349, 2.3250598907470703]', '[0.2774679958820343, -0.0442207008600235]', '[0.27768799662590027, 0.9334310293197632]', '[0.2777960002422333, 0.7074869871139526]', '[0.2780509889125824, 1.9677799940109253]', '[0.27856001257896423, 2.1112499237060547]', '[0.2786119878292084, 0.28912198543548584]', '[0.27897998690605164, 2.5246500968933105]', '[0.27908000349998474, 1.9445899724960327]', '[0.2791540026664734, 3.603760004043579]', '[0.27980300784111023, 0.6222620010375977]', '[0.28076499700546265, 2.1045799255371094]', '[0.2811869978904724, 2.862730026245117]', '[0.2814970016479492, 1.8714900016784668]', '[0.28162598609924316, 2.7416300773620605]', '[0.2817170023918152, -0.04675839841365814]', '[0.28259000182151794, 3.6443300247192383]', '[0.28265801072120667, 2.380539894104004]', '[0.28427499532699585, 2.8278698921203613]', '[0.284292995929718, 0.6856679916381836]', '[0.2843410074710846, 2.5968399047851562]', '[0.2846820056438446, 2.3227999210357666]', '[0.28484898805618286, 0.07471100240945816]', '[0.2854990065097809, 3.778630018234253]', '[0.28570300340652466, 1.4010599851608276]', '[0.2861790060997009, 0.49281299114227295]', '[0.28647300601005554, 0.8794800043106079]', '[0.2882849872112274, 0.6224179863929749]', '[0.28869199752807617, 3.0957698822021484]', '[0.28906500339508057, 2.1098101139068604]', '[0.2890680134296417, 0.8195269703865051]', '[0.2896310091018677, -0.04235289990901947]', '[0.28977200388908386, 0.34434500336647034]', '[0.28977400064468384, 2.7288599014282227]', '[0.2899250090122223, 3.292140007019043]', '[0.29029199481010437, 1.3080400228500366]', '[0.29038500785827637, 3.098050117492676]', '[0.2908029854297638, 2.9272499084472656]', '[0.29124799370765686, 3.0403099060058594]', '[0.2916789948940277, 2.956929922103882]', '[0.29170599579811096, 2.309230089187622]', '[0.2918680012226105, 2.6205201148986816]', '[0.2927339971065521, 2.7965199947357178]', '[0.2934019863605499, 2.6583399772644043]', '[0.29411599040031433, 0.3291209936141968]', '[0.2945060133934021, 2.8767800331115723]', '[0.2946290075778961, 0.3236849904060364]', '[0.2947719991207123, 0.315079003572464]', '[0.2954750061035156, 3.161910057067871]', '[0.29571399092674255, 3.384049892425537]', '[0.29622700810432434, 2.5854899883270264]', '[0.2966359853744507, 2.8361399173736572]', '[0.2967050075531006, 3.313849925994873]', '[0.2968679964542389, 0.6068040132522583]', '[0.2978529930114746, 2.749039888381958]', '[0.2982499897480011, 3.0792899131774902]', '[0.29842400550842285, 0.7764279842376709]', '[0.2985199987888336, 2.9760499000549316]', '[0.2988849878311157, 0.2535490095615387]', '[0.2989790141582489, 2.7588400840759277]', '[0.2993830144405365, 0.19438600540161133]', '[0.29959699511528015, 2.77662992477417]', '[0.2996320128440857, 2.821470022201538]', '[0.29986101388931274, 0.4173150062561035]', '[0.3001059889793396, 2.978940010070801]', '[0.3001280128955841, -0.11917699873447418]', '[0.3002519905567169, 1.8719300031661987]', '[0.30105701088905334, 0.8277419805526733]', '[0.30114901065826416, 2.7300000190734863]', '[0.3012329936027527, 3.0903398990631104]', '[0.3018690049648285, 2.866070032119751]', '[0.3031359910964966, -0.16054199635982513]', '[0.30314499139785767, 3.077440023422241]', '[0.30347099900245667, 1.3234699964523315]', '[0.3040289878845215, 0.5954939723014832]', '[0.3044559955596924, 0.5682119727134705]', '[0.30448099970817566, 1.0090800523757935]', '[0.3047510087490082, 2.996429920196533]', '[0.3054879903793335, 2.3461599349975586]', '[0.3057900071144104, 2.0005600452423096]', '[0.305961012840271, 2.6549899578094482]', '[0.30624300241470337, 2.965630054473877]', '[0.30649200081825256, 1.7785999774932861]', '[0.3074440062046051, 3.4491701126098633]', '[0.3086070120334625, 1.2436000108718872]', '[0.3087320029735565, 1.268030047416687]', '[0.3089509904384613, 3.0188798904418945]', '[0.30940499901771545, 1.9538600444793701]', '[0.3099069893360138, 2.9058399200439453]', '[0.3102380037307739, 0.5902079939842224]', '[0.31035900115966797, 0.2780190110206604]', '[0.3106519877910614, 0.2837730050086975]', '[0.311149001121521, 0.43231400847435]', '[0.31116798520088196, 3.4675099849700928]', '[0.3114579916000366, 2.7531399726867676]', '[0.3118009865283966, 0.25681498646736145]', '[0.3121120035648346, 3.382420063018799]', '[0.3122180104255676, 0.9933800101280212]', '[0.31263700127601624, 0.4574680030345917]', '[0.31292399764060974, 3.0838398933410645]', '[0.31332701444625854, 0.9084460139274597]', '[0.31383898854255676, 1.5420000553131104]', '[0.3139449954032898, 2.205209970474243]', '[0.3140380084514618, 2.342289924621582]', '[0.3141529858112335, 2.8923499584198]', '[0.31438499689102173, 2.269160032272339]', '[0.3148370087146759, 0.6851630210876465]', '[0.31508299708366394, 2.455080032348633]', '[0.31512999534606934, 2.879739999771118]', '[0.3154140114784241, 0.11225699633359909]', '[0.31556200981140137, 0.17045800387859344]', '[0.31564998626708984, 1.46943998336792]', '[0.3157289922237396, 3.597909927368164]', '[0.3170289993286133, 3.132080078125]', '[0.31796199083328247, 0.8814100027084351]', '[0.3191620111465454, 3.2558400630950928]', '[0.31984999775886536, 2.955579996109009]', '[0.3198759853839874, 0.862201988697052]', '[0.31999000906944275, 2.1803300380706787]', '[0.3201180100440979, 3.0035901069641113]', '[0.3201200067996979, 3.065880060195923]', '[0.32035601139068604, 0.7170320153236389]', '[0.320809006690979, 0.6367509961128235]', '[0.32103100419044495, 2.2026000022888184]', '[0.3210740089416504, 3.365499973297119]', '[0.3223179876804352, 3.6826999187469482]', '[0.3223550021648407, 3.2555301189422607]', '[0.3224489986896515, 0.6907740235328674]', '[0.3226799964904785, 0.8038849830627441]', '[0.3230609893798828, 3.30292010307312]', '[0.3233790099620819, 0.9696810245513916]', '[0.32352200150489807, 2.1063599586486816]', '[0.32365500926971436, 0.6359620094299316]', '[0.3238230049610138, 3.197510004043579]', '[0.3241080045700073, 0.23251000046730042]', '[0.324537992477417, 2.6233599185943604]', '[0.32464900612831116, 2.975980043411255]', '[0.3247610032558441, 1.6318700313568115]', '[0.3249100148677826, 3.1103999614715576]', '[0.3250249922275543, 0.6644330024719238]', '[0.3250890076160431, 0.6106340289115906]', '[0.3252849876880646, 0.30681100487709045]', '[0.3252969980239868, 1.2117400169372559]', '[0.3253040015697479, 2.532210111618042]', '[0.3254530131816864, 2.756510019302368]', '[0.32591599225997925, 1.3020600080490112]', '[0.32593798637390137, 0.7771649956703186]', '[0.3260419964790344, 3.255889892578125]', '[0.3263629972934723, 1.0698299407958984]', '[0.327657014131546, 1.7541899681091309]', '[0.3282409906387329, 2.384629964828491]', '[0.32848501205444336, 1.9763599634170532]', '[0.32896700501441956, 1.2750699520111084]', '[0.32918599247932434, 1.4518699645996094]', '[0.32933101058006287, 2.2868800163269043]', '[0.3294450044631958, 0.46256500482559204]', '[0.3295750021934509, 0.7201840281486511]', '[0.3313249945640564, 0.5896940231323242]', '[0.33173200488090515, 2.9685299396514893]', '[0.33178600668907166, 0.44293299317359924]', '[0.3319000005722046, 3.122159957885742]', '[0.3322480022907257, 1.001729965209961]', '[0.3325450122356415, 1.8458900451660156]', '[0.33254700899124146, 1.6499300003051758]', '[0.33264800906181335, 1.4728000164031982]', '[0.3327839970588684, 2.821120023727417]', '[0.3334580063819885, 2.5626800060272217]', '[0.333499014377594, 1.7856800556182861]', '[0.33364200592041016, 1.995270013809204]', '[0.3336699903011322, 2.9115099906921387]', '[0.33382898569107056, 3.3756299018859863]', '[0.33438000082969666, 0.8934080004692078]', '[0.3353019952774048, 3.0297000408172607]', '[0.33546799421310425, 1.5065200328826904]', '[0.33567601442337036, 2.9649100303649902]', '[0.3360320031642914, 1.0100799798965454]', '[0.33711400628089905, 2.542099952697754]', '[0.33778199553489685, 3.7704598903656006]', '[0.338331013917923, 2.9628798961639404]', '[0.3384230136871338, 2.594099998474121]', '[0.3390829861164093, 2.6936299800872803]', '[0.33966800570487976, 2.4683001041412354]', '[0.3398759961128235, 0.37248900532722473]', '[0.3400830030441284, 3.0818800926208496]', '[0.3406200110912323, 3.02485990524292]', '[0.3408370018005371, 0.5816190242767334]', '[0.34118199348449707, 3.3834900856018066]', '[0.3427489995956421, 3.1803600788116455]', '[0.34279298782348633, 0.9857159852981567]', '[0.34312599897384644, 1.1022599935531616]', '[0.3431290090084076, 0.6961169838905334]', '[0.3438650071620941, 0.40964800119400024]', '[0.3442080020904541, 3.648020029067993]', '[0.3444420099258423, 3.1968600749969482]', '[0.34452199935913086, 2.9766900539398193]', '[0.3451719880104065, 2.8392601013183594]', '[0.3456459939479828, 0.2481600046157837]', '[0.3466399908065796, 0.061753299087285995]', '[0.34718000888824463, 2.0987300872802734]', '[0.34804099798202515, 2.0933101177215576]', '[0.3482620120048523, 2.8840699195861816]', '[0.3483960032463074, 0.20547600090503693]', '[0.34847700595855713, 2.348989963531494]', '[0.3508540093898773, 3.0053000450134277]', '[0.3511500060558319, 1.708359956741333]', '[0.35133299231529236, 1.1342899799346924]', '[0.3515770137310028, 3.4773499965667725]', '[0.352167010307312, 0.13749000430107117]', '[0.35255900025367737, 1.7224899530410767]', '[0.3526889979839325, 0.9103279709815979]', '[0.35408300161361694, 0.4372830092906952]', '[0.3542259931564331, 2.0424399375915527]', '[0.3546299934387207, 0.5156099</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr"/>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="inlineStr"/>
+      <c r="M700" t="inlineStr"/>
+      <c r="N700" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr"/>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr"/>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr"/>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr"/>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="inlineStr"/>
+      <c r="M701" t="inlineStr"/>
+      <c r="N701" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="inlineStr"/>
+      <c r="M702" t="inlineStr"/>
+      <c r="N702" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr"/>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr"/>
+      <c r="E703" t="inlineStr"/>
+      <c r="F703" t="inlineStr"/>
+      <c r="G703" t="inlineStr"/>
+      <c r="H703" t="inlineStr"/>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="inlineStr"/>
+      <c r="M703" t="inlineStr"/>
+      <c r="N703" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="inlineStr"/>
+      <c r="M704" t="inlineStr"/>
+      <c r="N704" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="inlineStr"/>
+      <c r="M705" t="inlineStr"/>
+      <c r="N705" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr"/>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr"/>
+      <c r="N706" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr"/>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
+      <c r="M707" t="inlineStr"/>
+      <c r="N707" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr"/>
+      <c r="N708" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr"/>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr"/>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr"/>
+      <c r="M709" t="inlineStr"/>
+      <c r="N709" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr"/>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr"/>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr"/>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+      <c r="M710" t="inlineStr"/>
+      <c r="N710" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr"/>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="inlineStr"/>
+      <c r="M711" t="inlineStr"/>
+      <c r="N711" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr"/>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr"/>
+      <c r="N712" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr"/>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="inlineStr"/>
+      <c r="M713" t="inlineStr"/>
+      <c r="N713" t="inlineStr">
+        <is>
+          <t>['[-149.0, 6.973113, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.9733, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973461, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011633, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011736, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.012369, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-5.0, 11.366548, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.423346, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.429201, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.477434, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[1.0, 0.0, 0.0, -0.8, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0]', '[1.0, 0.0, 1.6, -0.97, 0.062, 9.2, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0]', '[1.0, 0.0, 3.95, -1.1, 0.18, 10.5, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0]', '[1.0, 0.0, 4.0, 1.81, 0.186, 5.2, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0]', '[10.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 0.0, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 0.0, 23.84, 0.53, 1.089, 78.8, 6.0, 2.0, 2.0, 1.0, 5.0, 4.0, 4.0, 5.0, 1.0, 6.0, 2.0, 2.0]', '[10.0, 0.0, 25.5, 3.68, 1.166, 73.0, 4.0, 6.0, 0.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 3.0, 7.0, 0.0]', '[10.0, 0.0, 29.13, -0.5, 1.313, 85.2, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 0.0, 29.3, -1.99, 1.314, 83.4, 6.0, 2.0, 2.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 6.0, 2.0, 2.0]', '[10.0, 0.0, 29.52, 0.61, 1.322, 87.1, 5.0, 3.0, 2.0, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 0.0, 29.53, 1.43, 1.344, 81.3, 5.0, 4.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 5.0, 1.0]', '[10.0, 0.0, 30.88, -0.53, 1.367, 87.5, 4.0, 5.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 5.0, 1.0]', '[10.0, 0.0, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 31.2, 7.29, 1.464, 66.8, 2.0, 6.0, 2.0, 1.0, 2.0, 7.0, 7.0, 2.0, 1.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 31.23, -2.02, 1.403, 94.7, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 32.71, 2.58, 1.518, 75.4, 4.0, 4.0, 2.0, 1.0, 5.0, 4.0, 5.0, 3.0, 2.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 33.19, 4.2, 1.559, 70.7, 4.0, 3.0, 3.0, 0.0, 5.0, 5.0, 6.0, 3.0, 1.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 33.29, 3.11, 1.541, 78.1, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 33.61, -0.17, 1.535, 83.2, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 33.97, -1.74, 1.525, 87.4, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 0.0, 34.72, 2.93, 1.601, 75.9, 4.0, 5.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 0.0, 35.54, 0.13, 1.618, 86.5, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 36.07, -0.53, 1.652, 87.3, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 4.0, 2.0, 4.0]', '[10.0, 0.0, 36.19, -2.3, 1.609, 94.7, 2.0, 6.0, 2.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 36.7, -2.99, 1.67, 94.0, 3.0, 6.0, 1.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 2.0, 7.0, 1.0]', '[10.0, 0.0, 36.73, 0.24, 1.643, 86.7, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 36.74, -1.34, 1.687, 92.4, 4.0, 2.0, 4.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0]', '[10.0, 0.0, 37.12, 2.48, 1.694, 87.5, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 37.53, 1.45, 1.765, 78.7, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 37.77, 0.58, 1.714, 87.6, 2.0, 6.0, 2.0, 5.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 38.67, -2.74, 1.719, 93.8, 3.0, 4.0, 3.0, 5.0, 4.0, 1.0, 2.0, 3.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 39.22, 5.58, 1.789, 73.2, 1.0, 7.0, 2.0, 3.0, 0.0, 7.0, 7.0, 0.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 0.0, 39.35, 4.07, 1.812, 74.5, 1.0, 7.0, 2.0, 3.0, 1.0, 6.0, 6.0, 1.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 0.0, 39.91, -1.04, 1.788, 87.7, 2.0, 6.0, 2.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 41.3, 1.02, 1.938, 81.9, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 4.0, 4.0]', '[10.0, 0.0, 43.36, 4.45, 2.042, 77.7, 1.0, 5.0, 4.0, 3.0, 2.0, 5.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 0.0, 44.68, -0.39, 2.062, 90.5, 2.0, 3.0, 5.0, 4.0, 4.0, 2.0, 3.0, 2.0, 5.0, 2.0, 3.0, 5.0]', '[10.0, 0.0, 45.79, -1.29, 2.115, 94.1, 1.0, 3.0, 6.0, 6.0, 2.0, 2.0, 3.0, 1.0, 6.0, 1.0, 3.0, 6.0]', '[10.0, 0.0, 47.26, 5.56, 2.292, 76.7, 1.0, 3.0, 6.0, 2.0, 3.0, 5.0, 5.0, 1.0, 4.0, 1.0, 3.0, 6.0]', '[10.0, 0.0, 53.73, 7.47, 2.59, 73.9, 0.0, 3.0, 7.0, 2.0, 3.0, 5.0, 6.0, 0.0, 4.0, 0.0, 3.0, 7.0]', '[10.0, 0.0, 55.62, 7.01, 2.694, 73.9, 0.0, 2.0, 8.0, 2.0, 3.0, 5.0, 6.0, 0.0, 4.0, 0.0, 2.0, 8.0]', '[10.0, 12.231122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 12.602876, 32.51, -1.03, 1.49, 85.4, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 12.636695, 32.51, -1.03, 1.49, 85.4, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 12.825064, 32.09, -2.33, 1.434, 86.8, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 12.831107, 21.16, -0.3, 0.922, 84.9, 6.0, 4.0, 0.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 12.833985, 21.16, -0.3, 0.922, 84.9, 6.0, 4.0, 0.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 12.862465, 25.38, -2.42, 1.079, 84.3, 8.0, 2.0, 0.0, 1.0, 7.0, 2.0, 2.0, 7.0, 1.0, 8.0, 2.0, 0.0]', '[10.0, 12.866284, 41.67, -1.3, 1.889, 93.7, 1.0, 5.0, 4.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 1.0, 5.0, 4.0]', '[10.0, 12.875708, 33.53, 4.6, 1.539, 75.9, 4.0, 4.0, 2.0, 1.0, 4.0, 5.0, 5.0, 3.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 12.894289, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.002887, 35.55, -0.88, 1.588, 84.9, 3.0, 6.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.003345, 35.55, -0.88, 1.588, 84.9, 3.0, 6.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.011763, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.076318, 25.61, -2.15, 1.16, 86.8, 6.0, 3.0, 1.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 3.0, 1.0]', '[10.0, 13.165224, 32.09, -2.33, 1.434, 86.8, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 13.2302, 41.41, 4.77, 1.924, 67.3, 3.0, 4.0, 3.0, 1.0, 4.0, 5.0, 6.0, 3.0, 1.0, 2.0, 5.0, 3.0]', '[10.0, 13.2564, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.256543, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.300899, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301272, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301789, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301918, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.30215, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.422756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.427407, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.432258, 39.3, 1.68, 1.794, 87.0, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.48406, 39.3, 1.68, 1.794, 87.0, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.509898, 45.5, -2.5, 2.061, 100.7, 2.0, 2.0, 6.0, 7.0, 2.0, 1.0, 2.0, 1.0, 7.0, 2.0, 2.0, 6.0]', '[10.0, 13.523679, 28.45, -3.28, 1.28, 90.4, 7.0, 2.0, 1.0, 3.0, 6.0, 1.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0]', '[10.0, 13.536176, 40.66, 0.61, 1.843, 89.0, 1.0, 5.0, 4.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 13.544919, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.554057, 35.82, -4.45, 1.568, 99.4, 4.0, 4.0, 2.0, 5.0, 3.0, 2.0, 2.0, 2.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.573598, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.625075, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.635057, 34.84, -1.07, 1.602, 88.6, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 13.635601, 33.39, -5.98, 1.453, 101.9, 4.0, 4.0, 2.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.636476, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.641503, 33.12, -0.96, 1.517, 88.7, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 13.656127, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.656542, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.667926, 39.33, -4.2, 1.754, 98.2, 2.0, 5.0, 3.0, 6.0, 3.0, 1.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 13.674337, 33.59, 1.6, 1.535, 85.8, 3.0, 5.0, 2.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.679361, 40.32, -3.73, 1.842, 98.6, 4.0, 1.0, 5.0, 6.0, 4.0, 0.0, 1.0, 3.0, 6.0, 3.0, 2.0, 5.0]', '[10.0, 13.691627, 34.25, 1.48, 1.52, 82.6, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 13.696875, 35.26, -3.31, 1.58, 96.1, 4.0, 4.0, 2.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.705323, 34.84, -1.07, 1.602, 88.6, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 13.709828, 21.11, -1.54, 0.965, 85.9, 5.0, 5.0, 0.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 6.0, 0.0]', '[10.0, 13.711534, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.718501, 44.37, 1.27, 2.036, 84.9, 2.0, 3.0, 5.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.721821, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.728899, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.729721, 34.13, 2.27, 1.546, 78.6, 3.0, 6.0, 1.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 7.0, 1.0]', '[10.0, 13.74546, 33.39, -5.98, 1.453, 101.9, 4.0, 4.0, 2.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.747208, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 13.764486, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.783585, 34.13, 2.27, 1.546, 78.6, 3.0, 6.0, 1.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 7.0, 1.0]', '[10.0, 13.79329, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.796657, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 13.809725, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.835076, 38.19, 4.14, 1.803, 79.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 3.0, 3.0, 4.0]', '[10.0, 13.840067, 39.61, 0.22, 1.803, 88.4, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.848726, 23.99, -0.22, 1.087, 87.3, 5.0, 4.0, 1.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 4.0, 1.0]', '[10.0, 13.849965, 38.19, 4.14, 1.803, 79.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 3.0, 3.0, 4.0]', '[10.0, 13.85373, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 13.864258, 21.11, -1.54, 0.965, 85.9, 5.0, 5.0, 0.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 6.0, 0.0]', '[10.0, 13.865242, 39.62, -3.15, 1.812, 94.1, 3.0, 4.0, 3.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 13.866588, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.868733, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.870766, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.871456, 33.91, 0.1, 1.511, 85.7, 4.0, 5.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.87348, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.878806, 38.65, 4.6, 1.869, 72.7, 3.0, 3.0, 4.0, 3.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 6.0, 4.0]', '[10.0, 13.898501, 32.2, 0.64, 1.482, 81.3, 5.0, 3.0, 2.0, 2.0, 4.0, 4.0, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 13.899586, 32.95, -2.66, 1.476, 90.9, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 13.903127, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.913788, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.923096, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 13.923403, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.928315, 37.18, 1.61, 1.733, 79.1, 2.0, 3.0, 4.0, 4.0, 2.0, 3.0, 3.0, 1.0, 5.0, 2.0, 3.0, 4.0]', '[10.0, 13.944123, 33.87, 3.87, 1.587, 78.6, 2.0, 5.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0]', '[10.0, 13.944978, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 13.946486, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.949725, 34.25, 1.48, 1.52, 82.6, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 13.952652, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 13.952741, 39.61, 0.22, 1.803, 88.4, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.959268, 28.5, -5.52, 1.22, 97.1, 6.0, 2.0, 2.0, 4.0, 5.0, 1.0, 1.0, 5.0, 4.0, 6.0, 2.0, 2.0]', '[10.0, 13.965471, 41.12, 0.63, 1.828, 94.7, 1.0, 5.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 1.0, 5.0, 4.0]', '[10.0, 13.966332, 45.61, 1.22, 2.12, 86.1, 2.0, 3.0, 5.0, 4.0, 4.0, 2.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.968701, 18.28, -1.94, 0.803, 88.0, 7.0, 3.0, 0.0, 2.0, 7.0, 1.0, 1.0, 7.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 13.968908, 36.63, 3.8, 1.736, 74.7, 3.0, 4.0, 3.0, 2.0, 4.0, 4.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.969321, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.971485, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.973165, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.97335, 35.03, 1.28, 1.57, 85.4, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.98024, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.981382, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.991016, 40.65, 4.39, 1.918, 77.8, 2.0, 4.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 4.0, 4.0]', '[10.0, 13.993335, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.996099, 25.91, 1.81, 1.184, 79.2, 5.0, 4.0, 1.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.998617, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 13.99883, 32.81, 0.28, 1.497, 86.7, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.000609, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 14.000667, 36.47, 1.28, 1.637, 84.8, 2.0, 6.0, 2.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 6.0, 2.0]', '[10.0, 14.001177, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.003231, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.004918, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.006487, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.009073, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.009584, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.010435, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.019653, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.020818, 27.42, -1.31, 1.213, 89.7, 6.0, 2.0, 2.0, 3.0, 5.0, 2.0, 2.0, 5.0, 3.0, 6.0, 2.0, 2.0]', '[10.0, 14.024644, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.025478, 34.0, 2.5, 1.552, 81.4, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 14.028098, 23.4, 0.91, 1.06, 78.2, 4.0, 5.0, 0.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 3.0, 6.0, 0.0]', '[10.0, 14.030268, 32.81, 0.28, 1.497, 86.7, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.030828, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.031948, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.032445, 30.63, 3.1, 1.411, 75.6, 3.0, 6.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 14.037899, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.038204, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.0384, 23.4, 0.91, 1.06, 78.2, 4.0, 5.0, 0.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 3.0, 6.0, 0.0]', '[10.0, 14.038975, 34.79, 0.74, 1.638, 87.9, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 6.0, 3.0]', '[10.0, 14.041416, 44.9, 3.87, 2.079, 80.0, 1.0, 6.0, 3.0, 4.0, 1.0, 5.0, 6.0, 0.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.042293, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.043569, 35.3, 4.32, 1.704, 74.8, 4.0, 3.0, 3.0, 1.0, 5.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.046, 39.62, -3.15, 1.812, 94.1, 3.0, 4.0, 3.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 14.049706, 38.59, 1.46, 1.761, 82.4, 1.0, 7.0, 2.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 7.0, 2.0]', '[10.0, 14.049902, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.055429, 36.58, -2.36, 1.676, 94.8, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0]', '[10.0, 14.057396, 32.98, -2.03, 1.493, 87.4, 4.0, 5.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.059718, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.068825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.069587, 34.71, 1.25, 1.579, 87.4, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.069694, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.069977, 42.87, -2.32, 2.014, 95.3, 1.0, 4.0, 5.0, 6.0, 2.0, 2.0, 2.0, 1.0, 7.0, 1.0, 4.0, 5.0]', '[10.0, 14.071734, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.073797, 38.29, 3.96, 1.739, 79.0, 2.0, 6.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 14.074481, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 14.079386, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.082984, 38.59, 1.46, 1.761, 82.4, 1.0, 7.0, 2.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 7.0, 2.0]', '[10.0, 14.093163, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.093235, 33.09, 1.89, 1.541, 77.8, 4.0, 3.0, 3.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.095173, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.099388, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.103475, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.105171, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.106567, 35.03, 1.28, 1.57, 85.4, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 14.107534, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.1079, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.108442, 46.62, -0.26, 2.135, 88.6, 0.0, 6.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 0.0, 6.0, 4.0]', '[10.0, 14.109158, 40.77, 1.29, 1.85, 85.5, 0.0, 8.0, 2.0, 5.0, 1.0, 4.0, 5.0, 0.0, 5.0, 0.0, 8.0, 2.0]', '[10.0, 14.109771, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.110333, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 14.113433, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.114399, 32.78, -1.19, 1.501, 85.2, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.114652, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 14.119208, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.121864, 40.32, -3.73, 1.842, 98.6, 4.0, 1.0, 5.0, 6.0, 4.0, 0.0, 1.0, 3.0, 6.0, 3.0, 2.0, 5.0]', '[10.0, 14.129521, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 14.133211, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.136464, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.136483, 34.27, -1.09, 1.564, 90.6, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.137226, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.137248, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.139355, 13.76, -2.79, 0.566, 49.0, 3.0, 2.0, 0.0, 2.0, 2.0, 1.0, 1.0, 2.0, 2.0, 3.0, 2.0, 0.0]', '[10.0, 14.139792, 32.78, -1.19, 1.501, 85.2, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.140756, 42.87, -2.32, 2.014, 95.3, 1.0, 4.0, 5.0, 6.0, 2.0, 2.0, 2.0, 1.0, 7.0, 1.0, 4.0, 5.0]', '[10.0, 14.143339, 31.67, -3.01, 1.423, 89.1, 4.0, 5.0, 1.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.145168, 33.06, 0.57, 1.512, 84.8, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 14.1461, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.146968, 32.92, 2.55, 1.504, 74.7, 3.0, 6.0, 1.0, 2.0, 4.0, 4.0, 5.0, 3.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 14.148196, 42.15, -1.86, 1.903, 88.6, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.148559, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.150026, 37.01, -0.09, 1.66, 88.2, 3.0, 5.0, 2.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 3.0, 5.0, 2.0]', '[10.0, 14.152457, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.152708, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.152807, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.15318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.157504, 38.98, 2.84, 1.793, 83.1, 3.0, 5.0, 2.0, 4.0, 1.0, 5.0, 5.0, 1.0, 4.0, 2.0, 6.0, 2.0]', '[10.0, 14.159579, 36.58, -2.36, 1.676, 94.8, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0]', '[10.0, 14.159942, 32.58, -4.17, 1.49, 89.6, 5.0, 1.0, 3.0, 4.0, 4.0, 1.0, 1.0, 3.0, 5.0, 5.0, 1.0, 3.0]', '[10.0, 14.163594, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 14.165008, 30.36, -1.56, 1.368, 88.7, 4.0, 5.0, 1.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.168352, 31.41, 1.75, 1.422, 81.8, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 14.170017, 36.93, 3.16, 1.68, 78.5, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 14.171338, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.171887, 36.67, 1.21, 1.688, 86.7, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.176259, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 14.179652, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.179842, 43.6, 0.63, 1.987, 88.6, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 4.0, 1.0, 5.0, 1.0, 4.0, 5.0]', '[10.0, 14.180959, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.182482, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 14.184709, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.186073, 34.71, 1.25, 1.579, 87.4, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.187119, 36.53, -0.63, 1.641, 90.3, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.18831, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.19365, 32.56, -1.43, 1.448, 90.1, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 2.0, 7.0, 1.0]', '[10.0, 14.194487, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.196987, 43.55, 2.8, 1.986, 77.4, 3.0, 4.0, 3.0, 2.0, 5.0, 3.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.201266, 25.59, 0.76, 1.162, 78.6, 6.0, 3.0, 1.0, 1.0, 5.0, 4.0, 4.0, 5.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 14.201822, 13.76, -2.79, 0.566, 49.0, 3.0, 2.0, 0.0, 2.0, 2.0, 1.0, 1.0, 2.0, 2.0, 3.0, 2.0, 0.0]', '[10.0, 14.203003, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.203758, 38.65, 4.6, 1.869, 72.7, 3.0, 3.0, 4.0, 3.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 6.0, 4.0]', '[10.0, 14.205182, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.205329, 32.54, 0.73, 1.511, 75.0, 3.0, 4.0, 2.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 4.0, 2.0]', '[10.0, 14.205691, 38.44, -1.2, 1.647, 95.3, 4.0, 4.0, 2.0, 5.0, 3.0, 2.0, 4.0, 1.0, 5.0, 4.0, 4.0, 2.0]', '[10.0, 14.205761, 32.65, -3.89, 1.463, 91.9, 3.0, 6.0, 1.0, 5.0, 4.0, 1.0, 2.0, 3.0, 5.0, 3.0, 6.0, 1.0]', '[10.0, 14.206644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.20914, 29.6, -1.33, 1.371, 90.0, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.21102, 31.71, 1.02, 1.471, 78.5, 4.0, 3.0, 3.0, 1.0, 6.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0]', '[10.0, 14.211214, 40.65, 4.39, 1.918, 77.8, 2.0, 4.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 4.0, 4.0]', '[10.0, 14.21542, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.216608, 32.47, -0.0, 1.458, 84.4, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 14.216707, 35.93, -1.62, 1.628, 92.1, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0]', '[10.0, 14.220979, 36.53, -0.63, 1.641, 90.3, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.223986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.226548, 33.09, 1.89, 1.541, 77.8, 4.0, 3.0, 3.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.232534, 46.62, -0.26, 2.135, 88.6, 0.0, 6.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 0.0, 6.0, 4.0]', '[10.0, 14.233028, 21.36, -1.59, 0.96, 87.1, 8.0, 1.0, 1.0, 1.0, 8.0, 1.0, 1.0, 7.0, 2.0, 7.0, 2.0, 1.0]', '[10.0, 14.233681, 37.71, -1.24, 1.706, 96.9, 4.0, 4.0, 2.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 3.0, 5.0, 2.0]', '[10.0, 14.233716, 33.07, 1.42, 1.552, 74.8, 5.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0, 3.0, 4.0, 3.0]', '[10.0, 14.233938, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.23473, 43.85, -2.39, 2.021, 91.3, 2.0, 4.0, 4.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 4.0, 4.0]', '[10.0, 14.235544, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.237524, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.24404, 38.29, 3.96, 1.739, 79.0, 2.0, 6.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 14.244555, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.244813, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.245194, 38.51, 2.37, 1.815, 80.5, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 1.0, 4.0, 5.0]', '[10.0, 14.245522, 39.54, 2.97, 1.84, 86.8, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 14.245532, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.246739, 39.54, 2.97, 1.84, 86.8, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 14.248511, 30.77, 2.54, 1.389, 79.0, 6.0, 3.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.253366, 40.11, -0.56, 1.888, 87.8, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 4.0, 1.0, 5.0, 1.0, 4.0, 5.0]', '[10.0, 14.253503, 37.27, 0.59, 1.7, 88.0, 3.0, 4.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 14.25433, 44.9, 3.87, 2.079, 80.0, 1.0, 6.0, 3.0, 4.0, 1.0, 5.0, 6.0, 0.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.254751, 35.71, 0.98, 1.599, 86.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 4.0, 4.0, 2.0]', '[10.0, 14.25688, 31.41, 1.75, 1.422, 81.8, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 14.257303, 29.6, -1.33, 1.371, 90.0, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.259783, 27.32, 1.1, 1.241, 83.3, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.26067, 39.73, 4.97, 1.891, 74.8, 3.0, 3.0, 4.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 2.0, 4.0, 4.0]', '[10.0, 14.260986, 33.73, -1.1, 1.563, 78.0, 4.0, 2.0, 3.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 4.0, 2.0, 3.0]', '[10.0, 14.264573, 36.66, 1.45, 1.733, 82.9, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.265572, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.266937, 43.6, 1.93, 1.971, 86.9, 3.0, 3.0, 4.0, 5.0, 1.0, 4.0, 5.0, 0.0, 5.0, 3.0, 3.0, 4.0]', '[10.0, 14.270904, 49.33, 2.01, 2.267, 88.3, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 5.0, 0.0, 5.0, 2.0, 3.0, 5.0]', '[10.0, 14.27145, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.271929, 38.66, 0.58, 1.782, 87.4, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.274005, 38.66, 0.58, 1.782, 87.4, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.275044, 40.97, -0.12, 1.877, 89.7, 1.0, 6.0, 3.0, 6.0, 0.0, 4.0, 4.0, 0.0, 6.0, 0.0, 7.0, 3.0]', '[10.0, 14.276442, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.2767, 27.28, 0.02, 1.25, 72.8, 4.0, 3.0, 2.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 4.0, 3.0, 2.0]', '[10.0, 14.28106, 33.38, 1.22, 1.564, 75.9, 5.0, 1.0, 4.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0, 4.0, 2.0, 4.0]', '[10.0, 14.281342, 38.66, 0.58, 1.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr"/>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr"/>
+      <c r="N714" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr"/>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="inlineStr"/>
+      <c r="M715" t="inlineStr"/>
+      <c r="N715" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="inlineStr"/>
+      <c r="M716" t="inlineStr"/>
+      <c r="N716" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="inlineStr"/>
+      <c r="M717" t="inlineStr"/>
+      <c r="N717" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr"/>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="inlineStr"/>
+      <c r="M718" t="inlineStr"/>
+      <c r="N718" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr"/>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="inlineStr"/>
+      <c r="M719" t="inlineStr"/>
+      <c r="N719" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr"/>
+      <c r="H720" t="inlineStr"/>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="inlineStr"/>
+      <c r="M720" t="inlineStr"/>
+      <c r="N720" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
+      <c r="M721" t="inlineStr"/>
+      <c r="N721" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr"/>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr"/>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="inlineStr"/>
+      <c r="H722" t="inlineStr"/>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="inlineStr"/>
+      <c r="M722" t="inlineStr"/>
+      <c r="N722" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr"/>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="inlineStr"/>
+      <c r="M723" t="inlineStr"/>
+      <c r="N723" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr"/>
+      <c r="H724" t="inlineStr"/>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="inlineStr"/>
+      <c r="M724" t="inlineStr"/>
+      <c r="N724" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr"/>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr"/>
+      <c r="H725" t="inlineStr"/>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
+      <c r="M725" t="inlineStr"/>
+      <c r="N725" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr"/>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="inlineStr"/>
+      <c r="M726" t="inlineStr"/>
+      <c r="N726" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr"/>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
+      <c r="M727" t="inlineStr"/>
+      <c r="N727" t="inlineStr">
+        <is>
+          <t>['[-149.0, 6.973113, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.9733, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973461, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-149.0, 6.973644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011633, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.011736, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-213.0, 5.012369, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[-5.0, 11.366548, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.423346, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.429201, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[-5.0, 11.477434, 101.8, -1.02, 4.612, 312.9, 18.0, 13.0, 6.0, 9.0, 16.0, 12.0, 13.0, 14.0, 10.0, 16.0, 15.0, 6.0]', '[1.0, 0.0, 0.0, -0.8, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0]', '[1.0, 0.0, 1.6, -0.97, 0.062, 9.2, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0]', '[1.0, 0.0, 3.95, -1.1, 0.18, 10.5, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0]', '[1.0, 0.0, 4.0, 1.81, 0.186, 5.2, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0]', '[10.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 0.0, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 0.0, 23.84, 0.53, 1.089, 78.8, 6.0, 2.0, 2.0, 1.0, 5.0, 4.0, 4.0, 5.0, 1.0, 6.0, 2.0, 2.0]', '[10.0, 0.0, 25.5, 3.68, 1.166, 73.0, 4.0, 6.0, 0.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 3.0, 7.0, 0.0]', '[10.0, 0.0, 29.13, -0.5, 1.313, 85.2, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 0.0, 29.3, -1.99, 1.314, 83.4, 6.0, 2.0, 2.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 6.0, 2.0, 2.0]', '[10.0, 0.0, 29.52, 0.61, 1.322, 87.1, 5.0, 3.0, 2.0, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 0.0, 29.53, 1.43, 1.344, 81.3, 5.0, 4.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 5.0, 1.0]', '[10.0, 0.0, 30.88, -0.53, 1.367, 87.5, 4.0, 5.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 5.0, 1.0]', '[10.0, 0.0, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 31.2, 7.29, 1.464, 66.8, 2.0, 6.0, 2.0, 1.0, 2.0, 7.0, 7.0, 2.0, 1.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 31.23, -2.02, 1.403, 94.7, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 32.71, 2.58, 1.518, 75.4, 4.0, 4.0, 2.0, 1.0, 5.0, 4.0, 5.0, 3.0, 2.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 33.19, 4.2, 1.559, 70.7, 4.0, 3.0, 3.0, 0.0, 5.0, 5.0, 6.0, 3.0, 1.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 33.29, 3.11, 1.541, 78.1, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 33.61, -0.17, 1.535, 83.2, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 0.0, 33.97, -1.74, 1.525, 87.4, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 0.0, 34.72, 2.93, 1.601, 75.9, 4.0, 5.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 0.0, 35.54, 0.13, 1.618, 86.5, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 36.07, -0.53, 1.652, 87.3, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 4.0, 2.0, 4.0]', '[10.0, 0.0, 36.19, -2.3, 1.609, 94.7, 2.0, 6.0, 2.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 36.7, -2.99, 1.67, 94.0, 3.0, 6.0, 1.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 2.0, 7.0, 1.0]', '[10.0, 0.0, 36.73, 0.24, 1.643, 86.7, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 36.74, -1.34, 1.687, 92.4, 4.0, 2.0, 4.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0]', '[10.0, 0.0, 37.12, 2.48, 1.694, 87.5, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 0.0, 37.53, 1.45, 1.765, 78.7, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 37.77, 0.58, 1.714, 87.6, 2.0, 6.0, 2.0, 5.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 38.67, -2.74, 1.719, 93.8, 3.0, 4.0, 3.0, 5.0, 4.0, 1.0, 2.0, 3.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 0.0, 39.22, 5.58, 1.789, 73.2, 1.0, 7.0, 2.0, 3.0, 0.0, 7.0, 7.0, 0.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 0.0, 39.35, 4.07, 1.812, 74.5, 1.0, 7.0, 2.0, 3.0, 1.0, 6.0, 6.0, 1.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 0.0, 39.91, -1.04, 1.788, 87.7, 2.0, 6.0, 2.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 6.0, 2.0]', '[10.0, 0.0, 41.3, 1.02, 1.938, 81.9, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 4.0, 4.0]', '[10.0, 0.0, 43.36, 4.45, 2.042, 77.7, 1.0, 5.0, 4.0, 3.0, 2.0, 5.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 0.0, 44.68, -0.39, 2.062, 90.5, 2.0, 3.0, 5.0, 4.0, 4.0, 2.0, 3.0, 2.0, 5.0, 2.0, 3.0, 5.0]', '[10.0, 0.0, 45.79, -1.29, 2.115, 94.1, 1.0, 3.0, 6.0, 6.0, 2.0, 2.0, 3.0, 1.0, 6.0, 1.0, 3.0, 6.0]', '[10.0, 0.0, 47.26, 5.56, 2.292, 76.7, 1.0, 3.0, 6.0, 2.0, 3.0, 5.0, 5.0, 1.0, 4.0, 1.0, 3.0, 6.0]', '[10.0, 0.0, 53.73, 7.47, 2.59, 73.9, 0.0, 3.0, 7.0, 2.0, 3.0, 5.0, 6.0, 0.0, 4.0, 0.0, 3.0, 7.0]', '[10.0, 0.0, 55.62, 7.01, 2.694, 73.9, 0.0, 2.0, 8.0, 2.0, 3.0, 5.0, 6.0, 0.0, 4.0, 0.0, 2.0, 8.0]', '[10.0, 12.231122, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 12.602876, 32.51, -1.03, 1.49, 85.4, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 12.636695, 32.51, -1.03, 1.49, 85.4, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 12.825064, 32.09, -2.33, 1.434, 86.8, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 12.831107, 21.16, -0.3, 0.922, 84.9, 6.0, 4.0, 0.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 12.833985, 21.16, -0.3, 0.922, 84.9, 6.0, 4.0, 0.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 12.862465, 25.38, -2.42, 1.079, 84.3, 8.0, 2.0, 0.0, 1.0, 7.0, 2.0, 2.0, 7.0, 1.0, 8.0, 2.0, 0.0]', '[10.0, 12.866284, 41.67, -1.3, 1.889, 93.7, 1.0, 5.0, 4.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 1.0, 5.0, 4.0]', '[10.0, 12.875708, 33.53, 4.6, 1.539, 75.9, 4.0, 4.0, 2.0, 1.0, 4.0, 5.0, 5.0, 3.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 12.894289, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.002887, 35.55, -0.88, 1.588, 84.9, 3.0, 6.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.003345, 35.55, -0.88, 1.588, 84.9, 3.0, 6.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.011763, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.076318, 25.61, -2.15, 1.16, 86.8, 6.0, 3.0, 1.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 6.0, 3.0, 1.0]', '[10.0, 13.165224, 32.09, -2.33, 1.434, 86.8, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 13.2302, 41.41, 4.77, 1.924, 67.3, 3.0, 4.0, 3.0, 1.0, 4.0, 5.0, 6.0, 3.0, 1.0, 2.0, 5.0, 3.0]', '[10.0, 13.2564, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.256543, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.300899, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301272, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301789, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.301918, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.30215, 31.51, 4.05, 1.493, 76.1, 4.0, 3.0, 3.0, 0.0, 7.0, 3.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.422756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.427407, 22.05, -1.77, 0.988, 84.1, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.432258, 39.3, 1.68, 1.794, 87.0, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.48406, 39.3, 1.68, 1.794, 87.0, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.509898, 45.5, -2.5, 2.061, 100.7, 2.0, 2.0, 6.0, 7.0, 2.0, 1.0, 2.0, 1.0, 7.0, 2.0, 2.0, 6.0]', '[10.0, 13.523679, 28.45, -3.28, 1.28, 90.4, 7.0, 2.0, 1.0, 3.0, 6.0, 1.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0]', '[10.0, 13.536176, 40.66, 0.61, 1.843, 89.0, 1.0, 5.0, 4.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 13.544919, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.554057, 35.82, -4.45, 1.568, 99.4, 4.0, 4.0, 2.0, 5.0, 3.0, 2.0, 2.0, 2.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.573598, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.625075, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.635057, 34.84, -1.07, 1.602, 88.6, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 13.635601, 33.39, -5.98, 1.453, 101.9, 4.0, 4.0, 2.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.636476, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.641503, 33.12, -0.96, 1.517, 88.7, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 13.656127, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.656542, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.667926, 39.33, -4.2, 1.754, 98.2, 2.0, 5.0, 3.0, 6.0, 3.0, 1.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 13.674337, 33.59, 1.6, 1.535, 85.8, 3.0, 5.0, 2.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.679361, 40.32, -3.73, 1.842, 98.6, 4.0, 1.0, 5.0, 6.0, 4.0, 0.0, 1.0, 3.0, 6.0, 3.0, 2.0, 5.0]', '[10.0, 13.691627, 34.25, 1.48, 1.52, 82.6, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 13.696875, 35.26, -3.31, 1.58, 96.1, 4.0, 4.0, 2.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.705323, 34.84, -1.07, 1.602, 88.6, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 13.709828, 21.11, -1.54, 0.965, 85.9, 5.0, 5.0, 0.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 6.0, 0.0]', '[10.0, 13.711534, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.718501, 44.37, 1.27, 2.036, 84.9, 2.0, 3.0, 5.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.721821, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.728899, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.729721, 34.13, 2.27, 1.546, 78.6, 3.0, 6.0, 1.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 7.0, 1.0]', '[10.0, 13.74546, 33.39, -5.98, 1.453, 101.9, 4.0, 4.0, 2.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 4.0, 4.0, 2.0]', '[10.0, 13.747208, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 13.764486, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.783585, 34.13, 2.27, 1.546, 78.6, 3.0, 6.0, 1.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 7.0, 1.0]', '[10.0, 13.79329, 31.2, -2.9, 1.413, 88.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.796657, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 13.809725, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.835076, 38.19, 4.14, 1.803, 79.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 3.0, 3.0, 4.0]', '[10.0, 13.840067, 39.61, 0.22, 1.803, 88.4, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.848726, 23.99, -0.22, 1.087, 87.3, 5.0, 4.0, 1.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 4.0, 1.0]', '[10.0, 13.849965, 38.19, 4.14, 1.803, 79.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 3.0, 3.0, 4.0]', '[10.0, 13.85373, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 13.864258, 21.11, -1.54, 0.965, 85.9, 5.0, 5.0, 0.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 6.0, 0.0]', '[10.0, 13.865242, 39.62, -3.15, 1.812, 94.1, 3.0, 4.0, 3.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 13.866588, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.868733, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.870766, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 13.871456, 33.91, 0.1, 1.511, 85.7, 4.0, 5.0, 1.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.87348, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.878806, 38.65, 4.6, 1.869, 72.7, 3.0, 3.0, 4.0, 3.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 6.0, 4.0]', '[10.0, 13.898501, 32.2, 0.64, 1.482, 81.3, 5.0, 3.0, 2.0, 2.0, 4.0, 4.0, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 13.899586, 32.95, -2.66, 1.476, 90.9, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 13.903127, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.913788, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 13.923096, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 13.923403, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.928315, 37.18, 1.61, 1.733, 79.1, 2.0, 3.0, 4.0, 4.0, 2.0, 3.0, 3.0, 1.0, 5.0, 2.0, 3.0, 4.0]', '[10.0, 13.944123, 33.87, 3.87, 1.587, 78.6, 2.0, 5.0, 3.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 2.0, 5.0, 3.0]', '[10.0, 13.944978, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 13.946486, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.949725, 34.25, 1.48, 1.52, 82.6, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 13.952652, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 13.952741, 39.61, 0.22, 1.803, 88.4, 2.0, 5.0, 3.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 13.959268, 28.5, -5.52, 1.22, 97.1, 6.0, 2.0, 2.0, 4.0, 5.0, 1.0, 1.0, 5.0, 4.0, 6.0, 2.0, 2.0]', '[10.0, 13.965471, 41.12, 0.63, 1.828, 94.7, 1.0, 5.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 1.0, 5.0, 4.0]', '[10.0, 13.966332, 45.61, 1.22, 2.12, 86.1, 2.0, 3.0, 5.0, 4.0, 4.0, 2.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 13.968701, 18.28, -1.94, 0.803, 88.0, 7.0, 3.0, 0.0, 2.0, 7.0, 1.0, 1.0, 7.0, 2.0, 6.0, 4.0, 0.0]', '[10.0, 13.968908, 36.63, 3.8, 1.736, 74.7, 3.0, 4.0, 3.0, 2.0, 4.0, 4.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 13.969321, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 13.971485, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.973165, 29.89, 3.33, 1.4, 72.4, 6.0, 3.0, 1.0, 1.0, 4.0, 5.0, 5.0, 4.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 13.97335, 35.03, 1.28, 1.57, 85.4, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 13.98024, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.981382, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.991016, 40.65, 4.39, 1.918, 77.8, 2.0, 4.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 4.0, 4.0]', '[10.0, 13.993335, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 13.996099, 25.91, 1.81, 1.184, 79.2, 5.0, 4.0, 1.0, 2.0, 5.0, 3.0, 3.0, 5.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 13.998617, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 13.99883, 32.81, 0.28, 1.497, 86.7, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.000609, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 14.000667, 36.47, 1.28, 1.637, 84.8, 2.0, 6.0, 2.0, 4.0, 2.0, 4.0, 4.0, 2.0, 4.0, 2.0, 6.0, 2.0]', '[10.0, 14.001177, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.003231, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.004918, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.006487, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.009073, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.009584, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.010435, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.019653, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.020818, 27.42, -1.31, 1.213, 89.7, 6.0, 2.0, 2.0, 3.0, 5.0, 2.0, 2.0, 5.0, 3.0, 6.0, 2.0, 2.0]', '[10.0, 14.024644, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.025478, 34.0, 2.5, 1.552, 81.4, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 14.028098, 23.4, 0.91, 1.06, 78.2, 4.0, 5.0, 0.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 3.0, 6.0, 0.0]', '[10.0, 14.030268, 32.81, 0.28, 1.497, 86.7, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.030828, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.031948, 20.28, -2.45, 0.897, 85.6, 6.0, 4.0, 0.0, 2.0, 6.0, 2.0, 2.0, 6.0, 2.0, 5.0, 5.0, 0.0]', '[10.0, 14.032445, 30.63, 3.1, 1.411, 75.6, 3.0, 6.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 14.037899, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.038204, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.0384, 23.4, 0.91, 1.06, 78.2, 4.0, 5.0, 0.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 3.0, 6.0, 0.0]', '[10.0, 14.038975, 34.79, 0.74, 1.638, 87.9, 2.0, 5.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 6.0, 3.0]', '[10.0, 14.041416, 44.9, 3.87, 2.079, 80.0, 1.0, 6.0, 3.0, 4.0, 1.0, 5.0, 6.0, 0.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.042293, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.043569, 35.3, 4.32, 1.704, 74.8, 4.0, 3.0, 3.0, 1.0, 5.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.046, 39.62, -3.15, 1.812, 94.1, 3.0, 4.0, 3.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 5.0, 3.0]', '[10.0, 14.049706, 38.59, 1.46, 1.761, 82.4, 1.0, 7.0, 2.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 7.0, 2.0]', '[10.0, 14.049902, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.055429, 36.58, -2.36, 1.676, 94.8, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0]', '[10.0, 14.057396, 32.98, -2.03, 1.493, 87.4, 4.0, 5.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.059718, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.068825, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.069587, 34.71, 1.25, 1.579, 87.4, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.069694, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.069977, 42.87, -2.32, 2.014, 95.3, 1.0, 4.0, 5.0, 6.0, 2.0, 2.0, 2.0, 1.0, 7.0, 1.0, 4.0, 5.0]', '[10.0, 14.071734, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.073797, 38.29, 3.96, 1.739, 79.0, 2.0, 6.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 14.074481, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 14.079386, 34.02, 0.58, 1.604, 84.1, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0]', '[10.0, 14.082984, 38.59, 1.46, 1.761, 82.4, 1.0, 7.0, 2.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 7.0, 2.0]', '[10.0, 14.093163, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.093235, 33.09, 1.89, 1.541, 77.8, 4.0, 3.0, 3.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.095173, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.099388, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.103475, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.105171, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.106567, 35.03, 1.28, 1.57, 85.4, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 14.107534, 39.42, 0.77, 1.788, 86.6, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.1079, 38.59, 1.14, 1.771, 85.9, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.108442, 46.62, -0.26, 2.135, 88.6, 0.0, 6.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 0.0, 6.0, 4.0]', '[10.0, 14.109158, 40.77, 1.29, 1.85, 85.5, 0.0, 8.0, 2.0, 5.0, 1.0, 4.0, 5.0, 0.0, 5.0, 0.0, 8.0, 2.0]', '[10.0, 14.109771, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.110333, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 14.113433, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.114399, 32.78, -1.19, 1.501, 85.2, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.114652, 41.82, 2.7, 1.942, 82.8, 1.0, 5.0, 4.0, 4.0, 2.0, 4.0, 5.0, 1.0, 4.0, 1.0, 5.0, 4.0]', '[10.0, 14.119208, 31.67, 2.27, 1.459, 77.3, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.121864, 40.32, -3.73, 1.842, 98.6, 4.0, 1.0, 5.0, 6.0, 4.0, 0.0, 1.0, 3.0, 6.0, 3.0, 2.0, 5.0]', '[10.0, 14.129521, 33.12, -2.62, 1.505, 89.1, 3.0, 6.0, 1.0, 5.0, 3.0, 2.0, 2.0, 3.0, 5.0, 2.0, 7.0, 1.0]', '[10.0, 14.133211, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.136464, 38.4, -1.71, 1.793, 89.2, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.136483, 34.27, -1.09, 1.564, 90.6, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0]', '[10.0, 14.137226, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.137248, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.139355, 13.76, -2.79, 0.566, 49.0, 3.0, 2.0, 0.0, 2.0, 2.0, 1.0, 1.0, 2.0, 2.0, 3.0, 2.0, 0.0]', '[10.0, 14.139792, 32.78, -1.19, 1.501, 85.2, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.140756, 42.87, -2.32, 2.014, 95.3, 1.0, 4.0, 5.0, 6.0, 2.0, 2.0, 2.0, 1.0, 7.0, 1.0, 4.0, 5.0]', '[10.0, 14.143339, 31.67, -3.01, 1.423, 89.1, 4.0, 5.0, 1.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.145168, 33.06, 0.57, 1.512, 84.8, 3.0, 5.0, 2.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 5.0, 2.0]', '[10.0, 14.1461, 30.07, 3.06, 1.397, 76.8, 6.0, 3.0, 1.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.146968, 32.92, 2.55, 1.504, 74.7, 3.0, 6.0, 1.0, 2.0, 4.0, 4.0, 5.0, 3.0, 2.0, 2.0, 7.0, 1.0]', '[10.0, 14.148196, 42.15, -1.86, 1.903, 88.6, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.148559, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.150026, 37.01, -0.09, 1.66, 88.2, 3.0, 5.0, 2.0, 5.0, 1.0, 4.0, 4.0, 1.0, 5.0, 3.0, 5.0, 2.0]', '[10.0, 14.152457, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.152708, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.152807, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.15318, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.157504, 38.98, 2.84, 1.793, 83.1, 3.0, 5.0, 2.0, 4.0, 1.0, 5.0, 5.0, 1.0, 4.0, 2.0, 6.0, 2.0]', '[10.0, 14.159579, 36.58, -2.36, 1.676, 94.8, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0]', '[10.0, 14.159942, 32.58, -4.17, 1.49, 89.6, 5.0, 1.0, 3.0, 4.0, 4.0, 1.0, 1.0, 3.0, 5.0, 5.0, 1.0, 3.0]', '[10.0, 14.163594, 37.04, 5.76, 1.709, 75.9, 2.0, 6.0, 2.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 6.0, 2.0]', '[10.0, 14.165008, 30.36, -1.56, 1.368, 88.7, 4.0, 5.0, 1.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.168352, 31.41, 1.75, 1.422, 81.8, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 14.170017, 36.93, 3.16, 1.68, 78.5, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 3.0, 5.0, 2.0]', '[10.0, 14.171338, 39.54, 0.18, 1.809, 87.5, 3.0, 2.0, 5.0, 3.0, 5.0, 2.0, 3.0, 3.0, 4.0, 3.0, 2.0, 5.0]', '[10.0, 14.171887, 36.67, 1.21, 1.688, 86.7, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.176259, 39.7, -5.68, 1.773, 99.0, 3.0, 4.0, 3.0, 6.0, 3.0, 1.0, 1.0, 3.0, 6.0, 3.0, 4.0, 3.0]', '[10.0, 14.179652, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.179842, 43.6, 0.63, 1.987, 88.6, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 4.0, 1.0, 5.0, 1.0, 4.0, 5.0]', '[10.0, 14.180959, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.182482, 40.62, 1.81, 1.908, 82.9, 2.0, 3.0, 5.0, 3.0, 3.0, 4.0, 4.0, 2.0, 4.0, 2.0, 3.0, 5.0]', '[10.0, 14.184709, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.186073, 34.71, 1.25, 1.579, 87.4, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.187119, 36.53, -0.63, 1.641, 90.3, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.18831, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.19365, 32.56, -1.43, 1.448, 90.1, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 2.0, 7.0, 1.0]', '[10.0, 14.194487, 31.95, -2.07, 1.432, 87.4, 3.0, 6.0, 1.0, 4.0, 3.0, 3.0, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0]', '[10.0, 14.196987, 43.55, 2.8, 1.986, 77.4, 3.0, 4.0, 3.0, 2.0, 5.0, 3.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.201266, 25.59, 0.76, 1.162, 78.6, 6.0, 3.0, 1.0, 1.0, 5.0, 4.0, 4.0, 5.0, 1.0, 5.0, 4.0, 1.0]', '[10.0, 14.201822, 13.76, -2.79, 0.566, 49.0, 3.0, 2.0, 0.0, 2.0, 2.0, 1.0, 1.0, 2.0, 2.0, 3.0, 2.0, 0.0]', '[10.0, 14.203003, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.203758, 38.65, 4.6, 1.869, 72.7, 3.0, 3.0, 4.0, 3.0, 1.0, 6.0, 7.0, 0.0, 3.0, 0.0, 6.0, 4.0]', '[10.0, 14.205182, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.205329, 32.54, 0.73, 1.511, 75.0, 3.0, 4.0, 2.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 3.0, 4.0, 2.0]', '[10.0, 14.205691, 38.44, -1.2, 1.647, 95.3, 4.0, 4.0, 2.0, 5.0, 3.0, 2.0, 4.0, 1.0, 5.0, 4.0, 4.0, 2.0]', '[10.0, 14.205761, 32.65, -3.89, 1.463, 91.9, 3.0, 6.0, 1.0, 5.0, 4.0, 1.0, 2.0, 3.0, 5.0, 3.0, 6.0, 1.0]', '[10.0, 14.206644, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.20914, 29.6, -1.33, 1.371, 90.0, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.21102, 31.71, 1.02, 1.471, 78.5, 4.0, 3.0, 3.0, 1.0, 6.0, 3.0, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0]', '[10.0, 14.211214, 40.65, 4.39, 1.918, 77.8, 2.0, 4.0, 4.0, 3.0, 2.0, 5.0, 5.0, 2.0, 3.0, 2.0, 4.0, 4.0]', '[10.0, 14.21542, 34.69, 5.44, 1.639, 71.9, 3.0, 4.0, 3.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.216608, 32.47, -0.0, 1.458, 84.4, 5.0, 3.0, 2.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 5.0, 3.0, 2.0]', '[10.0, 14.216707, 35.93, -1.62, 1.628, 92.1, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 4.0, 3.0, 3.0]', '[10.0, 14.220979, 36.53, -0.63, 1.641, 90.3, 3.0, 3.0, 4.0, 3.0, 6.0, 1.0, 3.0, 3.0, 4.0, 3.0, 3.0, 4.0]', '[10.0, 14.223986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.226548, 33.09, 1.89, 1.541, 77.8, 4.0, 3.0, 3.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 3.0, 4.0, 3.0]', '[10.0, 14.232534, 46.62, -0.26, 2.135, 88.6, 0.0, 6.0, 4.0, 6.0, 1.0, 3.0, 4.0, 0.0, 6.0, 0.0, 6.0, 4.0]', '[10.0, 14.233028, 21.36, -1.59, 0.96, 87.1, 8.0, 1.0, 1.0, 1.0, 8.0, 1.0, 1.0, 7.0, 2.0, 7.0, 2.0, 1.0]', '[10.0, 14.233681, 37.71, -1.24, 1.706, 96.9, 4.0, 4.0, 2.0, 6.0, 1.0, 3.0, 3.0, 1.0, 6.0, 3.0, 5.0, 2.0]', '[10.0, 14.233716, 33.07, 1.42, 1.552, 74.8, 5.0, 2.0, 3.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0, 3.0, 4.0, 3.0]', '[10.0, 14.233938, 37.54, 1.8, 1.729, 81.8, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 3.0]', '[10.0, 14.23473, 43.85, -2.39, 2.021, 91.3, 2.0, 4.0, 4.0, 6.0, 2.0, 2.0, 2.0, 2.0, 6.0, 2.0, 4.0, 4.0]', '[10.0, 14.235544, 28.08, -0.39, 1.263, 82.8, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 2.0]', '[10.0, 14.237524, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.24404, 38.29, 3.96, 1.739, 79.0, 2.0, 6.0, 2.0, 3.0, 3.0, 4.0, 5.0, 2.0, 3.0, 1.0, 7.0, 2.0]', '[10.0, 14.244555, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.244813, 28.05, 1.53, 1.258, 79.9, 5.0, 4.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.245194, 38.51, 2.37, 1.815, 80.5, 3.0, 2.0, 5.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 1.0, 4.0, 5.0]', '[10.0, 14.245522, 39.54, 2.97, 1.84, 86.8, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 14.245532, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.246739, 39.54, 2.97, 1.84, 86.8, 2.0, 4.0, 4.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 1.0, 5.0, 4.0]', '[10.0, 14.248511, 30.77, 2.54, 1.389, 79.0, 6.0, 3.0, 1.0, 2.0, 4.0, 4.0, 4.0, 4.0, 2.0, 5.0, 4.0, 1.0]', '[10.0, 14.253366, 40.11, -0.56, 1.888, 87.8, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 4.0, 1.0, 5.0, 1.0, 4.0, 5.0]', '[10.0, 14.253503, 37.27, 0.59, 1.7, 88.0, 3.0, 4.0, 3.0, 4.0, 2.0, 4.0, 4.0, 1.0, 5.0, 3.0, 4.0, 3.0]', '[10.0, 14.25433, 44.9, 3.87, 2.079, 80.0, 1.0, 6.0, 3.0, 4.0, 1.0, 5.0, 6.0, 0.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.254751, 35.71, 0.98, 1.599, 86.6, 4.0, 4.0, 2.0, 4.0, 3.0, 3.0, 4.0, 2.0, 4.0, 4.0, 4.0, 2.0]', '[10.0, 14.25688, 31.41, 1.75, 1.422, 81.8, 4.0, 5.0, 1.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 3.0, 6.0, 1.0]', '[10.0, 14.257303, 29.6, -1.33, 1.371, 90.0, 5.0, 2.0, 3.0, 4.0, 4.0, 2.0, 2.0, 4.0, 4.0, 3.0, 4.0, 3.0]', '[10.0, 14.259783, 27.32, 1.1, 1.241, 83.3, 4.0, 4.0, 2.0, 3.0, 3.0, 4.0, 4.0, 3.0, 3.0, 4.0, 4.0, 2.0]', '[10.0, 14.26067, 39.73, 4.97, 1.891, 74.8, 3.0, 3.0, 4.0, 2.0, 3.0, 5.0, 5.0, 3.0, 2.0, 2.0, 4.0, 4.0]', '[10.0, 14.260986, 33.73, -1.1, 1.563, 78.0, 4.0, 2.0, 3.0, 3.0, 4.0, 2.0, 2.0, 4.0, 3.0, 4.0, 2.0, 3.0]', '[10.0, 14.264573, 36.66, 1.45, 1.733, 82.9, 3.0, 4.0, 3.0, 3.0, 4.0, 3.0, 3.0, 3.0, 4.0, 1.0, 6.0, 3.0]', '[10.0, 14.265572, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.266937, 43.6, 1.93, 1.971, 86.9, 3.0, 3.0, 4.0, 5.0, 1.0, 4.0, 5.0, 0.0, 5.0, 3.0, 3.0, 4.0]', '[10.0, 14.270904, 49.33, 2.01, 2.267, 88.3, 2.0, 3.0, 5.0, 5.0, 2.0, 3.0, 5.0, 0.0, 5.0, 2.0, 3.0, 5.0]', '[10.0, 14.27145, 41.67, -1.67, 1.89, 94.3, 0.0, 8.0, 2.0, 7.0, 0.0, 3.0, 3.0, 0.0, 7.0, 0.0, 8.0, 2.0]', '[10.0, 14.271929, 38.66, 0.58, 1.782, 87.4, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.274005, 38.66, 0.58, 1.782, 87.4, 2.0, 5.0, 3.0, 4.0, 3.0, 3.0, 3.0, 2.0, 5.0, 2.0, 5.0, 3.0]', '[10.0, 14.275044, 40.97, -0.12, 1.877, 89.7, 1.0, 6.0, 3.0, 6.0, 0.0, 4.0, 4.0, 0.0, 6.0, 0.0, 7.0, 3.0]', '[10.0, 14.276442, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]', '[10.0, 14.2767, 27.28, 0.02, 1.25, 72.8, 4.0, 3.0, 2.0, 1.0, 6.0, 2.0, 3.0, 4.0, 2.0, 4.0, 3.0, 2.0]', '[10.0, 14.28106, 33.38, 1.22, 1.564, 75.9, 5.0, 1.0, 4.0, 1.0, 6.0, 3.0, 4.0, 5.0, 1.0, 4.0, 2.0, 4.0]', '[10.0, 14.281342, 38.66, 0.58, 1.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr"/>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="inlineStr"/>
+      <c r="M728" t="inlineStr"/>
+      <c r="N728" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="inlineStr"/>
+      <c r="M729" t="inlineStr"/>
+      <c r="N729" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr"/>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="inlineStr"/>
+      <c r="M730" t="inlineStr"/>
+      <c r="N730" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr"/>
+      <c r="N731" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
+      <c r="M732" t="inlineStr"/>
+      <c r="N732" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr"/>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr"/>
+      <c r="H733" t="inlineStr"/>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="inlineStr"/>
+      <c r="M733" t="inlineStr"/>
+      <c r="N733" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr"/>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr"/>
+      <c r="N734" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr"/>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="inlineStr"/>
+      <c r="H735" t="inlineStr"/>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="inlineStr"/>
+      <c r="M735" t="inlineStr"/>
+      <c r="N735" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr"/>
+      <c r="H736" t="inlineStr"/>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="inlineStr"/>
+      <c r="M736" t="inlineStr"/>
+      <c r="N736" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr"/>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr"/>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="inlineStr"/>
+      <c r="M737" t="inlineStr"/>
+      <c r="N737" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr"/>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="inlineStr"/>
+      <c r="H738" t="inlineStr"/>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="inlineStr"/>
+      <c r="M738" t="inlineStr"/>
+      <c r="N738" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr"/>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="inlineStr"/>
+      <c r="H739" t="inlineStr"/>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="inlineStr"/>
+      <c r="M739" t="inlineStr"/>
+      <c r="N739" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr"/>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr"/>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="inlineStr"/>
+      <c r="H740" t="inlineStr"/>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="inlineStr"/>
+      <c r="M740" t="inlineStr"/>
+      <c r="N740" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="inlineStr"/>
+      <c r="H741" t="inlineStr"/>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="inlineStr"/>
+      <c r="M741" t="inlineStr"/>
+      <c r="N741" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr"/>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="inlineStr"/>
+      <c r="H742" t="inlineStr"/>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="inlineStr"/>
+      <c r="M742" t="inlineStr"/>
+      <c r="N742" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="inlineStr"/>
+      <c r="H743" t="inlineStr"/>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="inlineStr"/>
+      <c r="M743" t="inlineStr"/>
+      <c r="N743" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr"/>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr"/>
+      <c r="F744" t="inlineStr"/>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr"/>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="inlineStr"/>
+      <c r="M744" t="inlineStr"/>
+      <c r="N744" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr"/>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr"/>
+      <c r="E745" t="inlineStr"/>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="inlineStr"/>
+      <c r="H745" t="inlineStr"/>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="inlineStr"/>
+      <c r="M745" t="inlineStr"/>
+      <c r="N745" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr"/>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr"/>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="inlineStr"/>
+      <c r="H746" t="inlineStr"/>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="inlineStr"/>
+      <c r="M746" t="inlineStr"/>
+      <c r="N746" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr"/>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="inlineStr"/>
+      <c r="H747" t="inlineStr"/>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="inlineStr"/>
+      <c r="M747" t="inlineStr"/>
+      <c r="N747" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr"/>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr"/>
+      <c r="E748" t="inlineStr"/>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="inlineStr"/>
+      <c r="H748" t="inlineStr"/>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="inlineStr"/>
+      <c r="M748" t="inlineStr"/>
+      <c r="N748" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr"/>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr"/>
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr"/>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="inlineStr"/>
+      <c r="M749" t="inlineStr"/>
+      <c r="N749" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr"/>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr"/>
+      <c r="E750" t="inlineStr"/>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr"/>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="inlineStr"/>
+      <c r="M750" t="inlineStr"/>
+      <c r="N750" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr"/>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr"/>
+      <c r="E751" t="inlineStr"/>
+      <c r="F751" t="inlineStr"/>
+      <c r="G751" t="inlineStr"/>
+      <c r="H751" t="inlineStr"/>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="inlineStr"/>
+      <c r="M751" t="inlineStr"/>
+      <c r="N751" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr"/>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="inlineStr"/>
+      <c r="H752" t="inlineStr"/>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="inlineStr"/>
+      <c r="M752" t="inlineStr"/>
+      <c r="N752" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr"/>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr"/>
+      <c r="E753" t="inlineStr"/>
+      <c r="F753" t="inlineStr"/>
+      <c r="G753" t="inlineStr"/>
+      <c r="H753" t="inlineStr"/>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="inlineStr"/>
+      <c r="M753" t="inlineStr"/>
+      <c r="N753" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr"/>
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="inlineStr"/>
+      <c r="E754" t="inlineStr"/>
+      <c r="F754" t="inlineStr"/>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr"/>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="inlineStr"/>
+      <c r="M754" t="inlineStr"/>
+      <c r="N754" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr"/>
+      <c r="C755" t="inlineStr"/>
+      <c r="D755" t="inlineStr"/>
+      <c r="E755" t="inlineStr"/>
+      <c r="F755" t="inlineStr"/>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr"/>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="inlineStr"/>
+      <c r="M755" t="inlineStr"/>
+      <c r="N755" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr"/>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr"/>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr"/>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr"/>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="inlineStr"/>
+      <c r="M756" t="inlineStr"/>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr"/>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr"/>
+      <c r="E757" t="inlineStr"/>
+      <c r="F757" t="inlineStr"/>
+      <c r="G757" t="inlineStr"/>
+      <c r="H757" t="inlineStr"/>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="inlineStr"/>
+      <c r="M757" t="inlineStr"/>
+      <c r="N757" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr"/>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr"/>
+      <c r="E758" t="inlineStr"/>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="inlineStr"/>
+      <c r="H758" t="inlineStr"/>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="inlineStr"/>
+      <c r="M758" t="inlineStr"/>
+      <c r="N758" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr"/>
+      <c r="C759" t="inlineStr"/>
+      <c r="D759" t="inlineStr"/>
+      <c r="E759" t="inlineStr"/>
+      <c r="F759" t="inlineStr"/>
+      <c r="G759" t="inlineStr"/>
+      <c r="H759" t="inlineStr"/>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="inlineStr"/>
+      <c r="M759" t="inlineStr"/>
+      <c r="N759" t="inlineStr">
+        <is>
+          <t>Letter-high</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr"/>
+      <c r="C760" t="inlineStr"/>
+      <c r="D760" t="inlineStr"/>
+      <c r="E760" t="inlineStr"/>
+      <c r="F760" t="inlineStr"/>
+      <c r="G760" t="inlineStr"/>
+      <c r="H760" t="inlineStr"/>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="inlineStr"/>
+      <c r="M760" t="inlineStr"/>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr"/>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr"/>
+      <c r="E761" t="inlineStr"/>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="inlineStr"/>
+      <c r="H761" t="inlineStr"/>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="inlineStr"/>
+      <c r="M761" t="inlineStr"/>
+      <c r="N761" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr"/>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr"/>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="inlineStr"/>
+      <c r="H762" t="inlineStr"/>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="inlineStr"/>
+      <c r="M762" t="inlineStr"/>
+      <c r="N762" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr"/>
+      <c r="C763" t="inlineStr"/>
+      <c r="D763" t="inlineStr"/>
+      <c r="E763" t="inlineStr"/>
+      <c r="F763" t="inlineStr"/>
+      <c r="G763" t="inlineStr"/>
+      <c r="H763" t="inlineStr"/>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="inlineStr"/>
+      <c r="M763" t="inlineStr"/>
+      <c r="N763" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr"/>
+      <c r="C764" t="inlineStr"/>
+      <c r="D764" t="inlineStr"/>
+      <c r="E764" t="inlineStr"/>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr"/>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="inlineStr"/>
+      <c r="M764" t="inlineStr"/>
+      <c r="N764" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr"/>
+      <c r="C765" t="inlineStr"/>
+      <c r="D765" t="inlineStr"/>
+      <c r="E765" t="inlineStr"/>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr"/>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="inlineStr"/>
+      <c r="M765" t="inlineStr"/>
+      <c r="N765" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr"/>
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="inlineStr"/>
+      <c r="E766" t="inlineStr"/>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr"/>
+      <c r="H766" t="inlineStr"/>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="inlineStr"/>
+      <c r="M766" t="inlineStr"/>
+      <c r="N766" t="n">
+        <v>4.669777777777778</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr"/>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr"/>
+      <c r="E767" t="inlineStr"/>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr"/>
+      <c r="H767" t="inlineStr"/>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="inlineStr"/>
+      <c r="M767" t="inlineStr"/>
+      <c r="N767" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr"/>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr"/>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="inlineStr"/>
+      <c r="H768" t="inlineStr"/>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="inlineStr"/>
+      <c r="M768" t="inlineStr"/>
+      <c r="N768" t="inlineStr">
+        <is>
+          <t>{0: 0.06666666666666667, 1: 0.06666666666666667, 2: 0.06666666666666667, 3: 0.06666666666666667, 4: 0.06666666666666667, 5: 0.06666666666666667, 6: 0.06666666666666667, 7: 0.06666666666666667, 8: 0.06666666666666667, 9: 0.06666666666666667, 10: 0.06666666666666667, 11: 0.06666666666666667, 12: 0.06666666666666667, 13: 0.06666666666666667, 14: 0.06666666666666667}</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr"/>
+      <c r="C769" t="inlineStr"/>
+      <c r="D769" t="inlineStr"/>
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="inlineStr"/>
+      <c r="H769" t="inlineStr"/>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="inlineStr"/>
+      <c r="M769" t="inlineStr"/>
+      <c r="N769" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr"/>
+      <c r="C770" t="inlineStr"/>
+      <c r="D770" t="inlineStr"/>
+      <c r="E770" t="inlineStr"/>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr"/>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="inlineStr"/>
+      <c r="M770" t="inlineStr"/>
+      <c r="N770" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr"/>
+      <c r="C771" t="inlineStr"/>
+      <c r="D771" t="inlineStr"/>
+      <c r="E771" t="inlineStr"/>
+      <c r="F771" t="inlineStr"/>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr"/>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="inlineStr"/>
+      <c r="M771" t="inlineStr"/>
+      <c r="N771" t="inlineStr">
+        <is>
+          <t>[10507]</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr"/>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr"/>
+      <c r="E772" t="inlineStr"/>
+      <c r="F772" t="inlineStr"/>
+      <c r="G772" t="inlineStr"/>
+      <c r="H772" t="inlineStr"/>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="inlineStr"/>
+      <c r="M772" t="inlineStr"/>
+      <c r="N772" t="inlineStr">
+        <is>
+          <t>[10125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr"/>
+      <c r="C773" t="inlineStr"/>
+      <c r="D773" t="inlineStr"/>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr"/>
+      <c r="G773" t="inlineStr"/>
+      <c r="H773" t="inlineStr"/>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="inlineStr"/>
+      <c r="M773" t="inlineStr"/>
+      <c r="N773" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr"/>
+      <c r="C774" t="inlineStr"/>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="inlineStr"/>
+      <c r="H774" t="inlineStr"/>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr"/>
+      <c r="N774" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr"/>
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="inlineStr"/>
+      <c r="E775" t="inlineStr"/>
+      <c r="F775" t="inlineStr"/>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr"/>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="inlineStr"/>
+      <c r="M775" t="inlineStr"/>
+      <c r="N775" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr"/>
+      <c r="C776" t="inlineStr"/>
+      <c r="D776" t="inlineStr"/>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr"/>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="inlineStr"/>
+      <c r="M776" t="inlineStr"/>
+      <c r="N776" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr"/>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr"/>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr"/>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="inlineStr"/>
+      <c r="M777" t="inlineStr"/>
+      <c r="N777" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr"/>
+      <c r="C778" t="inlineStr"/>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
+      <c r="G778" t="inlineStr"/>
+      <c r="H778" t="inlineStr"/>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="inlineStr"/>
+      <c r="M778" t="inlineStr"/>
+      <c r="N778" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr"/>
+      <c r="C779" t="inlineStr"/>
+      <c r="D779" t="inlineStr"/>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr"/>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr"/>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="inlineStr"/>
+      <c r="M779" t="inlineStr"/>
+      <c r="N779" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr"/>
+      <c r="C780" t="inlineStr"/>
+      <c r="D780" t="inlineStr"/>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr"/>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="inlineStr"/>
+      <c r="M780" t="inlineStr"/>
+      <c r="N780" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr"/>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr"/>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="inlineStr"/>
+      <c r="H781" t="inlineStr"/>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr"/>
+      <c r="N781" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr"/>
+      <c r="C782" t="inlineStr"/>
+      <c r="D782" t="inlineStr"/>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="inlineStr"/>
+      <c r="H782" t="inlineStr"/>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr"/>
+      <c r="N782" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr"/>
+      <c r="C783" t="inlineStr"/>
+      <c r="D783" t="inlineStr"/>
+      <c r="E783" t="inlineStr"/>
+      <c r="F783" t="inlineStr"/>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr"/>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="inlineStr"/>
+      <c r="M783" t="inlineStr"/>
+      <c r="N783" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr"/>
+      <c r="C784" t="inlineStr"/>
+      <c r="D784" t="inlineStr"/>
+      <c r="E784" t="inlineStr"/>
+      <c r="F784" t="inlineStr"/>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr"/>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="inlineStr"/>
+      <c r="M784" t="inlineStr"/>
+      <c r="N784" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr"/>
+      <c r="C785" t="inlineStr"/>
+      <c r="D785" t="inlineStr"/>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="inlineStr"/>
+      <c r="H785" t="inlineStr"/>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="inlineStr"/>
+      <c r="M785" t="inlineStr"/>
+      <c r="N785" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr"/>
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="inlineStr"/>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr"/>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
+      <c r="N786" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr"/>
+      <c r="C787" t="inlineStr"/>
+      <c r="D787" t="inlineStr"/>
+      <c r="E787" t="inlineStr"/>
+      <c r="F787" t="inlineStr"/>
+      <c r="G787" t="inlineStr"/>
+      <c r="H787" t="inlineStr"/>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="inlineStr"/>
+      <c r="M787" t="inlineStr"/>
+      <c r="N787" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr"/>
+      <c r="C788" t="inlineStr"/>
+      <c r="D788" t="inlineStr"/>
+      <c r="E788" t="inlineStr"/>
+      <c r="F788" t="inlineStr"/>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr"/>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="inlineStr"/>
+      <c r="M788" t="inlineStr"/>
+      <c r="N788" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr"/>
+      <c r="C789" t="inlineStr"/>
+      <c r="D789" t="inlineStr"/>
+      <c r="E789" t="inlineStr"/>
+      <c r="F789" t="inlineStr"/>
+      <c r="G789" t="inlineStr"/>
+      <c r="H789" t="inlineStr"/>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="inlineStr"/>
+      <c r="M789" t="inlineStr"/>
+      <c r="N789" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr"/>
+      <c r="C790" t="inlineStr"/>
+      <c r="D790" t="inlineStr"/>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
+      <c r="G790" t="inlineStr"/>
+      <c r="H790" t="inlineStr"/>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="inlineStr"/>
+      <c r="M790" t="inlineStr"/>
+      <c r="N790" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="inlineStr"/>
+      <c r="D791" t="inlineStr"/>
+      <c r="E791" t="inlineStr"/>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
+      <c r="H791" t="inlineStr"/>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="inlineStr"/>
+      <c r="M791" t="inlineStr"/>
+      <c r="N791" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr"/>
+      <c r="C792" t="inlineStr"/>
+      <c r="D792" t="inlineStr"/>
+      <c r="E792" t="inlineStr"/>
+      <c r="F792" t="inlineStr"/>
+      <c r="G792" t="inlineStr"/>
+      <c r="H792" t="inlineStr"/>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="inlineStr"/>
+      <c r="M792" t="inlineStr"/>
+      <c r="N792" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr"/>
+      <c r="C793" t="inlineStr"/>
+      <c r="D793" t="inlineStr"/>
+      <c r="E793" t="inlineStr"/>
+      <c r="F793" t="inlineStr"/>
+      <c r="G793" t="inlineStr"/>
+      <c r="H793" t="inlineStr"/>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="inlineStr"/>
+      <c r="M793" t="inlineStr"/>
+      <c r="N793" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr"/>
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="inlineStr"/>
+      <c r="E794" t="inlineStr"/>
+      <c r="F794" t="inlineStr"/>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr"/>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="inlineStr"/>
+      <c r="M794" t="inlineStr"/>
+      <c r="N794" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr"/>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr"/>
+      <c r="E795" t="inlineStr"/>
+      <c r="F795" t="inlineStr"/>
+      <c r="G795" t="inlineStr"/>
+      <c r="H795" t="inlineStr"/>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
+      <c r="L795" t="inlineStr"/>
+      <c r="M795" t="inlineStr"/>
+      <c r="N795" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr"/>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr"/>
+      <c r="E796" t="inlineStr"/>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="inlineStr"/>
+      <c r="H796" t="inlineStr"/>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="inlineStr"/>
+      <c r="M796" t="inlineStr"/>
+      <c r="N796" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr"/>
+      <c r="C797" t="inlineStr"/>
+      <c r="D797" t="inlineStr"/>
+      <c r="E797" t="inlineStr"/>
+      <c r="F797" t="inlineStr"/>
+      <c r="G797" t="inlineStr"/>
+      <c r="H797" t="inlineStr"/>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
+      <c r="L797" t="inlineStr"/>
+      <c r="M797" t="inlineStr"/>
+      <c r="N797" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr"/>
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="inlineStr"/>
+      <c r="E798" t="inlineStr"/>
+      <c r="F798" t="inlineStr"/>
+      <c r="G798" t="inlineStr"/>
+      <c r="H798" t="inlineStr"/>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
+      <c r="M798" t="inlineStr"/>
+      <c r="N798" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr"/>
+      <c r="C799" t="inlineStr"/>
+      <c r="D799" t="inlineStr"/>
+      <c r="E799" t="inlineStr"/>
+      <c r="F799" t="inlineStr"/>
+      <c r="G799" t="inlineStr"/>
+      <c r="H799" t="inlineStr"/>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
+      <c r="M799" t="inlineStr"/>
+      <c r="N799" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr"/>
+      <c r="C800" t="inlineStr"/>
+      <c r="D800" t="inlineStr"/>
+      <c r="E800" t="inlineStr"/>
+      <c r="F800" t="inlineStr"/>
+      <c r="G800" t="inlineStr"/>
+      <c r="H800" t="inlineStr"/>
+      <c r="I800" t="inlineStr"/>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
+      <c r="L800" t="inlineStr"/>
+      <c r="M800" t="inlineStr"/>
+      <c r="N800" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr"/>
+      <c r="C801" t="inlineStr"/>
+      <c r="D801" t="inlineStr"/>
+      <c r="E801" t="inlineStr"/>
+      <c r="F801" t="inlineStr"/>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr"/>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
+      <c r="L801" t="inlineStr"/>
+      <c r="M801" t="inlineStr"/>
+      <c r="N801" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr"/>
+      <c r="C802" t="inlineStr"/>
+      <c r="D802" t="inlineStr"/>
+      <c r="E802" t="inlineStr"/>
+      <c r="F802" t="inlineStr"/>
+      <c r="G802" t="inlineStr"/>
+      <c r="H802" t="inlineStr"/>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
+      <c r="L802" t="inlineStr"/>
+      <c r="M802" t="inlineStr"/>
+      <c r="N802" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr"/>
+      <c r="C803" t="inlineStr"/>
+      <c r="D803" t="inlineStr"/>
+      <c r="E803" t="inlineStr"/>
+      <c r="F803" t="inlineStr"/>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr"/>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
+      <c r="L803" t="inlineStr"/>
+      <c r="M803" t="inlineStr"/>
+      <c r="N803" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr"/>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr"/>
+      <c r="E804" t="inlineStr"/>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr"/>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="inlineStr"/>
+      <c r="M804" t="inlineStr"/>
+      <c r="N804" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr"/>
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="inlineStr"/>
+      <c r="E805" t="inlineStr"/>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr"/>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
+      <c r="L805" t="inlineStr"/>
+      <c r="M805" t="inlineStr"/>
+      <c r="N805" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr"/>
+      <c r="C806" t="inlineStr"/>
+      <c r="D806" t="inlineStr"/>
+      <c r="E806" t="inlineStr"/>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr"/>
+      <c r="H806" t="inlineStr"/>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
+      <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
+      <c r="N806" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="inlineStr"/>
+      <c r="E807" t="inlineStr"/>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr"/>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
+      <c r="L807" t="inlineStr"/>
+      <c r="M807" t="inlineStr"/>
+      <c r="N807" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr"/>
+      <c r="C808" t="inlineStr"/>
+      <c r="D808" t="inlineStr"/>
+      <c r="E808" t="inlineStr"/>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr"/>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
+      <c r="L808" t="inlineStr"/>
+      <c r="M808" t="inlineStr"/>
+      <c r="N808" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr"/>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr"/>
+      <c r="E809" t="inlineStr"/>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="inlineStr"/>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
+      <c r="L809" t="inlineStr"/>
+      <c r="M809" t="inlineStr"/>
+      <c r="N809" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr"/>
+      <c r="C810" t="inlineStr"/>
+      <c r="D810" t="inlineStr"/>
+      <c r="E810" t="inlineStr"/>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr"/>
+      <c r="H810" t="inlineStr"/>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
+      <c r="L810" t="inlineStr"/>
+      <c r="M810" t="inlineStr"/>
+      <c r="N810" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr"/>
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="inlineStr"/>
+      <c r="E811" t="inlineStr"/>
+      <c r="F811" t="inlineStr"/>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="inlineStr"/>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
+      <c r="L811" t="inlineStr"/>
+      <c r="M811" t="inlineStr"/>
+      <c r="N811" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr"/>
+      <c r="C812" t="inlineStr"/>
+      <c r="D812" t="inlineStr"/>
+      <c r="E812" t="inlineStr"/>
+      <c r="F812" t="inlineStr"/>
+      <c r="G812" t="inlineStr"/>
+      <c r="H812" t="inlineStr"/>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
+      <c r="L812" t="inlineStr"/>
+      <c r="M812" t="inlineStr"/>
+      <c r="N812" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr"/>
+      <c r="C813" t="inlineStr"/>
+      <c r="D813" t="inlineStr"/>
+      <c r="E813" t="inlineStr"/>
+      <c r="F813" t="inlineStr"/>
+      <c r="G813" t="inlineStr"/>
+      <c r="H813" t="inlineStr"/>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
+      <c r="M813" t="inlineStr"/>
+      <c r="N813" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr"/>
+      <c r="C814" t="inlineStr"/>
+      <c r="D814" t="inlineStr"/>
+      <c r="E814" t="inlineStr"/>
+      <c r="F814" t="inlineStr"/>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="inlineStr"/>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
+      <c r="L814" t="inlineStr"/>
+      <c r="M814" t="inlineStr"/>
+      <c r="N814" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr"/>
+      <c r="C815" t="inlineStr"/>
+      <c r="D815" t="inlineStr"/>
+      <c r="E815" t="inlineStr"/>
+      <c r="F815" t="inlineStr"/>
+      <c r="G815" t="inlineStr"/>
+      <c r="H815" t="inlineStr"/>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
+      <c r="L815" t="inlineStr"/>
+      <c r="M815" t="inlineStr"/>
+      <c r="N815" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr"/>
+      <c r="C816" t="inlineStr"/>
+      <c r="D816" t="inlineStr"/>
+      <c r="E816" t="inlineStr"/>
+      <c r="F816" t="inlineStr"/>
+      <c r="G816" t="inlineStr"/>
+      <c r="H816" t="inlineStr"/>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="inlineStr"/>
+      <c r="M816" t="inlineStr"/>
+      <c r="N816" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr"/>
+      <c r="C817" t="inlineStr"/>
+      <c r="D817" t="inlineStr"/>
+      <c r="E817" t="inlineStr"/>
+      <c r="F817" t="inlineStr"/>
+      <c r="G817" t="inlineStr"/>
+      <c r="H817" t="inlineStr"/>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="inlineStr"/>
+      <c r="M817" t="inlineStr"/>
+      <c r="N817" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr"/>
+      <c r="C818" t="inlineStr"/>
+      <c r="D818" t="inlineStr"/>
+      <c r="E818" t="inlineStr"/>
+      <c r="F818" t="inlineStr"/>
+      <c r="G818" t="inlineStr"/>
+      <c r="H818" t="inlineStr"/>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="inlineStr"/>
+      <c r="M818" t="inlineStr"/>
+      <c r="N818" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr"/>
+      <c r="C819" t="inlineStr"/>
+      <c r="D819" t="inlineStr"/>
+      <c r="E819" t="inlineStr"/>
+      <c r="F819" t="inlineStr"/>
+      <c r="G819" t="inlineStr"/>
+      <c r="H819" t="inlineStr"/>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
+      <c r="L819" t="inlineStr"/>
+      <c r="M819" t="inlineStr"/>
+      <c r="N819" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr"/>
+      <c r="C820" t="inlineStr"/>
+      <c r="D820" t="inlineStr"/>
+      <c r="E820" t="inlineStr"/>
+      <c r="F820" t="inlineStr"/>
+      <c r="G820" t="inlineStr"/>
+      <c r="H820" t="inlineStr"/>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
+      <c r="L820" t="inlineStr"/>
+      <c r="M820" t="inlineStr"/>
+      <c r="N820" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr"/>
+      <c r="C821" t="inlineStr"/>
+      <c r="D821" t="inlineStr"/>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="inlineStr"/>
+      <c r="H821" t="inlineStr"/>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
+      <c r="L821" t="inlineStr"/>
+      <c r="M821" t="inlineStr"/>
+      <c r="N821" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr"/>
+      <c r="C822" t="inlineStr"/>
+      <c r="D822" t="inlineStr"/>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr"/>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
+      <c r="L822" t="inlineStr"/>
+      <c r="M822" t="inlineStr"/>
+      <c r="N822" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr"/>
+      <c r="C823" t="inlineStr"/>
+      <c r="D823" t="inlineStr"/>
+      <c r="E823" t="inlineStr"/>
+      <c r="F823" t="inlineStr"/>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr"/>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
+      <c r="L823" t="inlineStr"/>
+      <c r="M823" t="inlineStr"/>
+      <c r="N823" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr"/>
+      <c r="C824" t="inlineStr"/>
+      <c r="D824" t="inlineStr"/>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr"/>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
+      <c r="L824" t="inlineStr"/>
+      <c r="M824" t="inlineStr"/>
+      <c r="N824" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr"/>
+      <c r="C825" t="inlineStr"/>
+      <c r="D825" t="inlineStr"/>
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
+      <c r="N825" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr"/>
+      <c r="C826" t="inlineStr"/>
+      <c r="D826" t="inlineStr"/>
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr"/>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="inlineStr"/>
+      <c r="M826" t="inlineStr"/>
+      <c r="N826" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr"/>
+      <c r="C827" t="inlineStr"/>
+      <c r="D827" t="inlineStr"/>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr"/>
+      <c r="H827" t="inlineStr"/>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="inlineStr"/>
+      <c r="M827" t="inlineStr"/>
+      <c r="N827" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr"/>
+      <c r="C828" t="inlineStr"/>
+      <c r="D828" t="inlineStr"/>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="inlineStr"/>
+      <c r="H828" t="inlineStr"/>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="inlineStr"/>
+      <c r="M828" t="inlineStr"/>
+      <c r="N828" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/configs/test_datasets.xlsx
+++ b/configs/test_datasets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N828"/>
+  <dimension ref="A1:N1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18796,6 +18796,4236 @@
         </is>
       </c>
     </row>
+    <row r="829">
+      <c r="A829" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr"/>
+      <c r="C829" t="inlineStr"/>
+      <c r="D829" t="inlineStr"/>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr"/>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="inlineStr"/>
+      <c r="M829" t="inlineStr"/>
+      <c r="N829" t="inlineStr">
+        <is>
+          <t>IMDB-MULTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr"/>
+      <c r="C830" t="inlineStr"/>
+      <c r="D830" t="inlineStr"/>
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr"/>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="inlineStr"/>
+      <c r="M830" t="inlineStr"/>
+      <c r="N830" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr"/>
+      <c r="C831" t="inlineStr"/>
+      <c r="D831" t="inlineStr"/>
+      <c r="E831" t="inlineStr"/>
+      <c r="F831" t="inlineStr"/>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr"/>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="inlineStr"/>
+      <c r="M831" t="inlineStr"/>
+      <c r="N831" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr"/>
+      <c r="C832" t="inlineStr"/>
+      <c r="D832" t="inlineStr"/>
+      <c r="E832" t="inlineStr"/>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="inlineStr"/>
+      <c r="H832" t="inlineStr"/>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
+      <c r="M832" t="inlineStr"/>
+      <c r="N832" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr"/>
+      <c r="C833" t="inlineStr"/>
+      <c r="D833" t="inlineStr"/>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr"/>
+      <c r="H833" t="inlineStr"/>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="inlineStr"/>
+      <c r="M833" t="inlineStr"/>
+      <c r="N833" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr"/>
+      <c r="C834" t="inlineStr"/>
+      <c r="D834" t="inlineStr"/>
+      <c r="E834" t="inlineStr"/>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr"/>
+      <c r="H834" t="inlineStr"/>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="inlineStr"/>
+      <c r="M834" t="inlineStr"/>
+      <c r="N834" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr"/>
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="inlineStr"/>
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr"/>
+      <c r="H835" t="inlineStr"/>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="inlineStr"/>
+      <c r="M835" t="inlineStr"/>
+      <c r="N835" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr"/>
+      <c r="C836" t="inlineStr"/>
+      <c r="D836" t="inlineStr"/>
+      <c r="E836" t="inlineStr"/>
+      <c r="F836" t="inlineStr"/>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr"/>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="inlineStr"/>
+      <c r="M836" t="inlineStr"/>
+      <c r="N836" t="n">
+        <v>13.00133333333333</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr"/>
+      <c r="C837" t="inlineStr"/>
+      <c r="D837" t="inlineStr"/>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr"/>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="inlineStr"/>
+      <c r="M837" t="inlineStr"/>
+      <c r="N837" t="n">
+        <v>65.93533333333333</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr"/>
+      <c r="C838" t="inlineStr"/>
+      <c r="D838" t="inlineStr"/>
+      <c r="E838" t="inlineStr"/>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr"/>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="inlineStr"/>
+      <c r="M838" t="inlineStr"/>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>{1: 0.3333333333333333, 2: 0.3333333333333333, 3: 0.3333333333333333}</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr"/>
+      <c r="C839" t="inlineStr"/>
+      <c r="D839" t="inlineStr"/>
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr"/>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="inlineStr"/>
+      <c r="M839" t="inlineStr"/>
+      <c r="N839" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr"/>
+      <c r="C840" t="inlineStr"/>
+      <c r="D840" t="inlineStr"/>
+      <c r="E840" t="inlineStr"/>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr"/>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
+      <c r="M840" t="inlineStr"/>
+      <c r="N840" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr"/>
+      <c r="C841" t="inlineStr"/>
+      <c r="D841" t="inlineStr"/>
+      <c r="E841" t="inlineStr"/>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="inlineStr"/>
+      <c r="H841" t="inlineStr"/>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="inlineStr"/>
+      <c r="M841" t="inlineStr"/>
+      <c r="N841" t="inlineStr">
+        <is>
+          <t>[19502]</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr"/>
+      <c r="C842" t="inlineStr"/>
+      <c r="D842" t="inlineStr"/>
+      <c r="E842" t="inlineStr"/>
+      <c r="F842" t="inlineStr"/>
+      <c r="G842" t="inlineStr"/>
+      <c r="H842" t="inlineStr"/>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="inlineStr"/>
+      <c r="M842" t="inlineStr"/>
+      <c r="N842" t="inlineStr">
+        <is>
+          <t>[98903]</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr"/>
+      <c r="C843" t="inlineStr"/>
+      <c r="D843" t="inlineStr"/>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="inlineStr"/>
+      <c r="H843" t="inlineStr"/>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="inlineStr"/>
+      <c r="M843" t="inlineStr"/>
+      <c r="N843" t="inlineStr">
+        <is>
+          <t>IMDB-MULTI</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr"/>
+      <c r="C844" t="inlineStr"/>
+      <c r="D844" t="inlineStr"/>
+      <c r="E844" t="inlineStr"/>
+      <c r="F844" t="inlineStr"/>
+      <c r="G844" t="inlineStr"/>
+      <c r="H844" t="inlineStr"/>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="inlineStr"/>
+      <c r="M844" t="inlineStr"/>
+      <c r="N844" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr"/>
+      <c r="C845" t="inlineStr"/>
+      <c r="D845" t="inlineStr"/>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="inlineStr"/>
+      <c r="H845" t="inlineStr"/>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="inlineStr"/>
+      <c r="M845" t="inlineStr"/>
+      <c r="N845" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr"/>
+      <c r="C846" t="inlineStr"/>
+      <c r="D846" t="inlineStr"/>
+      <c r="E846" t="inlineStr"/>
+      <c r="F846" t="inlineStr"/>
+      <c r="G846" t="inlineStr"/>
+      <c r="H846" t="inlineStr"/>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="inlineStr"/>
+      <c r="M846" t="inlineStr"/>
+      <c r="N846" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr"/>
+      <c r="C847" t="inlineStr"/>
+      <c r="D847" t="inlineStr"/>
+      <c r="E847" t="inlineStr"/>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="inlineStr"/>
+      <c r="H847" t="inlineStr"/>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="inlineStr"/>
+      <c r="M847" t="inlineStr"/>
+      <c r="N847" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr"/>
+      <c r="C848" t="inlineStr"/>
+      <c r="D848" t="inlineStr"/>
+      <c r="E848" t="inlineStr"/>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="inlineStr"/>
+      <c r="H848" t="inlineStr"/>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="inlineStr"/>
+      <c r="M848" t="inlineStr"/>
+      <c r="N848" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr"/>
+      <c r="C849" t="inlineStr"/>
+      <c r="D849" t="inlineStr"/>
+      <c r="E849" t="inlineStr"/>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr"/>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="inlineStr"/>
+      <c r="M849" t="inlineStr"/>
+      <c r="N849" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr"/>
+      <c r="C850" t="inlineStr"/>
+      <c r="D850" t="inlineStr"/>
+      <c r="E850" t="inlineStr"/>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="inlineStr"/>
+      <c r="H850" t="inlineStr"/>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="inlineStr"/>
+      <c r="M850" t="inlineStr"/>
+      <c r="N850" t="n">
+        <v>13.00133333333333</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr"/>
+      <c r="C851" t="inlineStr"/>
+      <c r="D851" t="inlineStr"/>
+      <c r="E851" t="inlineStr"/>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="inlineStr"/>
+      <c r="H851" t="inlineStr"/>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="inlineStr"/>
+      <c r="M851" t="inlineStr"/>
+      <c r="N851" t="n">
+        <v>65.93533333333333</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr"/>
+      <c r="C852" t="inlineStr"/>
+      <c r="D852" t="inlineStr"/>
+      <c r="E852" t="inlineStr"/>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="inlineStr"/>
+      <c r="H852" t="inlineStr"/>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="inlineStr"/>
+      <c r="M852" t="inlineStr"/>
+      <c r="N852" t="inlineStr">
+        <is>
+          <t>{1: 0.3333333333333333, 2: 0.3333333333333333, 3: 0.3333333333333333}</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr"/>
+      <c r="C853" t="inlineStr"/>
+      <c r="D853" t="inlineStr"/>
+      <c r="E853" t="inlineStr"/>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr"/>
+      <c r="H853" t="inlineStr"/>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="inlineStr"/>
+      <c r="M853" t="inlineStr"/>
+      <c r="N853" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr"/>
+      <c r="C854" t="inlineStr"/>
+      <c r="D854" t="inlineStr"/>
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr"/>
+      <c r="H854" t="inlineStr"/>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
+      <c r="M854" t="inlineStr"/>
+      <c r="N854" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr"/>
+      <c r="C855" t="inlineStr"/>
+      <c r="D855" t="inlineStr"/>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr"/>
+      <c r="H855" t="inlineStr"/>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="inlineStr"/>
+      <c r="M855" t="inlineStr"/>
+      <c r="N855" t="inlineStr">
+        <is>
+          <t>[19502]</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr"/>
+      <c r="C856" t="inlineStr"/>
+      <c r="D856" t="inlineStr"/>
+      <c r="E856" t="inlineStr"/>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr"/>
+      <c r="H856" t="inlineStr"/>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="inlineStr"/>
+      <c r="M856" t="inlineStr"/>
+      <c r="N856" t="inlineStr">
+        <is>
+          <t>[98903]</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr"/>
+      <c r="C857" t="inlineStr"/>
+      <c r="D857" t="inlineStr"/>
+      <c r="E857" t="inlineStr"/>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr"/>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="inlineStr"/>
+      <c r="M857" t="inlineStr"/>
+      <c r="N857" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr"/>
+      <c r="C858" t="inlineStr"/>
+      <c r="D858" t="inlineStr"/>
+      <c r="E858" t="inlineStr"/>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="inlineStr"/>
+      <c r="H858" t="inlineStr"/>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="inlineStr"/>
+      <c r="M858" t="inlineStr"/>
+      <c r="N858" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr"/>
+      <c r="C859" t="inlineStr"/>
+      <c r="D859" t="inlineStr"/>
+      <c r="E859" t="inlineStr"/>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="inlineStr"/>
+      <c r="H859" t="inlineStr"/>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr"/>
+      <c r="M859" t="inlineStr"/>
+      <c r="N859" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr"/>
+      <c r="C860" t="inlineStr"/>
+      <c r="D860" t="inlineStr"/>
+      <c r="E860" t="inlineStr"/>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="inlineStr"/>
+      <c r="H860" t="inlineStr"/>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="inlineStr"/>
+      <c r="M860" t="inlineStr"/>
+      <c r="N860" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr"/>
+      <c r="C861" t="inlineStr"/>
+      <c r="D861" t="inlineStr"/>
+      <c r="E861" t="inlineStr"/>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="inlineStr"/>
+      <c r="H861" t="inlineStr"/>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="inlineStr"/>
+      <c r="M861" t="inlineStr"/>
+      <c r="N861" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr"/>
+      <c r="C862" t="inlineStr"/>
+      <c r="D862" t="inlineStr"/>
+      <c r="E862" t="inlineStr"/>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="inlineStr"/>
+      <c r="H862" t="inlineStr"/>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="inlineStr"/>
+      <c r="M862" t="inlineStr"/>
+      <c r="N862" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr"/>
+      <c r="C863" t="inlineStr"/>
+      <c r="D863" t="inlineStr"/>
+      <c r="E863" t="inlineStr"/>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="inlineStr"/>
+      <c r="H863" t="inlineStr"/>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="inlineStr"/>
+      <c r="M863" t="inlineStr"/>
+      <c r="N863" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr"/>
+      <c r="C864" t="inlineStr"/>
+      <c r="D864" t="inlineStr"/>
+      <c r="E864" t="inlineStr"/>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="inlineStr"/>
+      <c r="H864" t="inlineStr"/>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="inlineStr"/>
+      <c r="M864" t="inlineStr"/>
+      <c r="N864" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr"/>
+      <c r="C865" t="inlineStr"/>
+      <c r="D865" t="inlineStr"/>
+      <c r="E865" t="inlineStr"/>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="inlineStr"/>
+      <c r="H865" t="inlineStr"/>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="inlineStr"/>
+      <c r="M865" t="inlineStr"/>
+      <c r="N865" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr"/>
+      <c r="C866" t="inlineStr"/>
+      <c r="D866" t="inlineStr"/>
+      <c r="E866" t="inlineStr"/>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr"/>
+      <c r="H866" t="inlineStr"/>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="inlineStr"/>
+      <c r="M866" t="inlineStr"/>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr"/>
+      <c r="C867" t="inlineStr"/>
+      <c r="D867" t="inlineStr"/>
+      <c r="E867" t="inlineStr"/>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
+      <c r="H867" t="inlineStr"/>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="inlineStr"/>
+      <c r="M867" t="inlineStr"/>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr"/>
+      <c r="C868" t="inlineStr"/>
+      <c r="D868" t="inlineStr"/>
+      <c r="E868" t="inlineStr"/>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr"/>
+      <c r="H868" t="inlineStr"/>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="inlineStr"/>
+      <c r="M868" t="inlineStr"/>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr"/>
+      <c r="C869" t="inlineStr"/>
+      <c r="D869" t="inlineStr"/>
+      <c r="E869" t="inlineStr"/>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr"/>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="inlineStr"/>
+      <c r="M869" t="inlineStr"/>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr"/>
+      <c r="C870" t="inlineStr"/>
+      <c r="D870" t="inlineStr"/>
+      <c r="E870" t="inlineStr"/>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="inlineStr"/>
+      <c r="H870" t="inlineStr"/>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="inlineStr"/>
+      <c r="M870" t="inlineStr"/>
+      <c r="N870" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr"/>
+      <c r="C871" t="inlineStr"/>
+      <c r="D871" t="inlineStr"/>
+      <c r="E871" t="inlineStr"/>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="inlineStr"/>
+      <c r="H871" t="inlineStr"/>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="inlineStr"/>
+      <c r="M871" t="inlineStr"/>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr"/>
+      <c r="C872" t="inlineStr"/>
+      <c r="D872" t="inlineStr"/>
+      <c r="E872" t="inlineStr"/>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="inlineStr"/>
+      <c r="H872" t="inlineStr"/>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="inlineStr"/>
+      <c r="M872" t="inlineStr"/>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr"/>
+      <c r="C873" t="inlineStr"/>
+      <c r="D873" t="inlineStr"/>
+      <c r="E873" t="inlineStr"/>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="inlineStr"/>
+      <c r="H873" t="inlineStr"/>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="inlineStr"/>
+      <c r="M873" t="inlineStr"/>
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr"/>
+      <c r="C874" t="inlineStr"/>
+      <c r="D874" t="inlineStr"/>
+      <c r="E874" t="inlineStr"/>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="inlineStr"/>
+      <c r="H874" t="inlineStr"/>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="inlineStr"/>
+      <c r="M874" t="inlineStr"/>
+      <c r="N874" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr"/>
+      <c r="C875" t="inlineStr"/>
+      <c r="D875" t="inlineStr"/>
+      <c r="E875" t="inlineStr"/>
+      <c r="F875" t="inlineStr"/>
+      <c r="G875" t="inlineStr"/>
+      <c r="H875" t="inlineStr"/>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="inlineStr"/>
+      <c r="M875" t="inlineStr"/>
+      <c r="N875" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr"/>
+      <c r="C876" t="inlineStr"/>
+      <c r="D876" t="inlineStr"/>
+      <c r="E876" t="inlineStr"/>
+      <c r="F876" t="inlineStr"/>
+      <c r="G876" t="inlineStr"/>
+      <c r="H876" t="inlineStr"/>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="inlineStr"/>
+      <c r="M876" t="inlineStr"/>
+      <c r="N876" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr"/>
+      <c r="C877" t="inlineStr"/>
+      <c r="D877" t="inlineStr"/>
+      <c r="E877" t="inlineStr"/>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="inlineStr"/>
+      <c r="H877" t="inlineStr"/>
+      <c r="I877" t="inlineStr"/>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="inlineStr"/>
+      <c r="M877" t="inlineStr"/>
+      <c r="N877" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr"/>
+      <c r="C878" t="inlineStr"/>
+      <c r="D878" t="inlineStr"/>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr"/>
+      <c r="H878" t="inlineStr"/>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="inlineStr"/>
+      <c r="M878" t="inlineStr"/>
+      <c r="N878" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr"/>
+      <c r="C879" t="inlineStr"/>
+      <c r="D879" t="inlineStr"/>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr"/>
+      <c r="H879" t="inlineStr"/>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="inlineStr"/>
+      <c r="M879" t="inlineStr"/>
+      <c r="N879" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr"/>
+      <c r="C880" t="inlineStr"/>
+      <c r="D880" t="inlineStr"/>
+      <c r="E880" t="inlineStr"/>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
+      <c r="H880" t="inlineStr"/>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="inlineStr"/>
+      <c r="M880" t="inlineStr"/>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr"/>
+      <c r="C881" t="inlineStr"/>
+      <c r="D881" t="inlineStr"/>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr"/>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="inlineStr"/>
+      <c r="M881" t="inlineStr"/>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr"/>
+      <c r="C882" t="inlineStr"/>
+      <c r="D882" t="inlineStr"/>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
+      <c r="H882" t="inlineStr"/>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="inlineStr"/>
+      <c r="M882" t="inlineStr"/>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr"/>
+      <c r="C883" t="inlineStr"/>
+      <c r="D883" t="inlineStr"/>
+      <c r="E883" t="inlineStr"/>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr"/>
+      <c r="H883" t="inlineStr"/>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="inlineStr"/>
+      <c r="M883" t="inlineStr"/>
+      <c r="N883" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr"/>
+      <c r="C884" t="inlineStr"/>
+      <c r="D884" t="inlineStr"/>
+      <c r="E884" t="inlineStr"/>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="inlineStr"/>
+      <c r="H884" t="inlineStr"/>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="inlineStr"/>
+      <c r="M884" t="inlineStr"/>
+      <c r="N884" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr"/>
+      <c r="C885" t="inlineStr"/>
+      <c r="D885" t="inlineStr"/>
+      <c r="E885" t="inlineStr"/>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="inlineStr"/>
+      <c r="H885" t="inlineStr"/>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="inlineStr"/>
+      <c r="M885" t="inlineStr"/>
+      <c r="N885" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr"/>
+      <c r="C886" t="inlineStr"/>
+      <c r="D886" t="inlineStr"/>
+      <c r="E886" t="inlineStr"/>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr"/>
+      <c r="H886" t="inlineStr"/>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="inlineStr"/>
+      <c r="M886" t="inlineStr"/>
+      <c r="N886" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr"/>
+      <c r="C887" t="inlineStr"/>
+      <c r="D887" t="inlineStr"/>
+      <c r="E887" t="inlineStr"/>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr"/>
+      <c r="H887" t="inlineStr"/>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="inlineStr"/>
+      <c r="M887" t="inlineStr"/>
+      <c r="N887" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr"/>
+      <c r="C888" t="inlineStr"/>
+      <c r="D888" t="inlineStr"/>
+      <c r="E888" t="inlineStr"/>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="inlineStr"/>
+      <c r="H888" t="inlineStr"/>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="inlineStr"/>
+      <c r="M888" t="inlineStr"/>
+      <c r="N888" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr"/>
+      <c r="C889" t="inlineStr"/>
+      <c r="D889" t="inlineStr"/>
+      <c r="E889" t="inlineStr"/>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="inlineStr"/>
+      <c r="H889" t="inlineStr"/>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="inlineStr"/>
+      <c r="M889" t="inlineStr"/>
+      <c r="N889" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr"/>
+      <c r="C890" t="inlineStr"/>
+      <c r="D890" t="inlineStr"/>
+      <c r="E890" t="inlineStr"/>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="inlineStr"/>
+      <c r="H890" t="inlineStr"/>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="inlineStr"/>
+      <c r="M890" t="inlineStr"/>
+      <c r="N890" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr"/>
+      <c r="C891" t="inlineStr"/>
+      <c r="D891" t="inlineStr"/>
+      <c r="E891" t="inlineStr"/>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr"/>
+      <c r="H891" t="inlineStr"/>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="inlineStr"/>
+      <c r="M891" t="inlineStr"/>
+      <c r="N891" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr"/>
+      <c r="C892" t="inlineStr"/>
+      <c r="D892" t="inlineStr"/>
+      <c r="E892" t="inlineStr"/>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr"/>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="inlineStr"/>
+      <c r="M892" t="inlineStr"/>
+      <c r="N892" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr"/>
+      <c r="C893" t="inlineStr"/>
+      <c r="D893" t="inlineStr"/>
+      <c r="E893" t="inlineStr"/>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr"/>
+      <c r="H893" t="inlineStr"/>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="inlineStr"/>
+      <c r="M893" t="inlineStr"/>
+      <c r="N893" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr"/>
+      <c r="C894" t="inlineStr"/>
+      <c r="D894" t="inlineStr"/>
+      <c r="E894" t="inlineStr"/>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="inlineStr"/>
+      <c r="H894" t="inlineStr"/>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="inlineStr"/>
+      <c r="M894" t="inlineStr"/>
+      <c r="N894" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr"/>
+      <c r="C895" t="inlineStr"/>
+      <c r="D895" t="inlineStr"/>
+      <c r="E895" t="inlineStr"/>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="inlineStr"/>
+      <c r="H895" t="inlineStr"/>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="inlineStr"/>
+      <c r="M895" t="inlineStr"/>
+      <c r="N895" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr"/>
+      <c r="C896" t="inlineStr"/>
+      <c r="D896" t="inlineStr"/>
+      <c r="E896" t="inlineStr"/>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="inlineStr"/>
+      <c r="H896" t="inlineStr"/>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="inlineStr"/>
+      <c r="M896" t="inlineStr"/>
+      <c r="N896" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr"/>
+      <c r="C897" t="inlineStr"/>
+      <c r="D897" t="inlineStr"/>
+      <c r="E897" t="inlineStr"/>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr"/>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="inlineStr"/>
+      <c r="M897" t="inlineStr"/>
+      <c r="N897" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr"/>
+      <c r="C898" t="inlineStr"/>
+      <c r="D898" t="inlineStr"/>
+      <c r="E898" t="inlineStr"/>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="inlineStr"/>
+      <c r="H898" t="inlineStr"/>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="inlineStr"/>
+      <c r="M898" t="inlineStr"/>
+      <c r="N898" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr"/>
+      <c r="C899" t="inlineStr"/>
+      <c r="D899" t="inlineStr"/>
+      <c r="E899" t="inlineStr"/>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr"/>
+      <c r="H899" t="inlineStr"/>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="inlineStr"/>
+      <c r="M899" t="inlineStr"/>
+      <c r="N899" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr"/>
+      <c r="C900" t="inlineStr"/>
+      <c r="D900" t="inlineStr"/>
+      <c r="E900" t="inlineStr"/>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="inlineStr"/>
+      <c r="H900" t="inlineStr"/>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="inlineStr"/>
+      <c r="M900" t="inlineStr"/>
+      <c r="N900" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr"/>
+      <c r="C901" t="inlineStr"/>
+      <c r="D901" t="inlineStr"/>
+      <c r="E901" t="inlineStr"/>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="inlineStr"/>
+      <c r="H901" t="inlineStr"/>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="inlineStr"/>
+      <c r="M901" t="inlineStr"/>
+      <c r="N901" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr"/>
+      <c r="C902" t="inlineStr"/>
+      <c r="D902" t="inlineStr"/>
+      <c r="E902" t="inlineStr"/>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
+      <c r="H902" t="inlineStr"/>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="inlineStr"/>
+      <c r="M902" t="inlineStr"/>
+      <c r="N902" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr"/>
+      <c r="C903" t="inlineStr"/>
+      <c r="D903" t="inlineStr"/>
+      <c r="E903" t="inlineStr"/>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr"/>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="inlineStr"/>
+      <c r="M903" t="inlineStr"/>
+      <c r="N903" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr"/>
+      <c r="C904" t="inlineStr"/>
+      <c r="D904" t="inlineStr"/>
+      <c r="E904" t="inlineStr"/>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
+      <c r="H904" t="inlineStr"/>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="inlineStr"/>
+      <c r="M904" t="inlineStr"/>
+      <c r="N904" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr"/>
+      <c r="C905" t="inlineStr"/>
+      <c r="D905" t="inlineStr"/>
+      <c r="E905" t="inlineStr"/>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr"/>
+      <c r="H905" t="inlineStr"/>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="inlineStr"/>
+      <c r="M905" t="inlineStr"/>
+      <c r="N905" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr"/>
+      <c r="C906" t="inlineStr"/>
+      <c r="D906" t="inlineStr"/>
+      <c r="E906" t="inlineStr"/>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="inlineStr"/>
+      <c r="H906" t="inlineStr"/>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="inlineStr"/>
+      <c r="M906" t="inlineStr"/>
+      <c r="N906" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr"/>
+      <c r="C907" t="inlineStr"/>
+      <c r="D907" t="inlineStr"/>
+      <c r="E907" t="inlineStr"/>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="inlineStr"/>
+      <c r="H907" t="inlineStr"/>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="inlineStr"/>
+      <c r="M907" t="inlineStr"/>
+      <c r="N907" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr"/>
+      <c r="C908" t="inlineStr"/>
+      <c r="D908" t="inlineStr"/>
+      <c r="E908" t="inlineStr"/>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="inlineStr"/>
+      <c r="H908" t="inlineStr"/>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="inlineStr"/>
+      <c r="M908" t="inlineStr"/>
+      <c r="N908" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr"/>
+      <c r="C909" t="inlineStr"/>
+      <c r="D909" t="inlineStr"/>
+      <c r="E909" t="inlineStr"/>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="inlineStr"/>
+      <c r="H909" t="inlineStr"/>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="inlineStr"/>
+      <c r="M909" t="inlineStr"/>
+      <c r="N909" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr"/>
+      <c r="C910" t="inlineStr"/>
+      <c r="D910" t="inlineStr"/>
+      <c r="E910" t="inlineStr"/>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="inlineStr"/>
+      <c r="H910" t="inlineStr"/>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="inlineStr"/>
+      <c r="M910" t="inlineStr"/>
+      <c r="N910" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr"/>
+      <c r="C911" t="inlineStr"/>
+      <c r="D911" t="inlineStr"/>
+      <c r="E911" t="inlineStr"/>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="inlineStr"/>
+      <c r="H911" t="inlineStr"/>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="inlineStr"/>
+      <c r="M911" t="inlineStr"/>
+      <c r="N911" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr"/>
+      <c r="C912" t="inlineStr"/>
+      <c r="D912" t="inlineStr"/>
+      <c r="E912" t="inlineStr"/>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="inlineStr"/>
+      <c r="H912" t="inlineStr"/>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="inlineStr"/>
+      <c r="M912" t="inlineStr"/>
+      <c r="N912" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr"/>
+      <c r="C913" t="inlineStr"/>
+      <c r="D913" t="inlineStr"/>
+      <c r="E913" t="inlineStr"/>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="inlineStr"/>
+      <c r="H913" t="inlineStr"/>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="inlineStr"/>
+      <c r="M913" t="inlineStr"/>
+      <c r="N913" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr"/>
+      <c r="C914" t="inlineStr"/>
+      <c r="D914" t="inlineStr"/>
+      <c r="E914" t="inlineStr"/>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr"/>
+      <c r="H914" t="inlineStr"/>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="inlineStr"/>
+      <c r="M914" t="inlineStr"/>
+      <c r="N914" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr"/>
+      <c r="C915" t="inlineStr"/>
+      <c r="D915" t="inlineStr"/>
+      <c r="E915" t="inlineStr"/>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
+      <c r="H915" t="inlineStr"/>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="inlineStr"/>
+      <c r="M915" t="inlineStr"/>
+      <c r="N915" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr"/>
+      <c r="C916" t="inlineStr"/>
+      <c r="D916" t="inlineStr"/>
+      <c r="E916" t="inlineStr"/>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
+      <c r="H916" t="inlineStr"/>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="inlineStr"/>
+      <c r="M916" t="inlineStr"/>
+      <c r="N916" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr"/>
+      <c r="C917" t="inlineStr"/>
+      <c r="D917" t="inlineStr"/>
+      <c r="E917" t="inlineStr"/>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
+      <c r="H917" t="inlineStr"/>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="inlineStr"/>
+      <c r="M917" t="inlineStr"/>
+      <c r="N917" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr"/>
+      <c r="C918" t="inlineStr"/>
+      <c r="D918" t="inlineStr"/>
+      <c r="E918" t="inlineStr"/>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
+      <c r="H918" t="inlineStr"/>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="inlineStr"/>
+      <c r="M918" t="inlineStr"/>
+      <c r="N918" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr"/>
+      <c r="C919" t="inlineStr"/>
+      <c r="D919" t="inlineStr"/>
+      <c r="E919" t="inlineStr"/>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
+      <c r="H919" t="inlineStr"/>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="inlineStr"/>
+      <c r="M919" t="inlineStr"/>
+      <c r="N919" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr"/>
+      <c r="C920" t="inlineStr"/>
+      <c r="D920" t="inlineStr"/>
+      <c r="E920" t="inlineStr"/>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
+      <c r="H920" t="inlineStr"/>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="inlineStr"/>
+      <c r="M920" t="inlineStr"/>
+      <c r="N920" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr"/>
+      <c r="C921" t="inlineStr"/>
+      <c r="D921" t="inlineStr"/>
+      <c r="E921" t="inlineStr"/>
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="inlineStr"/>
+      <c r="H921" t="inlineStr"/>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="inlineStr"/>
+      <c r="M921" t="inlineStr"/>
+      <c r="N921" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr"/>
+      <c r="C922" t="inlineStr"/>
+      <c r="D922" t="inlineStr"/>
+      <c r="E922" t="inlineStr"/>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
+      <c r="H922" t="inlineStr"/>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="inlineStr"/>
+      <c r="M922" t="inlineStr"/>
+      <c r="N922" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr"/>
+      <c r="C923" t="inlineStr"/>
+      <c r="D923" t="inlineStr"/>
+      <c r="E923" t="inlineStr"/>
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="inlineStr"/>
+      <c r="H923" t="inlineStr"/>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="inlineStr"/>
+      <c r="M923" t="inlineStr"/>
+      <c r="N923" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr"/>
+      <c r="C924" t="inlineStr"/>
+      <c r="D924" t="inlineStr"/>
+      <c r="E924" t="inlineStr"/>
+      <c r="F924" t="inlineStr"/>
+      <c r="G924" t="inlineStr"/>
+      <c r="H924" t="inlineStr"/>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="inlineStr"/>
+      <c r="M924" t="inlineStr"/>
+      <c r="N924" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr"/>
+      <c r="C925" t="inlineStr"/>
+      <c r="D925" t="inlineStr"/>
+      <c r="E925" t="inlineStr"/>
+      <c r="F925" t="inlineStr"/>
+      <c r="G925" t="inlineStr"/>
+      <c r="H925" t="inlineStr"/>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
+      <c r="L925" t="inlineStr"/>
+      <c r="M925" t="inlineStr"/>
+      <c r="N925" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr"/>
+      <c r="C926" t="inlineStr"/>
+      <c r="D926" t="inlineStr"/>
+      <c r="E926" t="inlineStr"/>
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="inlineStr"/>
+      <c r="H926" t="inlineStr"/>
+      <c r="I926" t="inlineStr"/>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="inlineStr"/>
+      <c r="M926" t="inlineStr"/>
+      <c r="N926" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr"/>
+      <c r="C927" t="inlineStr"/>
+      <c r="D927" t="inlineStr"/>
+      <c r="E927" t="inlineStr"/>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="inlineStr"/>
+      <c r="H927" t="inlineStr"/>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
+      <c r="L927" t="inlineStr"/>
+      <c r="M927" t="inlineStr"/>
+      <c r="N927" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr"/>
+      <c r="C928" t="inlineStr"/>
+      <c r="D928" t="inlineStr"/>
+      <c r="E928" t="inlineStr"/>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="inlineStr"/>
+      <c r="H928" t="inlineStr"/>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="inlineStr"/>
+      <c r="M928" t="inlineStr"/>
+      <c r="N928" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr"/>
+      <c r="C929" t="inlineStr"/>
+      <c r="D929" t="inlineStr"/>
+      <c r="E929" t="inlineStr"/>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr"/>
+      <c r="H929" t="inlineStr"/>
+      <c r="I929" t="inlineStr"/>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
+      <c r="L929" t="inlineStr"/>
+      <c r="M929" t="inlineStr"/>
+      <c r="N929" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr"/>
+      <c r="C930" t="inlineStr"/>
+      <c r="D930" t="inlineStr"/>
+      <c r="E930" t="inlineStr"/>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
+      <c r="H930" t="inlineStr"/>
+      <c r="I930" t="inlineStr"/>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
+      <c r="L930" t="inlineStr"/>
+      <c r="M930" t="inlineStr"/>
+      <c r="N930" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
+      <c r="C931" t="inlineStr"/>
+      <c r="D931" t="inlineStr"/>
+      <c r="E931" t="inlineStr"/>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
+      <c r="H931" t="inlineStr"/>
+      <c r="I931" t="inlineStr"/>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
+      <c r="L931" t="inlineStr"/>
+      <c r="M931" t="inlineStr"/>
+      <c r="N931" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+      <c r="C932" t="inlineStr"/>
+      <c r="D932" t="inlineStr"/>
+      <c r="E932" t="inlineStr"/>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr"/>
+      <c r="I932" t="inlineStr"/>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
+      <c r="L932" t="inlineStr"/>
+      <c r="M932" t="inlineStr"/>
+      <c r="N932" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr"/>
+      <c r="C933" t="inlineStr"/>
+      <c r="D933" t="inlineStr"/>
+      <c r="E933" t="inlineStr"/>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
+      <c r="H933" t="inlineStr"/>
+      <c r="I933" t="inlineStr"/>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
+      <c r="L933" t="inlineStr"/>
+      <c r="M933" t="inlineStr"/>
+      <c r="N933" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr"/>
+      <c r="C934" t="inlineStr"/>
+      <c r="D934" t="inlineStr"/>
+      <c r="E934" t="inlineStr"/>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="inlineStr"/>
+      <c r="H934" t="inlineStr"/>
+      <c r="I934" t="inlineStr"/>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
+      <c r="L934" t="inlineStr"/>
+      <c r="M934" t="inlineStr"/>
+      <c r="N934" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
+      <c r="C935" t="inlineStr"/>
+      <c r="D935" t="inlineStr"/>
+      <c r="E935" t="inlineStr"/>
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="inlineStr"/>
+      <c r="H935" t="inlineStr"/>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
+      <c r="L935" t="inlineStr"/>
+      <c r="M935" t="inlineStr"/>
+      <c r="N935" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
+      <c r="D936" t="inlineStr"/>
+      <c r="E936" t="inlineStr"/>
+      <c r="F936" t="inlineStr"/>
+      <c r="G936" t="inlineStr"/>
+      <c r="H936" t="inlineStr"/>
+      <c r="I936" t="inlineStr"/>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
+      <c r="L936" t="inlineStr"/>
+      <c r="M936" t="inlineStr"/>
+      <c r="N936" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr"/>
+      <c r="C937" t="inlineStr"/>
+      <c r="D937" t="inlineStr"/>
+      <c r="E937" t="inlineStr"/>
+      <c r="F937" t="inlineStr"/>
+      <c r="G937" t="inlineStr"/>
+      <c r="H937" t="inlineStr"/>
+      <c r="I937" t="inlineStr"/>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
+      <c r="L937" t="inlineStr"/>
+      <c r="M937" t="inlineStr"/>
+      <c r="N937" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr"/>
+      <c r="C938" t="inlineStr"/>
+      <c r="D938" t="inlineStr"/>
+      <c r="E938" t="inlineStr"/>
+      <c r="F938" t="inlineStr"/>
+      <c r="G938" t="inlineStr"/>
+      <c r="H938" t="inlineStr"/>
+      <c r="I938" t="inlineStr"/>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
+      <c r="L938" t="inlineStr"/>
+      <c r="M938" t="inlineStr"/>
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr"/>
+      <c r="C939" t="inlineStr"/>
+      <c r="D939" t="inlineStr"/>
+      <c r="E939" t="inlineStr"/>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="inlineStr"/>
+      <c r="H939" t="inlineStr"/>
+      <c r="I939" t="inlineStr"/>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
+      <c r="L939" t="inlineStr"/>
+      <c r="M939" t="inlineStr"/>
+      <c r="N939" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr"/>
+      <c r="C940" t="inlineStr"/>
+      <c r="D940" t="inlineStr"/>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="inlineStr"/>
+      <c r="H940" t="inlineStr"/>
+      <c r="I940" t="inlineStr"/>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
+      <c r="L940" t="inlineStr"/>
+      <c r="M940" t="inlineStr"/>
+      <c r="N940" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr"/>
+      <c r="C941" t="inlineStr"/>
+      <c r="D941" t="inlineStr"/>
+      <c r="E941" t="inlineStr"/>
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="inlineStr"/>
+      <c r="H941" t="inlineStr"/>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
+      <c r="L941" t="inlineStr"/>
+      <c r="M941" t="inlineStr"/>
+      <c r="N941" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+      <c r="C942" t="inlineStr"/>
+      <c r="D942" t="inlineStr"/>
+      <c r="E942" t="inlineStr"/>
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr"/>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="inlineStr"/>
+      <c r="M942" t="inlineStr"/>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr"/>
+      <c r="C943" t="inlineStr"/>
+      <c r="D943" t="inlineStr"/>
+      <c r="E943" t="inlineStr"/>
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="inlineStr"/>
+      <c r="H943" t="inlineStr"/>
+      <c r="I943" t="inlineStr"/>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
+      <c r="L943" t="inlineStr"/>
+      <c r="M943" t="inlineStr"/>
+      <c r="N943" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr"/>
+      <c r="C944" t="inlineStr"/>
+      <c r="D944" t="inlineStr"/>
+      <c r="E944" t="inlineStr"/>
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="inlineStr"/>
+      <c r="H944" t="inlineStr"/>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
+      <c r="L944" t="inlineStr"/>
+      <c r="M944" t="inlineStr"/>
+      <c r="N944" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr"/>
+      <c r="C945" t="inlineStr"/>
+      <c r="D945" t="inlineStr"/>
+      <c r="E945" t="inlineStr"/>
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="inlineStr"/>
+      <c r="H945" t="inlineStr"/>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
+      <c r="L945" t="inlineStr"/>
+      <c r="M945" t="inlineStr"/>
+      <c r="N945" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr"/>
+      <c r="C946" t="inlineStr"/>
+      <c r="D946" t="inlineStr"/>
+      <c r="E946" t="inlineStr"/>
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="inlineStr"/>
+      <c r="H946" t="inlineStr"/>
+      <c r="I946" t="inlineStr"/>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
+      <c r="L946" t="inlineStr"/>
+      <c r="M946" t="inlineStr"/>
+      <c r="N946" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr"/>
+      <c r="C947" t="inlineStr"/>
+      <c r="D947" t="inlineStr"/>
+      <c r="E947" t="inlineStr"/>
+      <c r="F947" t="inlineStr"/>
+      <c r="G947" t="inlineStr"/>
+      <c r="H947" t="inlineStr"/>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
+      <c r="L947" t="inlineStr"/>
+      <c r="M947" t="inlineStr"/>
+      <c r="N947" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr"/>
+      <c r="C948" t="inlineStr"/>
+      <c r="D948" t="inlineStr"/>
+      <c r="E948" t="inlineStr"/>
+      <c r="F948" t="inlineStr"/>
+      <c r="G948" t="inlineStr"/>
+      <c r="H948" t="inlineStr"/>
+      <c r="I948" t="inlineStr"/>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
+      <c r="L948" t="inlineStr"/>
+      <c r="M948" t="inlineStr"/>
+      <c r="N948" t="n">
+        <v>15.6925</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr"/>
+      <c r="C949" t="inlineStr"/>
+      <c r="D949" t="inlineStr"/>
+      <c r="E949" t="inlineStr"/>
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="inlineStr"/>
+      <c r="H949" t="inlineStr"/>
+      <c r="I949" t="inlineStr"/>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
+      <c r="L949" t="inlineStr"/>
+      <c r="M949" t="inlineStr"/>
+      <c r="N949" t="n">
+        <v>16.195</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr"/>
+      <c r="C950" t="inlineStr"/>
+      <c r="D950" t="inlineStr"/>
+      <c r="E950" t="inlineStr"/>
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr"/>
+      <c r="H950" t="inlineStr"/>
+      <c r="I950" t="inlineStr"/>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
+      <c r="L950" t="inlineStr"/>
+      <c r="M950" t="inlineStr"/>
+      <c r="N950" t="inlineStr">
+        <is>
+          <t>{0: 0.2, 1: 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr"/>
+      <c r="C951" t="inlineStr"/>
+      <c r="D951" t="inlineStr"/>
+      <c r="E951" t="inlineStr"/>
+      <c r="F951" t="inlineStr"/>
+      <c r="G951" t="inlineStr"/>
+      <c r="H951" t="inlineStr"/>
+      <c r="I951" t="inlineStr"/>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
+      <c r="L951" t="inlineStr"/>
+      <c r="M951" t="inlineStr"/>
+      <c r="N951" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr"/>
+      <c r="C952" t="inlineStr"/>
+      <c r="D952" t="inlineStr"/>
+      <c r="E952" t="inlineStr"/>
+      <c r="F952" t="inlineStr"/>
+      <c r="G952" t="inlineStr"/>
+      <c r="H952" t="inlineStr"/>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
+      <c r="L952" t="inlineStr"/>
+      <c r="M952" t="inlineStr"/>
+      <c r="N952" t="inlineStr">
+        <is>
+          <t>['0', '1', '2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr"/>
+      <c r="C953" t="inlineStr"/>
+      <c r="D953" t="inlineStr"/>
+      <c r="E953" t="inlineStr"/>
+      <c r="F953" t="inlineStr"/>
+      <c r="G953" t="inlineStr"/>
+      <c r="H953" t="inlineStr"/>
+      <c r="I953" t="inlineStr"/>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
+      <c r="L953" t="inlineStr"/>
+      <c r="M953" t="inlineStr"/>
+      <c r="N953" t="inlineStr">
+        <is>
+          <t>[19564  5492    19   103     4    27     1     5     7    14    13     3
+  4149     6     7     1     4     1     1     3     2     1     1   385
+     1     2     2     3     1     2     2     1    78  1253    16   109
+    60    42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr"/>
+      <c r="C954" t="inlineStr"/>
+      <c r="D954" t="inlineStr"/>
+      <c r="E954" t="inlineStr"/>
+      <c r="F954" t="inlineStr"/>
+      <c r="G954" t="inlineStr"/>
+      <c r="H954" t="inlineStr"/>
+      <c r="I954" t="inlineStr"/>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
+      <c r="L954" t="inlineStr"/>
+      <c r="M954" t="inlineStr"/>
+      <c r="N954" t="inlineStr">
+        <is>
+          <t>[23835  8375   180]</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr"/>
+      <c r="C955" t="inlineStr"/>
+      <c r="D955" t="inlineStr"/>
+      <c r="E955" t="inlineStr"/>
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="inlineStr"/>
+      <c r="H955" t="inlineStr"/>
+      <c r="I955" t="inlineStr"/>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
+      <c r="L955" t="inlineStr"/>
+      <c r="M955" t="inlineStr"/>
+      <c r="N955" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr"/>
+      <c r="C956" t="inlineStr"/>
+      <c r="D956" t="inlineStr"/>
+      <c r="E956" t="inlineStr"/>
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="inlineStr"/>
+      <c r="H956" t="inlineStr"/>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
+      <c r="L956" t="inlineStr"/>
+      <c r="M956" t="inlineStr"/>
+      <c r="N956" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr"/>
+      <c r="C957" t="inlineStr"/>
+      <c r="D957" t="inlineStr"/>
+      <c r="E957" t="inlineStr"/>
+      <c r="F957" t="inlineStr"/>
+      <c r="G957" t="inlineStr"/>
+      <c r="H957" t="inlineStr"/>
+      <c r="I957" t="inlineStr"/>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
+      <c r="L957" t="inlineStr"/>
+      <c r="M957" t="inlineStr"/>
+      <c r="N957" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr"/>
+      <c r="C958" t="inlineStr"/>
+      <c r="D958" t="inlineStr"/>
+      <c r="E958" t="inlineStr"/>
+      <c r="F958" t="inlineStr"/>
+      <c r="G958" t="inlineStr"/>
+      <c r="H958" t="inlineStr"/>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
+      <c r="L958" t="inlineStr"/>
+      <c r="M958" t="inlineStr"/>
+      <c r="N958" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr"/>
+      <c r="C959" t="inlineStr"/>
+      <c r="D959" t="inlineStr"/>
+      <c r="E959" t="inlineStr"/>
+      <c r="F959" t="inlineStr"/>
+      <c r="G959" t="inlineStr"/>
+      <c r="H959" t="inlineStr"/>
+      <c r="I959" t="inlineStr"/>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
+      <c r="L959" t="inlineStr"/>
+      <c r="M959" t="inlineStr"/>
+      <c r="N959" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr"/>
+      <c r="C960" t="inlineStr"/>
+      <c r="D960" t="inlineStr"/>
+      <c r="E960" t="inlineStr"/>
+      <c r="F960" t="inlineStr"/>
+      <c r="G960" t="inlineStr"/>
+      <c r="H960" t="inlineStr"/>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
+      <c r="L960" t="inlineStr"/>
+      <c r="M960" t="inlineStr"/>
+      <c r="N960" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr"/>
+      <c r="C961" t="inlineStr"/>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr"/>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr"/>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
+      <c r="L961" t="inlineStr"/>
+      <c r="M961" t="inlineStr"/>
+      <c r="N961" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr"/>
+      <c r="C962" t="inlineStr"/>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr"/>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
+      <c r="L962" t="inlineStr"/>
+      <c r="M962" t="inlineStr"/>
+      <c r="N962" t="n">
+        <v>15.6925</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr"/>
+      <c r="C963" t="inlineStr"/>
+      <c r="D963" t="inlineStr"/>
+      <c r="E963" t="inlineStr"/>
+      <c r="F963" t="inlineStr"/>
+      <c r="G963" t="inlineStr"/>
+      <c r="H963" t="inlineStr"/>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
+      <c r="L963" t="inlineStr"/>
+      <c r="M963" t="inlineStr"/>
+      <c r="N963" t="n">
+        <v>16.195</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr"/>
+      <c r="D964" t="inlineStr"/>
+      <c r="E964" t="inlineStr"/>
+      <c r="F964" t="inlineStr"/>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr"/>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
+      <c r="L964" t="inlineStr"/>
+      <c r="M964" t="inlineStr"/>
+      <c r="N964" t="inlineStr">
+        <is>
+          <t>{0: 0.2, 1: 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr"/>
+      <c r="C965" t="inlineStr"/>
+      <c r="D965" t="inlineStr"/>
+      <c r="E965" t="inlineStr"/>
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr"/>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
+      <c r="L965" t="inlineStr"/>
+      <c r="M965" t="inlineStr"/>
+      <c r="N965" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr"/>
+      <c r="C966" t="inlineStr"/>
+      <c r="D966" t="inlineStr"/>
+      <c r="E966" t="inlineStr"/>
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="inlineStr"/>
+      <c r="H966" t="inlineStr"/>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
+      <c r="L966" t="inlineStr"/>
+      <c r="M966" t="inlineStr"/>
+      <c r="N966" t="inlineStr">
+        <is>
+          <t>['0', '1', '2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr"/>
+      <c r="C967" t="inlineStr"/>
+      <c r="D967" t="inlineStr"/>
+      <c r="E967" t="inlineStr"/>
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="inlineStr"/>
+      <c r="H967" t="inlineStr"/>
+      <c r="I967" t="inlineStr"/>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="inlineStr"/>
+      <c r="M967" t="inlineStr"/>
+      <c r="N967" t="inlineStr">
+        <is>
+          <t>[19564  5492    19   103     4    27     1     5     7    14    13     3
+  4149     6     7     1     4     1     1     3     2     1     1   385
+     1     2     2     3     1     2     2     1    78  1253    16   109
+    60    42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr"/>
+      <c r="C968" t="inlineStr"/>
+      <c r="D968" t="inlineStr"/>
+      <c r="E968" t="inlineStr"/>
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="inlineStr"/>
+      <c r="H968" t="inlineStr"/>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
+      <c r="L968" t="inlineStr"/>
+      <c r="M968" t="inlineStr"/>
+      <c r="N968" t="inlineStr">
+        <is>
+          <t>[23835  8375   180]</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr"/>
+      <c r="C969" t="inlineStr"/>
+      <c r="D969" t="inlineStr"/>
+      <c r="E969" t="inlineStr"/>
+      <c r="F969" t="inlineStr"/>
+      <c r="G969" t="inlineStr"/>
+      <c r="H969" t="inlineStr"/>
+      <c r="I969" t="inlineStr"/>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
+      <c r="L969" t="inlineStr"/>
+      <c r="M969" t="inlineStr"/>
+      <c r="N969" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr"/>
+      <c r="C970" t="inlineStr"/>
+      <c r="D970" t="inlineStr"/>
+      <c r="E970" t="inlineStr"/>
+      <c r="F970" t="inlineStr"/>
+      <c r="G970" t="inlineStr"/>
+      <c r="H970" t="inlineStr"/>
+      <c r="I970" t="inlineStr"/>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
+      <c r="L970" t="inlineStr"/>
+      <c r="M970" t="inlineStr"/>
+      <c r="N970" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr"/>
+      <c r="C971" t="inlineStr"/>
+      <c r="D971" t="inlineStr"/>
+      <c r="E971" t="inlineStr"/>
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr"/>
+      <c r="I971" t="inlineStr"/>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
+      <c r="L971" t="inlineStr"/>
+      <c r="M971" t="inlineStr"/>
+      <c r="N971" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr"/>
+      <c r="C972" t="inlineStr"/>
+      <c r="D972" t="inlineStr"/>
+      <c r="E972" t="inlineStr"/>
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr"/>
+      <c r="I972" t="inlineStr"/>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
+      <c r="L972" t="inlineStr"/>
+      <c r="M972" t="inlineStr"/>
+      <c r="N972" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr"/>
+      <c r="C973" t="inlineStr"/>
+      <c r="D973" t="inlineStr"/>
+      <c r="E973" t="inlineStr"/>
+      <c r="F973" t="inlineStr"/>
+      <c r="G973" t="inlineStr"/>
+      <c r="H973" t="inlineStr"/>
+      <c r="I973" t="inlineStr"/>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
+      <c r="L973" t="inlineStr"/>
+      <c r="M973" t="inlineStr"/>
+      <c r="N973" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr"/>
+      <c r="C974" t="inlineStr"/>
+      <c r="D974" t="inlineStr"/>
+      <c r="E974" t="inlineStr"/>
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="inlineStr"/>
+      <c r="H974" t="inlineStr"/>
+      <c r="I974" t="inlineStr"/>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
+      <c r="L974" t="inlineStr"/>
+      <c r="M974" t="inlineStr"/>
+      <c r="N974" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr"/>
+      <c r="C975" t="inlineStr"/>
+      <c r="D975" t="inlineStr"/>
+      <c r="E975" t="inlineStr"/>
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="inlineStr"/>
+      <c r="H975" t="inlineStr"/>
+      <c r="I975" t="inlineStr"/>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="inlineStr"/>
+      <c r="M975" t="inlineStr"/>
+      <c r="N975" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr"/>
+      <c r="C976" t="inlineStr"/>
+      <c r="D976" t="inlineStr"/>
+      <c r="E976" t="inlineStr"/>
+      <c r="F976" t="inlineStr"/>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr"/>
+      <c r="I976" t="inlineStr"/>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
+      <c r="L976" t="inlineStr"/>
+      <c r="M976" t="inlineStr"/>
+      <c r="N976" t="n">
+        <v>15.6925</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr"/>
+      <c r="C977" t="inlineStr"/>
+      <c r="D977" t="inlineStr"/>
+      <c r="E977" t="inlineStr"/>
+      <c r="F977" t="inlineStr"/>
+      <c r="G977" t="inlineStr"/>
+      <c r="H977" t="inlineStr"/>
+      <c r="I977" t="inlineStr"/>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
+      <c r="L977" t="inlineStr"/>
+      <c r="M977" t="inlineStr"/>
+      <c r="N977" t="n">
+        <v>16.195</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr"/>
+      <c r="C978" t="inlineStr"/>
+      <c r="D978" t="inlineStr"/>
+      <c r="E978" t="inlineStr"/>
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="inlineStr"/>
+      <c r="H978" t="inlineStr"/>
+      <c r="I978" t="inlineStr"/>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="inlineStr"/>
+      <c r="M978" t="inlineStr"/>
+      <c r="N978" t="inlineStr">
+        <is>
+          <t>{0: 0.2, 1: 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr"/>
+      <c r="C979" t="inlineStr"/>
+      <c r="D979" t="inlineStr"/>
+      <c r="E979" t="inlineStr"/>
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="inlineStr"/>
+      <c r="H979" t="inlineStr"/>
+      <c r="I979" t="inlineStr"/>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="inlineStr"/>
+      <c r="M979" t="inlineStr"/>
+      <c r="N979" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr"/>
+      <c r="C980" t="inlineStr"/>
+      <c r="D980" t="inlineStr"/>
+      <c r="E980" t="inlineStr"/>
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="inlineStr"/>
+      <c r="H980" t="inlineStr"/>
+      <c r="I980" t="inlineStr"/>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="inlineStr"/>
+      <c r="M980" t="inlineStr"/>
+      <c r="N980" t="inlineStr">
+        <is>
+          <t>['0', '1', '2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr"/>
+      <c r="C981" t="inlineStr"/>
+      <c r="D981" t="inlineStr"/>
+      <c r="E981" t="inlineStr"/>
+      <c r="F981" t="inlineStr"/>
+      <c r="G981" t="inlineStr"/>
+      <c r="H981" t="inlineStr"/>
+      <c r="I981" t="inlineStr"/>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="inlineStr"/>
+      <c r="M981" t="inlineStr"/>
+      <c r="N981" t="inlineStr">
+        <is>
+          <t>[19564  5492    19   103     4    27     1     5     7    14    13     3
+  4149     6     7     1     4     1     1     3     2     1     1   385
+     1     2     2     3     1     2     2     1    78  1253    16   109
+    60    42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr"/>
+      <c r="C982" t="inlineStr"/>
+      <c r="D982" t="inlineStr"/>
+      <c r="E982" t="inlineStr"/>
+      <c r="F982" t="inlineStr"/>
+      <c r="G982" t="inlineStr"/>
+      <c r="H982" t="inlineStr"/>
+      <c r="I982" t="inlineStr"/>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
+      <c r="L982" t="inlineStr"/>
+      <c r="M982" t="inlineStr"/>
+      <c r="N982" t="inlineStr">
+        <is>
+          <t>[23835  8375   180]</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr"/>
+      <c r="C983" t="inlineStr"/>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="inlineStr"/>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr"/>
+      <c r="I983" t="inlineStr"/>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="inlineStr"/>
+      <c r="M983" t="inlineStr"/>
+      <c r="N983" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr"/>
+      <c r="C984" t="inlineStr"/>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr"/>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr"/>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
+      <c r="L984" t="inlineStr"/>
+      <c r="M984" t="inlineStr"/>
+      <c r="N984" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr"/>
+      <c r="C985" t="inlineStr"/>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr"/>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="inlineStr"/>
+      <c r="M985" t="inlineStr"/>
+      <c r="N985" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr"/>
+      <c r="C986" t="inlineStr"/>
+      <c r="D986" t="inlineStr"/>
+      <c r="E986" t="inlineStr"/>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr"/>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="inlineStr"/>
+      <c r="M986" t="inlineStr"/>
+      <c r="N986" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr"/>
+      <c r="C987" t="inlineStr"/>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr"/>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
+      <c r="H987" t="inlineStr"/>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="inlineStr"/>
+      <c r="M987" t="inlineStr"/>
+      <c r="N987" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr"/>
+      <c r="C988" t="inlineStr"/>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="inlineStr"/>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr"/>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="inlineStr"/>
+      <c r="M988" t="inlineStr"/>
+      <c r="N988" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr"/>
+      <c r="C989" t="inlineStr"/>
+      <c r="D989" t="inlineStr"/>
+      <c r="E989" t="inlineStr"/>
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr"/>
+      <c r="H989" t="inlineStr"/>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="inlineStr"/>
+      <c r="M989" t="inlineStr"/>
+      <c r="N989" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr"/>
+      <c r="C990" t="inlineStr"/>
+      <c r="D990" t="inlineStr"/>
+      <c r="E990" t="inlineStr"/>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr"/>
+      <c r="H990" t="inlineStr"/>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="inlineStr"/>
+      <c r="M990" t="inlineStr"/>
+      <c r="N990" t="n">
+        <v>15.6925</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr"/>
+      <c r="C991" t="inlineStr"/>
+      <c r="D991" t="inlineStr"/>
+      <c r="E991" t="inlineStr"/>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr"/>
+      <c r="H991" t="inlineStr"/>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="inlineStr"/>
+      <c r="M991" t="inlineStr"/>
+      <c r="N991" t="n">
+        <v>16.195</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr"/>
+      <c r="C992" t="inlineStr"/>
+      <c r="D992" t="inlineStr"/>
+      <c r="E992" t="inlineStr"/>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr"/>
+      <c r="H992" t="inlineStr"/>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="inlineStr"/>
+      <c r="M992" t="inlineStr"/>
+      <c r="N992" t="inlineStr">
+        <is>
+          <t>{0: 0.2, 1: 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr"/>
+      <c r="C993" t="inlineStr"/>
+      <c r="D993" t="inlineStr"/>
+      <c r="E993" t="inlineStr"/>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr"/>
+      <c r="H993" t="inlineStr"/>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="inlineStr"/>
+      <c r="M993" t="inlineStr"/>
+      <c r="N993" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr"/>
+      <c r="C994" t="inlineStr"/>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr"/>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="inlineStr"/>
+      <c r="M994" t="inlineStr"/>
+      <c r="N994" t="inlineStr">
+        <is>
+          <t>['0', '1', '2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr"/>
+      <c r="C995" t="inlineStr"/>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="inlineStr"/>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr"/>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="inlineStr"/>
+      <c r="M995" t="inlineStr"/>
+      <c r="N995" t="inlineStr">
+        <is>
+          <t>[19564  5492    19   103     4    27     1     5     7    14    13     3
+  4149     6     7     1     4     1     1     3     2     1     1   385
+     1     2     2     3     1     2     2     1    78  1253    16   109
+    60    42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr"/>
+      <c r="C996" t="inlineStr"/>
+      <c r="D996" t="inlineStr"/>
+      <c r="E996" t="inlineStr"/>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr"/>
+      <c r="H996" t="inlineStr"/>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="inlineStr"/>
+      <c r="M996" t="inlineStr"/>
+      <c r="N996" t="inlineStr">
+        <is>
+          <t>[23835  8375   180]</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr"/>
+      <c r="C997" t="inlineStr"/>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr"/>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="inlineStr"/>
+      <c r="M997" t="inlineStr"/>
+      <c r="N997" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr"/>
+      <c r="C998" t="inlineStr"/>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr"/>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="inlineStr"/>
+      <c r="M998" t="inlineStr"/>
+      <c r="N998" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr"/>
+      <c r="C999" t="inlineStr"/>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr"/>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr"/>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="inlineStr"/>
+      <c r="M999" t="inlineStr"/>
+      <c r="N999" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr"/>
+      <c r="C1000" t="inlineStr"/>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr"/>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr"/>
+      <c r="M1000" t="inlineStr"/>
+      <c r="N1000" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr"/>
+      <c r="C1001" t="inlineStr"/>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="inlineStr"/>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr"/>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr"/>
+      <c r="M1001" t="inlineStr"/>
+      <c r="N1001" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr"/>
+      <c r="C1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr"/>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="inlineStr"/>
+      <c r="M1002" t="inlineStr"/>
+      <c r="N1002" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr"/>
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr"/>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr"/>
+      <c r="M1003" t="inlineStr"/>
+      <c r="N1003" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr"/>
+      <c r="C1004" t="inlineStr"/>
+      <c r="D1004" t="inlineStr"/>
+      <c r="E1004" t="inlineStr"/>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr"/>
+      <c r="H1004" t="inlineStr"/>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="inlineStr"/>
+      <c r="M1004" t="inlineStr"/>
+      <c r="N1004" t="n">
+        <v>15.6925</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr"/>
+      <c r="C1005" t="inlineStr"/>
+      <c r="D1005" t="inlineStr"/>
+      <c r="E1005" t="inlineStr"/>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr"/>
+      <c r="H1005" t="inlineStr"/>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr"/>
+      <c r="M1005" t="inlineStr"/>
+      <c r="N1005" t="n">
+        <v>16.195</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr"/>
+      <c r="C1006" t="inlineStr"/>
+      <c r="D1006" t="inlineStr"/>
+      <c r="E1006" t="inlineStr"/>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="inlineStr"/>
+      <c r="H1006" t="inlineStr"/>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="inlineStr"/>
+      <c r="M1006" t="inlineStr"/>
+      <c r="N1006" t="inlineStr">
+        <is>
+          <t>{0: 0.2, 1: 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr"/>
+      <c r="C1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr"/>
+      <c r="E1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="inlineStr"/>
+      <c r="H1007" t="inlineStr"/>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr"/>
+      <c r="M1007" t="inlineStr"/>
+      <c r="N1007" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr"/>
+      <c r="C1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr"/>
+      <c r="E1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="inlineStr"/>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="inlineStr"/>
+      <c r="M1008" t="inlineStr"/>
+      <c r="N1008" t="inlineStr">
+        <is>
+          <t>['0', '1', '2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr"/>
+      <c r="C1009" t="inlineStr"/>
+      <c r="D1009" t="inlineStr"/>
+      <c r="E1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="inlineStr"/>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr"/>
+      <c r="M1009" t="inlineStr"/>
+      <c r="N1009" t="inlineStr">
+        <is>
+          <t>[19564  5492    19   103     4    27     1     5     7    14    13     3
+  4149     6     7     1     4     1     1     3     2     1     1   385
+     1     2     2     3     1     2     2     1    78  1253    16   109
+    60    42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr"/>
+      <c r="C1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr"/>
+      <c r="E1010" t="inlineStr"/>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr"/>
+      <c r="H1010" t="inlineStr"/>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr"/>
+      <c r="M1010" t="inlineStr"/>
+      <c r="N1010" t="inlineStr">
+        <is>
+          <t>[23835  8375   180]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/configs/test_datasets.xlsx
+++ b/configs/test_datasets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1010"/>
+  <dimension ref="A1:N1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23026,6 +23026,8772 @@
         </is>
       </c>
     </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr"/>
+      <c r="C1011" t="inlineStr"/>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="inlineStr"/>
+      <c r="H1011" t="inlineStr"/>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="inlineStr"/>
+      <c r="M1011" t="inlineStr"/>
+      <c r="N1011" t="inlineStr">
+        <is>
+          <t>AIDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr"/>
+      <c r="C1012" t="inlineStr"/>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="inlineStr"/>
+      <c r="H1012" t="inlineStr"/>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="inlineStr"/>
+      <c r="M1012" t="inlineStr"/>
+      <c r="N1012" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr"/>
+      <c r="C1013" t="inlineStr"/>
+      <c r="D1013" t="inlineStr"/>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="inlineStr"/>
+      <c r="H1013" t="inlineStr"/>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="inlineStr"/>
+      <c r="M1013" t="inlineStr"/>
+      <c r="N1013" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr"/>
+      <c r="C1014" t="inlineStr"/>
+      <c r="D1014" t="inlineStr"/>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="inlineStr"/>
+      <c r="H1014" t="inlineStr"/>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="inlineStr"/>
+      <c r="M1014" t="inlineStr"/>
+      <c r="N1014" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr"/>
+      <c r="C1015" t="inlineStr"/>
+      <c r="D1015" t="inlineStr"/>
+      <c r="E1015" t="inlineStr"/>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr"/>
+      <c r="H1015" t="inlineStr"/>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="inlineStr"/>
+      <c r="M1015" t="inlineStr"/>
+      <c r="N1015" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr"/>
+      <c r="C1016" t="inlineStr"/>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="inlineStr"/>
+      <c r="H1016" t="inlineStr"/>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="inlineStr"/>
+      <c r="M1016" t="inlineStr"/>
+      <c r="N1016" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr"/>
+      <c r="C1017" t="inlineStr"/>
+      <c r="D1017" t="inlineStr"/>
+      <c r="E1017" t="inlineStr"/>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="inlineStr"/>
+      <c r="H1017" t="inlineStr"/>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="inlineStr"/>
+      <c r="M1017" t="inlineStr"/>
+      <c r="N1017" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr"/>
+      <c r="C1018" t="inlineStr"/>
+      <c r="D1018" t="inlineStr"/>
+      <c r="E1018" t="inlineStr"/>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="inlineStr"/>
+      <c r="H1018" t="inlineStr"/>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr"/>
+      <c r="M1018" t="inlineStr"/>
+      <c r="N1018" t="n">
+        <v>15.6925</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr"/>
+      <c r="C1019" t="inlineStr"/>
+      <c r="D1019" t="inlineStr"/>
+      <c r="E1019" t="inlineStr"/>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="inlineStr"/>
+      <c r="H1019" t="inlineStr"/>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr"/>
+      <c r="M1019" t="inlineStr"/>
+      <c r="N1019" t="n">
+        <v>16.195</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr"/>
+      <c r="C1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr"/>
+      <c r="E1020" t="inlineStr"/>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="inlineStr"/>
+      <c r="H1020" t="inlineStr"/>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="inlineStr"/>
+      <c r="M1020" t="inlineStr"/>
+      <c r="N1020" t="inlineStr">
+        <is>
+          <t>{0: 0.2, 1: 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr"/>
+      <c r="C1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr"/>
+      <c r="E1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="inlineStr"/>
+      <c r="H1021" t="inlineStr"/>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="inlineStr"/>
+      <c r="M1021" t="inlineStr"/>
+      <c r="N1021" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr"/>
+      <c r="C1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr"/>
+      <c r="E1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="inlineStr"/>
+      <c r="H1022" t="inlineStr"/>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="inlineStr"/>
+      <c r="M1022" t="inlineStr"/>
+      <c r="N1022" t="inlineStr">
+        <is>
+          <t>['0', '1', '2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr"/>
+      <c r="C1023" t="inlineStr"/>
+      <c r="D1023" t="inlineStr"/>
+      <c r="E1023" t="inlineStr"/>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="inlineStr"/>
+      <c r="H1023" t="inlineStr"/>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="inlineStr"/>
+      <c r="M1023" t="inlineStr"/>
+      <c r="N1023" t="inlineStr">
+        <is>
+          <t>[19564  5492    19   103     4    27     1     5     7    14    13     3
+  4149     6     7     1     4     1     1     3     2     1     1   385
+     1     2     2     3     1     2     2     1    78  1253    16   109
+    60    42]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr"/>
+      <c r="C1024" t="inlineStr"/>
+      <c r="D1024" t="inlineStr"/>
+      <c r="E1024" t="inlineStr"/>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="inlineStr"/>
+      <c r="H1024" t="inlineStr"/>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="inlineStr"/>
+      <c r="M1024" t="inlineStr"/>
+      <c r="N1024" t="inlineStr">
+        <is>
+          <t>[23835  8375   180]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
+      <c r="C1025" t="inlineStr"/>
+      <c r="D1025" t="inlineStr"/>
+      <c r="E1025" t="inlineStr"/>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="inlineStr"/>
+      <c r="H1025" t="inlineStr"/>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="inlineStr"/>
+      <c r="M1025" t="inlineStr"/>
+      <c r="N1025" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr"/>
+      <c r="C1026" t="inlineStr"/>
+      <c r="D1026" t="inlineStr"/>
+      <c r="E1026" t="inlineStr"/>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="inlineStr"/>
+      <c r="H1026" t="inlineStr"/>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="inlineStr"/>
+      <c r="M1026" t="inlineStr"/>
+      <c r="N1026" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr"/>
+      <c r="C1027" t="inlineStr"/>
+      <c r="D1027" t="inlineStr"/>
+      <c r="E1027" t="inlineStr"/>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="inlineStr"/>
+      <c r="H1027" t="inlineStr"/>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="inlineStr"/>
+      <c r="M1027" t="inlineStr"/>
+      <c r="N1027" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr"/>
+      <c r="C1028" t="inlineStr"/>
+      <c r="D1028" t="inlineStr"/>
+      <c r="E1028" t="inlineStr"/>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="inlineStr"/>
+      <c r="H1028" t="inlineStr"/>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="inlineStr"/>
+      <c r="M1028" t="inlineStr"/>
+      <c r="N1028" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr"/>
+      <c r="C1029" t="inlineStr"/>
+      <c r="D1029" t="inlineStr"/>
+      <c r="E1029" t="inlineStr"/>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="inlineStr"/>
+      <c r="H1029" t="inlineStr"/>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="inlineStr"/>
+      <c r="M1029" t="inlineStr"/>
+      <c r="N1029" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr"/>
+      <c r="C1030" t="inlineStr"/>
+      <c r="D1030" t="inlineStr"/>
+      <c r="E1030" t="inlineStr"/>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="inlineStr"/>
+      <c r="H1030" t="inlineStr"/>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr"/>
+      <c r="M1030" t="inlineStr"/>
+      <c r="N1030" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr"/>
+      <c r="C1031" t="inlineStr"/>
+      <c r="D1031" t="inlineStr"/>
+      <c r="E1031" t="inlineStr"/>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="inlineStr"/>
+      <c r="H1031" t="inlineStr"/>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr"/>
+      <c r="M1031" t="inlineStr"/>
+      <c r="N1031" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr"/>
+      <c r="C1032" t="inlineStr"/>
+      <c r="D1032" t="inlineStr"/>
+      <c r="E1032" t="inlineStr"/>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="inlineStr"/>
+      <c r="H1032" t="inlineStr"/>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="inlineStr"/>
+      <c r="M1032" t="inlineStr"/>
+      <c r="N1032" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr"/>
+      <c r="C1033" t="inlineStr"/>
+      <c r="D1033" t="inlineStr"/>
+      <c r="E1033" t="inlineStr"/>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="inlineStr"/>
+      <c r="H1033" t="inlineStr"/>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr"/>
+      <c r="M1033" t="inlineStr"/>
+      <c r="N1033" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr"/>
+      <c r="C1034" t="inlineStr"/>
+      <c r="D1034" t="inlineStr"/>
+      <c r="E1034" t="inlineStr"/>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="inlineStr"/>
+      <c r="H1034" t="inlineStr"/>
+      <c r="I1034" t="inlineStr"/>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="inlineStr"/>
+      <c r="M1034" t="inlineStr"/>
+      <c r="N1034" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr"/>
+      <c r="C1035" t="inlineStr"/>
+      <c r="D1035" t="inlineStr"/>
+      <c r="E1035" t="inlineStr"/>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="inlineStr"/>
+      <c r="H1035" t="inlineStr"/>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="inlineStr"/>
+      <c r="M1035" t="inlineStr"/>
+      <c r="N1035" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr"/>
+      <c r="C1036" t="inlineStr"/>
+      <c r="D1036" t="inlineStr"/>
+      <c r="E1036" t="inlineStr"/>
+      <c r="F1036" t="inlineStr"/>
+      <c r="G1036" t="inlineStr"/>
+      <c r="H1036" t="inlineStr"/>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="inlineStr"/>
+      <c r="M1036" t="inlineStr"/>
+      <c r="N1036" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr"/>
+      <c r="C1037" t="inlineStr"/>
+      <c r="D1037" t="inlineStr"/>
+      <c r="E1037" t="inlineStr"/>
+      <c r="F1037" t="inlineStr"/>
+      <c r="G1037" t="inlineStr"/>
+      <c r="H1037" t="inlineStr"/>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="inlineStr"/>
+      <c r="M1037" t="inlineStr"/>
+      <c r="N1037" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr"/>
+      <c r="C1038" t="inlineStr"/>
+      <c r="D1038" t="inlineStr"/>
+      <c r="E1038" t="inlineStr"/>
+      <c r="F1038" t="inlineStr"/>
+      <c r="G1038" t="inlineStr"/>
+      <c r="H1038" t="inlineStr"/>
+      <c r="I1038" t="inlineStr"/>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
+      <c r="L1038" t="inlineStr"/>
+      <c r="M1038" t="inlineStr"/>
+      <c r="N1038" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr"/>
+      <c r="C1039" t="inlineStr"/>
+      <c r="D1039" t="inlineStr"/>
+      <c r="E1039" t="inlineStr"/>
+      <c r="F1039" t="inlineStr"/>
+      <c r="G1039" t="inlineStr"/>
+      <c r="H1039" t="inlineStr"/>
+      <c r="I1039" t="inlineStr"/>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
+      <c r="L1039" t="inlineStr"/>
+      <c r="M1039" t="inlineStr"/>
+      <c r="N1039" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr"/>
+      <c r="C1040" t="inlineStr"/>
+      <c r="D1040" t="inlineStr"/>
+      <c r="E1040" t="inlineStr"/>
+      <c r="F1040" t="inlineStr"/>
+      <c r="G1040" t="inlineStr"/>
+      <c r="H1040" t="inlineStr"/>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
+      <c r="L1040" t="inlineStr"/>
+      <c r="M1040" t="inlineStr"/>
+      <c r="N1040" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr"/>
+      <c r="C1041" t="inlineStr"/>
+      <c r="D1041" t="inlineStr"/>
+      <c r="E1041" t="inlineStr"/>
+      <c r="F1041" t="inlineStr"/>
+      <c r="G1041" t="inlineStr"/>
+      <c r="H1041" t="inlineStr"/>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
+      <c r="L1041" t="inlineStr"/>
+      <c r="M1041" t="inlineStr"/>
+      <c r="N1041" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr"/>
+      <c r="C1042" t="inlineStr"/>
+      <c r="D1042" t="inlineStr"/>
+      <c r="E1042" t="inlineStr"/>
+      <c r="F1042" t="inlineStr"/>
+      <c r="G1042" t="inlineStr"/>
+      <c r="H1042" t="inlineStr"/>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
+      <c r="L1042" t="inlineStr"/>
+      <c r="M1042" t="inlineStr"/>
+      <c r="N1042" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr"/>
+      <c r="C1043" t="inlineStr"/>
+      <c r="D1043" t="inlineStr"/>
+      <c r="E1043" t="inlineStr"/>
+      <c r="F1043" t="inlineStr"/>
+      <c r="G1043" t="inlineStr"/>
+      <c r="H1043" t="inlineStr"/>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
+      <c r="L1043" t="inlineStr"/>
+      <c r="M1043" t="inlineStr"/>
+      <c r="N1043" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr"/>
+      <c r="C1044" t="inlineStr"/>
+      <c r="D1044" t="inlineStr"/>
+      <c r="E1044" t="inlineStr"/>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="inlineStr"/>
+      <c r="H1044" t="inlineStr"/>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
+      <c r="L1044" t="inlineStr"/>
+      <c r="M1044" t="inlineStr"/>
+      <c r="N1044" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr"/>
+      <c r="C1045" t="inlineStr"/>
+      <c r="D1045" t="inlineStr"/>
+      <c r="E1045" t="inlineStr"/>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="inlineStr"/>
+      <c r="H1045" t="inlineStr"/>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
+      <c r="L1045" t="inlineStr"/>
+      <c r="M1045" t="inlineStr"/>
+      <c r="N1045" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr"/>
+      <c r="C1046" t="inlineStr"/>
+      <c r="D1046" t="inlineStr"/>
+      <c r="E1046" t="inlineStr"/>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="inlineStr"/>
+      <c r="H1046" t="inlineStr"/>
+      <c r="I1046" t="inlineStr"/>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
+      <c r="L1046" t="inlineStr"/>
+      <c r="M1046" t="inlineStr"/>
+      <c r="N1046" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr"/>
+      <c r="C1047" t="inlineStr"/>
+      <c r="D1047" t="inlineStr"/>
+      <c r="E1047" t="inlineStr"/>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="inlineStr"/>
+      <c r="H1047" t="inlineStr"/>
+      <c r="I1047" t="inlineStr"/>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
+      <c r="L1047" t="inlineStr"/>
+      <c r="M1047" t="inlineStr"/>
+      <c r="N1047" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr"/>
+      <c r="C1048" t="inlineStr"/>
+      <c r="D1048" t="inlineStr"/>
+      <c r="E1048" t="inlineStr"/>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="inlineStr"/>
+      <c r="H1048" t="inlineStr"/>
+      <c r="I1048" t="inlineStr"/>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
+      <c r="L1048" t="inlineStr"/>
+      <c r="M1048" t="inlineStr"/>
+      <c r="N1048" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr"/>
+      <c r="C1049" t="inlineStr"/>
+      <c r="D1049" t="inlineStr"/>
+      <c r="E1049" t="inlineStr"/>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="inlineStr"/>
+      <c r="H1049" t="inlineStr"/>
+      <c r="I1049" t="inlineStr"/>
+      <c r="J1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr"/>
+      <c r="L1049" t="inlineStr"/>
+      <c r="M1049" t="inlineStr"/>
+      <c r="N1049" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr"/>
+      <c r="C1050" t="inlineStr"/>
+      <c r="D1050" t="inlineStr"/>
+      <c r="E1050" t="inlineStr"/>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="inlineStr"/>
+      <c r="H1050" t="inlineStr"/>
+      <c r="I1050" t="inlineStr"/>
+      <c r="J1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr"/>
+      <c r="L1050" t="inlineStr"/>
+      <c r="M1050" t="inlineStr"/>
+      <c r="N1050" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr"/>
+      <c r="C1051" t="inlineStr"/>
+      <c r="D1051" t="inlineStr"/>
+      <c r="E1051" t="inlineStr"/>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="inlineStr"/>
+      <c r="H1051" t="inlineStr"/>
+      <c r="I1051" t="inlineStr"/>
+      <c r="J1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr"/>
+      <c r="L1051" t="inlineStr"/>
+      <c r="M1051" t="inlineStr"/>
+      <c r="N1051" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr"/>
+      <c r="C1052" t="inlineStr"/>
+      <c r="D1052" t="inlineStr"/>
+      <c r="E1052" t="inlineStr"/>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="inlineStr"/>
+      <c r="H1052" t="inlineStr"/>
+      <c r="I1052" t="inlineStr"/>
+      <c r="J1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr"/>
+      <c r="L1052" t="inlineStr"/>
+      <c r="M1052" t="inlineStr"/>
+      <c r="N1052" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr"/>
+      <c r="C1053" t="inlineStr"/>
+      <c r="D1053" t="inlineStr"/>
+      <c r="E1053" t="inlineStr"/>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="inlineStr"/>
+      <c r="H1053" t="inlineStr"/>
+      <c r="I1053" t="inlineStr"/>
+      <c r="J1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr"/>
+      <c r="L1053" t="inlineStr"/>
+      <c r="M1053" t="inlineStr"/>
+      <c r="N1053" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr"/>
+      <c r="C1054" t="inlineStr"/>
+      <c r="D1054" t="inlineStr"/>
+      <c r="E1054" t="inlineStr"/>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="inlineStr"/>
+      <c r="H1054" t="inlineStr"/>
+      <c r="I1054" t="inlineStr"/>
+      <c r="J1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr"/>
+      <c r="L1054" t="inlineStr"/>
+      <c r="M1054" t="inlineStr"/>
+      <c r="N1054" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr"/>
+      <c r="C1055" t="inlineStr"/>
+      <c r="D1055" t="inlineStr"/>
+      <c r="E1055" t="inlineStr"/>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="inlineStr"/>
+      <c r="H1055" t="inlineStr"/>
+      <c r="I1055" t="inlineStr"/>
+      <c r="J1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr"/>
+      <c r="L1055" t="inlineStr"/>
+      <c r="M1055" t="inlineStr"/>
+      <c r="N1055" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr"/>
+      <c r="C1056" t="inlineStr"/>
+      <c r="D1056" t="inlineStr"/>
+      <c r="E1056" t="inlineStr"/>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="inlineStr"/>
+      <c r="H1056" t="inlineStr"/>
+      <c r="I1056" t="inlineStr"/>
+      <c r="J1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr"/>
+      <c r="L1056" t="inlineStr"/>
+      <c r="M1056" t="inlineStr"/>
+      <c r="N1056" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr"/>
+      <c r="C1057" t="inlineStr"/>
+      <c r="D1057" t="inlineStr"/>
+      <c r="E1057" t="inlineStr"/>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="inlineStr"/>
+      <c r="H1057" t="inlineStr"/>
+      <c r="I1057" t="inlineStr"/>
+      <c r="J1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr"/>
+      <c r="L1057" t="inlineStr"/>
+      <c r="M1057" t="inlineStr"/>
+      <c r="N1057" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr"/>
+      <c r="C1058" t="inlineStr"/>
+      <c r="D1058" t="inlineStr"/>
+      <c r="E1058" t="inlineStr"/>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="inlineStr"/>
+      <c r="H1058" t="inlineStr"/>
+      <c r="I1058" t="inlineStr"/>
+      <c r="J1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr"/>
+      <c r="L1058" t="inlineStr"/>
+      <c r="M1058" t="inlineStr"/>
+      <c r="N1058" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr"/>
+      <c r="C1059" t="inlineStr"/>
+      <c r="D1059" t="inlineStr"/>
+      <c r="E1059" t="inlineStr"/>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="inlineStr"/>
+      <c r="H1059" t="inlineStr"/>
+      <c r="I1059" t="inlineStr"/>
+      <c r="J1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr"/>
+      <c r="L1059" t="inlineStr"/>
+      <c r="M1059" t="inlineStr"/>
+      <c r="N1059" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr"/>
+      <c r="C1060" t="inlineStr"/>
+      <c r="D1060" t="inlineStr"/>
+      <c r="E1060" t="inlineStr"/>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="inlineStr"/>
+      <c r="H1060" t="inlineStr"/>
+      <c r="I1060" t="inlineStr"/>
+      <c r="J1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr"/>
+      <c r="L1060" t="inlineStr"/>
+      <c r="M1060" t="inlineStr"/>
+      <c r="N1060" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr"/>
+      <c r="C1061" t="inlineStr"/>
+      <c r="D1061" t="inlineStr"/>
+      <c r="E1061" t="inlineStr"/>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="inlineStr"/>
+      <c r="H1061" t="inlineStr"/>
+      <c r="I1061" t="inlineStr"/>
+      <c r="J1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr"/>
+      <c r="L1061" t="inlineStr"/>
+      <c r="M1061" t="inlineStr"/>
+      <c r="N1061" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr"/>
+      <c r="C1062" t="inlineStr"/>
+      <c r="D1062" t="inlineStr"/>
+      <c r="E1062" t="inlineStr"/>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="inlineStr"/>
+      <c r="H1062" t="inlineStr"/>
+      <c r="I1062" t="inlineStr"/>
+      <c r="J1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr"/>
+      <c r="L1062" t="inlineStr"/>
+      <c r="M1062" t="inlineStr"/>
+      <c r="N1062" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr"/>
+      <c r="C1063" t="inlineStr"/>
+      <c r="D1063" t="inlineStr"/>
+      <c r="E1063" t="inlineStr"/>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="inlineStr"/>
+      <c r="H1063" t="inlineStr"/>
+      <c r="I1063" t="inlineStr"/>
+      <c r="J1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr"/>
+      <c r="L1063" t="inlineStr"/>
+      <c r="M1063" t="inlineStr"/>
+      <c r="N1063" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr"/>
+      <c r="C1064" t="inlineStr"/>
+      <c r="D1064" t="inlineStr"/>
+      <c r="E1064" t="inlineStr"/>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="inlineStr"/>
+      <c r="H1064" t="inlineStr"/>
+      <c r="I1064" t="inlineStr"/>
+      <c r="J1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr"/>
+      <c r="L1064" t="inlineStr"/>
+      <c r="M1064" t="inlineStr"/>
+      <c r="N1064" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr"/>
+      <c r="C1065" t="inlineStr"/>
+      <c r="D1065" t="inlineStr"/>
+      <c r="E1065" t="inlineStr"/>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="inlineStr"/>
+      <c r="H1065" t="inlineStr"/>
+      <c r="I1065" t="inlineStr"/>
+      <c r="J1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr"/>
+      <c r="L1065" t="inlineStr"/>
+      <c r="M1065" t="inlineStr"/>
+      <c r="N1065" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr"/>
+      <c r="C1066" t="inlineStr"/>
+      <c r="D1066" t="inlineStr"/>
+      <c r="E1066" t="inlineStr"/>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="inlineStr"/>
+      <c r="H1066" t="inlineStr"/>
+      <c r="I1066" t="inlineStr"/>
+      <c r="J1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr"/>
+      <c r="L1066" t="inlineStr"/>
+      <c r="M1066" t="inlineStr"/>
+      <c r="N1066" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr"/>
+      <c r="C1067" t="inlineStr"/>
+      <c r="D1067" t="inlineStr"/>
+      <c r="E1067" t="inlineStr"/>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="inlineStr"/>
+      <c r="H1067" t="inlineStr"/>
+      <c r="I1067" t="inlineStr"/>
+      <c r="J1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr"/>
+      <c r="L1067" t="inlineStr"/>
+      <c r="M1067" t="inlineStr"/>
+      <c r="N1067" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr"/>
+      <c r="C1068" t="inlineStr"/>
+      <c r="D1068" t="inlineStr"/>
+      <c r="E1068" t="inlineStr"/>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="inlineStr"/>
+      <c r="H1068" t="inlineStr"/>
+      <c r="I1068" t="inlineStr"/>
+      <c r="J1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr"/>
+      <c r="L1068" t="inlineStr"/>
+      <c r="M1068" t="inlineStr"/>
+      <c r="N1068" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr"/>
+      <c r="C1069" t="inlineStr"/>
+      <c r="D1069" t="inlineStr"/>
+      <c r="E1069" t="inlineStr"/>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="inlineStr"/>
+      <c r="H1069" t="inlineStr"/>
+      <c r="I1069" t="inlineStr"/>
+      <c r="J1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr"/>
+      <c r="M1069" t="inlineStr"/>
+      <c r="N1069" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr"/>
+      <c r="C1070" t="inlineStr"/>
+      <c r="D1070" t="inlineStr"/>
+      <c r="E1070" t="inlineStr"/>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="inlineStr"/>
+      <c r="H1070" t="inlineStr"/>
+      <c r="I1070" t="inlineStr"/>
+      <c r="J1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr"/>
+      <c r="L1070" t="inlineStr"/>
+      <c r="M1070" t="inlineStr"/>
+      <c r="N1070" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr"/>
+      <c r="C1071" t="inlineStr"/>
+      <c r="D1071" t="inlineStr"/>
+      <c r="E1071" t="inlineStr"/>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="inlineStr"/>
+      <c r="H1071" t="inlineStr"/>
+      <c r="I1071" t="inlineStr"/>
+      <c r="J1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr"/>
+      <c r="L1071" t="inlineStr"/>
+      <c r="M1071" t="inlineStr"/>
+      <c r="N1071" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr"/>
+      <c r="C1072" t="inlineStr"/>
+      <c r="D1072" t="inlineStr"/>
+      <c r="E1072" t="inlineStr"/>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="inlineStr"/>
+      <c r="H1072" t="inlineStr"/>
+      <c r="I1072" t="inlineStr"/>
+      <c r="J1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr"/>
+      <c r="L1072" t="inlineStr"/>
+      <c r="M1072" t="inlineStr"/>
+      <c r="N1072" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr"/>
+      <c r="C1073" t="inlineStr"/>
+      <c r="D1073" t="inlineStr"/>
+      <c r="E1073" t="inlineStr"/>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="inlineStr"/>
+      <c r="H1073" t="inlineStr"/>
+      <c r="I1073" t="inlineStr"/>
+      <c r="J1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr"/>
+      <c r="L1073" t="inlineStr"/>
+      <c r="M1073" t="inlineStr"/>
+      <c r="N1073" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr"/>
+      <c r="C1074" t="inlineStr"/>
+      <c r="D1074" t="inlineStr"/>
+      <c r="E1074" t="inlineStr"/>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="inlineStr"/>
+      <c r="H1074" t="inlineStr"/>
+      <c r="I1074" t="inlineStr"/>
+      <c r="J1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr"/>
+      <c r="L1074" t="inlineStr"/>
+      <c r="M1074" t="inlineStr"/>
+      <c r="N1074" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr"/>
+      <c r="C1075" t="inlineStr"/>
+      <c r="D1075" t="inlineStr"/>
+      <c r="E1075" t="inlineStr"/>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="inlineStr"/>
+      <c r="H1075" t="inlineStr"/>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr"/>
+      <c r="L1075" t="inlineStr"/>
+      <c r="M1075" t="inlineStr"/>
+      <c r="N1075" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr"/>
+      <c r="C1076" t="inlineStr"/>
+      <c r="D1076" t="inlineStr"/>
+      <c r="E1076" t="inlineStr"/>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="inlineStr"/>
+      <c r="H1076" t="inlineStr"/>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr"/>
+      <c r="L1076" t="inlineStr"/>
+      <c r="M1076" t="inlineStr"/>
+      <c r="N1076" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr"/>
+      <c r="C1077" t="inlineStr"/>
+      <c r="D1077" t="inlineStr"/>
+      <c r="E1077" t="inlineStr"/>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="inlineStr"/>
+      <c r="H1077" t="inlineStr"/>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr"/>
+      <c r="L1077" t="inlineStr"/>
+      <c r="M1077" t="inlineStr"/>
+      <c r="N1077" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr"/>
+      <c r="C1078" t="inlineStr"/>
+      <c r="D1078" t="inlineStr"/>
+      <c r="E1078" t="inlineStr"/>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="inlineStr"/>
+      <c r="H1078" t="inlineStr"/>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr"/>
+      <c r="L1078" t="inlineStr"/>
+      <c r="M1078" t="inlineStr"/>
+      <c r="N1078" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr"/>
+      <c r="C1079" t="inlineStr"/>
+      <c r="D1079" t="inlineStr"/>
+      <c r="E1079" t="inlineStr"/>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="inlineStr"/>
+      <c r="H1079" t="inlineStr"/>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr"/>
+      <c r="L1079" t="inlineStr"/>
+      <c r="M1079" t="inlineStr"/>
+      <c r="N1079" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr"/>
+      <c r="C1080" t="inlineStr"/>
+      <c r="D1080" t="inlineStr"/>
+      <c r="E1080" t="inlineStr"/>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="inlineStr"/>
+      <c r="H1080" t="inlineStr"/>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr"/>
+      <c r="L1080" t="inlineStr"/>
+      <c r="M1080" t="inlineStr"/>
+      <c r="N1080" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr"/>
+      <c r="C1081" t="inlineStr"/>
+      <c r="D1081" t="inlineStr"/>
+      <c r="E1081" t="inlineStr"/>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="inlineStr"/>
+      <c r="H1081" t="inlineStr"/>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr"/>
+      <c r="L1081" t="inlineStr"/>
+      <c r="M1081" t="inlineStr"/>
+      <c r="N1081" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr"/>
+      <c r="C1082" t="inlineStr"/>
+      <c r="D1082" t="inlineStr"/>
+      <c r="E1082" t="inlineStr"/>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="inlineStr"/>
+      <c r="H1082" t="inlineStr"/>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr"/>
+      <c r="L1082" t="inlineStr"/>
+      <c r="M1082" t="inlineStr"/>
+      <c r="N1082" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr"/>
+      <c r="C1083" t="inlineStr"/>
+      <c r="D1083" t="inlineStr"/>
+      <c r="E1083" t="inlineStr"/>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="inlineStr"/>
+      <c r="H1083" t="inlineStr"/>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr"/>
+      <c r="L1083" t="inlineStr"/>
+      <c r="M1083" t="inlineStr"/>
+      <c r="N1083" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr"/>
+      <c r="C1084" t="inlineStr"/>
+      <c r="D1084" t="inlineStr"/>
+      <c r="E1084" t="inlineStr"/>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="inlineStr"/>
+      <c r="H1084" t="inlineStr"/>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr"/>
+      <c r="L1084" t="inlineStr"/>
+      <c r="M1084" t="inlineStr"/>
+      <c r="N1084" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr"/>
+      <c r="C1085" t="inlineStr"/>
+      <c r="D1085" t="inlineStr"/>
+      <c r="E1085" t="inlineStr"/>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="inlineStr"/>
+      <c r="H1085" t="inlineStr"/>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr"/>
+      <c r="L1085" t="inlineStr"/>
+      <c r="M1085" t="inlineStr"/>
+      <c r="N1085" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr"/>
+      <c r="C1086" t="inlineStr"/>
+      <c r="D1086" t="inlineStr"/>
+      <c r="E1086" t="inlineStr"/>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="inlineStr"/>
+      <c r="H1086" t="inlineStr"/>
+      <c r="I1086" t="inlineStr"/>
+      <c r="J1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr"/>
+      <c r="L1086" t="inlineStr"/>
+      <c r="M1086" t="inlineStr"/>
+      <c r="N1086" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr"/>
+      <c r="C1087" t="inlineStr"/>
+      <c r="D1087" t="inlineStr"/>
+      <c r="E1087" t="inlineStr"/>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="inlineStr"/>
+      <c r="H1087" t="inlineStr"/>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr"/>
+      <c r="L1087" t="inlineStr"/>
+      <c r="M1087" t="inlineStr"/>
+      <c r="N1087" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr"/>
+      <c r="C1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr"/>
+      <c r="E1088" t="inlineStr"/>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="inlineStr"/>
+      <c r="H1088" t="inlineStr"/>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr"/>
+      <c r="L1088" t="inlineStr"/>
+      <c r="M1088" t="inlineStr"/>
+      <c r="N1088" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr"/>
+      <c r="C1089" t="inlineStr"/>
+      <c r="D1089" t="inlineStr"/>
+      <c r="E1089" t="inlineStr"/>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="inlineStr"/>
+      <c r="H1089" t="inlineStr"/>
+      <c r="I1089" t="inlineStr"/>
+      <c r="J1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr"/>
+      <c r="L1089" t="inlineStr"/>
+      <c r="M1089" t="inlineStr"/>
+      <c r="N1089" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr"/>
+      <c r="C1090" t="inlineStr"/>
+      <c r="D1090" t="inlineStr"/>
+      <c r="E1090" t="inlineStr"/>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr"/>
+      <c r="H1090" t="inlineStr"/>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr"/>
+      <c r="L1090" t="inlineStr"/>
+      <c r="M1090" t="inlineStr"/>
+      <c r="N1090" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr"/>
+      <c r="C1091" t="inlineStr"/>
+      <c r="D1091" t="inlineStr"/>
+      <c r="E1091" t="inlineStr"/>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="inlineStr"/>
+      <c r="H1091" t="inlineStr"/>
+      <c r="I1091" t="inlineStr"/>
+      <c r="J1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr"/>
+      <c r="L1091" t="inlineStr"/>
+      <c r="M1091" t="inlineStr"/>
+      <c r="N1091" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr"/>
+      <c r="C1092" t="inlineStr"/>
+      <c r="D1092" t="inlineStr"/>
+      <c r="E1092" t="inlineStr"/>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr"/>
+      <c r="H1092" t="inlineStr"/>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr"/>
+      <c r="L1092" t="inlineStr"/>
+      <c r="M1092" t="inlineStr"/>
+      <c r="N1092" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr"/>
+      <c r="C1093" t="inlineStr"/>
+      <c r="D1093" t="inlineStr"/>
+      <c r="E1093" t="inlineStr"/>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="inlineStr"/>
+      <c r="H1093" t="inlineStr"/>
+      <c r="I1093" t="inlineStr"/>
+      <c r="J1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr"/>
+      <c r="L1093" t="inlineStr"/>
+      <c r="M1093" t="inlineStr"/>
+      <c r="N1093" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr"/>
+      <c r="C1094" t="inlineStr"/>
+      <c r="D1094" t="inlineStr"/>
+      <c r="E1094" t="inlineStr"/>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="inlineStr"/>
+      <c r="H1094" t="inlineStr"/>
+      <c r="I1094" t="inlineStr"/>
+      <c r="J1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr"/>
+      <c r="L1094" t="inlineStr"/>
+      <c r="M1094" t="inlineStr"/>
+      <c r="N1094" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr"/>
+      <c r="C1095" t="inlineStr"/>
+      <c r="D1095" t="inlineStr"/>
+      <c r="E1095" t="inlineStr"/>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="inlineStr"/>
+      <c r="H1095" t="inlineStr"/>
+      <c r="I1095" t="inlineStr"/>
+      <c r="J1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr"/>
+      <c r="L1095" t="inlineStr"/>
+      <c r="M1095" t="inlineStr"/>
+      <c r="N1095" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr"/>
+      <c r="C1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr"/>
+      <c r="E1096" t="inlineStr"/>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr"/>
+      <c r="H1096" t="inlineStr"/>
+      <c r="I1096" t="inlineStr"/>
+      <c r="J1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr"/>
+      <c r="L1096" t="inlineStr"/>
+      <c r="M1096" t="inlineStr"/>
+      <c r="N1096" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr"/>
+      <c r="C1097" t="inlineStr"/>
+      <c r="D1097" t="inlineStr"/>
+      <c r="E1097" t="inlineStr"/>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="inlineStr"/>
+      <c r="H1097" t="inlineStr"/>
+      <c r="I1097" t="inlineStr"/>
+      <c r="J1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr"/>
+      <c r="L1097" t="inlineStr"/>
+      <c r="M1097" t="inlineStr"/>
+      <c r="N1097" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr"/>
+      <c r="C1098" t="inlineStr"/>
+      <c r="D1098" t="inlineStr"/>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="inlineStr"/>
+      <c r="H1098" t="inlineStr"/>
+      <c r="I1098" t="inlineStr"/>
+      <c r="J1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr"/>
+      <c r="L1098" t="inlineStr"/>
+      <c r="M1098" t="inlineStr"/>
+      <c r="N1098" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr"/>
+      <c r="C1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr"/>
+      <c r="E1099" t="inlineStr"/>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="inlineStr"/>
+      <c r="H1099" t="inlineStr"/>
+      <c r="I1099" t="inlineStr"/>
+      <c r="J1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr"/>
+      <c r="L1099" t="inlineStr"/>
+      <c r="M1099" t="inlineStr"/>
+      <c r="N1099" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr"/>
+      <c r="C1100" t="inlineStr"/>
+      <c r="D1100" t="inlineStr"/>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="inlineStr"/>
+      <c r="H1100" t="inlineStr"/>
+      <c r="I1100" t="inlineStr"/>
+      <c r="J1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr"/>
+      <c r="L1100" t="inlineStr"/>
+      <c r="M1100" t="inlineStr"/>
+      <c r="N1100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr"/>
+      <c r="C1101" t="inlineStr"/>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="inlineStr"/>
+      <c r="H1101" t="inlineStr"/>
+      <c r="I1101" t="inlineStr"/>
+      <c r="J1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr"/>
+      <c r="L1101" t="inlineStr"/>
+      <c r="M1101" t="inlineStr"/>
+      <c r="N1101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr"/>
+      <c r="C1102" t="inlineStr"/>
+      <c r="D1102" t="inlineStr"/>
+      <c r="E1102" t="inlineStr"/>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="inlineStr"/>
+      <c r="H1102" t="inlineStr"/>
+      <c r="I1102" t="inlineStr"/>
+      <c r="J1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr"/>
+      <c r="L1102" t="inlineStr"/>
+      <c r="M1102" t="inlineStr"/>
+      <c r="N1102" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr"/>
+      <c r="C1103" t="inlineStr"/>
+      <c r="D1103" t="inlineStr"/>
+      <c r="E1103" t="inlineStr"/>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="inlineStr"/>
+      <c r="H1103" t="inlineStr"/>
+      <c r="I1103" t="inlineStr"/>
+      <c r="J1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr"/>
+      <c r="L1103" t="inlineStr"/>
+      <c r="M1103" t="inlineStr"/>
+      <c r="N1103" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr"/>
+      <c r="C1104" t="inlineStr"/>
+      <c r="D1104" t="inlineStr"/>
+      <c r="E1104" t="inlineStr"/>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="inlineStr"/>
+      <c r="H1104" t="inlineStr"/>
+      <c r="I1104" t="inlineStr"/>
+      <c r="J1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr"/>
+      <c r="L1104" t="inlineStr"/>
+      <c r="M1104" t="inlineStr"/>
+      <c r="N1104" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr"/>
+      <c r="C1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr"/>
+      <c r="E1105" t="inlineStr"/>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr"/>
+      <c r="H1105" t="inlineStr"/>
+      <c r="I1105" t="inlineStr"/>
+      <c r="J1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr"/>
+      <c r="L1105" t="inlineStr"/>
+      <c r="M1105" t="inlineStr"/>
+      <c r="N1105" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr"/>
+      <c r="E1106" t="inlineStr"/>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr"/>
+      <c r="H1106" t="inlineStr"/>
+      <c r="I1106" t="inlineStr"/>
+      <c r="J1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr"/>
+      <c r="L1106" t="inlineStr"/>
+      <c r="M1106" t="inlineStr"/>
+      <c r="N1106" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr"/>
+      <c r="C1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr"/>
+      <c r="E1107" t="inlineStr"/>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr"/>
+      <c r="H1107" t="inlineStr"/>
+      <c r="I1107" t="inlineStr"/>
+      <c r="J1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr"/>
+      <c r="L1107" t="inlineStr"/>
+      <c r="M1107" t="inlineStr"/>
+      <c r="N1107" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr"/>
+      <c r="C1108" t="inlineStr"/>
+      <c r="D1108" t="inlineStr"/>
+      <c r="E1108" t="inlineStr"/>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="inlineStr"/>
+      <c r="H1108" t="inlineStr"/>
+      <c r="I1108" t="inlineStr"/>
+      <c r="J1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr"/>
+      <c r="L1108" t="inlineStr"/>
+      <c r="M1108" t="inlineStr"/>
+      <c r="N1108" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr"/>
+      <c r="C1109" t="inlineStr"/>
+      <c r="D1109" t="inlineStr"/>
+      <c r="E1109" t="inlineStr"/>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="inlineStr"/>
+      <c r="H1109" t="inlineStr"/>
+      <c r="I1109" t="inlineStr"/>
+      <c r="J1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr"/>
+      <c r="L1109" t="inlineStr"/>
+      <c r="M1109" t="inlineStr"/>
+      <c r="N1109" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr"/>
+      <c r="C1110" t="inlineStr"/>
+      <c r="D1110" t="inlineStr"/>
+      <c r="E1110" t="inlineStr"/>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="inlineStr"/>
+      <c r="H1110" t="inlineStr"/>
+      <c r="I1110" t="inlineStr"/>
+      <c r="J1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr"/>
+      <c r="L1110" t="inlineStr"/>
+      <c r="M1110" t="inlineStr"/>
+      <c r="N1110" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
+      <c r="C1111" t="inlineStr"/>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="inlineStr"/>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr"/>
+      <c r="H1111" t="inlineStr"/>
+      <c r="I1111" t="inlineStr"/>
+      <c r="J1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr"/>
+      <c r="L1111" t="inlineStr"/>
+      <c r="M1111" t="inlineStr"/>
+      <c r="N1111" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
+      <c r="C1112" t="inlineStr"/>
+      <c r="D1112" t="inlineStr"/>
+      <c r="E1112" t="inlineStr"/>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="inlineStr"/>
+      <c r="H1112" t="inlineStr"/>
+      <c r="I1112" t="inlineStr"/>
+      <c r="J1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr"/>
+      <c r="L1112" t="inlineStr"/>
+      <c r="M1112" t="inlineStr"/>
+      <c r="N1112" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr"/>
+      <c r="C1113" t="inlineStr"/>
+      <c r="D1113" t="inlineStr"/>
+      <c r="E1113" t="inlineStr"/>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="inlineStr"/>
+      <c r="H1113" t="inlineStr"/>
+      <c r="I1113" t="inlineStr"/>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr"/>
+      <c r="L1113" t="inlineStr"/>
+      <c r="M1113" t="inlineStr"/>
+      <c r="N1113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr"/>
+      <c r="C1114" t="inlineStr"/>
+      <c r="D1114" t="inlineStr"/>
+      <c r="E1114" t="inlineStr"/>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="inlineStr"/>
+      <c r="H1114" t="inlineStr"/>
+      <c r="I1114" t="inlineStr"/>
+      <c r="J1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr"/>
+      <c r="L1114" t="inlineStr"/>
+      <c r="M1114" t="inlineStr"/>
+      <c r="N1114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr"/>
+      <c r="C1115" t="inlineStr"/>
+      <c r="D1115" t="inlineStr"/>
+      <c r="E1115" t="inlineStr"/>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="inlineStr"/>
+      <c r="H1115" t="inlineStr"/>
+      <c r="I1115" t="inlineStr"/>
+      <c r="J1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr"/>
+      <c r="L1115" t="inlineStr"/>
+      <c r="M1115" t="inlineStr"/>
+      <c r="N1115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr"/>
+      <c r="C1116" t="inlineStr"/>
+      <c r="D1116" t="inlineStr"/>
+      <c r="E1116" t="inlineStr"/>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="inlineStr"/>
+      <c r="H1116" t="inlineStr"/>
+      <c r="I1116" t="inlineStr"/>
+      <c r="J1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr"/>
+      <c r="L1116" t="inlineStr"/>
+      <c r="M1116" t="inlineStr"/>
+      <c r="N1116" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr"/>
+      <c r="C1117" t="inlineStr"/>
+      <c r="D1117" t="inlineStr"/>
+      <c r="E1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="inlineStr"/>
+      <c r="H1117" t="inlineStr"/>
+      <c r="I1117" t="inlineStr"/>
+      <c r="J1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr"/>
+      <c r="L1117" t="inlineStr"/>
+      <c r="M1117" t="inlineStr"/>
+      <c r="N1117" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr"/>
+      <c r="C1118" t="inlineStr"/>
+      <c r="D1118" t="inlineStr"/>
+      <c r="E1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="inlineStr"/>
+      <c r="H1118" t="inlineStr"/>
+      <c r="I1118" t="inlineStr"/>
+      <c r="J1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr"/>
+      <c r="L1118" t="inlineStr"/>
+      <c r="M1118" t="inlineStr"/>
+      <c r="N1118" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr"/>
+      <c r="C1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr"/>
+      <c r="E1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr"/>
+      <c r="H1119" t="inlineStr"/>
+      <c r="I1119" t="inlineStr"/>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr"/>
+      <c r="L1119" t="inlineStr"/>
+      <c r="M1119" t="inlineStr"/>
+      <c r="N1119" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr"/>
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr"/>
+      <c r="E1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr"/>
+      <c r="H1120" t="inlineStr"/>
+      <c r="I1120" t="inlineStr"/>
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
+      <c r="L1120" t="inlineStr"/>
+      <c r="M1120" t="inlineStr"/>
+      <c r="N1120" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr"/>
+      <c r="C1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr"/>
+      <c r="E1121" t="inlineStr"/>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="inlineStr"/>
+      <c r="H1121" t="inlineStr"/>
+      <c r="I1121" t="inlineStr"/>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
+      <c r="L1121" t="inlineStr"/>
+      <c r="M1121" t="inlineStr"/>
+      <c r="N1121" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr"/>
+      <c r="C1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr"/>
+      <c r="E1122" t="inlineStr"/>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr"/>
+      <c r="H1122" t="inlineStr"/>
+      <c r="I1122" t="inlineStr"/>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
+      <c r="L1122" t="inlineStr"/>
+      <c r="M1122" t="inlineStr"/>
+      <c r="N1122" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr"/>
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="inlineStr"/>
+      <c r="E1123" t="inlineStr"/>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="inlineStr"/>
+      <c r="H1123" t="inlineStr"/>
+      <c r="I1123" t="inlineStr"/>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
+      <c r="L1123" t="inlineStr"/>
+      <c r="M1123" t="inlineStr"/>
+      <c r="N1123" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr"/>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="inlineStr"/>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="inlineStr"/>
+      <c r="H1124" t="inlineStr"/>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="inlineStr"/>
+      <c r="M1124" t="inlineStr"/>
+      <c r="N1124" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
+      <c r="D1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr"/>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
+      <c r="I1125" t="inlineStr"/>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
+      <c r="L1125" t="inlineStr"/>
+      <c r="M1125" t="inlineStr"/>
+      <c r="N1125" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr"/>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="inlineStr"/>
+      <c r="H1126" t="inlineStr"/>
+      <c r="I1126" t="inlineStr"/>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
+      <c r="L1126" t="inlineStr"/>
+      <c r="M1126" t="inlineStr"/>
+      <c r="N1126" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr"/>
+      <c r="D1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
+      <c r="H1127" t="inlineStr"/>
+      <c r="I1127" t="inlineStr"/>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
+      <c r="L1127" t="inlineStr"/>
+      <c r="M1127" t="inlineStr"/>
+      <c r="N1127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr"/>
+      <c r="C1128" t="inlineStr"/>
+      <c r="D1128" t="inlineStr"/>
+      <c r="E1128" t="inlineStr"/>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="inlineStr"/>
+      <c r="H1128" t="inlineStr"/>
+      <c r="I1128" t="inlineStr"/>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
+      <c r="L1128" t="inlineStr"/>
+      <c r="M1128" t="inlineStr"/>
+      <c r="N1128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr"/>
+      <c r="C1129" t="inlineStr"/>
+      <c r="D1129" t="inlineStr"/>
+      <c r="E1129" t="inlineStr"/>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="inlineStr"/>
+      <c r="H1129" t="inlineStr"/>
+      <c r="I1129" t="inlineStr"/>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
+      <c r="L1129" t="inlineStr"/>
+      <c r="M1129" t="inlineStr"/>
+      <c r="N1129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr"/>
+      <c r="C1130" t="inlineStr"/>
+      <c r="D1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr"/>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr"/>
+      <c r="H1130" t="inlineStr"/>
+      <c r="I1130" t="inlineStr"/>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
+      <c r="L1130" t="inlineStr"/>
+      <c r="M1130" t="inlineStr"/>
+      <c r="N1130" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr"/>
+      <c r="C1131" t="inlineStr"/>
+      <c r="D1131" t="inlineStr"/>
+      <c r="E1131" t="inlineStr"/>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="inlineStr"/>
+      <c r="H1131" t="inlineStr"/>
+      <c r="I1131" t="inlineStr"/>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
+      <c r="L1131" t="inlineStr"/>
+      <c r="M1131" t="inlineStr"/>
+      <c r="N1131" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr"/>
+      <c r="C1132" t="inlineStr"/>
+      <c r="D1132" t="inlineStr"/>
+      <c r="E1132" t="inlineStr"/>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="inlineStr"/>
+      <c r="H1132" t="inlineStr"/>
+      <c r="I1132" t="inlineStr"/>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
+      <c r="L1132" t="inlineStr"/>
+      <c r="M1132" t="inlineStr"/>
+      <c r="N1132" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr"/>
+      <c r="C1133" t="inlineStr"/>
+      <c r="D1133" t="inlineStr"/>
+      <c r="E1133" t="inlineStr"/>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
+      <c r="H1133" t="inlineStr"/>
+      <c r="I1133" t="inlineStr"/>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
+      <c r="L1133" t="inlineStr"/>
+      <c r="M1133" t="inlineStr"/>
+      <c r="N1133" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr"/>
+      <c r="C1134" t="inlineStr"/>
+      <c r="D1134" t="inlineStr"/>
+      <c r="E1134" t="inlineStr"/>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr"/>
+      <c r="H1134" t="inlineStr"/>
+      <c r="I1134" t="inlineStr"/>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
+      <c r="L1134" t="inlineStr"/>
+      <c r="M1134" t="inlineStr"/>
+      <c r="N1134" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr"/>
+      <c r="C1135" t="inlineStr"/>
+      <c r="D1135" t="inlineStr"/>
+      <c r="E1135" t="inlineStr"/>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
+      <c r="H1135" t="inlineStr"/>
+      <c r="I1135" t="inlineStr"/>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
+      <c r="L1135" t="inlineStr"/>
+      <c r="M1135" t="inlineStr"/>
+      <c r="N1135" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr"/>
+      <c r="C1136" t="inlineStr"/>
+      <c r="D1136" t="inlineStr"/>
+      <c r="E1136" t="inlineStr"/>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
+      <c r="H1136" t="inlineStr"/>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="inlineStr"/>
+      <c r="M1136" t="inlineStr"/>
+      <c r="N1136" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr"/>
+      <c r="C1137" t="inlineStr"/>
+      <c r="D1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr"/>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
+      <c r="H1137" t="inlineStr"/>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
+      <c r="L1137" t="inlineStr"/>
+      <c r="M1137" t="inlineStr"/>
+      <c r="N1137" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr"/>
+      <c r="C1138" t="inlineStr"/>
+      <c r="D1138" t="inlineStr"/>
+      <c r="E1138" t="inlineStr"/>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
+      <c r="H1138" t="inlineStr"/>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
+      <c r="L1138" t="inlineStr"/>
+      <c r="M1138" t="inlineStr"/>
+      <c r="N1138" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
+      <c r="D1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr"/>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
+      <c r="H1139" t="inlineStr"/>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
+      <c r="L1139" t="inlineStr"/>
+      <c r="M1139" t="inlineStr"/>
+      <c r="N1139" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
+      <c r="D1140" t="inlineStr"/>
+      <c r="E1140" t="inlineStr"/>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
+      <c r="I1140" t="inlineStr"/>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
+      <c r="L1140" t="inlineStr"/>
+      <c r="M1140" t="inlineStr"/>
+      <c r="N1140" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr"/>
+      <c r="C1141" t="inlineStr"/>
+      <c r="D1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr"/>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
+      <c r="H1141" t="inlineStr"/>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
+      <c r="L1141" t="inlineStr"/>
+      <c r="M1141" t="inlineStr"/>
+      <c r="N1141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr"/>
+      <c r="C1142" t="inlineStr"/>
+      <c r="D1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr"/>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr"/>
+      <c r="H1142" t="inlineStr"/>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="inlineStr"/>
+      <c r="M1142" t="inlineStr"/>
+      <c r="N1142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr"/>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
+      <c r="I1143" t="inlineStr"/>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="inlineStr"/>
+      <c r="M1143" t="inlineStr"/>
+      <c r="N1143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr"/>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr"/>
+      <c r="H1144" t="inlineStr"/>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
+      <c r="L1144" t="inlineStr"/>
+      <c r="M1144" t="inlineStr"/>
+      <c r="N1144" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr"/>
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr"/>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr"/>
+      <c r="H1145" t="inlineStr"/>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
+      <c r="L1145" t="inlineStr"/>
+      <c r="M1145" t="inlineStr"/>
+      <c r="N1145" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr"/>
+      <c r="C1146" t="inlineStr"/>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="inlineStr"/>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="inlineStr"/>
+      <c r="H1146" t="inlineStr"/>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="inlineStr"/>
+      <c r="M1146" t="inlineStr"/>
+      <c r="N1146" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr"/>
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="inlineStr"/>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr"/>
+      <c r="H1147" t="inlineStr"/>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
+      <c r="L1147" t="inlineStr"/>
+      <c r="M1147" t="inlineStr"/>
+      <c r="N1147" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr"/>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
+      <c r="H1148" t="inlineStr"/>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="inlineStr"/>
+      <c r="M1148" t="inlineStr"/>
+      <c r="N1148" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr"/>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
+      <c r="L1149" t="inlineStr"/>
+      <c r="M1149" t="inlineStr"/>
+      <c r="N1149" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
+      <c r="I1150" t="inlineStr"/>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="inlineStr"/>
+      <c r="M1150" t="inlineStr"/>
+      <c r="N1150" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
+      <c r="H1151" t="inlineStr"/>
+      <c r="I1151" t="inlineStr"/>
+      <c r="J1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="inlineStr"/>
+      <c r="M1151" t="inlineStr"/>
+      <c r="N1151" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr"/>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr"/>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr"/>
+      <c r="H1152" t="inlineStr"/>
+      <c r="I1152" t="inlineStr"/>
+      <c r="J1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr"/>
+      <c r="L1152" t="inlineStr"/>
+      <c r="M1152" t="inlineStr"/>
+      <c r="N1152" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
+      <c r="D1153" t="inlineStr"/>
+      <c r="E1153" t="inlineStr"/>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
+      <c r="I1153" t="inlineStr"/>
+      <c r="J1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr"/>
+      <c r="L1153" t="inlineStr"/>
+      <c r="M1153" t="inlineStr"/>
+      <c r="N1153" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr"/>
+      <c r="C1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr"/>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr"/>
+      <c r="H1154" t="inlineStr"/>
+      <c r="I1154" t="inlineStr"/>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr"/>
+      <c r="L1154" t="inlineStr"/>
+      <c r="M1154" t="inlineStr"/>
+      <c r="N1154" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr"/>
+      <c r="C1155" t="inlineStr"/>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="inlineStr"/>
+      <c r="H1155" t="inlineStr"/>
+      <c r="I1155" t="inlineStr"/>
+      <c r="J1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr"/>
+      <c r="L1155" t="inlineStr"/>
+      <c r="M1155" t="inlineStr"/>
+      <c r="N1155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr"/>
+      <c r="C1156" t="inlineStr"/>
+      <c r="D1156" t="inlineStr"/>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="inlineStr"/>
+      <c r="H1156" t="inlineStr"/>
+      <c r="I1156" t="inlineStr"/>
+      <c r="J1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr"/>
+      <c r="L1156" t="inlineStr"/>
+      <c r="M1156" t="inlineStr"/>
+      <c r="N1156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr"/>
+      <c r="C1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr"/>
+      <c r="E1157" t="inlineStr"/>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr"/>
+      <c r="H1157" t="inlineStr"/>
+      <c r="I1157" t="inlineStr"/>
+      <c r="J1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr"/>
+      <c r="L1157" t="inlineStr"/>
+      <c r="M1157" t="inlineStr"/>
+      <c r="N1157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr"/>
+      <c r="C1158" t="inlineStr"/>
+      <c r="D1158" t="inlineStr"/>
+      <c r="E1158" t="inlineStr"/>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr"/>
+      <c r="H1158" t="inlineStr"/>
+      <c r="I1158" t="inlineStr"/>
+      <c r="J1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr"/>
+      <c r="L1158" t="inlineStr"/>
+      <c r="M1158" t="inlineStr"/>
+      <c r="N1158" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr"/>
+      <c r="C1159" t="inlineStr"/>
+      <c r="D1159" t="inlineStr"/>
+      <c r="E1159" t="inlineStr"/>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="inlineStr"/>
+      <c r="H1159" t="inlineStr"/>
+      <c r="I1159" t="inlineStr"/>
+      <c r="J1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr"/>
+      <c r="L1159" t="inlineStr"/>
+      <c r="M1159" t="inlineStr"/>
+      <c r="N1159" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr"/>
+      <c r="C1160" t="inlineStr"/>
+      <c r="D1160" t="inlineStr"/>
+      <c r="E1160" t="inlineStr"/>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="inlineStr"/>
+      <c r="H1160" t="inlineStr"/>
+      <c r="I1160" t="inlineStr"/>
+      <c r="J1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr"/>
+      <c r="L1160" t="inlineStr"/>
+      <c r="M1160" t="inlineStr"/>
+      <c r="N1160" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr"/>
+      <c r="C1161" t="inlineStr"/>
+      <c r="D1161" t="inlineStr"/>
+      <c r="E1161" t="inlineStr"/>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="inlineStr"/>
+      <c r="H1161" t="inlineStr"/>
+      <c r="I1161" t="inlineStr"/>
+      <c r="J1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr"/>
+      <c r="L1161" t="inlineStr"/>
+      <c r="M1161" t="inlineStr"/>
+      <c r="N1161" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr"/>
+      <c r="C1162" t="inlineStr"/>
+      <c r="D1162" t="inlineStr"/>
+      <c r="E1162" t="inlineStr"/>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="inlineStr"/>
+      <c r="H1162" t="inlineStr"/>
+      <c r="I1162" t="inlineStr"/>
+      <c r="J1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr"/>
+      <c r="L1162" t="inlineStr"/>
+      <c r="M1162" t="inlineStr"/>
+      <c r="N1162" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr"/>
+      <c r="C1163" t="inlineStr"/>
+      <c r="D1163" t="inlineStr"/>
+      <c r="E1163" t="inlineStr"/>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="inlineStr"/>
+      <c r="H1163" t="inlineStr"/>
+      <c r="I1163" t="inlineStr"/>
+      <c r="J1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr"/>
+      <c r="L1163" t="inlineStr"/>
+      <c r="M1163" t="inlineStr"/>
+      <c r="N1163" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr"/>
+      <c r="C1164" t="inlineStr"/>
+      <c r="D1164" t="inlineStr"/>
+      <c r="E1164" t="inlineStr"/>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="inlineStr"/>
+      <c r="H1164" t="inlineStr"/>
+      <c r="I1164" t="inlineStr"/>
+      <c r="J1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr"/>
+      <c r="L1164" t="inlineStr"/>
+      <c r="M1164" t="inlineStr"/>
+      <c r="N1164" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr"/>
+      <c r="C1165" t="inlineStr"/>
+      <c r="D1165" t="inlineStr"/>
+      <c r="E1165" t="inlineStr"/>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr"/>
+      <c r="H1165" t="inlineStr"/>
+      <c r="I1165" t="inlineStr"/>
+      <c r="J1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr"/>
+      <c r="L1165" t="inlineStr"/>
+      <c r="M1165" t="inlineStr"/>
+      <c r="N1165" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr"/>
+      <c r="C1166" t="inlineStr"/>
+      <c r="D1166" t="inlineStr"/>
+      <c r="E1166" t="inlineStr"/>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr"/>
+      <c r="H1166" t="inlineStr"/>
+      <c r="I1166" t="inlineStr"/>
+      <c r="J1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr"/>
+      <c r="L1166" t="inlineStr"/>
+      <c r="M1166" t="inlineStr"/>
+      <c r="N1166" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr"/>
+      <c r="C1167" t="inlineStr"/>
+      <c r="D1167" t="inlineStr"/>
+      <c r="E1167" t="inlineStr"/>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr"/>
+      <c r="H1167" t="inlineStr"/>
+      <c r="I1167" t="inlineStr"/>
+      <c r="J1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr"/>
+      <c r="L1167" t="inlineStr"/>
+      <c r="M1167" t="inlineStr"/>
+      <c r="N1167" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr"/>
+      <c r="C1168" t="inlineStr"/>
+      <c r="D1168" t="inlineStr"/>
+      <c r="E1168" t="inlineStr"/>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
+      <c r="H1168" t="inlineStr"/>
+      <c r="I1168" t="inlineStr"/>
+      <c r="J1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr"/>
+      <c r="L1168" t="inlineStr"/>
+      <c r="M1168" t="inlineStr"/>
+      <c r="N1168" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr"/>
+      <c r="C1169" t="inlineStr"/>
+      <c r="D1169" t="inlineStr"/>
+      <c r="E1169" t="inlineStr"/>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="inlineStr"/>
+      <c r="H1169" t="inlineStr"/>
+      <c r="I1169" t="inlineStr"/>
+      <c r="J1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr"/>
+      <c r="L1169" t="inlineStr"/>
+      <c r="M1169" t="inlineStr"/>
+      <c r="N1169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr"/>
+      <c r="C1170" t="inlineStr"/>
+      <c r="D1170" t="inlineStr"/>
+      <c r="E1170" t="inlineStr"/>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="inlineStr"/>
+      <c r="H1170" t="inlineStr"/>
+      <c r="I1170" t="inlineStr"/>
+      <c r="J1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr"/>
+      <c r="L1170" t="inlineStr"/>
+      <c r="M1170" t="inlineStr"/>
+      <c r="N1170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr"/>
+      <c r="C1171" t="inlineStr"/>
+      <c r="D1171" t="inlineStr"/>
+      <c r="E1171" t="inlineStr"/>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
+      <c r="H1171" t="inlineStr"/>
+      <c r="I1171" t="inlineStr"/>
+      <c r="J1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr"/>
+      <c r="L1171" t="inlineStr"/>
+      <c r="M1171" t="inlineStr"/>
+      <c r="N1171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr"/>
+      <c r="C1172" t="inlineStr"/>
+      <c r="D1172" t="inlineStr"/>
+      <c r="E1172" t="inlineStr"/>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="inlineStr"/>
+      <c r="H1172" t="inlineStr"/>
+      <c r="I1172" t="inlineStr"/>
+      <c r="J1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr"/>
+      <c r="L1172" t="inlineStr"/>
+      <c r="M1172" t="inlineStr"/>
+      <c r="N1172" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr"/>
+      <c r="C1173" t="inlineStr"/>
+      <c r="D1173" t="inlineStr"/>
+      <c r="E1173" t="inlineStr"/>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="inlineStr"/>
+      <c r="H1173" t="inlineStr"/>
+      <c r="I1173" t="inlineStr"/>
+      <c r="J1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr"/>
+      <c r="L1173" t="inlineStr"/>
+      <c r="M1173" t="inlineStr"/>
+      <c r="N1173" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr"/>
+      <c r="C1174" t="inlineStr"/>
+      <c r="D1174" t="inlineStr"/>
+      <c r="E1174" t="inlineStr"/>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="inlineStr"/>
+      <c r="H1174" t="inlineStr"/>
+      <c r="I1174" t="inlineStr"/>
+      <c r="J1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr"/>
+      <c r="L1174" t="inlineStr"/>
+      <c r="M1174" t="inlineStr"/>
+      <c r="N1174" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
+      <c r="D1175" t="inlineStr"/>
+      <c r="E1175" t="inlineStr"/>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr"/>
+      <c r="H1175" t="inlineStr"/>
+      <c r="I1175" t="inlineStr"/>
+      <c r="J1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr"/>
+      <c r="L1175" t="inlineStr"/>
+      <c r="M1175" t="inlineStr"/>
+      <c r="N1175" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr"/>
+      <c r="C1176" t="inlineStr"/>
+      <c r="D1176" t="inlineStr"/>
+      <c r="E1176" t="inlineStr"/>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="inlineStr"/>
+      <c r="H1176" t="inlineStr"/>
+      <c r="I1176" t="inlineStr"/>
+      <c r="J1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr"/>
+      <c r="L1176" t="inlineStr"/>
+      <c r="M1176" t="inlineStr"/>
+      <c r="N1176" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr"/>
+      <c r="C1177" t="inlineStr"/>
+      <c r="D1177" t="inlineStr"/>
+      <c r="E1177" t="inlineStr"/>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="inlineStr"/>
+      <c r="H1177" t="inlineStr"/>
+      <c r="I1177" t="inlineStr"/>
+      <c r="J1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr"/>
+      <c r="L1177" t="inlineStr"/>
+      <c r="M1177" t="inlineStr"/>
+      <c r="N1177" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
+      <c r="D1178" t="inlineStr"/>
+      <c r="E1178" t="inlineStr"/>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
+      <c r="I1178" t="inlineStr"/>
+      <c r="J1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr"/>
+      <c r="L1178" t="inlineStr"/>
+      <c r="M1178" t="inlineStr"/>
+      <c r="N1178" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr"/>
+      <c r="C1179" t="inlineStr"/>
+      <c r="D1179" t="inlineStr"/>
+      <c r="E1179" t="inlineStr"/>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="inlineStr"/>
+      <c r="H1179" t="inlineStr"/>
+      <c r="I1179" t="inlineStr"/>
+      <c r="J1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr"/>
+      <c r="L1179" t="inlineStr"/>
+      <c r="M1179" t="inlineStr"/>
+      <c r="N1179" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr"/>
+      <c r="C1180" t="inlineStr"/>
+      <c r="D1180" t="inlineStr"/>
+      <c r="E1180" t="inlineStr"/>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="inlineStr"/>
+      <c r="H1180" t="inlineStr"/>
+      <c r="I1180" t="inlineStr"/>
+      <c r="J1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr"/>
+      <c r="L1180" t="inlineStr"/>
+      <c r="M1180" t="inlineStr"/>
+      <c r="N1180" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr"/>
+      <c r="C1181" t="inlineStr"/>
+      <c r="D1181" t="inlineStr"/>
+      <c r="E1181" t="inlineStr"/>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="inlineStr"/>
+      <c r="H1181" t="inlineStr"/>
+      <c r="I1181" t="inlineStr"/>
+      <c r="J1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr"/>
+      <c r="L1181" t="inlineStr"/>
+      <c r="M1181" t="inlineStr"/>
+      <c r="N1181" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr"/>
+      <c r="C1182" t="inlineStr"/>
+      <c r="D1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr"/>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr"/>
+      <c r="H1182" t="inlineStr"/>
+      <c r="I1182" t="inlineStr"/>
+      <c r="J1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr"/>
+      <c r="L1182" t="inlineStr"/>
+      <c r="M1182" t="inlineStr"/>
+      <c r="N1182" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr"/>
+      <c r="C1183" t="inlineStr"/>
+      <c r="D1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr"/>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr"/>
+      <c r="H1183" t="inlineStr"/>
+      <c r="I1183" t="inlineStr"/>
+      <c r="J1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr"/>
+      <c r="L1183" t="inlineStr"/>
+      <c r="M1183" t="inlineStr"/>
+      <c r="N1183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
+      <c r="D1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr"/>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr"/>
+      <c r="H1184" t="inlineStr"/>
+      <c r="I1184" t="inlineStr"/>
+      <c r="J1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr"/>
+      <c r="L1184" t="inlineStr"/>
+      <c r="M1184" t="inlineStr"/>
+      <c r="N1184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr"/>
+      <c r="C1185" t="inlineStr"/>
+      <c r="D1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr"/>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr"/>
+      <c r="H1185" t="inlineStr"/>
+      <c r="I1185" t="inlineStr"/>
+      <c r="J1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr"/>
+      <c r="L1185" t="inlineStr"/>
+      <c r="M1185" t="inlineStr"/>
+      <c r="N1185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr"/>
+      <c r="C1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr"/>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr"/>
+      <c r="H1186" t="inlineStr"/>
+      <c r="I1186" t="inlineStr"/>
+      <c r="J1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr"/>
+      <c r="L1186" t="inlineStr"/>
+      <c r="M1186" t="inlineStr"/>
+      <c r="N1186" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr"/>
+      <c r="C1187" t="inlineStr"/>
+      <c r="D1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr"/>
+      <c r="H1187" t="inlineStr"/>
+      <c r="I1187" t="inlineStr"/>
+      <c r="J1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr"/>
+      <c r="L1187" t="inlineStr"/>
+      <c r="M1187" t="inlineStr"/>
+      <c r="N1187" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr"/>
+      <c r="C1188" t="inlineStr"/>
+      <c r="D1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr"/>
+      <c r="H1188" t="inlineStr"/>
+      <c r="I1188" t="inlineStr"/>
+      <c r="J1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr"/>
+      <c r="L1188" t="inlineStr"/>
+      <c r="M1188" t="inlineStr"/>
+      <c r="N1188" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr"/>
+      <c r="C1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr"/>
+      <c r="E1189" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr"/>
+      <c r="H1189" t="inlineStr"/>
+      <c r="I1189" t="inlineStr"/>
+      <c r="J1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr"/>
+      <c r="L1189" t="inlineStr"/>
+      <c r="M1189" t="inlineStr"/>
+      <c r="N1189" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr"/>
+      <c r="C1190" t="inlineStr"/>
+      <c r="D1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr"/>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="inlineStr"/>
+      <c r="H1190" t="inlineStr"/>
+      <c r="I1190" t="inlineStr"/>
+      <c r="J1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr"/>
+      <c r="L1190" t="inlineStr"/>
+      <c r="M1190" t="inlineStr"/>
+      <c r="N1190" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr"/>
+      <c r="C1191" t="inlineStr"/>
+      <c r="D1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr"/>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr"/>
+      <c r="H1191" t="inlineStr"/>
+      <c r="I1191" t="inlineStr"/>
+      <c r="J1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr"/>
+      <c r="L1191" t="inlineStr"/>
+      <c r="M1191" t="inlineStr"/>
+      <c r="N1191" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr"/>
+      <c r="C1192" t="inlineStr"/>
+      <c r="D1192" t="inlineStr"/>
+      <c r="E1192" t="inlineStr"/>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr"/>
+      <c r="H1192" t="inlineStr"/>
+      <c r="I1192" t="inlineStr"/>
+      <c r="J1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr"/>
+      <c r="L1192" t="inlineStr"/>
+      <c r="M1192" t="inlineStr"/>
+      <c r="N1192" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr"/>
+      <c r="C1193" t="inlineStr"/>
+      <c r="D1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr"/>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="inlineStr"/>
+      <c r="H1193" t="inlineStr"/>
+      <c r="I1193" t="inlineStr"/>
+      <c r="J1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr"/>
+      <c r="L1193" t="inlineStr"/>
+      <c r="M1193" t="inlineStr"/>
+      <c r="N1193" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr"/>
+      <c r="C1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr"/>
+      <c r="E1194" t="inlineStr"/>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="inlineStr"/>
+      <c r="H1194" t="inlineStr"/>
+      <c r="I1194" t="inlineStr"/>
+      <c r="J1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr"/>
+      <c r="L1194" t="inlineStr"/>
+      <c r="M1194" t="inlineStr"/>
+      <c r="N1194" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr"/>
+      <c r="C1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr"/>
+      <c r="H1195" t="inlineStr"/>
+      <c r="I1195" t="inlineStr"/>
+      <c r="J1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr"/>
+      <c r="L1195" t="inlineStr"/>
+      <c r="M1195" t="inlineStr"/>
+      <c r="N1195" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr"/>
+      <c r="D1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr"/>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr"/>
+      <c r="H1196" t="inlineStr"/>
+      <c r="I1196" t="inlineStr"/>
+      <c r="J1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr"/>
+      <c r="L1196" t="inlineStr"/>
+      <c r="M1196" t="inlineStr"/>
+      <c r="N1196" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr"/>
+      <c r="C1197" t="inlineStr"/>
+      <c r="D1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr"/>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr"/>
+      <c r="H1197" t="inlineStr"/>
+      <c r="I1197" t="inlineStr"/>
+      <c r="J1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr"/>
+      <c r="L1197" t="inlineStr"/>
+      <c r="M1197" t="inlineStr"/>
+      <c r="N1197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr"/>
+      <c r="C1198" t="inlineStr"/>
+      <c r="D1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr"/>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr"/>
+      <c r="H1198" t="inlineStr"/>
+      <c r="I1198" t="inlineStr"/>
+      <c r="J1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr"/>
+      <c r="L1198" t="inlineStr"/>
+      <c r="M1198" t="inlineStr"/>
+      <c r="N1198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr"/>
+      <c r="C1199" t="inlineStr"/>
+      <c r="D1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr"/>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr"/>
+      <c r="H1199" t="inlineStr"/>
+      <c r="I1199" t="inlineStr"/>
+      <c r="J1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr"/>
+      <c r="L1199" t="inlineStr"/>
+      <c r="M1199" t="inlineStr"/>
+      <c r="N1199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr"/>
+      <c r="C1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr"/>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr"/>
+      <c r="H1200" t="inlineStr"/>
+      <c r="I1200" t="inlineStr"/>
+      <c r="J1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr"/>
+      <c r="L1200" t="inlineStr"/>
+      <c r="M1200" t="inlineStr"/>
+      <c r="N1200" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr"/>
+      <c r="C1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr"/>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr"/>
+      <c r="H1201" t="inlineStr"/>
+      <c r="I1201" t="inlineStr"/>
+      <c r="J1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr"/>
+      <c r="L1201" t="inlineStr"/>
+      <c r="M1201" t="inlineStr"/>
+      <c r="N1201" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr"/>
+      <c r="C1202" t="inlineStr"/>
+      <c r="D1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr"/>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr"/>
+      <c r="H1202" t="inlineStr"/>
+      <c r="I1202" t="inlineStr"/>
+      <c r="J1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr"/>
+      <c r="L1202" t="inlineStr"/>
+      <c r="M1202" t="inlineStr"/>
+      <c r="N1202" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr"/>
+      <c r="C1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr"/>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr"/>
+      <c r="H1203" t="inlineStr"/>
+      <c r="I1203" t="inlineStr"/>
+      <c r="J1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr"/>
+      <c r="L1203" t="inlineStr"/>
+      <c r="M1203" t="inlineStr"/>
+      <c r="N1203" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr"/>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr"/>
+      <c r="H1204" t="inlineStr"/>
+      <c r="I1204" t="inlineStr"/>
+      <c r="J1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr"/>
+      <c r="L1204" t="inlineStr"/>
+      <c r="M1204" t="inlineStr"/>
+      <c r="N1204" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr"/>
+      <c r="C1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr"/>
+      <c r="E1205" t="inlineStr"/>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr"/>
+      <c r="H1205" t="inlineStr"/>
+      <c r="I1205" t="inlineStr"/>
+      <c r="J1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr"/>
+      <c r="L1205" t="inlineStr"/>
+      <c r="M1205" t="inlineStr"/>
+      <c r="N1205" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
+      <c r="D1206" t="inlineStr"/>
+      <c r="E1206" t="inlineStr"/>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr"/>
+      <c r="I1206" t="inlineStr"/>
+      <c r="J1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr"/>
+      <c r="L1206" t="inlineStr"/>
+      <c r="M1206" t="inlineStr"/>
+      <c r="N1206" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr"/>
+      <c r="C1207" t="inlineStr"/>
+      <c r="D1207" t="inlineStr"/>
+      <c r="E1207" t="inlineStr"/>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr"/>
+      <c r="H1207" t="inlineStr"/>
+      <c r="I1207" t="inlineStr"/>
+      <c r="J1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr"/>
+      <c r="L1207" t="inlineStr"/>
+      <c r="M1207" t="inlineStr"/>
+      <c r="N1207" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr"/>
+      <c r="C1208" t="inlineStr"/>
+      <c r="D1208" t="inlineStr"/>
+      <c r="E1208" t="inlineStr"/>
+      <c r="F1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr"/>
+      <c r="H1208" t="inlineStr"/>
+      <c r="I1208" t="inlineStr"/>
+      <c r="J1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr"/>
+      <c r="L1208" t="inlineStr"/>
+      <c r="M1208" t="inlineStr"/>
+      <c r="N1208" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr"/>
+      <c r="D1209" t="inlineStr"/>
+      <c r="E1209" t="inlineStr"/>
+      <c r="F1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr"/>
+      <c r="H1209" t="inlineStr"/>
+      <c r="I1209" t="inlineStr"/>
+      <c r="J1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr"/>
+      <c r="L1209" t="inlineStr"/>
+      <c r="M1209" t="inlineStr"/>
+      <c r="N1209" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr"/>
+      <c r="C1210" t="inlineStr"/>
+      <c r="D1210" t="inlineStr"/>
+      <c r="E1210" t="inlineStr"/>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr"/>
+      <c r="H1210" t="inlineStr"/>
+      <c r="I1210" t="inlineStr"/>
+      <c r="J1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr"/>
+      <c r="L1210" t="inlineStr"/>
+      <c r="M1210" t="inlineStr"/>
+      <c r="N1210" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr"/>
+      <c r="C1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr"/>
+      <c r="E1211" t="inlineStr"/>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr"/>
+      <c r="H1211" t="inlineStr"/>
+      <c r="I1211" t="inlineStr"/>
+      <c r="J1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr"/>
+      <c r="L1211" t="inlineStr"/>
+      <c r="M1211" t="inlineStr"/>
+      <c r="N1211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr"/>
+      <c r="C1212" t="inlineStr"/>
+      <c r="D1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr"/>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr"/>
+      <c r="H1212" t="inlineStr"/>
+      <c r="I1212" t="inlineStr"/>
+      <c r="J1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr"/>
+      <c r="L1212" t="inlineStr"/>
+      <c r="M1212" t="inlineStr"/>
+      <c r="N1212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr"/>
+      <c r="C1213" t="inlineStr"/>
+      <c r="D1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr"/>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr"/>
+      <c r="H1213" t="inlineStr"/>
+      <c r="I1213" t="inlineStr"/>
+      <c r="J1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr"/>
+      <c r="L1213" t="inlineStr"/>
+      <c r="M1213" t="inlineStr"/>
+      <c r="N1213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr"/>
+      <c r="C1214" t="inlineStr"/>
+      <c r="D1214" t="inlineStr"/>
+      <c r="E1214" t="inlineStr"/>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="inlineStr"/>
+      <c r="H1214" t="inlineStr"/>
+      <c r="I1214" t="inlineStr"/>
+      <c r="J1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr"/>
+      <c r="L1214" t="inlineStr"/>
+      <c r="M1214" t="inlineStr"/>
+      <c r="N1214" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr"/>
+      <c r="C1215" t="inlineStr"/>
+      <c r="D1215" t="inlineStr"/>
+      <c r="E1215" t="inlineStr"/>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="inlineStr"/>
+      <c r="H1215" t="inlineStr"/>
+      <c r="I1215" t="inlineStr"/>
+      <c r="J1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr"/>
+      <c r="L1215" t="inlineStr"/>
+      <c r="M1215" t="inlineStr"/>
+      <c r="N1215" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr"/>
+      <c r="C1216" t="inlineStr"/>
+      <c r="D1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr"/>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr"/>
+      <c r="H1216" t="inlineStr"/>
+      <c r="I1216" t="inlineStr"/>
+      <c r="J1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr"/>
+      <c r="L1216" t="inlineStr"/>
+      <c r="M1216" t="inlineStr"/>
+      <c r="N1216" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr"/>
+      <c r="C1217" t="inlineStr"/>
+      <c r="D1217" t="inlineStr"/>
+      <c r="E1217" t="inlineStr"/>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="inlineStr"/>
+      <c r="H1217" t="inlineStr"/>
+      <c r="I1217" t="inlineStr"/>
+      <c r="J1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr"/>
+      <c r="L1217" t="inlineStr"/>
+      <c r="M1217" t="inlineStr"/>
+      <c r="N1217" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr"/>
+      <c r="C1218" t="inlineStr"/>
+      <c r="D1218" t="inlineStr"/>
+      <c r="E1218" t="inlineStr"/>
+      <c r="F1218" t="inlineStr"/>
+      <c r="G1218" t="inlineStr"/>
+      <c r="H1218" t="inlineStr"/>
+      <c r="I1218" t="inlineStr"/>
+      <c r="J1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr"/>
+      <c r="L1218" t="inlineStr"/>
+      <c r="M1218" t="inlineStr"/>
+      <c r="N1218" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr"/>
+      <c r="C1219" t="inlineStr"/>
+      <c r="D1219" t="inlineStr"/>
+      <c r="E1219" t="inlineStr"/>
+      <c r="F1219" t="inlineStr"/>
+      <c r="G1219" t="inlineStr"/>
+      <c r="H1219" t="inlineStr"/>
+      <c r="I1219" t="inlineStr"/>
+      <c r="J1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr"/>
+      <c r="L1219" t="inlineStr"/>
+      <c r="M1219" t="inlineStr"/>
+      <c r="N1219" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr"/>
+      <c r="C1220" t="inlineStr"/>
+      <c r="D1220" t="inlineStr"/>
+      <c r="E1220" t="inlineStr"/>
+      <c r="F1220" t="inlineStr"/>
+      <c r="G1220" t="inlineStr"/>
+      <c r="H1220" t="inlineStr"/>
+      <c r="I1220" t="inlineStr"/>
+      <c r="J1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr"/>
+      <c r="L1220" t="inlineStr"/>
+      <c r="M1220" t="inlineStr"/>
+      <c r="N1220" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr"/>
+      <c r="C1221" t="inlineStr"/>
+      <c r="D1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr"/>
+      <c r="F1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr"/>
+      <c r="H1221" t="inlineStr"/>
+      <c r="I1221" t="inlineStr"/>
+      <c r="J1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr"/>
+      <c r="L1221" t="inlineStr"/>
+      <c r="M1221" t="inlineStr"/>
+      <c r="N1221" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr"/>
+      <c r="C1222" t="inlineStr"/>
+      <c r="D1222" t="inlineStr"/>
+      <c r="E1222" t="inlineStr"/>
+      <c r="F1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr"/>
+      <c r="H1222" t="inlineStr"/>
+      <c r="I1222" t="inlineStr"/>
+      <c r="J1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr"/>
+      <c r="L1222" t="inlineStr"/>
+      <c r="M1222" t="inlineStr"/>
+      <c r="N1222" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr"/>
+      <c r="C1223" t="inlineStr"/>
+      <c r="D1223" t="inlineStr"/>
+      <c r="E1223" t="inlineStr"/>
+      <c r="F1223" t="inlineStr"/>
+      <c r="G1223" t="inlineStr"/>
+      <c r="H1223" t="inlineStr"/>
+      <c r="I1223" t="inlineStr"/>
+      <c r="J1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr"/>
+      <c r="L1223" t="inlineStr"/>
+      <c r="M1223" t="inlineStr"/>
+      <c r="N1223" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr"/>
+      <c r="C1224" t="inlineStr"/>
+      <c r="D1224" t="inlineStr"/>
+      <c r="E1224" t="inlineStr"/>
+      <c r="F1224" t="inlineStr"/>
+      <c r="G1224" t="inlineStr"/>
+      <c r="H1224" t="inlineStr"/>
+      <c r="I1224" t="inlineStr"/>
+      <c r="J1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr"/>
+      <c r="L1224" t="inlineStr"/>
+      <c r="M1224" t="inlineStr"/>
+      <c r="N1224" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr"/>
+      <c r="C1225" t="inlineStr"/>
+      <c r="D1225" t="inlineStr"/>
+      <c r="E1225" t="inlineStr"/>
+      <c r="F1225" t="inlineStr"/>
+      <c r="G1225" t="inlineStr"/>
+      <c r="H1225" t="inlineStr"/>
+      <c r="I1225" t="inlineStr"/>
+      <c r="J1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr"/>
+      <c r="L1225" t="inlineStr"/>
+      <c r="M1225" t="inlineStr"/>
+      <c r="N1225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr"/>
+      <c r="C1226" t="inlineStr"/>
+      <c r="D1226" t="inlineStr"/>
+      <c r="E1226" t="inlineStr"/>
+      <c r="F1226" t="inlineStr"/>
+      <c r="G1226" t="inlineStr"/>
+      <c r="H1226" t="inlineStr"/>
+      <c r="I1226" t="inlineStr"/>
+      <c r="J1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr"/>
+      <c r="L1226" t="inlineStr"/>
+      <c r="M1226" t="inlineStr"/>
+      <c r="N1226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr"/>
+      <c r="C1227" t="inlineStr"/>
+      <c r="D1227" t="inlineStr"/>
+      <c r="E1227" t="inlineStr"/>
+      <c r="F1227" t="inlineStr"/>
+      <c r="G1227" t="inlineStr"/>
+      <c r="H1227" t="inlineStr"/>
+      <c r="I1227" t="inlineStr"/>
+      <c r="J1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr"/>
+      <c r="L1227" t="inlineStr"/>
+      <c r="M1227" t="inlineStr"/>
+      <c r="N1227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr"/>
+      <c r="C1228" t="inlineStr"/>
+      <c r="D1228" t="inlineStr"/>
+      <c r="E1228" t="inlineStr"/>
+      <c r="F1228" t="inlineStr"/>
+      <c r="G1228" t="inlineStr"/>
+      <c r="H1228" t="inlineStr"/>
+      <c r="I1228" t="inlineStr"/>
+      <c r="J1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr"/>
+      <c r="L1228" t="inlineStr"/>
+      <c r="M1228" t="inlineStr"/>
+      <c r="N1228" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr"/>
+      <c r="C1229" t="inlineStr"/>
+      <c r="D1229" t="inlineStr"/>
+      <c r="E1229" t="inlineStr"/>
+      <c r="F1229" t="inlineStr"/>
+      <c r="G1229" t="inlineStr"/>
+      <c r="H1229" t="inlineStr"/>
+      <c r="I1229" t="inlineStr"/>
+      <c r="J1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr"/>
+      <c r="L1229" t="inlineStr"/>
+      <c r="M1229" t="inlineStr"/>
+      <c r="N1229" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr"/>
+      <c r="C1230" t="inlineStr"/>
+      <c r="D1230" t="inlineStr"/>
+      <c r="E1230" t="inlineStr"/>
+      <c r="F1230" t="inlineStr"/>
+      <c r="G1230" t="inlineStr"/>
+      <c r="H1230" t="inlineStr"/>
+      <c r="I1230" t="inlineStr"/>
+      <c r="J1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr"/>
+      <c r="L1230" t="inlineStr"/>
+      <c r="M1230" t="inlineStr"/>
+      <c r="N1230" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr"/>
+      <c r="C1231" t="inlineStr"/>
+      <c r="D1231" t="inlineStr"/>
+      <c r="E1231" t="inlineStr"/>
+      <c r="F1231" t="inlineStr"/>
+      <c r="G1231" t="inlineStr"/>
+      <c r="H1231" t="inlineStr"/>
+      <c r="I1231" t="inlineStr"/>
+      <c r="J1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr"/>
+      <c r="L1231" t="inlineStr"/>
+      <c r="M1231" t="inlineStr"/>
+      <c r="N1231" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr"/>
+      <c r="C1232" t="inlineStr"/>
+      <c r="D1232" t="inlineStr"/>
+      <c r="E1232" t="inlineStr"/>
+      <c r="F1232" t="inlineStr"/>
+      <c r="G1232" t="inlineStr"/>
+      <c r="H1232" t="inlineStr"/>
+      <c r="I1232" t="inlineStr"/>
+      <c r="J1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr"/>
+      <c r="L1232" t="inlineStr"/>
+      <c r="M1232" t="inlineStr"/>
+      <c r="N1232" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr"/>
+      <c r="C1233" t="inlineStr"/>
+      <c r="D1233" t="inlineStr"/>
+      <c r="E1233" t="inlineStr"/>
+      <c r="F1233" t="inlineStr"/>
+      <c r="G1233" t="inlineStr"/>
+      <c r="H1233" t="inlineStr"/>
+      <c r="I1233" t="inlineStr"/>
+      <c r="J1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr"/>
+      <c r="L1233" t="inlineStr"/>
+      <c r="M1233" t="inlineStr"/>
+      <c r="N1233" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr"/>
+      <c r="C1234" t="inlineStr"/>
+      <c r="D1234" t="inlineStr"/>
+      <c r="E1234" t="inlineStr"/>
+      <c r="F1234" t="inlineStr"/>
+      <c r="G1234" t="inlineStr"/>
+      <c r="H1234" t="inlineStr"/>
+      <c r="I1234" t="inlineStr"/>
+      <c r="J1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr"/>
+      <c r="L1234" t="inlineStr"/>
+      <c r="M1234" t="inlineStr"/>
+      <c r="N1234" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr"/>
+      <c r="C1235" t="inlineStr"/>
+      <c r="D1235" t="inlineStr"/>
+      <c r="E1235" t="inlineStr"/>
+      <c r="F1235" t="inlineStr"/>
+      <c r="G1235" t="inlineStr"/>
+      <c r="H1235" t="inlineStr"/>
+      <c r="I1235" t="inlineStr"/>
+      <c r="J1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr"/>
+      <c r="L1235" t="inlineStr"/>
+      <c r="M1235" t="inlineStr"/>
+      <c r="N1235" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr"/>
+      <c r="C1236" t="inlineStr"/>
+      <c r="D1236" t="inlineStr"/>
+      <c r="E1236" t="inlineStr"/>
+      <c r="F1236" t="inlineStr"/>
+      <c r="G1236" t="inlineStr"/>
+      <c r="H1236" t="inlineStr"/>
+      <c r="I1236" t="inlineStr"/>
+      <c r="J1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr"/>
+      <c r="L1236" t="inlineStr"/>
+      <c r="M1236" t="inlineStr"/>
+      <c r="N1236" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr"/>
+      <c r="C1237" t="inlineStr"/>
+      <c r="D1237" t="inlineStr"/>
+      <c r="E1237" t="inlineStr"/>
+      <c r="F1237" t="inlineStr"/>
+      <c r="G1237" t="inlineStr"/>
+      <c r="H1237" t="inlineStr"/>
+      <c r="I1237" t="inlineStr"/>
+      <c r="J1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr"/>
+      <c r="L1237" t="inlineStr"/>
+      <c r="M1237" t="inlineStr"/>
+      <c r="N1237" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr"/>
+      <c r="C1238" t="inlineStr"/>
+      <c r="D1238" t="inlineStr"/>
+      <c r="E1238" t="inlineStr"/>
+      <c r="F1238" t="inlineStr"/>
+      <c r="G1238" t="inlineStr"/>
+      <c r="H1238" t="inlineStr"/>
+      <c r="I1238" t="inlineStr"/>
+      <c r="J1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr"/>
+      <c r="L1238" t="inlineStr"/>
+      <c r="M1238" t="inlineStr"/>
+      <c r="N1238" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr"/>
+      <c r="C1239" t="inlineStr"/>
+      <c r="D1239" t="inlineStr"/>
+      <c r="E1239" t="inlineStr"/>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="inlineStr"/>
+      <c r="H1239" t="inlineStr"/>
+      <c r="I1239" t="inlineStr"/>
+      <c r="J1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr"/>
+      <c r="L1239" t="inlineStr"/>
+      <c r="M1239" t="inlineStr"/>
+      <c r="N1239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
+      <c r="C1240" t="inlineStr"/>
+      <c r="D1240" t="inlineStr"/>
+      <c r="E1240" t="inlineStr"/>
+      <c r="F1240" t="inlineStr"/>
+      <c r="G1240" t="inlineStr"/>
+      <c r="H1240" t="inlineStr"/>
+      <c r="I1240" t="inlineStr"/>
+      <c r="J1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr"/>
+      <c r="L1240" t="inlineStr"/>
+      <c r="M1240" t="inlineStr"/>
+      <c r="N1240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr"/>
+      <c r="C1241" t="inlineStr"/>
+      <c r="D1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr"/>
+      <c r="F1241" t="inlineStr"/>
+      <c r="G1241" t="inlineStr"/>
+      <c r="H1241" t="inlineStr"/>
+      <c r="I1241" t="inlineStr"/>
+      <c r="J1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr"/>
+      <c r="L1241" t="inlineStr"/>
+      <c r="M1241" t="inlineStr"/>
+      <c r="N1241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr"/>
+      <c r="C1242" t="inlineStr"/>
+      <c r="D1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr"/>
+      <c r="F1242" t="inlineStr"/>
+      <c r="G1242" t="inlineStr"/>
+      <c r="H1242" t="inlineStr"/>
+      <c r="I1242" t="inlineStr"/>
+      <c r="J1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr"/>
+      <c r="L1242" t="inlineStr"/>
+      <c r="M1242" t="inlineStr"/>
+      <c r="N1242" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr"/>
+      <c r="C1243" t="inlineStr"/>
+      <c r="D1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr"/>
+      <c r="F1243" t="inlineStr"/>
+      <c r="G1243" t="inlineStr"/>
+      <c r="H1243" t="inlineStr"/>
+      <c r="I1243" t="inlineStr"/>
+      <c r="J1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr"/>
+      <c r="L1243" t="inlineStr"/>
+      <c r="M1243" t="inlineStr"/>
+      <c r="N1243" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr"/>
+      <c r="C1244" t="inlineStr"/>
+      <c r="D1244" t="inlineStr"/>
+      <c r="E1244" t="inlineStr"/>
+      <c r="F1244" t="inlineStr"/>
+      <c r="G1244" t="inlineStr"/>
+      <c r="H1244" t="inlineStr"/>
+      <c r="I1244" t="inlineStr"/>
+      <c r="J1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr"/>
+      <c r="L1244" t="inlineStr"/>
+      <c r="M1244" t="inlineStr"/>
+      <c r="N1244" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr"/>
+      <c r="C1245" t="inlineStr"/>
+      <c r="D1245" t="inlineStr"/>
+      <c r="E1245" t="inlineStr"/>
+      <c r="F1245" t="inlineStr"/>
+      <c r="G1245" t="inlineStr"/>
+      <c r="H1245" t="inlineStr"/>
+      <c r="I1245" t="inlineStr"/>
+      <c r="J1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr"/>
+      <c r="L1245" t="inlineStr"/>
+      <c r="M1245" t="inlineStr"/>
+      <c r="N1245" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr"/>
+      <c r="C1246" t="inlineStr"/>
+      <c r="D1246" t="inlineStr"/>
+      <c r="E1246" t="inlineStr"/>
+      <c r="F1246" t="inlineStr"/>
+      <c r="G1246" t="inlineStr"/>
+      <c r="H1246" t="inlineStr"/>
+      <c r="I1246" t="inlineStr"/>
+      <c r="J1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr"/>
+      <c r="L1246" t="inlineStr"/>
+      <c r="M1246" t="inlineStr"/>
+      <c r="N1246" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr"/>
+      <c r="C1247" t="inlineStr"/>
+      <c r="D1247" t="inlineStr"/>
+      <c r="E1247" t="inlineStr"/>
+      <c r="F1247" t="inlineStr"/>
+      <c r="G1247" t="inlineStr"/>
+      <c r="H1247" t="inlineStr"/>
+      <c r="I1247" t="inlineStr"/>
+      <c r="J1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr"/>
+      <c r="L1247" t="inlineStr"/>
+      <c r="M1247" t="inlineStr"/>
+      <c r="N1247" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr"/>
+      <c r="C1248" t="inlineStr"/>
+      <c r="D1248" t="inlineStr"/>
+      <c r="E1248" t="inlineStr"/>
+      <c r="F1248" t="inlineStr"/>
+      <c r="G1248" t="inlineStr"/>
+      <c r="H1248" t="inlineStr"/>
+      <c r="I1248" t="inlineStr"/>
+      <c r="J1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr"/>
+      <c r="L1248" t="inlineStr"/>
+      <c r="M1248" t="inlineStr"/>
+      <c r="N1248" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr"/>
+      <c r="C1249" t="inlineStr"/>
+      <c r="D1249" t="inlineStr"/>
+      <c r="E1249" t="inlineStr"/>
+      <c r="F1249" t="inlineStr"/>
+      <c r="G1249" t="inlineStr"/>
+      <c r="H1249" t="inlineStr"/>
+      <c r="I1249" t="inlineStr"/>
+      <c r="J1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr"/>
+      <c r="L1249" t="inlineStr"/>
+      <c r="M1249" t="inlineStr"/>
+      <c r="N1249" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr"/>
+      <c r="C1250" t="inlineStr"/>
+      <c r="D1250" t="inlineStr"/>
+      <c r="E1250" t="inlineStr"/>
+      <c r="F1250" t="inlineStr"/>
+      <c r="G1250" t="inlineStr"/>
+      <c r="H1250" t="inlineStr"/>
+      <c r="I1250" t="inlineStr"/>
+      <c r="J1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr"/>
+      <c r="L1250" t="inlineStr"/>
+      <c r="M1250" t="inlineStr"/>
+      <c r="N1250" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr"/>
+      <c r="C1251" t="inlineStr"/>
+      <c r="D1251" t="inlineStr"/>
+      <c r="E1251" t="inlineStr"/>
+      <c r="F1251" t="inlineStr"/>
+      <c r="G1251" t="inlineStr"/>
+      <c r="H1251" t="inlineStr"/>
+      <c r="I1251" t="inlineStr"/>
+      <c r="J1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr"/>
+      <c r="L1251" t="inlineStr"/>
+      <c r="M1251" t="inlineStr"/>
+      <c r="N1251" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr"/>
+      <c r="C1252" t="inlineStr"/>
+      <c r="D1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr"/>
+      <c r="F1252" t="inlineStr"/>
+      <c r="G1252" t="inlineStr"/>
+      <c r="H1252" t="inlineStr"/>
+      <c r="I1252" t="inlineStr"/>
+      <c r="J1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr"/>
+      <c r="L1252" t="inlineStr"/>
+      <c r="M1252" t="inlineStr"/>
+      <c r="N1252" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr"/>
+      <c r="C1253" t="inlineStr"/>
+      <c r="D1253" t="inlineStr"/>
+      <c r="E1253" t="inlineStr"/>
+      <c r="F1253" t="inlineStr"/>
+      <c r="G1253" t="inlineStr"/>
+      <c r="H1253" t="inlineStr"/>
+      <c r="I1253" t="inlineStr"/>
+      <c r="J1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr"/>
+      <c r="L1253" t="inlineStr"/>
+      <c r="M1253" t="inlineStr"/>
+      <c r="N1253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr"/>
+      <c r="C1254" t="inlineStr"/>
+      <c r="D1254" t="inlineStr"/>
+      <c r="E1254" t="inlineStr"/>
+      <c r="F1254" t="inlineStr"/>
+      <c r="G1254" t="inlineStr"/>
+      <c r="H1254" t="inlineStr"/>
+      <c r="I1254" t="inlineStr"/>
+      <c r="J1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr"/>
+      <c r="L1254" t="inlineStr"/>
+      <c r="M1254" t="inlineStr"/>
+      <c r="N1254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr"/>
+      <c r="C1255" t="inlineStr"/>
+      <c r="D1255" t="inlineStr"/>
+      <c r="E1255" t="inlineStr"/>
+      <c r="F1255" t="inlineStr"/>
+      <c r="G1255" t="inlineStr"/>
+      <c r="H1255" t="inlineStr"/>
+      <c r="I1255" t="inlineStr"/>
+      <c r="J1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr"/>
+      <c r="L1255" t="inlineStr"/>
+      <c r="M1255" t="inlineStr"/>
+      <c r="N1255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1256" t="inlineStr"/>
+      <c r="C1256" t="inlineStr"/>
+      <c r="D1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr"/>
+      <c r="F1256" t="inlineStr"/>
+      <c r="G1256" t="inlineStr"/>
+      <c r="H1256" t="inlineStr"/>
+      <c r="I1256" t="inlineStr"/>
+      <c r="J1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr"/>
+      <c r="L1256" t="inlineStr"/>
+      <c r="M1256" t="inlineStr"/>
+      <c r="N1256" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1257" t="inlineStr"/>
+      <c r="C1257" t="inlineStr"/>
+      <c r="D1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr"/>
+      <c r="F1257" t="inlineStr"/>
+      <c r="G1257" t="inlineStr"/>
+      <c r="H1257" t="inlineStr"/>
+      <c r="I1257" t="inlineStr"/>
+      <c r="J1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr"/>
+      <c r="L1257" t="inlineStr"/>
+      <c r="M1257" t="inlineStr"/>
+      <c r="N1257" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1258" t="inlineStr"/>
+      <c r="C1258" t="inlineStr"/>
+      <c r="D1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr"/>
+      <c r="F1258" t="inlineStr"/>
+      <c r="G1258" t="inlineStr"/>
+      <c r="H1258" t="inlineStr"/>
+      <c r="I1258" t="inlineStr"/>
+      <c r="J1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr"/>
+      <c r="L1258" t="inlineStr"/>
+      <c r="M1258" t="inlineStr"/>
+      <c r="N1258" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1259" t="inlineStr"/>
+      <c r="C1259" t="inlineStr"/>
+      <c r="D1259" t="inlineStr"/>
+      <c r="E1259" t="inlineStr"/>
+      <c r="F1259" t="inlineStr"/>
+      <c r="G1259" t="inlineStr"/>
+      <c r="H1259" t="inlineStr"/>
+      <c r="I1259" t="inlineStr"/>
+      <c r="J1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr"/>
+      <c r="L1259" t="inlineStr"/>
+      <c r="M1259" t="inlineStr"/>
+      <c r="N1259" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1260" t="inlineStr"/>
+      <c r="C1260" t="inlineStr"/>
+      <c r="D1260" t="inlineStr"/>
+      <c r="E1260" t="inlineStr"/>
+      <c r="F1260" t="inlineStr"/>
+      <c r="G1260" t="inlineStr"/>
+      <c r="H1260" t="inlineStr"/>
+      <c r="I1260" t="inlineStr"/>
+      <c r="J1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr"/>
+      <c r="L1260" t="inlineStr"/>
+      <c r="M1260" t="inlineStr"/>
+      <c r="N1260" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1261" t="inlineStr"/>
+      <c r="C1261" t="inlineStr"/>
+      <c r="D1261" t="inlineStr"/>
+      <c r="E1261" t="inlineStr"/>
+      <c r="F1261" t="inlineStr"/>
+      <c r="G1261" t="inlineStr"/>
+      <c r="H1261" t="inlineStr"/>
+      <c r="I1261" t="inlineStr"/>
+      <c r="J1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr"/>
+      <c r="L1261" t="inlineStr"/>
+      <c r="M1261" t="inlineStr"/>
+      <c r="N1261" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1262" t="inlineStr"/>
+      <c r="C1262" t="inlineStr"/>
+      <c r="D1262" t="inlineStr"/>
+      <c r="E1262" t="inlineStr"/>
+      <c r="F1262" t="inlineStr"/>
+      <c r="G1262" t="inlineStr"/>
+      <c r="H1262" t="inlineStr"/>
+      <c r="I1262" t="inlineStr"/>
+      <c r="J1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr"/>
+      <c r="L1262" t="inlineStr"/>
+      <c r="M1262" t="inlineStr"/>
+      <c r="N1262" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr"/>
+      <c r="C1263" t="inlineStr"/>
+      <c r="D1263" t="inlineStr"/>
+      <c r="E1263" t="inlineStr"/>
+      <c r="F1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr"/>
+      <c r="H1263" t="inlineStr"/>
+      <c r="I1263" t="inlineStr"/>
+      <c r="J1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr"/>
+      <c r="L1263" t="inlineStr"/>
+      <c r="M1263" t="inlineStr"/>
+      <c r="N1263" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1264" t="inlineStr"/>
+      <c r="C1264" t="inlineStr"/>
+      <c r="D1264" t="inlineStr"/>
+      <c r="E1264" t="inlineStr"/>
+      <c r="F1264" t="inlineStr"/>
+      <c r="G1264" t="inlineStr"/>
+      <c r="H1264" t="inlineStr"/>
+      <c r="I1264" t="inlineStr"/>
+      <c r="J1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr"/>
+      <c r="L1264" t="inlineStr"/>
+      <c r="M1264" t="inlineStr"/>
+      <c r="N1264" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1265" t="inlineStr"/>
+      <c r="C1265" t="inlineStr"/>
+      <c r="D1265" t="inlineStr"/>
+      <c r="E1265" t="inlineStr"/>
+      <c r="F1265" t="inlineStr"/>
+      <c r="G1265" t="inlineStr"/>
+      <c r="H1265" t="inlineStr"/>
+      <c r="I1265" t="inlineStr"/>
+      <c r="J1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr"/>
+      <c r="L1265" t="inlineStr"/>
+      <c r="M1265" t="inlineStr"/>
+      <c r="N1265" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1266" t="inlineStr"/>
+      <c r="C1266" t="inlineStr"/>
+      <c r="D1266" t="inlineStr"/>
+      <c r="E1266" t="inlineStr"/>
+      <c r="F1266" t="inlineStr"/>
+      <c r="G1266" t="inlineStr"/>
+      <c r="H1266" t="inlineStr"/>
+      <c r="I1266" t="inlineStr"/>
+      <c r="J1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr"/>
+      <c r="L1266" t="inlineStr"/>
+      <c r="M1266" t="inlineStr"/>
+      <c r="N1266" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr"/>
+      <c r="C1267" t="inlineStr"/>
+      <c r="D1267" t="inlineStr"/>
+      <c r="E1267" t="inlineStr"/>
+      <c r="F1267" t="inlineStr"/>
+      <c r="G1267" t="inlineStr"/>
+      <c r="H1267" t="inlineStr"/>
+      <c r="I1267" t="inlineStr"/>
+      <c r="J1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr"/>
+      <c r="L1267" t="inlineStr"/>
+      <c r="M1267" t="inlineStr"/>
+      <c r="N1267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr"/>
+      <c r="C1268" t="inlineStr"/>
+      <c r="D1268" t="inlineStr"/>
+      <c r="E1268" t="inlineStr"/>
+      <c r="F1268" t="inlineStr"/>
+      <c r="G1268" t="inlineStr"/>
+      <c r="H1268" t="inlineStr"/>
+      <c r="I1268" t="inlineStr"/>
+      <c r="J1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr"/>
+      <c r="L1268" t="inlineStr"/>
+      <c r="M1268" t="inlineStr"/>
+      <c r="N1268" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1269" t="inlineStr"/>
+      <c r="C1269" t="inlineStr"/>
+      <c r="D1269" t="inlineStr"/>
+      <c r="E1269" t="inlineStr"/>
+      <c r="F1269" t="inlineStr"/>
+      <c r="G1269" t="inlineStr"/>
+      <c r="H1269" t="inlineStr"/>
+      <c r="I1269" t="inlineStr"/>
+      <c r="J1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr"/>
+      <c r="L1269" t="inlineStr"/>
+      <c r="M1269" t="inlineStr"/>
+      <c r="N1269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1270" t="inlineStr"/>
+      <c r="C1270" t="inlineStr"/>
+      <c r="D1270" t="inlineStr"/>
+      <c r="E1270" t="inlineStr"/>
+      <c r="F1270" t="inlineStr"/>
+      <c r="G1270" t="inlineStr"/>
+      <c r="H1270" t="inlineStr"/>
+      <c r="I1270" t="inlineStr"/>
+      <c r="J1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr"/>
+      <c r="L1270" t="inlineStr"/>
+      <c r="M1270" t="inlineStr"/>
+      <c r="N1270" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1271" t="inlineStr"/>
+      <c r="C1271" t="inlineStr"/>
+      <c r="D1271" t="inlineStr"/>
+      <c r="E1271" t="inlineStr"/>
+      <c r="F1271" t="inlineStr"/>
+      <c r="G1271" t="inlineStr"/>
+      <c r="H1271" t="inlineStr"/>
+      <c r="I1271" t="inlineStr"/>
+      <c r="J1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr"/>
+      <c r="L1271" t="inlineStr"/>
+      <c r="M1271" t="inlineStr"/>
+      <c r="N1271" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1272" t="inlineStr"/>
+      <c r="C1272" t="inlineStr"/>
+      <c r="D1272" t="inlineStr"/>
+      <c r="E1272" t="inlineStr"/>
+      <c r="F1272" t="inlineStr"/>
+      <c r="G1272" t="inlineStr"/>
+      <c r="H1272" t="inlineStr"/>
+      <c r="I1272" t="inlineStr"/>
+      <c r="J1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr"/>
+      <c r="L1272" t="inlineStr"/>
+      <c r="M1272" t="inlineStr"/>
+      <c r="N1272" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1273" t="inlineStr"/>
+      <c r="C1273" t="inlineStr"/>
+      <c r="D1273" t="inlineStr"/>
+      <c r="E1273" t="inlineStr"/>
+      <c r="F1273" t="inlineStr"/>
+      <c r="G1273" t="inlineStr"/>
+      <c r="H1273" t="inlineStr"/>
+      <c r="I1273" t="inlineStr"/>
+      <c r="J1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr"/>
+      <c r="L1273" t="inlineStr"/>
+      <c r="M1273" t="inlineStr"/>
+      <c r="N1273" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1274" t="inlineStr"/>
+      <c r="C1274" t="inlineStr"/>
+      <c r="D1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr"/>
+      <c r="F1274" t="inlineStr"/>
+      <c r="G1274" t="inlineStr"/>
+      <c r="H1274" t="inlineStr"/>
+      <c r="I1274" t="inlineStr"/>
+      <c r="J1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr"/>
+      <c r="L1274" t="inlineStr"/>
+      <c r="M1274" t="inlineStr"/>
+      <c r="N1274" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1275" t="inlineStr"/>
+      <c r="C1275" t="inlineStr"/>
+      <c r="D1275" t="inlineStr"/>
+      <c r="E1275" t="inlineStr"/>
+      <c r="F1275" t="inlineStr"/>
+      <c r="G1275" t="inlineStr"/>
+      <c r="H1275" t="inlineStr"/>
+      <c r="I1275" t="inlineStr"/>
+      <c r="J1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr"/>
+      <c r="L1275" t="inlineStr"/>
+      <c r="M1275" t="inlineStr"/>
+      <c r="N1275" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1276" t="inlineStr"/>
+      <c r="C1276" t="inlineStr"/>
+      <c r="D1276" t="inlineStr"/>
+      <c r="E1276" t="inlineStr"/>
+      <c r="F1276" t="inlineStr"/>
+      <c r="G1276" t="inlineStr"/>
+      <c r="H1276" t="inlineStr"/>
+      <c r="I1276" t="inlineStr"/>
+      <c r="J1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr"/>
+      <c r="L1276" t="inlineStr"/>
+      <c r="M1276" t="inlineStr"/>
+      <c r="N1276" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1277" t="inlineStr"/>
+      <c r="C1277" t="inlineStr"/>
+      <c r="D1277" t="inlineStr"/>
+      <c r="E1277" t="inlineStr"/>
+      <c r="F1277" t="inlineStr"/>
+      <c r="G1277" t="inlineStr"/>
+      <c r="H1277" t="inlineStr"/>
+      <c r="I1277" t="inlineStr"/>
+      <c r="J1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr"/>
+      <c r="L1277" t="inlineStr"/>
+      <c r="M1277" t="inlineStr"/>
+      <c r="N1277" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1278" t="inlineStr"/>
+      <c r="C1278" t="inlineStr"/>
+      <c r="D1278" t="inlineStr"/>
+      <c r="E1278" t="inlineStr"/>
+      <c r="F1278" t="inlineStr"/>
+      <c r="G1278" t="inlineStr"/>
+      <c r="H1278" t="inlineStr"/>
+      <c r="I1278" t="inlineStr"/>
+      <c r="J1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr"/>
+      <c r="L1278" t="inlineStr"/>
+      <c r="M1278" t="inlineStr"/>
+      <c r="N1278" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1279" t="inlineStr"/>
+      <c r="C1279" t="inlineStr"/>
+      <c r="D1279" t="inlineStr"/>
+      <c r="E1279" t="inlineStr"/>
+      <c r="F1279" t="inlineStr"/>
+      <c r="G1279" t="inlineStr"/>
+      <c r="H1279" t="inlineStr"/>
+      <c r="I1279" t="inlineStr"/>
+      <c r="J1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr"/>
+      <c r="L1279" t="inlineStr"/>
+      <c r="M1279" t="inlineStr"/>
+      <c r="N1279" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1280" t="inlineStr"/>
+      <c r="C1280" t="inlineStr"/>
+      <c r="D1280" t="inlineStr"/>
+      <c r="E1280" t="inlineStr"/>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="inlineStr"/>
+      <c r="H1280" t="inlineStr"/>
+      <c r="I1280" t="inlineStr"/>
+      <c r="J1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr"/>
+      <c r="L1280" t="inlineStr"/>
+      <c r="M1280" t="inlineStr"/>
+      <c r="N1280" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1281" t="inlineStr"/>
+      <c r="C1281" t="inlineStr"/>
+      <c r="D1281" t="inlineStr"/>
+      <c r="E1281" t="inlineStr"/>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="inlineStr"/>
+      <c r="H1281" t="inlineStr"/>
+      <c r="I1281" t="inlineStr"/>
+      <c r="J1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr"/>
+      <c r="L1281" t="inlineStr"/>
+      <c r="M1281" t="inlineStr"/>
+      <c r="N1281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1282" t="inlineStr"/>
+      <c r="C1282" t="inlineStr"/>
+      <c r="D1282" t="inlineStr"/>
+      <c r="E1282" t="inlineStr"/>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="inlineStr"/>
+      <c r="H1282" t="inlineStr"/>
+      <c r="I1282" t="inlineStr"/>
+      <c r="J1282" t="inlineStr"/>
+      <c r="K1282" t="inlineStr"/>
+      <c r="L1282" t="inlineStr"/>
+      <c r="M1282" t="inlineStr"/>
+      <c r="N1282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1283" t="inlineStr"/>
+      <c r="C1283" t="inlineStr"/>
+      <c r="D1283" t="inlineStr"/>
+      <c r="E1283" t="inlineStr"/>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="inlineStr"/>
+      <c r="H1283" t="inlineStr"/>
+      <c r="I1283" t="inlineStr"/>
+      <c r="J1283" t="inlineStr"/>
+      <c r="K1283" t="inlineStr"/>
+      <c r="L1283" t="inlineStr"/>
+      <c r="M1283" t="inlineStr"/>
+      <c r="N1283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1284" t="inlineStr"/>
+      <c r="C1284" t="inlineStr"/>
+      <c r="D1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr"/>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="inlineStr"/>
+      <c r="H1284" t="inlineStr"/>
+      <c r="I1284" t="inlineStr"/>
+      <c r="J1284" t="inlineStr"/>
+      <c r="K1284" t="inlineStr"/>
+      <c r="L1284" t="inlineStr"/>
+      <c r="M1284" t="inlineStr"/>
+      <c r="N1284" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr"/>
+      <c r="C1285" t="inlineStr"/>
+      <c r="D1285" t="inlineStr"/>
+      <c r="E1285" t="inlineStr"/>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="inlineStr"/>
+      <c r="H1285" t="inlineStr"/>
+      <c r="I1285" t="inlineStr"/>
+      <c r="J1285" t="inlineStr"/>
+      <c r="K1285" t="inlineStr"/>
+      <c r="L1285" t="inlineStr"/>
+      <c r="M1285" t="inlineStr"/>
+      <c r="N1285" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1286" t="inlineStr"/>
+      <c r="C1286" t="inlineStr"/>
+      <c r="D1286" t="inlineStr"/>
+      <c r="E1286" t="inlineStr"/>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="inlineStr"/>
+      <c r="H1286" t="inlineStr"/>
+      <c r="I1286" t="inlineStr"/>
+      <c r="J1286" t="inlineStr"/>
+      <c r="K1286" t="inlineStr"/>
+      <c r="L1286" t="inlineStr"/>
+      <c r="M1286" t="inlineStr"/>
+      <c r="N1286" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1287" t="inlineStr"/>
+      <c r="C1287" t="inlineStr"/>
+      <c r="D1287" t="inlineStr"/>
+      <c r="E1287" t="inlineStr"/>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="inlineStr"/>
+      <c r="H1287" t="inlineStr"/>
+      <c r="I1287" t="inlineStr"/>
+      <c r="J1287" t="inlineStr"/>
+      <c r="K1287" t="inlineStr"/>
+      <c r="L1287" t="inlineStr"/>
+      <c r="M1287" t="inlineStr"/>
+      <c r="N1287" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1288" t="inlineStr"/>
+      <c r="C1288" t="inlineStr"/>
+      <c r="D1288" t="inlineStr"/>
+      <c r="E1288" t="inlineStr"/>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="inlineStr"/>
+      <c r="H1288" t="inlineStr"/>
+      <c r="I1288" t="inlineStr"/>
+      <c r="J1288" t="inlineStr"/>
+      <c r="K1288" t="inlineStr"/>
+      <c r="L1288" t="inlineStr"/>
+      <c r="M1288" t="inlineStr"/>
+      <c r="N1288" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1289" t="inlineStr"/>
+      <c r="C1289" t="inlineStr"/>
+      <c r="D1289" t="inlineStr"/>
+      <c r="E1289" t="inlineStr"/>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="inlineStr"/>
+      <c r="H1289" t="inlineStr"/>
+      <c r="I1289" t="inlineStr"/>
+      <c r="J1289" t="inlineStr"/>
+      <c r="K1289" t="inlineStr"/>
+      <c r="L1289" t="inlineStr"/>
+      <c r="M1289" t="inlineStr"/>
+      <c r="N1289" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr"/>
+      <c r="C1290" t="inlineStr"/>
+      <c r="D1290" t="inlineStr"/>
+      <c r="E1290" t="inlineStr"/>
+      <c r="F1290" t="inlineStr"/>
+      <c r="G1290" t="inlineStr"/>
+      <c r="H1290" t="inlineStr"/>
+      <c r="I1290" t="inlineStr"/>
+      <c r="J1290" t="inlineStr"/>
+      <c r="K1290" t="inlineStr"/>
+      <c r="L1290" t="inlineStr"/>
+      <c r="M1290" t="inlineStr"/>
+      <c r="N1290" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr"/>
+      <c r="C1291" t="inlineStr"/>
+      <c r="D1291" t="inlineStr"/>
+      <c r="E1291" t="inlineStr"/>
+      <c r="F1291" t="inlineStr"/>
+      <c r="G1291" t="inlineStr"/>
+      <c r="H1291" t="inlineStr"/>
+      <c r="I1291" t="inlineStr"/>
+      <c r="J1291" t="inlineStr"/>
+      <c r="K1291" t="inlineStr"/>
+      <c r="L1291" t="inlineStr"/>
+      <c r="M1291" t="inlineStr"/>
+      <c r="N1291" t="inlineStr">
+        <is>
+          <t>PTC_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr"/>
+      <c r="C1292" t="inlineStr"/>
+      <c r="D1292" t="inlineStr"/>
+      <c r="E1292" t="inlineStr"/>
+      <c r="F1292" t="inlineStr"/>
+      <c r="G1292" t="inlineStr"/>
+      <c r="H1292" t="inlineStr"/>
+      <c r="I1292" t="inlineStr"/>
+      <c r="J1292" t="inlineStr"/>
+      <c r="K1292" t="inlineStr"/>
+      <c r="L1292" t="inlineStr"/>
+      <c r="M1292" t="inlineStr"/>
+      <c r="N1292" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr"/>
+      <c r="C1293" t="inlineStr"/>
+      <c r="D1293" t="inlineStr"/>
+      <c r="E1293" t="inlineStr"/>
+      <c r="F1293" t="inlineStr"/>
+      <c r="G1293" t="inlineStr"/>
+      <c r="H1293" t="inlineStr"/>
+      <c r="I1293" t="inlineStr"/>
+      <c r="J1293" t="inlineStr"/>
+      <c r="K1293" t="inlineStr"/>
+      <c r="L1293" t="inlineStr"/>
+      <c r="M1293" t="inlineStr"/>
+      <c r="N1293" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr"/>
+      <c r="C1294" t="inlineStr"/>
+      <c r="D1294" t="inlineStr"/>
+      <c r="E1294" t="inlineStr"/>
+      <c r="F1294" t="inlineStr"/>
+      <c r="G1294" t="inlineStr"/>
+      <c r="H1294" t="inlineStr"/>
+      <c r="I1294" t="inlineStr"/>
+      <c r="J1294" t="inlineStr"/>
+      <c r="K1294" t="inlineStr"/>
+      <c r="L1294" t="inlineStr"/>
+      <c r="M1294" t="inlineStr"/>
+      <c r="N1294" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr"/>
+      <c r="C1295" t="inlineStr"/>
+      <c r="D1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr"/>
+      <c r="F1295" t="inlineStr"/>
+      <c r="G1295" t="inlineStr"/>
+      <c r="H1295" t="inlineStr"/>
+      <c r="I1295" t="inlineStr"/>
+      <c r="J1295" t="inlineStr"/>
+      <c r="K1295" t="inlineStr"/>
+      <c r="L1295" t="inlineStr"/>
+      <c r="M1295" t="inlineStr"/>
+      <c r="N1295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr"/>
+      <c r="C1296" t="inlineStr"/>
+      <c r="D1296" t="inlineStr"/>
+      <c r="E1296" t="inlineStr"/>
+      <c r="F1296" t="inlineStr"/>
+      <c r="G1296" t="inlineStr"/>
+      <c r="H1296" t="inlineStr"/>
+      <c r="I1296" t="inlineStr"/>
+      <c r="J1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr"/>
+      <c r="L1296" t="inlineStr"/>
+      <c r="M1296" t="inlineStr"/>
+      <c r="N1296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1297" t="inlineStr"/>
+      <c r="C1297" t="inlineStr"/>
+      <c r="D1297" t="inlineStr"/>
+      <c r="E1297" t="inlineStr"/>
+      <c r="F1297" t="inlineStr"/>
+      <c r="G1297" t="inlineStr"/>
+      <c r="H1297" t="inlineStr"/>
+      <c r="I1297" t="inlineStr"/>
+      <c r="J1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr"/>
+      <c r="L1297" t="inlineStr"/>
+      <c r="M1297" t="inlineStr"/>
+      <c r="N1297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1298" t="inlineStr"/>
+      <c r="C1298" t="inlineStr"/>
+      <c r="D1298" t="inlineStr"/>
+      <c r="E1298" t="inlineStr"/>
+      <c r="F1298" t="inlineStr"/>
+      <c r="G1298" t="inlineStr"/>
+      <c r="H1298" t="inlineStr"/>
+      <c r="I1298" t="inlineStr"/>
+      <c r="J1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr"/>
+      <c r="L1298" t="inlineStr"/>
+      <c r="M1298" t="inlineStr"/>
+      <c r="N1298" t="n">
+        <v>14.55840455840456</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1299" t="inlineStr"/>
+      <c r="C1299" t="inlineStr"/>
+      <c r="D1299" t="inlineStr"/>
+      <c r="E1299" t="inlineStr"/>
+      <c r="F1299" t="inlineStr"/>
+      <c r="G1299" t="inlineStr"/>
+      <c r="H1299" t="inlineStr"/>
+      <c r="I1299" t="inlineStr"/>
+      <c r="J1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr"/>
+      <c r="L1299" t="inlineStr"/>
+      <c r="M1299" t="inlineStr"/>
+      <c r="N1299" t="n">
+        <v>15.002849002849</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1300" t="inlineStr"/>
+      <c r="C1300" t="inlineStr"/>
+      <c r="D1300" t="inlineStr"/>
+      <c r="E1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr"/>
+      <c r="G1300" t="inlineStr"/>
+      <c r="H1300" t="inlineStr"/>
+      <c r="I1300" t="inlineStr"/>
+      <c r="J1300" t="inlineStr"/>
+      <c r="K1300" t="inlineStr"/>
+      <c r="L1300" t="inlineStr"/>
+      <c r="M1300" t="inlineStr"/>
+      <c r="N1300" t="inlineStr">
+        <is>
+          <t>{1: 0.34472934472934474, -1: 0.6552706552706553}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr"/>
+      <c r="C1301" t="inlineStr"/>
+      <c r="D1301" t="inlineStr"/>
+      <c r="E1301" t="inlineStr"/>
+      <c r="F1301" t="inlineStr"/>
+      <c r="G1301" t="inlineStr"/>
+      <c r="H1301" t="inlineStr"/>
+      <c r="I1301" t="inlineStr"/>
+      <c r="J1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr"/>
+      <c r="L1301" t="inlineStr"/>
+      <c r="M1301" t="inlineStr"/>
+      <c r="N1301" t="inlineStr">
+        <is>
+          <t>['0', '1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '2', '3', '4', '5', '6', '7', '8', '9']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr"/>
+      <c r="C1302" t="inlineStr"/>
+      <c r="D1302" t="inlineStr"/>
+      <c r="E1302" t="inlineStr"/>
+      <c r="F1302" t="inlineStr"/>
+      <c r="G1302" t="inlineStr"/>
+      <c r="H1302" t="inlineStr"/>
+      <c r="I1302" t="inlineStr"/>
+      <c r="J1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr"/>
+      <c r="L1302" t="inlineStr"/>
+      <c r="M1302" t="inlineStr"/>
+      <c r="N1302" t="inlineStr">
+        <is>
+          <t>['0', '1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr"/>
+      <c r="C1303" t="inlineStr"/>
+      <c r="D1303" t="inlineStr"/>
+      <c r="E1303" t="inlineStr"/>
+      <c r="F1303" t="inlineStr"/>
+      <c r="G1303" t="inlineStr"/>
+      <c r="H1303" t="inlineStr"/>
+      <c r="I1303" t="inlineStr"/>
+      <c r="J1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr"/>
+      <c r="L1303" t="inlineStr"/>
+      <c r="M1303" t="inlineStr"/>
+      <c r="N1303" t="inlineStr">
+        <is>
+          <t>[   1   23    1    1    2    1    3    1    1    1    1  721  408   29
+ 3493  269  100   44   10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr"/>
+      <c r="C1304" t="inlineStr"/>
+      <c r="D1304" t="inlineStr"/>
+      <c r="E1304" t="inlineStr"/>
+      <c r="F1304" t="inlineStr"/>
+      <c r="G1304" t="inlineStr"/>
+      <c r="H1304" t="inlineStr"/>
+      <c r="I1304" t="inlineStr"/>
+      <c r="J1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr"/>
+      <c r="L1304" t="inlineStr"/>
+      <c r="M1304" t="inlineStr"/>
+      <c r="N1304" t="inlineStr">
+        <is>
+          <t>[   7  436 2772 2051]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr"/>
+      <c r="C1305" t="inlineStr"/>
+      <c r="D1305" t="inlineStr"/>
+      <c r="E1305" t="inlineStr"/>
+      <c r="F1305" t="inlineStr"/>
+      <c r="G1305" t="inlineStr"/>
+      <c r="H1305" t="inlineStr"/>
+      <c r="I1305" t="inlineStr"/>
+      <c r="J1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr"/>
+      <c r="L1305" t="inlineStr"/>
+      <c r="M1305" t="inlineStr"/>
+      <c r="N1305" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr"/>
+      <c r="C1306" t="inlineStr"/>
+      <c r="D1306" t="inlineStr"/>
+      <c r="E1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr"/>
+      <c r="G1306" t="inlineStr"/>
+      <c r="H1306" t="inlineStr"/>
+      <c r="I1306" t="inlineStr"/>
+      <c r="J1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr"/>
+      <c r="L1306" t="inlineStr"/>
+      <c r="M1306" t="inlineStr"/>
+      <c r="N1306" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr"/>
+      <c r="C1307" t="inlineStr"/>
+      <c r="D1307" t="inlineStr"/>
+      <c r="E1307" t="inlineStr"/>
+      <c r="F1307" t="inlineStr"/>
+      <c r="G1307" t="inlineStr"/>
+      <c r="H1307" t="inlineStr"/>
+      <c r="I1307" t="inlineStr"/>
+      <c r="J1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr"/>
+      <c r="L1307" t="inlineStr"/>
+      <c r="M1307" t="inlineStr"/>
+      <c r="N1307" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr"/>
+      <c r="C1308" t="inlineStr"/>
+      <c r="D1308" t="inlineStr"/>
+      <c r="E1308" t="inlineStr"/>
+      <c r="F1308" t="inlineStr"/>
+      <c r="G1308" t="inlineStr"/>
+      <c r="H1308" t="inlineStr"/>
+      <c r="I1308" t="inlineStr"/>
+      <c r="J1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr"/>
+      <c r="L1308" t="inlineStr"/>
+      <c r="M1308" t="inlineStr"/>
+      <c r="N1308" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr"/>
+      <c r="C1309" t="inlineStr"/>
+      <c r="D1309" t="inlineStr"/>
+      <c r="E1309" t="inlineStr"/>
+      <c r="F1309" t="inlineStr"/>
+      <c r="G1309" t="inlineStr"/>
+      <c r="H1309" t="inlineStr"/>
+      <c r="I1309" t="inlineStr"/>
+      <c r="J1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr"/>
+      <c r="L1309" t="inlineStr"/>
+      <c r="M1309" t="inlineStr"/>
+      <c r="N1309" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr"/>
+      <c r="C1310" t="inlineStr"/>
+      <c r="D1310" t="inlineStr"/>
+      <c r="E1310" t="inlineStr"/>
+      <c r="F1310" t="inlineStr"/>
+      <c r="G1310" t="inlineStr"/>
+      <c r="H1310" t="inlineStr"/>
+      <c r="I1310" t="inlineStr"/>
+      <c r="J1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr"/>
+      <c r="L1310" t="inlineStr"/>
+      <c r="M1310" t="inlineStr"/>
+      <c r="N1310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr"/>
+      <c r="C1311" t="inlineStr"/>
+      <c r="D1311" t="inlineStr"/>
+      <c r="E1311" t="inlineStr"/>
+      <c r="F1311" t="inlineStr"/>
+      <c r="G1311" t="inlineStr"/>
+      <c r="H1311" t="inlineStr"/>
+      <c r="I1311" t="inlineStr"/>
+      <c r="J1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr"/>
+      <c r="L1311" t="inlineStr"/>
+      <c r="M1311" t="inlineStr"/>
+      <c r="N1311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr"/>
+      <c r="C1312" t="inlineStr"/>
+      <c r="D1312" t="inlineStr"/>
+      <c r="E1312" t="inlineStr"/>
+      <c r="F1312" t="inlineStr"/>
+      <c r="G1312" t="inlineStr"/>
+      <c r="H1312" t="inlineStr"/>
+      <c r="I1312" t="inlineStr"/>
+      <c r="J1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr"/>
+      <c r="L1312" t="inlineStr"/>
+      <c r="M1312" t="inlineStr"/>
+      <c r="N1312" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr"/>
+      <c r="C1313" t="inlineStr"/>
+      <c r="D1313" t="inlineStr"/>
+      <c r="E1313" t="inlineStr"/>
+      <c r="F1313" t="inlineStr"/>
+      <c r="G1313" t="inlineStr"/>
+      <c r="H1313" t="inlineStr"/>
+      <c r="I1313" t="inlineStr"/>
+      <c r="J1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr"/>
+      <c r="L1313" t="inlineStr"/>
+      <c r="M1313" t="inlineStr"/>
+      <c r="N1313" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr"/>
+      <c r="C1314" t="inlineStr"/>
+      <c r="D1314" t="inlineStr"/>
+      <c r="E1314" t="inlineStr"/>
+      <c r="F1314" t="inlineStr"/>
+      <c r="G1314" t="inlineStr"/>
+      <c r="H1314" t="inlineStr"/>
+      <c r="I1314" t="inlineStr"/>
+      <c r="J1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr"/>
+      <c r="L1314" t="inlineStr"/>
+      <c r="M1314" t="inlineStr"/>
+      <c r="N1314" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr"/>
+      <c r="C1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr"/>
+      <c r="E1315" t="inlineStr"/>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="inlineStr"/>
+      <c r="H1315" t="inlineStr"/>
+      <c r="I1315" t="inlineStr"/>
+      <c r="J1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr"/>
+      <c r="L1315" t="inlineStr"/>
+      <c r="M1315" t="inlineStr"/>
+      <c r="N1315" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr"/>
+      <c r="C1316" t="inlineStr"/>
+      <c r="D1316" t="inlineStr"/>
+      <c r="E1316" t="inlineStr"/>
+      <c r="F1316" t="inlineStr"/>
+      <c r="G1316" t="inlineStr"/>
+      <c r="H1316" t="inlineStr"/>
+      <c r="I1316" t="inlineStr"/>
+      <c r="J1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr"/>
+      <c r="L1316" t="inlineStr"/>
+      <c r="M1316" t="inlineStr"/>
+      <c r="N1316" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr"/>
+      <c r="C1317" t="inlineStr"/>
+      <c r="D1317" t="inlineStr"/>
+      <c r="E1317" t="inlineStr"/>
+      <c r="F1317" t="inlineStr"/>
+      <c r="G1317" t="inlineStr"/>
+      <c r="H1317" t="inlineStr"/>
+      <c r="I1317" t="inlineStr"/>
+      <c r="J1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr"/>
+      <c r="L1317" t="inlineStr"/>
+      <c r="M1317" t="inlineStr"/>
+      <c r="N1317" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr"/>
+      <c r="C1318" t="inlineStr"/>
+      <c r="D1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr"/>
+      <c r="F1318" t="inlineStr"/>
+      <c r="G1318" t="inlineStr"/>
+      <c r="H1318" t="inlineStr"/>
+      <c r="I1318" t="inlineStr"/>
+      <c r="J1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr"/>
+      <c r="L1318" t="inlineStr"/>
+      <c r="M1318" t="inlineStr"/>
+      <c r="N1318" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr"/>
+      <c r="C1319" t="inlineStr"/>
+      <c r="D1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr"/>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr"/>
+      <c r="H1319" t="inlineStr"/>
+      <c r="I1319" t="inlineStr"/>
+      <c r="J1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr"/>
+      <c r="L1319" t="inlineStr"/>
+      <c r="M1319" t="inlineStr"/>
+      <c r="N1319" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr"/>
+      <c r="C1320" t="inlineStr"/>
+      <c r="D1320" t="inlineStr"/>
+      <c r="E1320" t="inlineStr"/>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="inlineStr"/>
+      <c r="H1320" t="inlineStr"/>
+      <c r="I1320" t="inlineStr"/>
+      <c r="J1320" t="inlineStr"/>
+      <c r="K1320" t="inlineStr"/>
+      <c r="L1320" t="inlineStr"/>
+      <c r="M1320" t="inlineStr"/>
+      <c r="N1320" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr"/>
+      <c r="C1321" t="inlineStr"/>
+      <c r="D1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr"/>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="inlineStr"/>
+      <c r="H1321" t="inlineStr"/>
+      <c r="I1321" t="inlineStr"/>
+      <c r="J1321" t="inlineStr"/>
+      <c r="K1321" t="inlineStr"/>
+      <c r="L1321" t="inlineStr"/>
+      <c r="M1321" t="inlineStr"/>
+      <c r="N1321" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr"/>
+      <c r="C1322" t="inlineStr"/>
+      <c r="D1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr"/>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="inlineStr"/>
+      <c r="H1322" t="inlineStr"/>
+      <c r="I1322" t="inlineStr"/>
+      <c r="J1322" t="inlineStr"/>
+      <c r="K1322" t="inlineStr"/>
+      <c r="L1322" t="inlineStr"/>
+      <c r="M1322" t="inlineStr"/>
+      <c r="N1322" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr"/>
+      <c r="C1323" t="inlineStr"/>
+      <c r="D1323" t="inlineStr"/>
+      <c r="E1323" t="inlineStr"/>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="inlineStr"/>
+      <c r="H1323" t="inlineStr"/>
+      <c r="I1323" t="inlineStr"/>
+      <c r="J1323" t="inlineStr"/>
+      <c r="K1323" t="inlineStr"/>
+      <c r="L1323" t="inlineStr"/>
+      <c r="M1323" t="inlineStr"/>
+      <c r="N1323" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr"/>
+      <c r="C1324" t="inlineStr"/>
+      <c r="D1324" t="inlineStr"/>
+      <c r="E1324" t="inlineStr"/>
+      <c r="F1324" t="inlineStr"/>
+      <c r="G1324" t="inlineStr"/>
+      <c r="H1324" t="inlineStr"/>
+      <c r="I1324" t="inlineStr"/>
+      <c r="J1324" t="inlineStr"/>
+      <c r="K1324" t="inlineStr"/>
+      <c r="L1324" t="inlineStr"/>
+      <c r="M1324" t="inlineStr"/>
+      <c r="N1324" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr"/>
+      <c r="C1325" t="inlineStr"/>
+      <c r="D1325" t="inlineStr"/>
+      <c r="E1325" t="inlineStr"/>
+      <c r="F1325" t="inlineStr"/>
+      <c r="G1325" t="inlineStr"/>
+      <c r="H1325" t="inlineStr"/>
+      <c r="I1325" t="inlineStr"/>
+      <c r="J1325" t="inlineStr"/>
+      <c r="K1325" t="inlineStr"/>
+      <c r="L1325" t="inlineStr"/>
+      <c r="M1325" t="inlineStr"/>
+      <c r="N1325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr"/>
+      <c r="C1326" t="inlineStr"/>
+      <c r="D1326" t="inlineStr"/>
+      <c r="E1326" t="inlineStr"/>
+      <c r="F1326" t="inlineStr"/>
+      <c r="G1326" t="inlineStr"/>
+      <c r="H1326" t="inlineStr"/>
+      <c r="I1326" t="inlineStr"/>
+      <c r="J1326" t="inlineStr"/>
+      <c r="K1326" t="inlineStr"/>
+      <c r="L1326" t="inlineStr"/>
+      <c r="M1326" t="inlineStr"/>
+      <c r="N1326" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr"/>
+      <c r="C1327" t="inlineStr"/>
+      <c r="D1327" t="inlineStr"/>
+      <c r="E1327" t="inlineStr"/>
+      <c r="F1327" t="inlineStr"/>
+      <c r="G1327" t="inlineStr"/>
+      <c r="H1327" t="inlineStr"/>
+      <c r="I1327" t="inlineStr"/>
+      <c r="J1327" t="inlineStr"/>
+      <c r="K1327" t="inlineStr"/>
+      <c r="L1327" t="inlineStr"/>
+      <c r="M1327" t="inlineStr"/>
+      <c r="N1327" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr"/>
+      <c r="C1328" t="inlineStr"/>
+      <c r="D1328" t="inlineStr"/>
+      <c r="E1328" t="inlineStr"/>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="inlineStr"/>
+      <c r="H1328" t="inlineStr"/>
+      <c r="I1328" t="inlineStr"/>
+      <c r="J1328" t="inlineStr"/>
+      <c r="K1328" t="inlineStr"/>
+      <c r="L1328" t="inlineStr"/>
+      <c r="M1328" t="inlineStr"/>
+      <c r="N1328" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr"/>
+      <c r="C1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr"/>
+      <c r="E1329" t="inlineStr"/>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="inlineStr"/>
+      <c r="H1329" t="inlineStr"/>
+      <c r="I1329" t="inlineStr"/>
+      <c r="J1329" t="inlineStr"/>
+      <c r="K1329" t="inlineStr"/>
+      <c r="L1329" t="inlineStr"/>
+      <c r="M1329" t="inlineStr"/>
+      <c r="N1329" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr"/>
+      <c r="C1330" t="inlineStr"/>
+      <c r="D1330" t="inlineStr"/>
+      <c r="E1330" t="inlineStr"/>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="inlineStr"/>
+      <c r="H1330" t="inlineStr"/>
+      <c r="I1330" t="inlineStr"/>
+      <c r="J1330" t="inlineStr"/>
+      <c r="K1330" t="inlineStr"/>
+      <c r="L1330" t="inlineStr"/>
+      <c r="M1330" t="inlineStr"/>
+      <c r="N1330" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr"/>
+      <c r="C1331" t="inlineStr"/>
+      <c r="D1331" t="inlineStr"/>
+      <c r="E1331" t="inlineStr"/>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="inlineStr"/>
+      <c r="H1331" t="inlineStr"/>
+      <c r="I1331" t="inlineStr"/>
+      <c r="J1331" t="inlineStr"/>
+      <c r="K1331" t="inlineStr"/>
+      <c r="L1331" t="inlineStr"/>
+      <c r="M1331" t="inlineStr"/>
+      <c r="N1331" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr"/>
+      <c r="C1332" t="inlineStr"/>
+      <c r="D1332" t="inlineStr"/>
+      <c r="E1332" t="inlineStr"/>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="inlineStr"/>
+      <c r="H1332" t="inlineStr"/>
+      <c r="I1332" t="inlineStr"/>
+      <c r="J1332" t="inlineStr"/>
+      <c r="K1332" t="inlineStr"/>
+      <c r="L1332" t="inlineStr"/>
+      <c r="M1332" t="inlineStr"/>
+      <c r="N1332" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr"/>
+      <c r="C1333" t="inlineStr"/>
+      <c r="D1333" t="inlineStr"/>
+      <c r="E1333" t="inlineStr"/>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="inlineStr"/>
+      <c r="H1333" t="inlineStr"/>
+      <c r="I1333" t="inlineStr"/>
+      <c r="J1333" t="inlineStr"/>
+      <c r="K1333" t="inlineStr"/>
+      <c r="L1333" t="inlineStr"/>
+      <c r="M1333" t="inlineStr"/>
+      <c r="N1333" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr"/>
+      <c r="C1334" t="inlineStr"/>
+      <c r="D1334" t="inlineStr"/>
+      <c r="E1334" t="inlineStr"/>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="inlineStr"/>
+      <c r="H1334" t="inlineStr"/>
+      <c r="I1334" t="inlineStr"/>
+      <c r="J1334" t="inlineStr"/>
+      <c r="K1334" t="inlineStr"/>
+      <c r="L1334" t="inlineStr"/>
+      <c r="M1334" t="inlineStr"/>
+      <c r="N1334" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr"/>
+      <c r="C1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr"/>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="inlineStr"/>
+      <c r="H1335" t="inlineStr"/>
+      <c r="I1335" t="inlineStr"/>
+      <c r="J1335" t="inlineStr"/>
+      <c r="K1335" t="inlineStr"/>
+      <c r="L1335" t="inlineStr"/>
+      <c r="M1335" t="inlineStr"/>
+      <c r="N1335" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr"/>
+      <c r="C1336" t="inlineStr"/>
+      <c r="D1336" t="inlineStr"/>
+      <c r="E1336" t="inlineStr"/>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="inlineStr"/>
+      <c r="H1336" t="inlineStr"/>
+      <c r="I1336" t="inlineStr"/>
+      <c r="J1336" t="inlineStr"/>
+      <c r="K1336" t="inlineStr"/>
+      <c r="L1336" t="inlineStr"/>
+      <c r="M1336" t="inlineStr"/>
+      <c r="N1336" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr"/>
+      <c r="C1337" t="inlineStr"/>
+      <c r="D1337" t="inlineStr"/>
+      <c r="E1337" t="inlineStr"/>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="inlineStr"/>
+      <c r="H1337" t="inlineStr"/>
+      <c r="I1337" t="inlineStr"/>
+      <c r="J1337" t="inlineStr"/>
+      <c r="K1337" t="inlineStr"/>
+      <c r="L1337" t="inlineStr"/>
+      <c r="M1337" t="inlineStr"/>
+      <c r="N1337" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr"/>
+      <c r="C1338" t="inlineStr"/>
+      <c r="D1338" t="inlineStr"/>
+      <c r="E1338" t="inlineStr"/>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="inlineStr"/>
+      <c r="H1338" t="inlineStr"/>
+      <c r="I1338" t="inlineStr"/>
+      <c r="J1338" t="inlineStr"/>
+      <c r="K1338" t="inlineStr"/>
+      <c r="L1338" t="inlineStr"/>
+      <c r="M1338" t="inlineStr"/>
+      <c r="N1338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr"/>
+      <c r="C1339" t="inlineStr"/>
+      <c r="D1339" t="inlineStr"/>
+      <c r="E1339" t="inlineStr"/>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="inlineStr"/>
+      <c r="H1339" t="inlineStr"/>
+      <c r="I1339" t="inlineStr"/>
+      <c r="J1339" t="inlineStr"/>
+      <c r="K1339" t="inlineStr"/>
+      <c r="L1339" t="inlineStr"/>
+      <c r="M1339" t="inlineStr"/>
+      <c r="N1339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr"/>
+      <c r="C1340" t="inlineStr"/>
+      <c r="D1340" t="inlineStr"/>
+      <c r="E1340" t="inlineStr"/>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="inlineStr"/>
+      <c r="H1340" t="inlineStr"/>
+      <c r="I1340" t="inlineStr"/>
+      <c r="J1340" t="inlineStr"/>
+      <c r="K1340" t="inlineStr"/>
+      <c r="L1340" t="inlineStr"/>
+      <c r="M1340" t="inlineStr"/>
+      <c r="N1340" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr"/>
+      <c r="C1341" t="inlineStr"/>
+      <c r="D1341" t="inlineStr"/>
+      <c r="E1341" t="inlineStr"/>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="inlineStr"/>
+      <c r="H1341" t="inlineStr"/>
+      <c r="I1341" t="inlineStr"/>
+      <c r="J1341" t="inlineStr"/>
+      <c r="K1341" t="inlineStr"/>
+      <c r="L1341" t="inlineStr"/>
+      <c r="M1341" t="inlineStr"/>
+      <c r="N1341" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr"/>
+      <c r="C1342" t="inlineStr"/>
+      <c r="D1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr"/>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="inlineStr"/>
+      <c r="H1342" t="inlineStr"/>
+      <c r="I1342" t="inlineStr"/>
+      <c r="J1342" t="inlineStr"/>
+      <c r="K1342" t="inlineStr"/>
+      <c r="L1342" t="inlineStr"/>
+      <c r="M1342" t="inlineStr"/>
+      <c r="N1342" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr"/>
+      <c r="C1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr"/>
+      <c r="H1343" t="inlineStr"/>
+      <c r="I1343" t="inlineStr"/>
+      <c r="J1343" t="inlineStr"/>
+      <c r="K1343" t="inlineStr"/>
+      <c r="L1343" t="inlineStr"/>
+      <c r="M1343" t="inlineStr"/>
+      <c r="N1343" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr"/>
+      <c r="C1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr"/>
+      <c r="E1344" t="inlineStr"/>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr"/>
+      <c r="H1344" t="inlineStr"/>
+      <c r="I1344" t="inlineStr"/>
+      <c r="J1344" t="inlineStr"/>
+      <c r="K1344" t="inlineStr"/>
+      <c r="L1344" t="inlineStr"/>
+      <c r="M1344" t="inlineStr"/>
+      <c r="N1344" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr"/>
+      <c r="C1345" t="inlineStr"/>
+      <c r="D1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr"/>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="inlineStr"/>
+      <c r="H1345" t="inlineStr"/>
+      <c r="I1345" t="inlineStr"/>
+      <c r="J1345" t="inlineStr"/>
+      <c r="K1345" t="inlineStr"/>
+      <c r="L1345" t="inlineStr"/>
+      <c r="M1345" t="inlineStr"/>
+      <c r="N1345" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr"/>
+      <c r="C1346" t="inlineStr"/>
+      <c r="D1346" t="inlineStr"/>
+      <c r="E1346" t="inlineStr"/>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="inlineStr"/>
+      <c r="H1346" t="inlineStr"/>
+      <c r="I1346" t="inlineStr"/>
+      <c r="J1346" t="inlineStr"/>
+      <c r="K1346" t="inlineStr"/>
+      <c r="L1346" t="inlineStr"/>
+      <c r="M1346" t="inlineStr"/>
+      <c r="N1346" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr"/>
+      <c r="C1347" t="inlineStr"/>
+      <c r="D1347" t="inlineStr"/>
+      <c r="E1347" t="inlineStr"/>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="inlineStr"/>
+      <c r="H1347" t="inlineStr"/>
+      <c r="I1347" t="inlineStr"/>
+      <c r="J1347" t="inlineStr"/>
+      <c r="K1347" t="inlineStr"/>
+      <c r="L1347" t="inlineStr"/>
+      <c r="M1347" t="inlineStr"/>
+      <c r="N1347" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr"/>
+      <c r="C1348" t="inlineStr"/>
+      <c r="D1348" t="inlineStr"/>
+      <c r="E1348" t="inlineStr"/>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="inlineStr"/>
+      <c r="H1348" t="inlineStr"/>
+      <c r="I1348" t="inlineStr"/>
+      <c r="J1348" t="inlineStr"/>
+      <c r="K1348" t="inlineStr"/>
+      <c r="L1348" t="inlineStr"/>
+      <c r="M1348" t="inlineStr"/>
+      <c r="N1348" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr"/>
+      <c r="C1349" t="inlineStr"/>
+      <c r="D1349" t="inlineStr"/>
+      <c r="E1349" t="inlineStr"/>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="inlineStr"/>
+      <c r="H1349" t="inlineStr"/>
+      <c r="I1349" t="inlineStr"/>
+      <c r="J1349" t="inlineStr"/>
+      <c r="K1349" t="inlineStr"/>
+      <c r="L1349" t="inlineStr"/>
+      <c r="M1349" t="inlineStr"/>
+      <c r="N1349" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr"/>
+      <c r="C1350" t="inlineStr"/>
+      <c r="D1350" t="inlineStr"/>
+      <c r="E1350" t="inlineStr"/>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="inlineStr"/>
+      <c r="H1350" t="inlineStr"/>
+      <c r="I1350" t="inlineStr"/>
+      <c r="J1350" t="inlineStr"/>
+      <c r="K1350" t="inlineStr"/>
+      <c r="L1350" t="inlineStr"/>
+      <c r="M1350" t="inlineStr"/>
+      <c r="N1350" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr"/>
+      <c r="C1351" t="inlineStr"/>
+      <c r="D1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr"/>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="inlineStr"/>
+      <c r="H1351" t="inlineStr"/>
+      <c r="I1351" t="inlineStr"/>
+      <c r="J1351" t="inlineStr"/>
+      <c r="K1351" t="inlineStr"/>
+      <c r="L1351" t="inlineStr"/>
+      <c r="M1351" t="inlineStr"/>
+      <c r="N1351" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr"/>
+      <c r="C1352" t="inlineStr"/>
+      <c r="D1352" t="inlineStr"/>
+      <c r="E1352" t="inlineStr"/>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="inlineStr"/>
+      <c r="H1352" t="inlineStr"/>
+      <c r="I1352" t="inlineStr"/>
+      <c r="J1352" t="inlineStr"/>
+      <c r="K1352" t="inlineStr"/>
+      <c r="L1352" t="inlineStr"/>
+      <c r="M1352" t="inlineStr"/>
+      <c r="N1352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr"/>
+      <c r="C1353" t="inlineStr"/>
+      <c r="D1353" t="inlineStr"/>
+      <c r="E1353" t="inlineStr"/>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="inlineStr"/>
+      <c r="H1353" t="inlineStr"/>
+      <c r="I1353" t="inlineStr"/>
+      <c r="J1353" t="inlineStr"/>
+      <c r="K1353" t="inlineStr"/>
+      <c r="L1353" t="inlineStr"/>
+      <c r="M1353" t="inlineStr"/>
+      <c r="N1353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr"/>
+      <c r="C1354" t="inlineStr"/>
+      <c r="D1354" t="inlineStr"/>
+      <c r="E1354" t="inlineStr"/>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="inlineStr"/>
+      <c r="H1354" t="inlineStr"/>
+      <c r="I1354" t="inlineStr"/>
+      <c r="J1354" t="inlineStr"/>
+      <c r="K1354" t="inlineStr"/>
+      <c r="L1354" t="inlineStr"/>
+      <c r="M1354" t="inlineStr"/>
+      <c r="N1354" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr"/>
+      <c r="C1355" t="inlineStr"/>
+      <c r="D1355" t="inlineStr"/>
+      <c r="E1355" t="inlineStr"/>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="inlineStr"/>
+      <c r="H1355" t="inlineStr"/>
+      <c r="I1355" t="inlineStr"/>
+      <c r="J1355" t="inlineStr"/>
+      <c r="K1355" t="inlineStr"/>
+      <c r="L1355" t="inlineStr"/>
+      <c r="M1355" t="inlineStr"/>
+      <c r="N1355" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr"/>
+      <c r="C1356" t="inlineStr"/>
+      <c r="D1356" t="inlineStr"/>
+      <c r="E1356" t="inlineStr"/>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="inlineStr"/>
+      <c r="H1356" t="inlineStr"/>
+      <c r="I1356" t="inlineStr"/>
+      <c r="J1356" t="inlineStr"/>
+      <c r="K1356" t="inlineStr"/>
+      <c r="L1356" t="inlineStr"/>
+      <c r="M1356" t="inlineStr"/>
+      <c r="N1356" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr"/>
+      <c r="C1357" t="inlineStr"/>
+      <c r="D1357" t="inlineStr"/>
+      <c r="E1357" t="inlineStr"/>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="inlineStr"/>
+      <c r="H1357" t="inlineStr"/>
+      <c r="I1357" t="inlineStr"/>
+      <c r="J1357" t="inlineStr"/>
+      <c r="K1357" t="inlineStr"/>
+      <c r="L1357" t="inlineStr"/>
+      <c r="M1357" t="inlineStr"/>
+      <c r="N1357" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr"/>
+      <c r="C1358" t="inlineStr"/>
+      <c r="D1358" t="inlineStr"/>
+      <c r="E1358" t="inlineStr"/>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="inlineStr"/>
+      <c r="H1358" t="inlineStr"/>
+      <c r="I1358" t="inlineStr"/>
+      <c r="J1358" t="inlineStr"/>
+      <c r="K1358" t="inlineStr"/>
+      <c r="L1358" t="inlineStr"/>
+      <c r="M1358" t="inlineStr"/>
+      <c r="N1358" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr"/>
+      <c r="C1359" t="inlineStr"/>
+      <c r="D1359" t="inlineStr"/>
+      <c r="E1359" t="inlineStr"/>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="inlineStr"/>
+      <c r="H1359" t="inlineStr"/>
+      <c r="I1359" t="inlineStr"/>
+      <c r="J1359" t="inlineStr"/>
+      <c r="K1359" t="inlineStr"/>
+      <c r="L1359" t="inlineStr"/>
+      <c r="M1359" t="inlineStr"/>
+      <c r="N1359" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr"/>
+      <c r="C1360" t="inlineStr"/>
+      <c r="D1360" t="inlineStr"/>
+      <c r="E1360" t="inlineStr"/>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="inlineStr"/>
+      <c r="H1360" t="inlineStr"/>
+      <c r="I1360" t="inlineStr"/>
+      <c r="J1360" t="inlineStr"/>
+      <c r="K1360" t="inlineStr"/>
+      <c r="L1360" t="inlineStr"/>
+      <c r="M1360" t="inlineStr"/>
+      <c r="N1360" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr"/>
+      <c r="C1361" t="inlineStr"/>
+      <c r="D1361" t="inlineStr"/>
+      <c r="E1361" t="inlineStr"/>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="inlineStr"/>
+      <c r="H1361" t="inlineStr"/>
+      <c r="I1361" t="inlineStr"/>
+      <c r="J1361" t="inlineStr"/>
+      <c r="K1361" t="inlineStr"/>
+      <c r="L1361" t="inlineStr"/>
+      <c r="M1361" t="inlineStr"/>
+      <c r="N1361" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr"/>
+      <c r="C1362" t="inlineStr"/>
+      <c r="D1362" t="inlineStr"/>
+      <c r="E1362" t="inlineStr"/>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="inlineStr"/>
+      <c r="H1362" t="inlineStr"/>
+      <c r="I1362" t="inlineStr"/>
+      <c r="J1362" t="inlineStr"/>
+      <c r="K1362" t="inlineStr"/>
+      <c r="L1362" t="inlineStr"/>
+      <c r="M1362" t="inlineStr"/>
+      <c r="N1362" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr"/>
+      <c r="C1363" t="inlineStr"/>
+      <c r="D1363" t="inlineStr"/>
+      <c r="E1363" t="inlineStr"/>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="inlineStr"/>
+      <c r="H1363" t="inlineStr"/>
+      <c r="I1363" t="inlineStr"/>
+      <c r="J1363" t="inlineStr"/>
+      <c r="K1363" t="inlineStr"/>
+      <c r="L1363" t="inlineStr"/>
+      <c r="M1363" t="inlineStr"/>
+      <c r="N1363" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr"/>
+      <c r="C1364" t="inlineStr"/>
+      <c r="D1364" t="inlineStr"/>
+      <c r="E1364" t="inlineStr"/>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="inlineStr"/>
+      <c r="H1364" t="inlineStr"/>
+      <c r="I1364" t="inlineStr"/>
+      <c r="J1364" t="inlineStr"/>
+      <c r="K1364" t="inlineStr"/>
+      <c r="L1364" t="inlineStr"/>
+      <c r="M1364" t="inlineStr"/>
+      <c r="N1364" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr"/>
+      <c r="C1365" t="inlineStr"/>
+      <c r="D1365" t="inlineStr"/>
+      <c r="E1365" t="inlineStr"/>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="inlineStr"/>
+      <c r="H1365" t="inlineStr"/>
+      <c r="I1365" t="inlineStr"/>
+      <c r="J1365" t="inlineStr"/>
+      <c r="K1365" t="inlineStr"/>
+      <c r="L1365" t="inlineStr"/>
+      <c r="M1365" t="inlineStr"/>
+      <c r="N1365" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr"/>
+      <c r="C1366" t="inlineStr"/>
+      <c r="D1366" t="inlineStr"/>
+      <c r="E1366" t="inlineStr"/>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="inlineStr"/>
+      <c r="H1366" t="inlineStr"/>
+      <c r="I1366" t="inlineStr"/>
+      <c r="J1366" t="inlineStr"/>
+      <c r="K1366" t="inlineStr"/>
+      <c r="L1366" t="inlineStr"/>
+      <c r="M1366" t="inlineStr"/>
+      <c r="N1366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr"/>
+      <c r="C1367" t="inlineStr"/>
+      <c r="D1367" t="inlineStr"/>
+      <c r="E1367" t="inlineStr"/>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="inlineStr"/>
+      <c r="H1367" t="inlineStr"/>
+      <c r="I1367" t="inlineStr"/>
+      <c r="J1367" t="inlineStr"/>
+      <c r="K1367" t="inlineStr"/>
+      <c r="L1367" t="inlineStr"/>
+      <c r="M1367" t="inlineStr"/>
+      <c r="N1367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
+      <c r="I1368" t="inlineStr"/>
+      <c r="J1368" t="inlineStr"/>
+      <c r="K1368" t="inlineStr"/>
+      <c r="L1368" t="inlineStr"/>
+      <c r="M1368" t="inlineStr"/>
+      <c r="N1368" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
+      <c r="I1369" t="inlineStr"/>
+      <c r="J1369" t="inlineStr"/>
+      <c r="K1369" t="inlineStr"/>
+      <c r="L1369" t="inlineStr"/>
+      <c r="M1369" t="inlineStr"/>
+      <c r="N1369" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
+      <c r="I1370" t="inlineStr"/>
+      <c r="J1370" t="inlineStr"/>
+      <c r="K1370" t="inlineStr"/>
+      <c r="L1370" t="inlineStr"/>
+      <c r="M1370" t="inlineStr"/>
+      <c r="N1370" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr"/>
+      <c r="C1371" t="inlineStr"/>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="inlineStr"/>
+      <c r="H1371" t="inlineStr"/>
+      <c r="I1371" t="inlineStr"/>
+      <c r="J1371" t="inlineStr"/>
+      <c r="K1371" t="inlineStr"/>
+      <c r="L1371" t="inlineStr"/>
+      <c r="M1371" t="inlineStr"/>
+      <c r="N1371" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
+      <c r="K1372" t="inlineStr"/>
+      <c r="L1372" t="inlineStr"/>
+      <c r="M1372" t="inlineStr"/>
+      <c r="N1372" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
+      <c r="K1373" t="inlineStr"/>
+      <c r="L1373" t="inlineStr"/>
+      <c r="M1373" t="inlineStr"/>
+      <c r="N1373" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
+      <c r="K1374" t="inlineStr"/>
+      <c r="L1374" t="inlineStr"/>
+      <c r="M1374" t="inlineStr"/>
+      <c r="N1374" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr"/>
+      <c r="C1375" t="inlineStr"/>
+      <c r="D1375" t="inlineStr"/>
+      <c r="E1375" t="inlineStr"/>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="inlineStr"/>
+      <c r="H1375" t="inlineStr"/>
+      <c r="I1375" t="inlineStr"/>
+      <c r="J1375" t="inlineStr"/>
+      <c r="K1375" t="inlineStr"/>
+      <c r="L1375" t="inlineStr"/>
+      <c r="M1375" t="inlineStr"/>
+      <c r="N1375" t="inlineStr">
+        <is>
+          <t>ENZYMES</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
+      <c r="K1376" t="inlineStr"/>
+      <c r="L1376" t="inlineStr"/>
+      <c r="M1376" t="inlineStr"/>
+      <c r="N1376" t="inlineStr">
+        <is>
+          <t>TUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
+      <c r="K1377" t="inlineStr"/>
+      <c r="L1377" t="inlineStr"/>
+      <c r="M1377" t="inlineStr"/>
+      <c r="N1377" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="1" t="inlineStr">
+        <is>
+          <t>num_graphs</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+      <c r="J1378" t="inlineStr"/>
+      <c r="K1378" t="inlineStr"/>
+      <c r="L1378" t="inlineStr"/>
+      <c r="M1378" t="inlineStr"/>
+      <c r="N1378" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="1" t="inlineStr">
+        <is>
+          <t>num_classes</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
+      <c r="K1379" t="inlineStr"/>
+      <c r="L1379" t="inlineStr"/>
+      <c r="M1379" t="inlineStr"/>
+      <c r="N1379" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="1" t="inlineStr">
+        <is>
+          <t>has_node_labels</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
+      <c r="K1380" t="inlineStr"/>
+      <c r="L1380" t="inlineStr"/>
+      <c r="M1380" t="inlineStr"/>
+      <c r="N1380" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="1" t="inlineStr">
+        <is>
+          <t>has_edge_labels</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
+      <c r="K1381" t="inlineStr"/>
+      <c r="L1381" t="inlineStr"/>
+      <c r="M1381" t="inlineStr"/>
+      <c r="N1381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="1" t="inlineStr">
+        <is>
+          <t>mean_nodes</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+      <c r="J1382" t="inlineStr"/>
+      <c r="K1382" t="inlineStr"/>
+      <c r="L1382" t="inlineStr"/>
+      <c r="M1382" t="inlineStr"/>
+      <c r="N1382" t="n">
+        <v>32.63333333333333</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="inlineStr">
+        <is>
+          <t>mean_edges</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
+      <c r="K1383" t="inlineStr"/>
+      <c r="L1383" t="inlineStr"/>
+      <c r="M1383" t="inlineStr"/>
+      <c r="N1383" t="n">
+        <v>62.13666666666666</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="1" t="inlineStr">
+        <is>
+          <t>label_distribution</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
+      <c r="K1384" t="inlineStr"/>
+      <c r="L1384" t="inlineStr"/>
+      <c r="M1384" t="inlineStr"/>
+      <c r="N1384" t="inlineStr">
+        <is>
+          <t>{1: 0.16666666666666666, 2: 0.16666666666666666, 3: 0.16666666666666666, 4: 0.16666666666666666, 5: 0.16666666666666666, 6: 0.16666666666666666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="1" t="inlineStr">
+        <is>
+          <t>node_labels</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
+      <c r="K1385" t="inlineStr"/>
+      <c r="L1385" t="inlineStr"/>
+      <c r="M1385" t="inlineStr"/>
+      <c r="N1385" t="inlineStr">
+        <is>
+          <t>['1', '2', '3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="1" t="inlineStr">
+        <is>
+          <t>edge_labels</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+      <c r="J1386" t="inlineStr"/>
+      <c r="K1386" t="inlineStr"/>
+      <c r="L1386" t="inlineStr"/>
+      <c r="M1386" t="inlineStr"/>
+      <c r="N1386" t="inlineStr">
+        <is>
+          <t>['None']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="1" t="inlineStr">
+        <is>
+          <t>node_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+      <c r="J1387" t="inlineStr"/>
+      <c r="K1387" t="inlineStr"/>
+      <c r="L1387" t="inlineStr"/>
+      <c r="M1387" t="inlineStr"/>
+      <c r="N1387" t="inlineStr">
+        <is>
+          <t>[9457 9665  458]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1" t="inlineStr">
+        <is>
+          <t>edge_histogram_mean</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+      <c r="J1388" t="inlineStr"/>
+      <c r="K1388" t="inlineStr"/>
+      <c r="L1388" t="inlineStr"/>
+      <c r="M1388" t="inlineStr"/>
+      <c r="N1388" t="inlineStr">
+        <is>
+          <t>[37282]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
